--- a/resources/template.xlsx
+++ b/resources/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfkain/Projects/360/Apps/dualpresenter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42255BDB-B708-E741-99E7-395E0D85C9C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180F0EF7-9DA2-2147-A552-EA982337BE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34140" windowHeight="20600" xr2:uid="{31235C52-23CF-6F4B-906D-2BCD49615FB2}"/>
   </bookViews>
@@ -36,6 +36,28 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="128">
   <si>
@@ -445,27 +467,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -482,26 +492,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -513,6 +520,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -532,17 +545,17 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+          <bgColor rgb="FFCAD2D8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="3" tint="9.9948118533890809E-2"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
@@ -552,21 +565,23 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="9" tint="-0.499984740745262"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <fgColor rgb="FF6E684F"/>
+          <bgColor rgb="FFF1F2DA"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="9" tint="-0.499984740745262"/>
+        <color auto="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
+          <fgColor rgb="FF6E684F"/>
+          <bgColor rgb="FFF1F2DA"/>
         </patternFill>
       </fill>
     </dxf>
@@ -583,21 +598,31 @@
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="2"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="2"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -731,6 +756,16 @@
       <tableStyleElement type="secondColumnStripe" dxfId="16"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FF6E684F"/>
+      <color rgb="FFF1F2DA"/>
+      <color rgb="FFCEF3E1"/>
+      <color rgb="FFCFF3E9"/>
+      <color rgb="FFCAD2D8"/>
+      <color rgb="FFD8D9E1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1092,784 +1127,3656 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55B849-D7B1-2246-A786-6A6435A95436}">
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:BE334"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D54" sqref="D54"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10" style="9" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="54.1640625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="54.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.5" style="7" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
     <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="I1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="6"/>
       <c r="I2"/>
-    </row>
-    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
+      <c r="Z2" t="str" cm="1">
+        <f t="array" ref="Z2">IF(D2="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D2)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:38" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="6"/>
       <c r="I3"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="9" t="s">
+      <c r="Z3" t="str" cm="1">
+        <f t="array" ref="Z3">IF(D3="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D3)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="5"/>
+      <c r="H4" s="6"/>
       <c r="I4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
+      <c r="Z4" t="str" cm="1">
+        <f t="array" ref="Z4">IF(D4="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D4)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="D5" s="6" t="s">
+      <c r="B5" s="2"/>
+      <c r="D5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="9" t="s">
+      <c r="Z5" t="str" cm="1">
+        <f t="array" ref="Z5:AA5">IF(D5="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D5)))</f>
+        <v>Κόλλιας Σωτήριος</v>
+      </c>
+      <c r="AA5" t="str">
+        <v xml:space="preserve">Κριεκούκης Παναγιώτης </v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="B6" s="2"/>
+      <c r="H6" s="6"/>
+      <c r="Z6" t="str" cm="1">
+        <f t="array" ref="Z6">IF(D6="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D6)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
+      <c r="H7" s="6"/>
+      <c r="Z7" t="str" cm="1">
+        <f t="array" ref="Z7">IF(D7="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D7)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="2"/>
+      <c r="D8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="Z8" t="str" cm="1">
+        <f t="array" ref="Z8">IF(D8="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D8)))</f>
+        <v>Χοτζάι Ορνέλα</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="9" t="s">
+      <c r="H9" s="6"/>
+      <c r="Z9" t="str" cm="1">
+        <f t="array" ref="Z9">IF(D9="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D9)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="H10" s="5"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="2"/>
+      <c r="H10" s="6"/>
+      <c r="Z10" t="str" cm="1">
+        <f t="array" ref="Z10">IF(D10="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D10)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="9" t="s">
+      <c r="H11" s="6"/>
+      <c r="Z11" t="str" cm="1">
+        <f t="array" ref="Z11">IF(D11="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D11)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+      <c r="H12" s="6"/>
+      <c r="Z12" t="str" cm="1">
+        <f t="array" ref="Z12">IF(D12="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D12)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="D13" s="6" t="s">
+      <c r="B13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="5"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+      <c r="H13" s="6"/>
+      <c r="Z13" t="str" cm="1">
+        <f t="array" ref="Z13:AL13">IF(D13="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D13)))</f>
+        <v>Βλασσοπούλου Μιχαέλα</v>
+      </c>
+      <c r="AA13" t="str">
+        <v>Γκέλη Δέσποινα</v>
+      </c>
+      <c r="AB13" t="str">
+        <v>Δομπρογιάννη Ελένη - Ιωάννα</v>
+      </c>
+      <c r="AC13" t="str">
+        <v xml:space="preserve">Λιάκου Αθανασία - Ιωάννα </v>
+      </c>
+      <c r="AD13" t="str">
+        <v>Λούκας Χρήστος</v>
+      </c>
+      <c r="AE13" t="str">
+        <v xml:space="preserve">Μιχαήλου Αικατερίνη </v>
+      </c>
+      <c r="AF13" t="str">
+        <v>Μπόβαλης Ευάγγελος - Μάριος</v>
+      </c>
+      <c r="AG13" t="str">
+        <v>Παπαθανασίου Δημήτριος</v>
+      </c>
+      <c r="AH13" t="str">
+        <v>Πετρόγιαννος Ευάγγελος</v>
+      </c>
+      <c r="AI13" t="str">
+        <v>Πισσάνη Σωτηρία</v>
+      </c>
+      <c r="AJ13" t="str">
+        <v>Τριανταφύλλου Αγγελική - Παρασκευή</v>
+      </c>
+      <c r="AK13" t="str">
+        <v>Φουρτουλάκης Ιωάννης</v>
+      </c>
+      <c r="AL13" t="str">
+        <v>Ψάλτης Γεώργιος</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="H14" s="5"/>
-    </row>
-    <row r="15" spans="1:9" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="B14" s="2"/>
+      <c r="H14" s="6"/>
+      <c r="Z14" t="str" cm="1">
+        <f t="array" ref="Z14">IF(D14="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D14)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:38" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="H15" s="6"/>
+      <c r="Z15" t="str" cm="1">
+        <f t="array" ref="Z15">IF(D15="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D15)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="6" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
+      <c r="H16" s="6"/>
+      <c r="Z16" t="str" cm="1">
+        <f t="array" ref="Z16:AL16">IF(D16="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D16)))</f>
+        <v>Βλασσοπούλου Μιχαέλα</v>
+      </c>
+      <c r="AA16" t="str">
+        <v>Γκέλη Δέσποινα</v>
+      </c>
+      <c r="AB16" t="str">
+        <v>Δομπρογιάννη Ελένη - Ιωάννα</v>
+      </c>
+      <c r="AC16" t="str">
+        <v xml:space="preserve">Λιάκου Αθανασία - Ιωάννα </v>
+      </c>
+      <c r="AD16" t="str">
+        <v>Λούκας Χρήστος</v>
+      </c>
+      <c r="AE16" t="str">
+        <v xml:space="preserve">Μιχαήλου Αικατερίνη </v>
+      </c>
+      <c r="AF16" t="str">
+        <v>Μπόβαλης Ευάγγελος - Μάριος</v>
+      </c>
+      <c r="AG16" t="str">
+        <v>Παπαθανασίου Δημήτριος</v>
+      </c>
+      <c r="AH16" t="str">
+        <v>Πετρόγιαννος Ευάγγελος</v>
+      </c>
+      <c r="AI16" t="str">
+        <v>Πισσάνη Σωτηρία</v>
+      </c>
+      <c r="AJ16" t="str">
+        <v>Τριανταφύλλου Αγγελική - Παρασκευή</v>
+      </c>
+      <c r="AK16" t="str">
+        <v>Φουρτουλάκης Ιωάννης</v>
+      </c>
+      <c r="AL16" t="str">
+        <v>Ψάλτης Γεώργιος</v>
+      </c>
+    </row>
+    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="8"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="9" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+      <c r="H17" s="6"/>
+      <c r="Z17" t="str" cm="1">
+        <f t="array" ref="Z17">IF(D17="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D17)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:49" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
+      <c r="H18" s="6"/>
+      <c r="Z18" t="str" cm="1">
+        <f t="array" ref="Z18">IF(D18="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D18)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="6" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="H19" s="6"/>
+      <c r="Z19" t="str" cm="1">
+        <f t="array" ref="Z19:AL19">IF(D19="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D19))))</f>
+        <v>Βλασσοπούλου Μιχαέλα</v>
+      </c>
+      <c r="AA19" t="str">
+        <v>Γκέλη Δέσποινα</v>
+      </c>
+      <c r="AB19" t="str">
+        <v>Δομπρογιάννη Ελένη - Ιωάννα</v>
+      </c>
+      <c r="AC19" t="str">
+        <v xml:space="preserve">Λιάκου Αθανασία - Ιωάννα </v>
+      </c>
+      <c r="AD19" t="str">
+        <v>Λούκας Χρήστος</v>
+      </c>
+      <c r="AE19" t="str">
+        <v xml:space="preserve">Μιχαήλου Αικατερίνη </v>
+      </c>
+      <c r="AF19" t="str">
+        <v>Μπόβαλης Ευάγγελος - Μάριος</v>
+      </c>
+      <c r="AG19" t="str">
+        <v>Παπαθανασίου Δημήτριος</v>
+      </c>
+      <c r="AH19" t="str">
+        <v>Πετρόγιαννος Ευάγγελος</v>
+      </c>
+      <c r="AI19" t="str">
+        <v>Πισσάνη Σωτηρία</v>
+      </c>
+      <c r="AJ19" t="str">
+        <v>Τριανταφύλλου Αγγελική - Παρασκευή</v>
+      </c>
+      <c r="AK19" t="str">
+        <v>Φουρτουλάκης Ιωάννης</v>
+      </c>
+      <c r="AL19" t="str">
+        <v>Ψάλτης Γεώργιος</v>
+      </c>
+    </row>
+    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="8"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+      <c r="H20" s="6"/>
+      <c r="Z20" t="str" cm="1">
+        <f t="array" ref="Z20">IF(D20="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D20))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="9" t="s">
+      <c r="C21" s="4"/>
+      <c r="H21" s="6"/>
+      <c r="Z21" t="str" cm="1">
+        <f t="array" ref="Z21">IF(D21="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D21))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:49" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
+      <c r="H22" s="6"/>
+      <c r="Z22" t="str" cm="1">
+        <f t="array" ref="Z22">IF(D22="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D22))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="6" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
+      <c r="H23" s="6"/>
+      <c r="Z23" t="str" cm="1">
+        <f t="array" ref="Z23:AW23">IF(D23="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D23))))</f>
+        <v>Αγοράκη Ολυμπία</v>
+      </c>
+      <c r="AA23" t="str">
+        <v>Αλτόγλου Θεόδωρος</v>
+      </c>
+      <c r="AB23" t="str">
+        <v>Ανανιάδης Θεόδωρος</v>
+      </c>
+      <c r="AC23" t="str">
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
+      </c>
+      <c r="AD23" t="str">
+        <v>Γκίκα Μαρίνα</v>
+      </c>
+      <c r="AE23" t="str">
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
+      </c>
+      <c r="AF23" t="str">
+        <v>Δουμένης Νικόλαος</v>
+      </c>
+      <c r="AG23" t="str">
+        <v>Ιωαννίδη Λυδία</v>
+      </c>
+      <c r="AH23" t="str">
+        <v>Κατσαμάγκος Σταύρος</v>
+      </c>
+      <c r="AI23" t="str">
+        <v>Καύκας Ανδρέας</v>
+      </c>
+      <c r="AJ23" t="str">
+        <v>Μιχάλαρος Δημήτριος</v>
+      </c>
+      <c r="AK23" t="str">
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+      </c>
+      <c r="AL23" t="str">
+        <v>Μουσκάι Λορένα</v>
+      </c>
+      <c r="AM23" t="str">
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
+      </c>
+      <c r="AN23" t="str">
+        <v>Μουστάκα Κωνσταντίνα</v>
+      </c>
+      <c r="AO23" t="str">
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
+      </c>
+      <c r="AP23" t="str">
+        <v>Παπαδόπουλος Αναστάσιος</v>
+      </c>
+      <c r="AQ23" t="str">
+        <v>Παπακωνσταντίνου Σωτήριος</v>
+      </c>
+      <c r="AR23" t="str">
+        <v>Παπαλουκά Ελένη</v>
+      </c>
+      <c r="AS23" t="str">
+        <v>Πετροπούλου Βασιλική</v>
+      </c>
+      <c r="AT23" t="str">
+        <v>Τασιούλης Πολύκαρπος</v>
+      </c>
+      <c r="AU23" t="str">
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
+      </c>
+      <c r="AV23" t="str">
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AW23" t="str">
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+      </c>
+    </row>
+    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="8"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+      <c r="H24" s="6"/>
+      <c r="Z24" t="str" cm="1">
+        <f t="array" ref="Z24">IF(D24="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D24))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:49" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
+      <c r="H25" s="6"/>
+      <c r="Z25" t="str" cm="1">
+        <f t="array" ref="Z25">IF(D25="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D25))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E26" s="6" t="s">
+      <c r="E26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="H26" s="6"/>
+      <c r="Z26" t="str" cm="1">
+        <f t="array" ref="Z26:AW26">IF(D26="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D26))))</f>
+        <v>Αγοράκη Ολυμπία</v>
+      </c>
+      <c r="AA26" t="str">
+        <v>Αλτόγλου Θεόδωρος</v>
+      </c>
+      <c r="AB26" t="str">
+        <v>Ανανιάδης Θεόδωρος</v>
+      </c>
+      <c r="AC26" t="str">
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
+      </c>
+      <c r="AD26" t="str">
+        <v>Γκίκα Μαρίνα</v>
+      </c>
+      <c r="AE26" t="str">
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
+      </c>
+      <c r="AF26" t="str">
+        <v>Δουμένης Νικόλαος</v>
+      </c>
+      <c r="AG26" t="str">
+        <v>Ιωαννίδη Λυδία</v>
+      </c>
+      <c r="AH26" t="str">
+        <v>Κατσαμάγκος Σταύρος</v>
+      </c>
+      <c r="AI26" t="str">
+        <v>Καύκας Ανδρέας</v>
+      </c>
+      <c r="AJ26" t="str">
+        <v>Μιχάλαρος Δημήτριος</v>
+      </c>
+      <c r="AK26" t="str">
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+      </c>
+      <c r="AL26" t="str">
+        <v>Μουσκάι Λορένα</v>
+      </c>
+      <c r="AM26" t="str">
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
+      </c>
+      <c r="AN26" t="str">
+        <v>Μουστάκα Κωνσταντίνα</v>
+      </c>
+      <c r="AO26" t="str">
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
+      </c>
+      <c r="AP26" t="str">
+        <v>Παπαδόπουλος Αναστάσιος</v>
+      </c>
+      <c r="AQ26" t="str">
+        <v>Παπακωνσταντίνου Σωτήριος</v>
+      </c>
+      <c r="AR26" t="str">
+        <v>Παπαλουκά Ελένη</v>
+      </c>
+      <c r="AS26" t="str">
+        <v>Πετροπούλου Βασιλική</v>
+      </c>
+      <c r="AT26" t="str">
+        <v>Τασιούλης Πολύκαρπος</v>
+      </c>
+      <c r="AU26" t="str">
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
+      </c>
+      <c r="AV26" t="str">
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AW26" t="str">
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+      </c>
+    </row>
+    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="6"/>
-      <c r="C27" s="8"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="4"/>
+      <c r="H27" s="6"/>
+      <c r="Z27" t="str" cm="1">
+        <f t="array" ref="Z27">IF(D27="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D27))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:49" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="H28" s="6"/>
+      <c r="Z28" t="str" cm="1">
+        <f t="array" ref="Z28">IF(D28="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D28))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A29" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="6" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="H29" s="6"/>
+      <c r="Z29" t="str" cm="1">
+        <f t="array" ref="Z29:AW29">IF(D29="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D29))))</f>
+        <v>Αγοράκη Ολυμπία</v>
+      </c>
+      <c r="AA29" t="str">
+        <v>Αλτόγλου Θεόδωρος</v>
+      </c>
+      <c r="AB29" t="str">
+        <v>Ανανιάδης Θεόδωρος</v>
+      </c>
+      <c r="AC29" t="str">
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
+      </c>
+      <c r="AD29" t="str">
+        <v>Γκίκα Μαρίνα</v>
+      </c>
+      <c r="AE29" t="str">
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
+      </c>
+      <c r="AF29" t="str">
+        <v>Δουμένης Νικόλαος</v>
+      </c>
+      <c r="AG29" t="str">
+        <v>Ιωαννίδη Λυδία</v>
+      </c>
+      <c r="AH29" t="str">
+        <v>Κατσαμάγκος Σταύρος</v>
+      </c>
+      <c r="AI29" t="str">
+        <v>Καύκας Ανδρέας</v>
+      </c>
+      <c r="AJ29" t="str">
+        <v>Μιχάλαρος Δημήτριος</v>
+      </c>
+      <c r="AK29" t="str">
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+      </c>
+      <c r="AL29" t="str">
+        <v>Μουσκάι Λορένα</v>
+      </c>
+      <c r="AM29" t="str">
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
+      </c>
+      <c r="AN29" t="str">
+        <v>Μουστάκα Κωνσταντίνα</v>
+      </c>
+      <c r="AO29" t="str">
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
+      </c>
+      <c r="AP29" t="str">
+        <v>Παπαδόπουλος Αναστάσιος</v>
+      </c>
+      <c r="AQ29" t="str">
+        <v>Παπακωνσταντίνου Σωτήριος</v>
+      </c>
+      <c r="AR29" t="str">
+        <v>Παπαλουκά Ελένη</v>
+      </c>
+      <c r="AS29" t="str">
+        <v>Πετροπούλου Βασιλική</v>
+      </c>
+      <c r="AT29" t="str">
+        <v>Τασιούλης Πολύκαρπος</v>
+      </c>
+      <c r="AU29" t="str">
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
+      </c>
+      <c r="AV29" t="str">
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AW29" t="str">
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+      </c>
+    </row>
+    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="6"/>
-      <c r="C30" s="8"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="4"/>
+      <c r="H30" s="6"/>
+      <c r="Z30" t="str" cm="1">
+        <f t="array" ref="Z30">IF(D30="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D30))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:49" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="H31" s="6"/>
+      <c r="Z31" t="str" cm="1">
+        <f t="array" ref="Z31">IF(D31="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D31))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="6" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E32" s="6" t="s">
+      <c r="E32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="H32" s="6"/>
+      <c r="Z32" t="str" cm="1">
+        <f t="array" ref="Z32:AW32">IF(D32="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D32))))</f>
+        <v>Αγοράκη Ολυμπία</v>
+      </c>
+      <c r="AA32" t="str">
+        <v>Αλτόγλου Θεόδωρος</v>
+      </c>
+      <c r="AB32" t="str">
+        <v>Ανανιάδης Θεόδωρος</v>
+      </c>
+      <c r="AC32" t="str">
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
+      </c>
+      <c r="AD32" t="str">
+        <v>Γκίκα Μαρίνα</v>
+      </c>
+      <c r="AE32" t="str">
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
+      </c>
+      <c r="AF32" t="str">
+        <v>Δουμένης Νικόλαος</v>
+      </c>
+      <c r="AG32" t="str">
+        <v>Ιωαννίδη Λυδία</v>
+      </c>
+      <c r="AH32" t="str">
+        <v>Κατσαμάγκος Σταύρος</v>
+      </c>
+      <c r="AI32" t="str">
+        <v>Καύκας Ανδρέας</v>
+      </c>
+      <c r="AJ32" t="str">
+        <v>Μιχάλαρος Δημήτριος</v>
+      </c>
+      <c r="AK32" t="str">
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+      </c>
+      <c r="AL32" t="str">
+        <v>Μουσκάι Λορένα</v>
+      </c>
+      <c r="AM32" t="str">
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
+      </c>
+      <c r="AN32" t="str">
+        <v>Μουστάκα Κωνσταντίνα</v>
+      </c>
+      <c r="AO32" t="str">
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
+      </c>
+      <c r="AP32" t="str">
+        <v>Παπαδόπουλος Αναστάσιος</v>
+      </c>
+      <c r="AQ32" t="str">
+        <v>Παπακωνσταντίνου Σωτήριος</v>
+      </c>
+      <c r="AR32" t="str">
+        <v>Παπαλουκά Ελένη</v>
+      </c>
+      <c r="AS32" t="str">
+        <v>Πετροπούλου Βασιλική</v>
+      </c>
+      <c r="AT32" t="str">
+        <v>Τασιούλης Πολύκαρπος</v>
+      </c>
+      <c r="AU32" t="str">
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
+      </c>
+      <c r="AV32" t="str">
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AW32" t="str">
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+      </c>
+    </row>
+    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A33" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="8"/>
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="B33" s="2"/>
+      <c r="C33" s="4"/>
+      <c r="H33" s="6"/>
+      <c r="Z33" t="str" cm="1">
+        <f t="array" ref="Z33">IF(D33="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D33))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
+      <c r="H34" s="6"/>
+      <c r="Z34" t="str" cm="1">
+        <f t="array" ref="Z34">IF(D34="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D34))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="6" t="s">
+      <c r="B35" s="2"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E35" s="6" t="s">
+      <c r="E35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="H35" s="6"/>
+      <c r="Z35" t="str" cm="1">
+        <f t="array" ref="Z35:AW35">IF(D35="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D35))))</f>
+        <v>Αγοράκη Ολυμπία</v>
+      </c>
+      <c r="AA35" t="str">
+        <v>Αλτόγλου Θεόδωρος</v>
+      </c>
+      <c r="AB35" t="str">
+        <v>Ανανιάδης Θεόδωρος</v>
+      </c>
+      <c r="AC35" t="str">
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
+      </c>
+      <c r="AD35" t="str">
+        <v>Γκίκα Μαρίνα</v>
+      </c>
+      <c r="AE35" t="str">
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
+      </c>
+      <c r="AF35" t="str">
+        <v>Δουμένης Νικόλαος</v>
+      </c>
+      <c r="AG35" t="str">
+        <v>Ιωαννίδη Λυδία</v>
+      </c>
+      <c r="AH35" t="str">
+        <v>Κατσαμάγκος Σταύρος</v>
+      </c>
+      <c r="AI35" t="str">
+        <v>Καύκας Ανδρέας</v>
+      </c>
+      <c r="AJ35" t="str">
+        <v>Μιχάλαρος Δημήτριος</v>
+      </c>
+      <c r="AK35" t="str">
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+      </c>
+      <c r="AL35" t="str">
+        <v>Μουσκάι Λορένα</v>
+      </c>
+      <c r="AM35" t="str">
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
+      </c>
+      <c r="AN35" t="str">
+        <v>Μουστάκα Κωνσταντίνα</v>
+      </c>
+      <c r="AO35" t="str">
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
+      </c>
+      <c r="AP35" t="str">
+        <v>Παπαδόπουλος Αναστάσιος</v>
+      </c>
+      <c r="AQ35" t="str">
+        <v>Παπακωνσταντίνου Σωτήριος</v>
+      </c>
+      <c r="AR35" t="str">
+        <v>Παπαλουκά Ελένη</v>
+      </c>
+      <c r="AS35" t="str">
+        <v>Πετροπούλου Βασιλική</v>
+      </c>
+      <c r="AT35" t="str">
+        <v>Τασιούλης Πολύκαρπος</v>
+      </c>
+      <c r="AU35" t="str">
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
+      </c>
+      <c r="AV35" t="str">
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AW35" t="str">
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+      </c>
+    </row>
+    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A36" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B36" s="6"/>
-      <c r="C36" s="8"/>
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="B36" s="2"/>
+      <c r="C36" s="4"/>
+      <c r="H36" s="6"/>
+      <c r="Z36" t="str" cm="1">
+        <f t="array" ref="Z36">IF(D36="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D36))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
+      <c r="H37" s="6"/>
+      <c r="Z37" t="str" cm="1">
+        <f t="array" ref="Z37">IF(D37="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D37))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="6" t="s">
+      <c r="B38" s="2"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="6" t="s">
+      <c r="E38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="9" t="s">
+      <c r="H38" s="6"/>
+      <c r="Z38" t="str" cm="1">
+        <f t="array" ref="Z38:AW38">IF(D38="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D38))))</f>
+        <v>Αγοράκη Ολυμπία</v>
+      </c>
+      <c r="AA38" t="str">
+        <v>Αλτόγλου Θεόδωρος</v>
+      </c>
+      <c r="AB38" t="str">
+        <v>Ανανιάδης Θεόδωρος</v>
+      </c>
+      <c r="AC38" t="str">
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
+      </c>
+      <c r="AD38" t="str">
+        <v>Γκίκα Μαρίνα</v>
+      </c>
+      <c r="AE38" t="str">
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
+      </c>
+      <c r="AF38" t="str">
+        <v>Δουμένης Νικόλαος</v>
+      </c>
+      <c r="AG38" t="str">
+        <v>Ιωαννίδη Λυδία</v>
+      </c>
+      <c r="AH38" t="str">
+        <v>Κατσαμάγκος Σταύρος</v>
+      </c>
+      <c r="AI38" t="str">
+        <v>Καύκας Ανδρέας</v>
+      </c>
+      <c r="AJ38" t="str">
+        <v>Μιχάλαρος Δημήτριος</v>
+      </c>
+      <c r="AK38" t="str">
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+      </c>
+      <c r="AL38" t="str">
+        <v>Μουσκάι Λορένα</v>
+      </c>
+      <c r="AM38" t="str">
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
+      </c>
+      <c r="AN38" t="str">
+        <v>Μουστάκα Κωνσταντίνα</v>
+      </c>
+      <c r="AO38" t="str">
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
+      </c>
+      <c r="AP38" t="str">
+        <v>Παπαδόπουλος Αναστάσιος</v>
+      </c>
+      <c r="AQ38" t="str">
+        <v>Παπακωνσταντίνου Σωτήριος</v>
+      </c>
+      <c r="AR38" t="str">
+        <v>Παπαλουκά Ελένη</v>
+      </c>
+      <c r="AS38" t="str">
+        <v>Πετροπούλου Βασιλική</v>
+      </c>
+      <c r="AT38" t="str">
+        <v>Τασιούλης Πολύκαρπος</v>
+      </c>
+      <c r="AU38" t="str">
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
+      </c>
+      <c r="AV38" t="str">
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AW38" t="str">
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+      </c>
+    </row>
+    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B39" s="6"/>
-      <c r="C39" s="8"/>
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="B39" s="2"/>
+      <c r="C39" s="4"/>
+      <c r="H39" s="6"/>
+      <c r="Z39" t="str" cm="1">
+        <f t="array" ref="Z39">IF(D39="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D39))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A40" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="8"/>
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="C40" s="4"/>
+      <c r="H40" s="6"/>
+      <c r="Z40" t="str" cm="1">
+        <f t="array" ref="Z40">IF(D40="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D40))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="9" t="s">
+      <c r="H41" s="6"/>
+      <c r="Z41" t="str" cm="1">
+        <f t="array" ref="Z41">IF(D41="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D41))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="6" t="s">
+      <c r="B42" s="2"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="9" t="s">
+      <c r="H42" s="6"/>
+      <c r="Z42" t="str" cm="1">
+        <f t="array" ref="Z42:BE42">IF(D42="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D42))))</f>
+        <v>Δούκα Αναστασία - Ζωή</v>
+      </c>
+      <c r="AA42" t="str">
+        <v>Θεοδώρου Βασιλική</v>
+      </c>
+      <c r="AB42" t="str">
+        <v>Καλλιγέρη Χάρις</v>
+      </c>
+      <c r="AC42" t="str">
+        <v>Κεφαλοπούλου Κανέλλα</v>
+      </c>
+      <c r="AD42" t="str">
+        <v>Κιμιγκέλη Ορσαλία</v>
+      </c>
+      <c r="AE42" t="str">
+        <v>Κόλα Κριστιάνα</v>
+      </c>
+      <c r="AF42" t="str">
+        <v>Κόττα Δέσποινα</v>
+      </c>
+      <c r="AG42" t="str">
+        <v>Λαμπριανίδης Ιάσων</v>
+      </c>
+      <c r="AH42" t="str">
+        <v>Μανώλακας Βασίλειος</v>
+      </c>
+      <c r="AI42" t="str">
+        <v>Μαργέτη Ευαγγελία</v>
+      </c>
+      <c r="AJ42" t="str">
+        <v>Μαρούγκα Φωτεινή</v>
+      </c>
+      <c r="AK42" t="str">
+        <v>Μιχαλόπουλος Σπυρίδωνας</v>
+      </c>
+      <c r="AL42" t="str">
+        <v>Μουρτζούκος Δημήτριος</v>
+      </c>
+      <c r="AM42" t="str">
+        <v>Μπούρας Ναπολέων</v>
+      </c>
+      <c r="AN42" t="str">
+        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
+      </c>
+      <c r="AO42" t="str">
+        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
+      </c>
+      <c r="AP42" t="str">
+        <v xml:space="preserve">Πανταζή Μαρία </v>
+      </c>
+      <c r="AQ42" t="str">
+        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
+      </c>
+      <c r="AR42" t="str">
+        <v>Παπανδρέου Σωτηρία</v>
+      </c>
+      <c r="AS42" t="str">
+        <v>Παυλίδη Ιωάννα</v>
+      </c>
+      <c r="AT42" t="str">
+        <v>Πετρόγιαννος Γεώργιος</v>
+      </c>
+      <c r="AU42" t="str">
+        <v>Πολίτη Γεωργία</v>
+      </c>
+      <c r="AV42" t="str">
+        <v>Ρούτη Μαργαρίτα</v>
+      </c>
+      <c r="AW42" t="str">
+        <v>Σαριπανίδου Χρυσούλα</v>
+      </c>
+      <c r="AX42" t="str">
+        <v>Σίνγκ Ανμόλ</v>
+      </c>
+      <c r="AY42" t="str">
+        <v>Σύριος Νικόλαος</v>
+      </c>
+      <c r="AZ42" t="str">
+        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
+      </c>
+      <c r="BA42" t="str">
+        <v>Τσεκούρα Αγγελική</v>
+      </c>
+      <c r="BB42" t="str">
+        <v>Τσουκαλάς Γεώργιος</v>
+      </c>
+      <c r="BC42" t="str">
+        <v>Φίλης Νικόλαος</v>
+      </c>
+      <c r="BD42" t="str">
+        <v>Χατζόγλου Δημήτριος</v>
+      </c>
+      <c r="BE42" t="str">
+        <v>Χριστοφής Ναπολέων</v>
+      </c>
+    </row>
+    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A43" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="8"/>
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="9" t="s">
+      <c r="B43" s="2"/>
+      <c r="C43" s="4"/>
+      <c r="H43" s="6"/>
+      <c r="Z43" t="str" cm="1">
+        <f t="array" ref="Z43">IF(D43="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D43))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="9" t="s">
+      <c r="H44" s="6"/>
+      <c r="Z44" t="str" cm="1">
+        <f t="array" ref="Z44">IF(D44="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D44))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A45" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B45" s="6"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="6" t="s">
+      <c r="B45" s="2"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="9" t="s">
+      <c r="H45" s="6"/>
+      <c r="Z45" t="str" cm="1">
+        <f t="array" ref="Z45:BE45">IF(D45="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D45))))</f>
+        <v>Δούκα Αναστασία - Ζωή</v>
+      </c>
+      <c r="AA45" t="str">
+        <v>Θεοδώρου Βασιλική</v>
+      </c>
+      <c r="AB45" t="str">
+        <v>Καλλιγέρη Χάρις</v>
+      </c>
+      <c r="AC45" t="str">
+        <v>Κεφαλοπούλου Κανέλλα</v>
+      </c>
+      <c r="AD45" t="str">
+        <v>Κιμιγκέλη Ορσαλία</v>
+      </c>
+      <c r="AE45" t="str">
+        <v>Κόλα Κριστιάνα</v>
+      </c>
+      <c r="AF45" t="str">
+        <v>Κόττα Δέσποινα</v>
+      </c>
+      <c r="AG45" t="str">
+        <v>Λαμπριανίδης Ιάσων</v>
+      </c>
+      <c r="AH45" t="str">
+        <v>Μανώλακας Βασίλειος</v>
+      </c>
+      <c r="AI45" t="str">
+        <v>Μαργέτη Ευαγγελία</v>
+      </c>
+      <c r="AJ45" t="str">
+        <v>Μαρούγκα Φωτεινή</v>
+      </c>
+      <c r="AK45" t="str">
+        <v>Μιχαλόπουλος Σπυρίδωνας</v>
+      </c>
+      <c r="AL45" t="str">
+        <v>Μουρτζούκος Δημήτριος</v>
+      </c>
+      <c r="AM45" t="str">
+        <v>Μπούρας Ναπολέων</v>
+      </c>
+      <c r="AN45" t="str">
+        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
+      </c>
+      <c r="AO45" t="str">
+        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
+      </c>
+      <c r="AP45" t="str">
+        <v xml:space="preserve">Πανταζή Μαρία </v>
+      </c>
+      <c r="AQ45" t="str">
+        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
+      </c>
+      <c r="AR45" t="str">
+        <v>Παπανδρέου Σωτηρία</v>
+      </c>
+      <c r="AS45" t="str">
+        <v>Παυλίδη Ιωάννα</v>
+      </c>
+      <c r="AT45" t="str">
+        <v>Πετρόγιαννος Γεώργιος</v>
+      </c>
+      <c r="AU45" t="str">
+        <v>Πολίτη Γεωργία</v>
+      </c>
+      <c r="AV45" t="str">
+        <v>Ρούτη Μαργαρίτα</v>
+      </c>
+      <c r="AW45" t="str">
+        <v>Σαριπανίδου Χρυσούλα</v>
+      </c>
+      <c r="AX45" t="str">
+        <v>Σίνγκ Ανμόλ</v>
+      </c>
+      <c r="AY45" t="str">
+        <v>Σύριος Νικόλαος</v>
+      </c>
+      <c r="AZ45" t="str">
+        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
+      </c>
+      <c r="BA45" t="str">
+        <v>Τσεκούρα Αγγελική</v>
+      </c>
+      <c r="BB45" t="str">
+        <v>Τσουκαλάς Γεώργιος</v>
+      </c>
+      <c r="BC45" t="str">
+        <v>Φίλης Νικόλαος</v>
+      </c>
+      <c r="BD45" t="str">
+        <v>Χατζόγλου Δημήτριος</v>
+      </c>
+      <c r="BE45" t="str">
+        <v>Χριστοφής Ναπολέων</v>
+      </c>
+    </row>
+    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="8"/>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="B46" s="2"/>
+      <c r="C46" s="4"/>
+      <c r="H46" s="6"/>
+      <c r="Z46" t="str" cm="1">
+        <f t="array" ref="Z46">IF(D46="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D46))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:57" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="9" t="s">
+      <c r="H47" s="6"/>
+      <c r="Z47" t="str" cm="1">
+        <f t="array" ref="Z47">IF(D47="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D47))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A48" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="6" t="s">
+      <c r="B48" s="2"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E48" s="6" t="s">
+      <c r="E48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="9" t="s">
+      <c r="H48" s="6"/>
+      <c r="Z48" t="str" cm="1">
+        <f t="array" ref="Z48:BE48">IF(D48="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D48))))</f>
+        <v>Δούκα Αναστασία - Ζωή</v>
+      </c>
+      <c r="AA48" t="str">
+        <v>Θεοδώρου Βασιλική</v>
+      </c>
+      <c r="AB48" t="str">
+        <v>Καλλιγέρη Χάρις</v>
+      </c>
+      <c r="AC48" t="str">
+        <v>Κεφαλοπούλου Κανέλλα</v>
+      </c>
+      <c r="AD48" t="str">
+        <v>Κιμιγκέλη Ορσαλία</v>
+      </c>
+      <c r="AE48" t="str">
+        <v>Κόλα Κριστιάνα</v>
+      </c>
+      <c r="AF48" t="str">
+        <v>Κόττα Δέσποινα</v>
+      </c>
+      <c r="AG48" t="str">
+        <v>Λαμπριανίδης Ιάσων</v>
+      </c>
+      <c r="AH48" t="str">
+        <v>Μανώλακας Βασίλειος</v>
+      </c>
+      <c r="AI48" t="str">
+        <v>Μαργέτη Ευαγγελία</v>
+      </c>
+      <c r="AJ48" t="str">
+        <v>Μαρούγκα Φωτεινή</v>
+      </c>
+      <c r="AK48" t="str">
+        <v>Μιχαλόπουλος Σπυρίδωνας</v>
+      </c>
+      <c r="AL48" t="str">
+        <v>Μουρτζούκος Δημήτριος</v>
+      </c>
+      <c r="AM48" t="str">
+        <v>Μπούρας Ναπολέων</v>
+      </c>
+      <c r="AN48" t="str">
+        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
+      </c>
+      <c r="AO48" t="str">
+        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
+      </c>
+      <c r="AP48" t="str">
+        <v xml:space="preserve">Πανταζή Μαρία </v>
+      </c>
+      <c r="AQ48" t="str">
+        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
+      </c>
+      <c r="AR48" t="str">
+        <v>Παπανδρέου Σωτηρία</v>
+      </c>
+      <c r="AS48" t="str">
+        <v>Παυλίδη Ιωάννα</v>
+      </c>
+      <c r="AT48" t="str">
+        <v>Πετρόγιαννος Γεώργιος</v>
+      </c>
+      <c r="AU48" t="str">
+        <v>Πολίτη Γεωργία</v>
+      </c>
+      <c r="AV48" t="str">
+        <v>Ρούτη Μαργαρίτα</v>
+      </c>
+      <c r="AW48" t="str">
+        <v>Σαριπανίδου Χρυσούλα</v>
+      </c>
+      <c r="AX48" t="str">
+        <v>Σίνγκ Ανμόλ</v>
+      </c>
+      <c r="AY48" t="str">
+        <v>Σύριος Νικόλαος</v>
+      </c>
+      <c r="AZ48" t="str">
+        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
+      </c>
+      <c r="BA48" t="str">
+        <v>Τσεκούρα Αγγελική</v>
+      </c>
+      <c r="BB48" t="str">
+        <v>Τσουκαλάς Γεώργιος</v>
+      </c>
+      <c r="BC48" t="str">
+        <v>Φίλης Νικόλαος</v>
+      </c>
+      <c r="BD48" t="str">
+        <v>Χατζόγλου Δημήτριος</v>
+      </c>
+      <c r="BE48" t="str">
+        <v>Χριστοφής Ναπολέων</v>
+      </c>
+    </row>
+    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A49" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="6"/>
-      <c r="C49" s="8"/>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="9" t="s">
+      <c r="B49" s="2"/>
+      <c r="C49" s="4"/>
+      <c r="H49" s="6"/>
+      <c r="Z49" t="str" cm="1">
+        <f t="array" ref="Z49">IF(D49="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D49))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="H50" s="6"/>
+      <c r="Z50" t="str" cm="1">
+        <f t="array" ref="Z50">IF(D50="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D50))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A51" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="6" t="s">
+      <c r="B51" s="2"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="H51" s="5"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="9" t="s">
+      <c r="H51" s="6"/>
+      <c r="Z51" t="str" cm="1">
+        <f t="array" ref="Z51:BE51">IF(D51="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D51))))</f>
+        <v>Δούκα Αναστασία - Ζωή</v>
+      </c>
+      <c r="AA51" t="str">
+        <v>Θεοδώρου Βασιλική</v>
+      </c>
+      <c r="AB51" t="str">
+        <v>Καλλιγέρη Χάρις</v>
+      </c>
+      <c r="AC51" t="str">
+        <v>Κεφαλοπούλου Κανέλλα</v>
+      </c>
+      <c r="AD51" t="str">
+        <v>Κιμιγκέλη Ορσαλία</v>
+      </c>
+      <c r="AE51" t="str">
+        <v>Κόλα Κριστιάνα</v>
+      </c>
+      <c r="AF51" t="str">
+        <v>Κόττα Δέσποινα</v>
+      </c>
+      <c r="AG51" t="str">
+        <v>Λαμπριανίδης Ιάσων</v>
+      </c>
+      <c r="AH51" t="str">
+        <v>Μανώλακας Βασίλειος</v>
+      </c>
+      <c r="AI51" t="str">
+        <v>Μαργέτη Ευαγγελία</v>
+      </c>
+      <c r="AJ51" t="str">
+        <v>Μαρούγκα Φωτεινή</v>
+      </c>
+      <c r="AK51" t="str">
+        <v>Μιχαλόπουλος Σπυρίδωνας</v>
+      </c>
+      <c r="AL51" t="str">
+        <v>Μουρτζούκος Δημήτριος</v>
+      </c>
+      <c r="AM51" t="str">
+        <v>Μπούρας Ναπολέων</v>
+      </c>
+      <c r="AN51" t="str">
+        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
+      </c>
+      <c r="AO51" t="str">
+        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
+      </c>
+      <c r="AP51" t="str">
+        <v xml:space="preserve">Πανταζή Μαρία </v>
+      </c>
+      <c r="AQ51" t="str">
+        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
+      </c>
+      <c r="AR51" t="str">
+        <v>Παπανδρέου Σωτηρία</v>
+      </c>
+      <c r="AS51" t="str">
+        <v>Παυλίδη Ιωάννα</v>
+      </c>
+      <c r="AT51" t="str">
+        <v>Πετρόγιαννος Γεώργιος</v>
+      </c>
+      <c r="AU51" t="str">
+        <v>Πολίτη Γεωργία</v>
+      </c>
+      <c r="AV51" t="str">
+        <v>Ρούτη Μαργαρίτα</v>
+      </c>
+      <c r="AW51" t="str">
+        <v>Σαριπανίδου Χρυσούλα</v>
+      </c>
+      <c r="AX51" t="str">
+        <v>Σίνγκ Ανμόλ</v>
+      </c>
+      <c r="AY51" t="str">
+        <v>Σύριος Νικόλαος</v>
+      </c>
+      <c r="AZ51" t="str">
+        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
+      </c>
+      <c r="BA51" t="str">
+        <v>Τσεκούρα Αγγελική</v>
+      </c>
+      <c r="BB51" t="str">
+        <v>Τσουκαλάς Γεώργιος</v>
+      </c>
+      <c r="BC51" t="str">
+        <v>Φίλης Νικόλαος</v>
+      </c>
+      <c r="BD51" t="str">
+        <v>Χατζόγλου Δημήτριος</v>
+      </c>
+      <c r="BE51" t="str">
+        <v>Χριστοφής Ναπολέων</v>
+      </c>
+    </row>
+    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A52" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="6"/>
-      <c r="C52" s="8"/>
-      <c r="H52" s="5"/>
-    </row>
-    <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+      <c r="B52" s="2"/>
+      <c r="C52" s="4"/>
+      <c r="H52" s="6"/>
+      <c r="Z52" t="str" cm="1">
+        <f t="array" ref="Z52">IF(D52="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D52))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B53" s="6" t="s">
+      <c r="B53" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H53" s="5"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
+      <c r="H53" s="6"/>
+      <c r="Z53" t="str" cm="1">
+        <f t="array" ref="Z53">IF(D53="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D53))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A54" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="6" t="s">
+      <c r="B54" s="2"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="E54" s="6" t="s">
+      <c r="E54" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H54" s="5"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" s="9" t="s">
+      <c r="H54" s="6"/>
+      <c r="Z54" t="str" cm="1">
+        <f t="array" ref="Z54:BE54">IF(D54="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D54))))</f>
+        <v>Δούκα Αναστασία - Ζωή</v>
+      </c>
+      <c r="AA54" t="str">
+        <v>Θεοδώρου Βασιλική</v>
+      </c>
+      <c r="AB54" t="str">
+        <v>Καλλιγέρη Χάρις</v>
+      </c>
+      <c r="AC54" t="str">
+        <v>Κεφαλοπούλου Κανέλλα</v>
+      </c>
+      <c r="AD54" t="str">
+        <v>Κιμιγκέλη Ορσαλία</v>
+      </c>
+      <c r="AE54" t="str">
+        <v>Κόλα Κριστιάνα</v>
+      </c>
+      <c r="AF54" t="str">
+        <v>Κόττα Δέσποινα</v>
+      </c>
+      <c r="AG54" t="str">
+        <v>Λαμπριανίδης Ιάσων</v>
+      </c>
+      <c r="AH54" t="str">
+        <v>Μανώλακας Βασίλειος</v>
+      </c>
+      <c r="AI54" t="str">
+        <v>Μαργέτη Ευαγγελία</v>
+      </c>
+      <c r="AJ54" t="str">
+        <v>Μαρούγκα Φωτεινή</v>
+      </c>
+      <c r="AK54" t="str">
+        <v>Μιχαλόπουλος Σπυρίδωνας</v>
+      </c>
+      <c r="AL54" t="str">
+        <v>Μουρτζούκος Δημήτριος</v>
+      </c>
+      <c r="AM54" t="str">
+        <v>Μπούρας Ναπολέων</v>
+      </c>
+      <c r="AN54" t="str">
+        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
+      </c>
+      <c r="AO54" t="str">
+        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
+      </c>
+      <c r="AP54" t="str">
+        <v xml:space="preserve">Πανταζή Μαρία </v>
+      </c>
+      <c r="AQ54" t="str">
+        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
+      </c>
+      <c r="AR54" t="str">
+        <v>Παπανδρέου Σωτηρία</v>
+      </c>
+      <c r="AS54" t="str">
+        <v>Παυλίδη Ιωάννα</v>
+      </c>
+      <c r="AT54" t="str">
+        <v>Πετρόγιαννος Γεώργιος</v>
+      </c>
+      <c r="AU54" t="str">
+        <v>Πολίτη Γεωργία</v>
+      </c>
+      <c r="AV54" t="str">
+        <v>Ρούτη Μαργαρίτα</v>
+      </c>
+      <c r="AW54" t="str">
+        <v>Σαριπανίδου Χρυσούλα</v>
+      </c>
+      <c r="AX54" t="str">
+        <v>Σίνγκ Ανμόλ</v>
+      </c>
+      <c r="AY54" t="str">
+        <v>Σύριος Νικόλαος</v>
+      </c>
+      <c r="AZ54" t="str">
+        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
+      </c>
+      <c r="BA54" t="str">
+        <v>Τσεκούρα Αγγελική</v>
+      </c>
+      <c r="BB54" t="str">
+        <v>Τσουκαλάς Γεώργιος</v>
+      </c>
+      <c r="BC54" t="str">
+        <v>Φίλης Νικόλαος</v>
+      </c>
+      <c r="BD54" t="str">
+        <v>Χατζόγλου Δημήτριος</v>
+      </c>
+      <c r="BE54" t="str">
+        <v>Χριστοφής Ναπολέων</v>
+      </c>
+    </row>
+    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A55" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="8"/>
-      <c r="H55" s="5"/>
-    </row>
-    <row r="56" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="9" t="s">
+      <c r="B55" s="2"/>
+      <c r="C55" s="4"/>
+      <c r="H55" s="6"/>
+      <c r="Z55" t="str" cm="1">
+        <f t="array" ref="Z55">IF(D55="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D55))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="8"/>
-      <c r="H56" s="5"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A57" s="9" t="s">
+      <c r="B56" s="2"/>
+      <c r="C56" s="4"/>
+      <c r="H56" s="6"/>
+      <c r="Z56" t="str" cm="1">
+        <f t="array" ref="Z56">IF(D56="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D56))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A57" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="6"/>
-      <c r="C57" s="8"/>
-      <c r="H57" s="5"/>
-    </row>
-    <row r="58" spans="1:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="9" t="s">
+      <c r="B57" s="2"/>
+      <c r="C57" s="4"/>
+      <c r="H57" s="6"/>
+      <c r="Z57" t="str" cm="1">
+        <f t="array" ref="Z57">IF(D57="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D57))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:57" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="H58" s="5"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A59" s="9" t="s">
+      <c r="H58" s="6"/>
+      <c r="Z58" t="str" cm="1">
+        <f t="array" ref="Z58">IF(D58="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D58))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A59" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="8"/>
-      <c r="H59" s="5"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A60" s="9" t="s">
+      <c r="B59" s="2"/>
+      <c r="C59" s="4"/>
+      <c r="H59" s="6"/>
+      <c r="Z59" t="str" cm="1">
+        <f t="array" ref="Z59">IF(D59="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D59))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A60" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="G60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="5">
+      <c r="C60" s="4"/>
+      <c r="G60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H60" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="9" t="s">
+      <c r="Z60" t="str" cm="1">
+        <f t="array" ref="Z60">IF(D60="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D60))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A61" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B61" s="6"/>
-      <c r="C61" s="8"/>
-      <c r="H61" s="5"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A62" s="9" t="s">
+      <c r="B61" s="2"/>
+      <c r="C61" s="4"/>
+      <c r="H61" s="6"/>
+      <c r="Z61" t="str" cm="1">
+        <f t="array" ref="Z61">IF(D61="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D61))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="A62" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="8"/>
-      <c r="H62" s="5"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="4"/>
+      <c r="H62" s="6"/>
+      <c r="Z62" t="str" cm="1">
+        <f t="array" ref="Z62">IF(D62="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D62))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="Z63" t="str" cm="1">
+        <f t="array" ref="Z63">IF(D63="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D63))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
+      <c r="Z64" t="str" cm="1">
+        <f t="array" ref="Z64">IF(D64="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D64))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z65" t="str" cm="1">
+        <f t="array" ref="Z65">IF(D65="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D65))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z66" t="str" cm="1">
+        <f t="array" ref="Z66">IF(D66="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D66))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z67" t="str" cm="1">
+        <f t="array" ref="Z67">IF(D67="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D67))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z68" t="str" cm="1">
+        <f t="array" ref="Z68">IF(D68="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D68))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z69" t="str" cm="1">
+        <f t="array" ref="Z69">IF(D69="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D69))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z70" t="str" cm="1">
+        <f t="array" ref="Z70">IF(D70="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D70))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z71" t="str" cm="1">
+        <f t="array" ref="Z71">IF(D71="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D71))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z72" t="str" cm="1">
+        <f t="array" ref="Z72">IF(D72="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D72))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z73" t="str" cm="1">
+        <f t="array" ref="Z73">IF(D73="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D73))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z74" t="str" cm="1">
+        <f t="array" ref="Z74">IF(D74="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D74))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z75" t="str" cm="1">
+        <f t="array" ref="Z75">IF(D75="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D75))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z76" t="str" cm="1">
+        <f t="array" ref="Z76">IF(D76="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D76))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z77" t="str" cm="1">
+        <f t="array" ref="Z77">IF(D77="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D77))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z78" t="str" cm="1">
+        <f t="array" ref="Z78">IF(D78="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D78))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z79" t="str" cm="1">
+        <f t="array" ref="Z79">IF(D79="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D79))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z80" t="str" cm="1">
+        <f t="array" ref="Z80">IF(D80="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D80))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z81" t="str" cm="1">
+        <f t="array" ref="Z81">IF(D81="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D81))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z82" t="str" cm="1">
+        <f t="array" ref="Z82">IF(D82="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D82))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z83" t="str" cm="1">
+        <f t="array" ref="Z83">IF(D83="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D83))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z84" t="str" cm="1">
+        <f t="array" ref="Z84">IF(D84="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D84))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z85" t="str" cm="1">
+        <f t="array" ref="Z85">IF(D85="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D85))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z86" t="str" cm="1">
+        <f t="array" ref="Z86">IF(D86="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D86))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z87" t="str" cm="1">
+        <f t="array" ref="Z87">IF(D87="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D87))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z88" t="str" cm="1">
+        <f t="array" ref="Z88">IF(D88="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D88))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z89" t="str" cm="1">
+        <f t="array" ref="Z89">IF(D89="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D89))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z90" t="str" cm="1">
+        <f t="array" ref="Z90">IF(D90="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D90))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z91" t="str" cm="1">
+        <f t="array" ref="Z91">IF(D91="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D91))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z92" t="str" cm="1">
+        <f t="array" ref="Z92">IF(D92="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D92))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z93" t="str" cm="1">
+        <f t="array" ref="Z93">IF(D93="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D93))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z94" t="str" cm="1">
+        <f t="array" ref="Z94">IF(D94="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D94))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z95" t="str" cm="1">
+        <f t="array" ref="Z95">IF(D95="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D95))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z96" t="str" cm="1">
+        <f t="array" ref="Z96">IF(D96="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D96))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z97" t="str" cm="1">
+        <f t="array" ref="Z97">IF(D97="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D97))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z98" t="str" cm="1">
+        <f t="array" ref="Z98">IF(D98="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D98))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z99" t="str" cm="1">
+        <f t="array" ref="Z99">IF(D99="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D99))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z100" t="str" cm="1">
+        <f t="array" ref="Z100">IF(D100="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D100))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z101" t="str" cm="1">
+        <f t="array" ref="Z101">IF(D101="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D101))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z102" t="str" cm="1">
+        <f t="array" ref="Z102">IF(D102="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D102))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z103" t="str" cm="1">
+        <f t="array" ref="Z103">IF(D103="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D103))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z104" t="str" cm="1">
+        <f t="array" ref="Z104">IF(D104="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D104))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z105" t="str" cm="1">
+        <f t="array" ref="Z105">IF(D105="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D105))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z106" t="str" cm="1">
+        <f t="array" ref="Z106">IF(D106="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D106))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z107" t="str" cm="1">
+        <f t="array" ref="Z107">IF(D107="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D107))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z108" t="str" cm="1">
+        <f t="array" ref="Z108">IF(D108="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D108))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z109" t="str" cm="1">
+        <f t="array" ref="Z109">IF(D109="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D109))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z110" t="str" cm="1">
+        <f t="array" ref="Z110">IF(D110="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D110))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z111" t="str" cm="1">
+        <f t="array" ref="Z111">IF(D111="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D111))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z112" t="str" cm="1">
+        <f t="array" ref="Z112">IF(D112="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D112))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z113" t="str" cm="1">
+        <f t="array" ref="Z113">IF(D113="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D113))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z114" t="str" cm="1">
+        <f t="array" ref="Z114">IF(D114="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D114))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z115" t="str" cm="1">
+        <f t="array" ref="Z115">IF(D115="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D115))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z116" t="str" cm="1">
+        <f t="array" ref="Z116">IF(D116="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D116))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z117" t="str" cm="1">
+        <f t="array" ref="Z117">IF(D117="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D117))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z118" t="str" cm="1">
+        <f t="array" ref="Z118">IF(D118="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D118))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z119" t="str" cm="1">
+        <f t="array" ref="Z119">IF(D119="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D119))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z120" t="str" cm="1">
+        <f t="array" ref="Z120">IF(D120="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D120))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z121" t="str" cm="1">
+        <f t="array" ref="Z121">IF(D121="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D121))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z122" t="str" cm="1">
+        <f t="array" ref="Z122">IF(D122="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D122))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z123" t="str" cm="1">
+        <f t="array" ref="Z123">IF(D123="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D123))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z124" t="str" cm="1">
+        <f t="array" ref="Z124">IF(D124="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D124))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z125" t="str" cm="1">
+        <f t="array" ref="Z125">IF(D125="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D125))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z126" t="str" cm="1">
+        <f t="array" ref="Z126">IF(D126="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D126))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z127" t="str" cm="1">
+        <f t="array" ref="Z127">IF(D127="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D127))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z128" t="str" cm="1">
+        <f t="array" ref="Z128">IF(D128="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D128))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z129" t="str" cm="1">
+        <f t="array" ref="Z129">IF(D129="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D129))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z130" t="str" cm="1">
+        <f t="array" ref="Z130">IF(D130="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D130))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z131" t="str" cm="1">
+        <f t="array" ref="Z131">IF(D131="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D131))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z132" t="str" cm="1">
+        <f t="array" ref="Z132">IF(D132="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D132))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z133" t="str" cm="1">
+        <f t="array" ref="Z133">IF(D133="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D133))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z134" t="str" cm="1">
+        <f t="array" ref="Z134">IF(D134="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D134))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z135" t="str" cm="1">
+        <f t="array" ref="Z135">IF(D135="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D135))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z136" t="str" cm="1">
+        <f t="array" ref="Z136">IF(D136="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D136))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z137" t="str" cm="1">
+        <f t="array" ref="Z137">IF(D137="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D137))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z138" t="str" cm="1">
+        <f t="array" ref="Z138">IF(D138="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D138))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z139" t="str" cm="1">
+        <f t="array" ref="Z139">IF(D139="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D139))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z140" t="str" cm="1">
+        <f t="array" ref="Z140">IF(D140="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D140))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z141" t="str" cm="1">
+        <f t="array" ref="Z141">IF(D141="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D141))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z142" t="str" cm="1">
+        <f t="array" ref="Z142">IF(D142="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D142))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z143" t="str" cm="1">
+        <f t="array" ref="Z143">IF(D143="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D143))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z144" t="str" cm="1">
+        <f t="array" ref="Z144">IF(D144="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D144))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z145" t="str" cm="1">
+        <f t="array" ref="Z145">IF(D145="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D145))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z146" t="str" cm="1">
+        <f t="array" ref="Z146">IF(D146="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D146))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z147" t="str" cm="1">
+        <f t="array" ref="Z147">IF(D147="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D147))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z148" t="str" cm="1">
+        <f t="array" ref="Z148">IF(D148="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D148))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z149" t="str" cm="1">
+        <f t="array" ref="Z149">IF(D149="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D149))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z150" t="str" cm="1">
+        <f t="array" ref="Z150">IF(D150="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D150))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z151" t="str" cm="1">
+        <f t="array" ref="Z151">IF(D151="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D151))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z152" t="str" cm="1">
+        <f t="array" ref="Z152">IF(D152="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D152))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z153" t="str" cm="1">
+        <f t="array" ref="Z153">IF(D153="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D153))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z154" t="str" cm="1">
+        <f t="array" ref="Z154">IF(D154="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D154))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z155" t="str" cm="1">
+        <f t="array" ref="Z155">IF(D155="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D155))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z156" t="str" cm="1">
+        <f t="array" ref="Z156">IF(D156="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D156))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z157" t="str" cm="1">
+        <f t="array" ref="Z157">IF(D157="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D157))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z158" t="str" cm="1">
+        <f t="array" ref="Z158">IF(D158="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D158))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z159" t="str" cm="1">
+        <f t="array" ref="Z159">IF(D159="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D159))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z160" t="str" cm="1">
+        <f t="array" ref="Z160">IF(D160="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D160))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z161" t="str" cm="1">
+        <f t="array" ref="Z161">IF(D161="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D161))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z162" t="str" cm="1">
+        <f t="array" ref="Z162">IF(D162="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D162))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z163" t="str" cm="1">
+        <f t="array" ref="Z163">IF(D163="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D163))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z164" t="str" cm="1">
+        <f t="array" ref="Z164">IF(D164="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D164))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z165" t="str" cm="1">
+        <f t="array" ref="Z165">IF(D165="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D165))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z166" t="str" cm="1">
+        <f t="array" ref="Z166">IF(D166="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D166))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z167" t="str" cm="1">
+        <f t="array" ref="Z167">IF(D167="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D167))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z168" t="str" cm="1">
+        <f t="array" ref="Z168">IF(D168="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D168))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z169" t="str" cm="1">
+        <f t="array" ref="Z169">IF(D169="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D169))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z170" t="str" cm="1">
+        <f t="array" ref="Z170">IF(D170="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D170))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z171" t="str" cm="1">
+        <f t="array" ref="Z171">IF(D171="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D171))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z172" t="str" cm="1">
+        <f t="array" ref="Z172">IF(D172="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D172))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z173" t="str" cm="1">
+        <f t="array" ref="Z173">IF(D173="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D173))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z174" t="str" cm="1">
+        <f t="array" ref="Z174">IF(D174="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D174))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z175" t="str" cm="1">
+        <f t="array" ref="Z175">IF(D175="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D175))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z176" t="str" cm="1">
+        <f t="array" ref="Z176">IF(D176="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D176))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z177" t="str" cm="1">
+        <f t="array" ref="Z177">IF(D177="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D177))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z178" t="str" cm="1">
+        <f t="array" ref="Z178">IF(D178="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D178))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z179" t="str" cm="1">
+        <f t="array" ref="Z179">IF(D179="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D179))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z180" t="str" cm="1">
+        <f t="array" ref="Z180">IF(D180="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D180))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z181" t="str" cm="1">
+        <f t="array" ref="Z181">IF(D181="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D181))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z182" t="str" cm="1">
+        <f t="array" ref="Z182">IF(D182="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D182))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z183" t="str" cm="1">
+        <f t="array" ref="Z183">IF(D183="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D183))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z184" t="str" cm="1">
+        <f t="array" ref="Z184">IF(D184="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D184))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z185" t="str" cm="1">
+        <f t="array" ref="Z185">IF(D185="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D185))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z186" t="str" cm="1">
+        <f t="array" ref="Z186">IF(D186="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D186))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z187" t="str" cm="1">
+        <f t="array" ref="Z187">IF(D187="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D187))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z188" t="str" cm="1">
+        <f t="array" ref="Z188">IF(D188="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D188))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z189" t="str" cm="1">
+        <f t="array" ref="Z189">IF(D189="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D189))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z190" t="str" cm="1">
+        <f t="array" ref="Z190">IF(D190="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D190))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z191" t="str" cm="1">
+        <f t="array" ref="Z191">IF(D191="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D191))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z192" t="str" cm="1">
+        <f t="array" ref="Z192">IF(D192="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D192))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z193" t="str" cm="1">
+        <f t="array" ref="Z193">IF(D193="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D193))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z194" t="str" cm="1">
+        <f t="array" ref="Z194">IF(D194="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D194))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z195" t="str" cm="1">
+        <f t="array" ref="Z195">IF(D195="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D195))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z196" t="str" cm="1">
+        <f t="array" ref="Z196">IF(D196="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D196))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z197" t="str" cm="1">
+        <f t="array" ref="Z197">IF(D197="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D197))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z198" t="str" cm="1">
+        <f t="array" ref="Z198">IF(D198="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D198))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z199" t="str" cm="1">
+        <f t="array" ref="Z199">IF(D199="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D199))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z200" t="str" cm="1">
+        <f t="array" ref="Z200">IF(D200="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D200))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z201" t="str" cm="1">
+        <f t="array" ref="Z201">IF(D201="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D201))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z202" t="str" cm="1">
+        <f t="array" ref="Z202">IF(D202="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D202))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z203" t="str" cm="1">
+        <f t="array" ref="Z203">IF(D203="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D203))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z204" t="str" cm="1">
+        <f t="array" ref="Z204">IF(D204="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D204))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z205" t="str" cm="1">
+        <f t="array" ref="Z205">IF(D205="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D205))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z206" t="str" cm="1">
+        <f t="array" ref="Z206">IF(D206="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D206))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z207" t="str" cm="1">
+        <f t="array" ref="Z207">IF(D207="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D207))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z208" t="str" cm="1">
+        <f t="array" ref="Z208">IF(D208="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D208))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z209" t="str" cm="1">
+        <f t="array" ref="Z209">IF(D209="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D209))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z210" t="str" cm="1">
+        <f t="array" ref="Z210">IF(D210="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D210))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z211" t="str" cm="1">
+        <f t="array" ref="Z211">IF(D211="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D211))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z212" t="str" cm="1">
+        <f t="array" ref="Z212">IF(D212="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D212))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z213" t="str" cm="1">
+        <f t="array" ref="Z213">IF(D213="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D213))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z214" t="str" cm="1">
+        <f t="array" ref="Z214">IF(D214="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D214))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z215" t="str" cm="1">
+        <f t="array" ref="Z215">IF(D215="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D215))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z216" t="str" cm="1">
+        <f t="array" ref="Z216">IF(D216="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D216))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z217" t="str" cm="1">
+        <f t="array" ref="Z217">IF(D217="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D217))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z218" t="str" cm="1">
+        <f t="array" ref="Z218">IF(D218="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D218))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z219" t="str" cm="1">
+        <f t="array" ref="Z219">IF(D219="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D219))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z220" t="str" cm="1">
+        <f t="array" ref="Z220">IF(D220="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D220))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z221" t="str" cm="1">
+        <f t="array" ref="Z221">IF(D221="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D221))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z222" t="str" cm="1">
+        <f t="array" ref="Z222">IF(D222="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D222))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z223" t="str" cm="1">
+        <f t="array" ref="Z223">IF(D223="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D223))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z224" t="str" cm="1">
+        <f t="array" ref="Z224">IF(D224="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D224))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z225" t="str" cm="1">
+        <f t="array" ref="Z225">IF(D225="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D225))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z226" t="str" cm="1">
+        <f t="array" ref="Z226">IF(D226="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D226))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z227" t="str" cm="1">
+        <f t="array" ref="Z227">IF(D227="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D227))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z228" t="str" cm="1">
+        <f t="array" ref="Z228">IF(D228="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D228))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z229" t="str" cm="1">
+        <f t="array" ref="Z229">IF(D229="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D229))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z230" t="str" cm="1">
+        <f t="array" ref="Z230">IF(D230="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D230))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z231" t="str" cm="1">
+        <f t="array" ref="Z231">IF(D231="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D231))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z232" t="str" cm="1">
+        <f t="array" ref="Z232">IF(D232="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D232))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z233" t="str" cm="1">
+        <f t="array" ref="Z233">IF(D233="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D233))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z234" t="str" cm="1">
+        <f t="array" ref="Z234">IF(D234="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D234))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z235" t="str" cm="1">
+        <f t="array" ref="Z235">IF(D235="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D235))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z236" t="str" cm="1">
+        <f t="array" ref="Z236">IF(D236="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D236))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z237" t="str" cm="1">
+        <f t="array" ref="Z237">IF(D237="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D237))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z238" t="str" cm="1">
+        <f t="array" ref="Z238">IF(D238="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D238))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z239" t="str" cm="1">
+        <f t="array" ref="Z239">IF(D239="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D239))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z240" t="str" cm="1">
+        <f t="array" ref="Z240">IF(D240="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D240))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z241" t="str" cm="1">
+        <f t="array" ref="Z241">IF(D241="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D241))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z242" t="str" cm="1">
+        <f t="array" ref="Z242">IF(D242="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D242))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z243" t="str" cm="1">
+        <f t="array" ref="Z243">IF(D243="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D243))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z244" t="str" cm="1">
+        <f t="array" ref="Z244">IF(D244="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D244))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z245" t="str" cm="1">
+        <f t="array" ref="Z245">IF(D245="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D245))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z246" t="str" cm="1">
+        <f t="array" ref="Z246">IF(D246="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D246))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z247" t="str" cm="1">
+        <f t="array" ref="Z247">IF(D247="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D247))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z248" t="str" cm="1">
+        <f t="array" ref="Z248">IF(D248="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D248))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z249" t="str" cm="1">
+        <f t="array" ref="Z249">IF(D249="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D249))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z250" t="str" cm="1">
+        <f t="array" ref="Z250">IF(D250="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D250))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z251" t="str" cm="1">
+        <f t="array" ref="Z251">IF(D251="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D251))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z252" t="str" cm="1">
+        <f t="array" ref="Z252">IF(D252="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D252))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z253" t="str" cm="1">
+        <f t="array" ref="Z253">IF(D253="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D253))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z254" t="str" cm="1">
+        <f t="array" ref="Z254">IF(D254="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D254))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z255" t="str" cm="1">
+        <f t="array" ref="Z255">IF(D255="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D255))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z256" t="str" cm="1">
+        <f t="array" ref="Z256">IF(D256="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D256))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z257" t="str" cm="1">
+        <f t="array" ref="Z257">IF(D257="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D257))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z258" t="str" cm="1">
+        <f t="array" ref="Z258">IF(D258="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D258))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z259" t="str" cm="1">
+        <f t="array" ref="Z259">IF(D259="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D259))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z260" t="str" cm="1">
+        <f t="array" ref="Z260">IF(D260="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D260))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z261" t="str" cm="1">
+        <f t="array" ref="Z261">IF(D261="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D261))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z262" t="str" cm="1">
+        <f t="array" ref="Z262">IF(D262="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D262))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z263" t="str" cm="1">
+        <f t="array" ref="Z263">IF(D263="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D263))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z264" t="str" cm="1">
+        <f t="array" ref="Z264">IF(D264="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D264))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z265" t="str" cm="1">
+        <f t="array" ref="Z265">IF(D265="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D265))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z266" t="str" cm="1">
+        <f t="array" ref="Z266">IF(D266="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D266))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z267" t="str" cm="1">
+        <f t="array" ref="Z267">IF(D267="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D267))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z268" t="str" cm="1">
+        <f t="array" ref="Z268">IF(D268="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D268))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z269" t="str" cm="1">
+        <f t="array" ref="Z269">IF(D269="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D269))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z270" t="str" cm="1">
+        <f t="array" ref="Z270">IF(D270="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D270))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z271" t="str" cm="1">
+        <f t="array" ref="Z271">IF(D271="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D271))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z272" t="str" cm="1">
+        <f t="array" ref="Z272">IF(D272="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D272))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z273" t="str" cm="1">
+        <f t="array" ref="Z273">IF(D273="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D273))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z274" t="str" cm="1">
+        <f t="array" ref="Z274">IF(D274="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D274))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z275" t="str" cm="1">
+        <f t="array" ref="Z275">IF(D275="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D275))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z276" t="str" cm="1">
+        <f t="array" ref="Z276">IF(D276="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D276))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z277" t="str" cm="1">
+        <f t="array" ref="Z277">IF(D277="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D277))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z278" t="str" cm="1">
+        <f t="array" ref="Z278">IF(D278="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D278))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z279" t="str" cm="1">
+        <f t="array" ref="Z279">IF(D279="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D279))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z280" t="str" cm="1">
+        <f t="array" ref="Z280">IF(D280="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D280))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z281" t="str" cm="1">
+        <f t="array" ref="Z281">IF(D281="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D281))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z282" t="str" cm="1">
+        <f t="array" ref="Z282">IF(D282="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D282))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z283" t="str" cm="1">
+        <f t="array" ref="Z283">IF(D283="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D283))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z284" t="str" cm="1">
+        <f t="array" ref="Z284">IF(D284="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D284))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z285" t="str" cm="1">
+        <f t="array" ref="Z285">IF(D285="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D285))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z286" t="str" cm="1">
+        <f t="array" ref="Z286">IF(D286="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D286))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z287" t="str" cm="1">
+        <f t="array" ref="Z287">IF(D287="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D287))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z288" t="str" cm="1">
+        <f t="array" ref="Z288">IF(D288="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D288))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z289" t="str" cm="1">
+        <f t="array" ref="Z289">IF(D289="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D289))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z290" t="str" cm="1">
+        <f t="array" ref="Z290">IF(D290="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D290))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z291" t="str" cm="1">
+        <f t="array" ref="Z291">IF(D291="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D291))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z292" t="str" cm="1">
+        <f t="array" ref="Z292">IF(D292="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D292))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z293" t="str" cm="1">
+        <f t="array" ref="Z293">IF(D293="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D293))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z294" t="str" cm="1">
+        <f t="array" ref="Z294">IF(D294="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D294))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z295" t="str" cm="1">
+        <f t="array" ref="Z295">IF(D295="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D295))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z296" t="str" cm="1">
+        <f t="array" ref="Z296">IF(D296="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D296))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z297" t="str" cm="1">
+        <f t="array" ref="Z297">IF(D297="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D297))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z298" t="str" cm="1">
+        <f t="array" ref="Z298">IF(D298="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D298))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z299" t="str" cm="1">
+        <f t="array" ref="Z299">IF(D299="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D299))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z300" t="str" cm="1">
+        <f t="array" ref="Z300">IF(D300="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D300))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z301" t="str" cm="1">
+        <f t="array" ref="Z301">IF(D301="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D301))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z302" t="str" cm="1">
+        <f t="array" ref="Z302">IF(D302="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D302))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z303" t="str" cm="1">
+        <f t="array" ref="Z303">IF(D303="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D303))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z304" t="str" cm="1">
+        <f t="array" ref="Z304">IF(D304="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D304))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z305" t="str" cm="1">
+        <f t="array" ref="Z305">IF(D305="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D305))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z306" t="str" cm="1">
+        <f t="array" ref="Z306">IF(D306="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D306))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z307" t="str" cm="1">
+        <f t="array" ref="Z307">IF(D307="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D307))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z308" t="str" cm="1">
+        <f t="array" ref="Z308">IF(D308="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D308))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z309" t="str" cm="1">
+        <f t="array" ref="Z309">IF(D309="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D309))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z310" t="str" cm="1">
+        <f t="array" ref="Z310">IF(D310="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D310))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z311" t="str" cm="1">
+        <f t="array" ref="Z311">IF(D311="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D311))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z312" t="str" cm="1">
+        <f t="array" ref="Z312">IF(D312="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D312))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z313" t="str" cm="1">
+        <f t="array" ref="Z313">IF(D313="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D313))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="314" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z314" t="str" cm="1">
+        <f t="array" ref="Z314">IF(D314="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D314))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z315" t="str" cm="1">
+        <f t="array" ref="Z315">IF(D315="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D315))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z316" t="str" cm="1">
+        <f t="array" ref="Z316">IF(D316="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D316))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z317" t="str" cm="1">
+        <f t="array" ref="Z317">IF(D317="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D317))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="318" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z318" t="str" cm="1">
+        <f t="array" ref="Z318">IF(D318="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D318))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="319" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z319" t="str" cm="1">
+        <f t="array" ref="Z319">IF(D319="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D319))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="320" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z320" t="str" cm="1">
+        <f t="array" ref="Z320">IF(D320="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D320))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="321" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z321" t="str" cm="1">
+        <f t="array" ref="Z321">IF(D321="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D321))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="322" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z322" t="str" cm="1">
+        <f t="array" ref="Z322">IF(D322="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D322))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="323" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z323" t="str" cm="1">
+        <f t="array" ref="Z323">IF(D323="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D323))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="324" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z324" t="str" cm="1">
+        <f t="array" ref="Z324">IF(D324="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D324))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="325" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z325" t="str" cm="1">
+        <f t="array" ref="Z325">IF(D325="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D325))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="326" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z326" t="str" cm="1">
+        <f t="array" ref="Z326">IF(D326="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D326))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="327" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z327" t="str" cm="1">
+        <f t="array" ref="Z327">IF(D327="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D327))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="328" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z328" t="str" cm="1">
+        <f t="array" ref="Z328">IF(D328="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D328))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="329" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z329" t="str" cm="1">
+        <f t="array" ref="Z329">IF(D329="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D329))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="330" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z330" t="str" cm="1">
+        <f t="array" ref="Z330">IF(D330="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D330))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="331" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z331" t="str" cm="1">
+        <f t="array" ref="Z331">IF(D331="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D331))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="332" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z332" t="str" cm="1">
+        <f t="array" ref="Z332">IF(D332="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D332))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="333" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z333" t="str" cm="1">
+        <f t="array" ref="Z333">IF(D333="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D333))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="334" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="Z334" t="str" cm="1">
+        <f t="array" ref="Z334">IF(D334="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D334))))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Image">
-      <formula>NOT(ISERROR(SEARCH("Image",A1)))</formula>
+  <conditionalFormatting sqref="A2:H62">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>$A2="Image"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Unattended">
-      <formula>NOT(ISERROR(SEARCH("Unattended",A1)))</formula>
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>$A2="Unattended"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Names">
-      <formula>NOT(ISERROR(SEARCH("Names",A1)))</formula>
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>$A2="Names"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Title">
-      <formula>NOT(ISERROR(SEARCH("Title",A1)))</formula>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>$A2="Title"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="Blank">
-      <formula>NOT(ISERROR(SEARCH("Blank",A1)))</formula>
+    <cfRule type="expression" dxfId="1" priority="5">
+      <formula>$A2="Blank"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A44:A62 A2:A43" xr:uid="{5617E6A3-A45D-A149-9413-64DCE891C6E5}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A62" xr:uid="{5617E6A3-A45D-A149-9413-64DCE891C6E5}">
       <formula1>"Blank,Title,Names,Unattended,Image"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G44:G62 G2:G43" xr:uid="{0C98340D-8637-1D4F-90E3-18D3FA303E8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G62" xr:uid="{0C98340D-8637-1D4F-90E3-18D3FA303E8E}">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E62" xr:uid="{58DAFFD4-8672-654E-A2F7-9C5232E04C15}">
+      <formula1>_xlfn.ANCHORARRAY(Z2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F62" xr:uid="{B63D1895-6857-0E4E-8C0B-7D1FA2B72D9A}">
+      <formula1>_xlfn.ANCHORARRAY(Z2)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1879,24 +4786,18 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E709A4CD-2E5D-714C-8FB5-F4C155BB24CC}">
           <x14:formula1>
             <xm:f>Names!$B$2:$B$2</xm:f>
           </x14:formula1>
           <xm:sqref>C63:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F87C7A5F-C71C-F74B-8EAE-5659E0B1C959}">
-          <x14:formula1>
-            <xm:f>Names!$A$2:$A$9998</xm:f>
-          </x14:formula1>
-          <xm:sqref>E44:F62 E2:F43</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{164FE455-A76D-C54B-9D8F-8847561ECC13}">
           <x14:formula1>
             <xm:f>Names!$B$2:$B$50004</xm:f>
           </x14:formula1>
-          <xm:sqref>D44:D62 D2:D43</xm:sqref>
+          <xm:sqref>D2:D62</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/resources/template.xlsx
+++ b/resources/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfkain/Projects/360/Apps/dualpresenter/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfkain/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{180F0EF7-9DA2-2147-A552-EA982337BE29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1D5FBC-553C-5941-B4FF-A75C20C03750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34140" windowHeight="20600" xr2:uid="{31235C52-23CF-6F4B-906D-2BCD49615FB2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34140" windowHeight="27300" xr2:uid="{31235C52-23CF-6F4B-906D-2BCD49615FB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="129">
   <si>
     <t>Name</t>
   </si>
@@ -446,13 +446,19 @@
   </si>
   <si>
     <t>Χριστοφής Ναπολέων</t>
+  </si>
+  <si>
+    <t>#</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="00"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -461,6 +467,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -475,7 +488,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -501,11 +514,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -528,11 +552,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -596,14 +644,38 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -628,30 +700,20 @@
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -745,15 +807,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleLight8 2" pivot="0" count="9" xr9:uid="{80D2B743-4329-6544-8889-4B0B004A6420}">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
-      <tableStyleElement type="headerRow" dxfId="23"/>
-      <tableStyleElement type="totalRow" dxfId="22"/>
-      <tableStyleElement type="firstColumn" dxfId="21"/>
-      <tableStyleElement type="lastColumn" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="18"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="17"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="16"/>
+      <tableStyleElement type="wholeTable" dxfId="25"/>
+      <tableStyleElement type="headerRow" dxfId="24"/>
+      <tableStyleElement type="totalRow" dxfId="23"/>
+      <tableStyleElement type="firstColumn" dxfId="22"/>
+      <tableStyleElement type="lastColumn" dxfId="21"/>
+      <tableStyleElement type="firstRowStripe" dxfId="20"/>
+      <tableStyleElement type="secondRowStripe" dxfId="19"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="17"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -778,17 +840,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84E6271E-1140-5E4E-8C94-6B7E104C92AD}" name="Flow" displayName="Flow" ref="A1:H62" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A1:H62" xr:uid="{84E6271E-1140-5E4E-8C94-6B7E104C92AD}"/>
-  <tableColumns count="8">
-    <tableColumn id="6" xr3:uid="{D373A835-1BA4-AE45-9363-EE67E6165767}" name="Type" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{DA0621C3-BCB2-254D-93C7-AC63CC141306}" name="Title" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{57A8305B-55FC-E949-81F4-841B61FC4B23}" name="Subtitle" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{5BC695E7-5490-5647-A005-C433DAA5B19B}" name="Group" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{0C3D6887-B103-F14F-9A95-9058AB0F7C1C}" name="From" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{872D8E49-A803-AA40-AD08-83386EB17B64}" name="Until" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{6F06AFA4-A4D4-E242-AA22-F08727EA7CF0}" name="Main Only" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{7A62BBC9-6DF9-694F-A31F-9635C8DE492C}" name="Precedence" dataDxfId="6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84E6271E-1140-5E4E-8C94-6B7E104C92AD}" name="Flow" displayName="Flow" ref="A1:I62" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A1:I62" xr:uid="{84E6271E-1140-5E4E-8C94-6B7E104C92AD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I62">
+    <sortCondition ref="A1:A62"/>
+  </sortState>
+  <tableColumns count="9">
+    <tableColumn id="10" xr3:uid="{9FB372EE-CC04-3D4B-B0DB-CDB6BC0707DC}" name="#" dataDxfId="8">
+      <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{D373A835-1BA4-AE45-9363-EE67E6165767}" name="Type" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{DA0621C3-BCB2-254D-93C7-AC63CC141306}" name="Title" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{57A8305B-55FC-E949-81F4-841B61FC4B23}" name="Subtitle" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{5BC695E7-5490-5647-A005-C433DAA5B19B}" name="Group" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{0C3D6887-B103-F14F-9A95-9058AB0F7C1C}" name="From" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{872D8E49-A803-AA40-AD08-83386EB17B64}" name="Until" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{6F06AFA4-A4D4-E242-AA22-F08727EA7CF0}" name="Main Only" dataDxfId="10"/>
+    <tableColumn id="7" xr3:uid="{7A62BBC9-6DF9-694F-A31F-9635C8DE492C}" name="Precedence" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1127,7 +1195,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55B849-D7B1-2246-A786-6A6435A95436}">
-  <dimension ref="A1:BE334"/>
+  <dimension ref="A1:BF330"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1136,3647 +1204,3941 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="54.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.33203125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.5" style="8" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="47.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="9" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I1"/>
-    </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A2" s="10">
+        <f>ROW()-1</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2"/>
-      <c r="Z2" t="str" cm="1">
-        <f t="array" ref="Z2">IF(D2="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D2)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:38" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="5" t="s">
+      <c r="C2" s="11"/>
+      <c r="G2" s="2"/>
+      <c r="I2" s="6"/>
+      <c r="AA2" t="str" cm="1">
+        <f t="array" ref="AA2">IF(E2="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E2)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="10">
+        <f>ROW()-1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3"/>
-      <c r="Z3" t="str" cm="1">
-        <f t="array" ref="Z3">IF(D3="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D3)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+      <c r="G3" s="2"/>
+      <c r="I3" s="6"/>
+      <c r="AA3" t="str" cm="1">
+        <f t="array" ref="AA3">IF(E3="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E3)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A4" s="10">
+        <f>ROW()-1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4"/>
-      <c r="Z4" t="str" cm="1">
-        <f t="array" ref="Z4">IF(D4="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D4)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+      <c r="G4" s="2"/>
+      <c r="I4" s="6"/>
+      <c r="AA4" t="str" cm="1">
+        <f t="array" ref="AA4">IF(E4="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E4)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A5" s="10">
+        <f>ROW()-1</f>
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="D5" s="2" t="s">
+      <c r="B5" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="12"/>
+      <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="6">
+      <c r="I5" s="6">
         <v>1</v>
       </c>
-      <c r="Z5" t="str" cm="1">
-        <f t="array" ref="Z5:AA5">IF(D5="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D5)))</f>
+      <c r="J5" s="1"/>
+      <c r="AA5" t="str" cm="1">
+        <f t="array" ref="AA5:AB5">IF(E5="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E5)))</f>
         <v>Κόλλιας Σωτήριος</v>
       </c>
-      <c r="AA5" t="str">
+      <c r="AB5" t="str">
         <v xml:space="preserve">Κριεκούκης Παναγιώτης </v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <f>ROW()-1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="H6" s="6"/>
-      <c r="Z6" t="str" cm="1">
-        <f t="array" ref="Z6">IF(D6="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D6)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="C6" s="12"/>
+      <c r="G6" s="2"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="1"/>
+      <c r="AA6" t="str" cm="1">
+        <f t="array" ref="AA6">IF(E6="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E6)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <f>ROW()-1</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="Z7" t="str" cm="1">
-        <f t="array" ref="Z7">IF(D7="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D7)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+      <c r="G7" s="2"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="1"/>
+      <c r="AA7" t="str" cm="1">
+        <f t="array" ref="AA7">IF(E7="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E7)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A8" s="10">
+        <f>ROW()-1</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="D8" s="2" t="s">
+      <c r="C8" s="12"/>
+      <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="6">
+      <c r="I8" s="6">
         <v>1</v>
       </c>
-      <c r="Z8" t="str" cm="1">
-        <f t="array" ref="Z8">IF(D8="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D8)))</f>
+      <c r="J8" s="1"/>
+      <c r="AA8" t="str" cm="1">
+        <f t="array" ref="AA8">IF(E8="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E8)))</f>
         <v>Χοτζάι Ορνέλα</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A9" s="10">
+        <f>ROW()-1</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="Z9" t="str" cm="1">
-        <f t="array" ref="Z9">IF(D9="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D9)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
+      <c r="G9" s="2"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="1"/>
+      <c r="AA9" t="str" cm="1">
+        <f t="array" ref="AA9">IF(E9="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E9)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A10" s="10">
+        <f>ROW()-1</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="H10" s="6"/>
-      <c r="Z10" t="str" cm="1">
-        <f t="array" ref="Z10">IF(D10="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D10)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
+      <c r="C10" s="12"/>
+      <c r="G10" s="2"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="1"/>
+      <c r="AA10" t="str" cm="1">
+        <f t="array" ref="AA10">IF(E10="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E10)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A11" s="10">
+        <f>ROW()-1</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="Z11" t="str" cm="1">
-        <f t="array" ref="Z11">IF(D11="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D11)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+      <c r="G11" s="2"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="1"/>
+      <c r="AA11" t="str" cm="1">
+        <f t="array" ref="AA11">IF(E11="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E11)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A12" s="10">
+        <f>ROW()-1</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="Z12" t="str" cm="1">
-        <f t="array" ref="Z12">IF(D12="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D12)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="G12" s="2"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="1"/>
+      <c r="AA12" t="str" cm="1">
+        <f t="array" ref="AA12">IF(E12="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E12)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A13" s="10">
+        <f>ROW()-1</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="D13" s="2" t="s">
+      <c r="C13" s="12"/>
+      <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="Z13" t="str" cm="1">
-        <f t="array" ref="Z13:AL13">IF(D13="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D13)))</f>
+      <c r="I13" s="6"/>
+      <c r="J13" s="1"/>
+      <c r="AA13" t="str" cm="1">
+        <f t="array" ref="AA13:AM13">IF(E13="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E13)))</f>
         <v>Βλασσοπούλου Μιχαέλα</v>
       </c>
-      <c r="AA13" t="str">
+      <c r="AB13" t="str">
         <v>Γκέλη Δέσποινα</v>
       </c>
-      <c r="AB13" t="str">
+      <c r="AC13" t="str">
         <v>Δομπρογιάννη Ελένη - Ιωάννα</v>
       </c>
-      <c r="AC13" t="str">
+      <c r="AD13" t="str">
         <v xml:space="preserve">Λιάκου Αθανασία - Ιωάννα </v>
       </c>
-      <c r="AD13" t="str">
+      <c r="AE13" t="str">
         <v>Λούκας Χρήστος</v>
       </c>
-      <c r="AE13" t="str">
+      <c r="AF13" t="str">
         <v xml:space="preserve">Μιχαήλου Αικατερίνη </v>
       </c>
-      <c r="AF13" t="str">
+      <c r="AG13" t="str">
         <v>Μπόβαλης Ευάγγελος - Μάριος</v>
       </c>
-      <c r="AG13" t="str">
+      <c r="AH13" t="str">
         <v>Παπαθανασίου Δημήτριος</v>
       </c>
-      <c r="AH13" t="str">
+      <c r="AI13" t="str">
         <v>Πετρόγιαννος Ευάγγελος</v>
       </c>
-      <c r="AI13" t="str">
+      <c r="AJ13" t="str">
         <v>Πισσάνη Σωτηρία</v>
       </c>
-      <c r="AJ13" t="str">
+      <c r="AK13" t="str">
         <v>Τριανταφύλλου Αγγελική - Παρασκευή</v>
       </c>
-      <c r="AK13" t="str">
+      <c r="AL13" t="str">
         <v>Φουρτουλάκης Ιωάννης</v>
       </c>
-      <c r="AL13" t="str">
+      <c r="AM13" t="str">
         <v>Ψάλτης Γεώργιος</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A14" s="10">
+        <f>ROW()-1</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="H14" s="6"/>
-      <c r="Z14" t="str" cm="1">
-        <f t="array" ref="Z14">IF(D14="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D14)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:38" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
+      <c r="C14" s="12"/>
+      <c r="G14" s="2"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="1"/>
+      <c r="AA14" t="str" cm="1">
+        <f t="array" ref="AA14">IF(E14="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E14)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="10">
+        <f>ROW()-1</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="Z15" t="str" cm="1">
-        <f t="array" ref="Z15">IF(D15="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D15)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
+      <c r="G15" s="2"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="1"/>
+      <c r="AA15" t="str" cm="1">
+        <f t="array" ref="AA15">IF(E15="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E15)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+      <c r="A16" s="10">
+        <f>ROW()-1</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="2" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="Z16" t="str" cm="1">
-        <f t="array" ref="Z16:AL16">IF(D16="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D16)))</f>
+      <c r="I16" s="6"/>
+      <c r="J16" s="1"/>
+      <c r="AA16" t="str" cm="1">
+        <f t="array" ref="AA16:AM16">IF(E16="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E16)))</f>
         <v>Βλασσοπούλου Μιχαέλα</v>
       </c>
-      <c r="AA16" t="str">
+      <c r="AB16" t="str">
         <v>Γκέλη Δέσποινα</v>
       </c>
-      <c r="AB16" t="str">
+      <c r="AC16" t="str">
         <v>Δομπρογιάννη Ελένη - Ιωάννα</v>
       </c>
-      <c r="AC16" t="str">
+      <c r="AD16" t="str">
         <v xml:space="preserve">Λιάκου Αθανασία - Ιωάννα </v>
       </c>
-      <c r="AD16" t="str">
+      <c r="AE16" t="str">
         <v>Λούκας Χρήστος</v>
       </c>
-      <c r="AE16" t="str">
+      <c r="AF16" t="str">
         <v xml:space="preserve">Μιχαήλου Αικατερίνη </v>
       </c>
-      <c r="AF16" t="str">
+      <c r="AG16" t="str">
         <v>Μπόβαλης Ευάγγελος - Μάριος</v>
       </c>
-      <c r="AG16" t="str">
+      <c r="AH16" t="str">
         <v>Παπαθανασίου Δημήτριος</v>
       </c>
-      <c r="AH16" t="str">
+      <c r="AI16" t="str">
         <v>Πετρόγιαννος Ευάγγελος</v>
       </c>
-      <c r="AI16" t="str">
+      <c r="AJ16" t="str">
         <v>Πισσάνη Σωτηρία</v>
       </c>
-      <c r="AJ16" t="str">
+      <c r="AK16" t="str">
         <v>Τριανταφύλλου Αγγελική - Παρασκευή</v>
       </c>
-      <c r="AK16" t="str">
+      <c r="AL16" t="str">
         <v>Φουρτουλάκης Ιωάννης</v>
       </c>
-      <c r="AL16" t="str">
+      <c r="AM16" t="str">
         <v>Ψάλτης Γεώργιος</v>
       </c>
     </row>
-    <row r="17" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A17" s="10">
+        <f>ROW()-1</f>
         <v>16</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
-      <c r="H17" s="6"/>
-      <c r="Z17" t="str" cm="1">
-        <f t="array" ref="Z17">IF(D17="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D17)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:49" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
+      <c r="B17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="4"/>
+      <c r="G17" s="2"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="1"/>
+      <c r="AA17" t="str" cm="1">
+        <f t="array" ref="AA17">IF(E17="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E17)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:50" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <f>ROW()-1</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="C18" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="D18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="Z18" t="str" cm="1">
-        <f t="array" ref="Z18">IF(D18="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D18)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="G18" s="2"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="1"/>
+      <c r="AA18" t="str" cm="1">
+        <f t="array" ref="AA18">IF(E22="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E22))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A19" s="10">
+        <f>ROW()-1</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="2" t="s">
+      <c r="C19" s="12"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="Z19" t="str" cm="1">
-        <f t="array" ref="Z19:AL19">IF(D19="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D19))))</f>
-        <v>Βλασσοπούλου Μιχαέλα</v>
-      </c>
-      <c r="AA19" t="str">
-        <v>Γκέλη Δέσποινα</v>
+      <c r="I19" s="6"/>
+      <c r="J19" s="1"/>
+      <c r="AA19" t="str" cm="1">
+        <f t="array" ref="AA19:AX19">IF(E23="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E23))))</f>
+        <v>Αγοράκη Ολυμπία</v>
       </c>
       <c r="AB19" t="str">
-        <v>Δομπρογιάννη Ελένη - Ιωάννα</v>
+        <v>Αλτόγλου Θεόδωρος</v>
       </c>
       <c r="AC19" t="str">
-        <v xml:space="preserve">Λιάκου Αθανασία - Ιωάννα </v>
+        <v>Ανανιάδης Θεόδωρος</v>
       </c>
       <c r="AD19" t="str">
-        <v>Λούκας Χρήστος</v>
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
       </c>
       <c r="AE19" t="str">
-        <v xml:space="preserve">Μιχαήλου Αικατερίνη </v>
+        <v>Γκίκα Μαρίνα</v>
       </c>
       <c r="AF19" t="str">
-        <v>Μπόβαλης Ευάγγελος - Μάριος</v>
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
       </c>
       <c r="AG19" t="str">
-        <v>Παπαθανασίου Δημήτριος</v>
+        <v>Δουμένης Νικόλαος</v>
       </c>
       <c r="AH19" t="str">
-        <v>Πετρόγιαννος Ευάγγελος</v>
+        <v>Ιωαννίδη Λυδία</v>
       </c>
       <c r="AI19" t="str">
-        <v>Πισσάνη Σωτηρία</v>
+        <v>Κατσαμάγκος Σταύρος</v>
       </c>
       <c r="AJ19" t="str">
-        <v>Τριανταφύλλου Αγγελική - Παρασκευή</v>
+        <v>Καύκας Ανδρέας</v>
       </c>
       <c r="AK19" t="str">
-        <v>Φουρτουλάκης Ιωάννης</v>
+        <v>Μιχάλαρος Δημήτριος</v>
       </c>
       <c r="AL19" t="str">
-        <v>Ψάλτης Γεώργιος</v>
-      </c>
-    </row>
-    <row r="20" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+      </c>
+      <c r="AM19" t="str">
+        <v>Μουσκάι Λορένα</v>
+      </c>
+      <c r="AN19" t="str">
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
+      </c>
+      <c r="AO19" t="str">
+        <v>Μουστάκα Κωνσταντίνα</v>
+      </c>
+      <c r="AP19" t="str">
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
+      </c>
+      <c r="AQ19" t="str">
+        <v>Παπαδόπουλος Αναστάσιος</v>
+      </c>
+      <c r="AR19" t="str">
+        <v>Παπακωνσταντίνου Σωτήριος</v>
+      </c>
+      <c r="AS19" t="str">
+        <v>Παπαλουκά Ελένη</v>
+      </c>
+      <c r="AT19" t="str">
+        <v>Πετροπούλου Βασιλική</v>
+      </c>
+      <c r="AU19" t="str">
+        <v>Τασιούλης Πολύκαρπος</v>
+      </c>
+      <c r="AV19" t="str">
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
+      </c>
+      <c r="AW19" t="str">
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AX19" t="str">
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A20" s="10">
+        <f>ROW()-1</f>
+        <v>19</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
-      <c r="H20" s="6"/>
-      <c r="Z20" t="str" cm="1">
-        <f t="array" ref="Z20">IF(D20="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D20))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="C20" s="12"/>
+      <c r="D20" s="4"/>
+      <c r="G20" s="2"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="1"/>
+      <c r="AA20" t="str" cm="1">
+        <f t="array" ref="AA20">IF(E24="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E24))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A21" s="10">
+        <f>ROW()-1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="H21" s="6"/>
-      <c r="Z21" t="str" cm="1">
-        <f t="array" ref="Z21">IF(D21="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D21))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="1:49" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="D21" s="4"/>
+      <c r="G21" s="2"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="1"/>
+      <c r="AA21" t="str" cm="1">
+        <f t="array" ref="AA21">IF(E25="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E25))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:50" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="10">
+        <f>ROW()-1</f>
+        <v>21</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="C22" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="D22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="Z22" t="str" cm="1">
-        <f t="array" ref="Z22">IF(D22="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D22))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="G22" s="2"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="1"/>
+      <c r="AA22" t="str" cm="1">
+        <f t="array" ref="AA22:AX22">IF(E26="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E26))))</f>
+        <v>Αγοράκη Ολυμπία</v>
+      </c>
+      <c r="AB22" t="str">
+        <v>Αλτόγλου Θεόδωρος</v>
+      </c>
+      <c r="AC22" t="str">
+        <v>Ανανιάδης Θεόδωρος</v>
+      </c>
+      <c r="AD22" t="str">
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
+      </c>
+      <c r="AE22" t="str">
+        <v>Γκίκα Μαρίνα</v>
+      </c>
+      <c r="AF22" t="str">
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
+      </c>
+      <c r="AG22" t="str">
+        <v>Δουμένης Νικόλαος</v>
+      </c>
+      <c r="AH22" t="str">
+        <v>Ιωαννίδη Λυδία</v>
+      </c>
+      <c r="AI22" t="str">
+        <v>Κατσαμάγκος Σταύρος</v>
+      </c>
+      <c r="AJ22" t="str">
+        <v>Καύκας Ανδρέας</v>
+      </c>
+      <c r="AK22" t="str">
+        <v>Μιχάλαρος Δημήτριος</v>
+      </c>
+      <c r="AL22" t="str">
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+      </c>
+      <c r="AM22" t="str">
+        <v>Μουσκάι Λορένα</v>
+      </c>
+      <c r="AN22" t="str">
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
+      </c>
+      <c r="AO22" t="str">
+        <v>Μουστάκα Κωνσταντίνα</v>
+      </c>
+      <c r="AP22" t="str">
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
+      </c>
+      <c r="AQ22" t="str">
+        <v>Παπαδόπουλος Αναστάσιος</v>
+      </c>
+      <c r="AR22" t="str">
+        <v>Παπακωνσταντίνου Σωτήριος</v>
+      </c>
+      <c r="AS22" t="str">
+        <v>Παπαλουκά Ελένη</v>
+      </c>
+      <c r="AT22" t="str">
+        <v>Πετροπούλου Βασιλική</v>
+      </c>
+      <c r="AU22" t="str">
+        <v>Τασιούλης Πολύκαρπος</v>
+      </c>
+      <c r="AV22" t="str">
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
+      </c>
+      <c r="AW22" t="str">
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AX22" t="str">
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A23" s="10">
+        <f>ROW()-1</f>
+        <v>22</v>
+      </c>
+      <c r="B23" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="2" t="s">
+      <c r="C23" s="12"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="Z23" t="str" cm="1">
-        <f t="array" ref="Z23:AW23">IF(D23="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D23))))</f>
+      <c r="I23" s="6"/>
+      <c r="J23" s="1"/>
+      <c r="AA23" t="str" cm="1">
+        <f t="array" ref="AA23">IF(E27="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E27))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A24" s="10">
+        <f>ROW()-1</f>
+        <v>23</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="4"/>
+      <c r="G24" s="2"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="1"/>
+      <c r="AA24" t="str" cm="1">
+        <f t="array" ref="AA24">IF(E28="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E28))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:50" ht="34" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <f>ROW()-1</f>
+        <v>24</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="1"/>
+      <c r="AA25" t="str" cm="1">
+        <f t="array" ref="AA25:AX25">IF(E29="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E29))))</f>
         <v>Αγοράκη Ολυμπία</v>
       </c>
-      <c r="AA23" t="str">
+      <c r="AB25" t="str">
         <v>Αλτόγλου Θεόδωρος</v>
       </c>
-      <c r="AB23" t="str">
+      <c r="AC25" t="str">
         <v>Ανανιάδης Θεόδωρος</v>
       </c>
-      <c r="AC23" t="str">
+      <c r="AD25" t="str">
         <v>Βλάχου Σταυρούλα - Μαρία</v>
       </c>
-      <c r="AD23" t="str">
+      <c r="AE25" t="str">
         <v>Γκίκα Μαρίνα</v>
       </c>
-      <c r="AE23" t="str">
+      <c r="AF25" t="str">
         <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
       </c>
-      <c r="AF23" t="str">
+      <c r="AG25" t="str">
         <v>Δουμένης Νικόλαος</v>
       </c>
-      <c r="AG23" t="str">
+      <c r="AH25" t="str">
         <v>Ιωαννίδη Λυδία</v>
       </c>
-      <c r="AH23" t="str">
+      <c r="AI25" t="str">
         <v>Κατσαμάγκος Σταύρος</v>
       </c>
-      <c r="AI23" t="str">
+      <c r="AJ25" t="str">
         <v>Καύκας Ανδρέας</v>
       </c>
-      <c r="AJ23" t="str">
+      <c r="AK25" t="str">
         <v>Μιχάλαρος Δημήτριος</v>
       </c>
-      <c r="AK23" t="str">
+      <c r="AL25" t="str">
         <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
       </c>
-      <c r="AL23" t="str">
+      <c r="AM25" t="str">
         <v>Μουσκάι Λορένα</v>
       </c>
-      <c r="AM23" t="str">
+      <c r="AN25" t="str">
         <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
       </c>
-      <c r="AN23" t="str">
+      <c r="AO25" t="str">
         <v>Μουστάκα Κωνσταντίνα</v>
       </c>
-      <c r="AO23" t="str">
+      <c r="AP25" t="str">
         <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
       </c>
-      <c r="AP23" t="str">
+      <c r="AQ25" t="str">
         <v>Παπαδόπουλος Αναστάσιος</v>
       </c>
-      <c r="AQ23" t="str">
+      <c r="AR25" t="str">
         <v>Παπακωνσταντίνου Σωτήριος</v>
       </c>
-      <c r="AR23" t="str">
+      <c r="AS25" t="str">
         <v>Παπαλουκά Ελένη</v>
       </c>
-      <c r="AS23" t="str">
+      <c r="AT25" t="str">
         <v>Πετροπούλου Βασιλική</v>
       </c>
-      <c r="AT23" t="str">
+      <c r="AU25" t="str">
         <v>Τασιούλης Πολύκαρπος</v>
       </c>
-      <c r="AU23" t="str">
+      <c r="AV25" t="str">
         <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
       </c>
-      <c r="AV23" t="str">
+      <c r="AW25" t="str">
         <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
       </c>
-      <c r="AW23" t="str">
+      <c r="AX25" t="str">
         <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
       </c>
     </row>
-    <row r="24" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A26" s="10">
+        <f>ROW()-1</f>
+        <v>25</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="6"/>
+      <c r="J26" s="1"/>
+      <c r="AA26" t="str" cm="1">
+        <f t="array" ref="AA26">IF(E30="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E30))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A27" s="10">
+        <f>ROW()-1</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
-      <c r="H24" s="6"/>
-      <c r="Z24" t="str" cm="1">
-        <f t="array" ref="Z24">IF(D24="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D24))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:49" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="C27" s="12"/>
+      <c r="D27" s="4"/>
+      <c r="G27" s="2"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="1"/>
+      <c r="AA27" t="str" cm="1">
+        <f t="array" ref="AA27">IF(E31="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E31))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:50" ht="17" x14ac:dyDescent="0.2">
+      <c r="A28" s="10">
+        <f>ROW()-1</f>
+        <v>27</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C28" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="1"/>
+      <c r="AA28" t="str" cm="1">
+        <f t="array" ref="AA28:AX28">IF(E32="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E32))))</f>
+        <v>Αγοράκη Ολυμπία</v>
+      </c>
+      <c r="AB28" t="str">
+        <v>Αλτόγλου Θεόδωρος</v>
+      </c>
+      <c r="AC28" t="str">
+        <v>Ανανιάδης Θεόδωρος</v>
+      </c>
+      <c r="AD28" t="str">
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
+      </c>
+      <c r="AE28" t="str">
+        <v>Γκίκα Μαρίνα</v>
+      </c>
+      <c r="AF28" t="str">
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
+      </c>
+      <c r="AG28" t="str">
+        <v>Δουμένης Νικόλαος</v>
+      </c>
+      <c r="AH28" t="str">
+        <v>Ιωαννίδη Λυδία</v>
+      </c>
+      <c r="AI28" t="str">
+        <v>Κατσαμάγκος Σταύρος</v>
+      </c>
+      <c r="AJ28" t="str">
+        <v>Καύκας Ανδρέας</v>
+      </c>
+      <c r="AK28" t="str">
+        <v>Μιχάλαρος Δημήτριος</v>
+      </c>
+      <c r="AL28" t="str">
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+      </c>
+      <c r="AM28" t="str">
+        <v>Μουσκάι Λορένα</v>
+      </c>
+      <c r="AN28" t="str">
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
+      </c>
+      <c r="AO28" t="str">
+        <v>Μουστάκα Κωνσταντίνα</v>
+      </c>
+      <c r="AP28" t="str">
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
+      </c>
+      <c r="AQ28" t="str">
+        <v>Παπαδόπουλος Αναστάσιος</v>
+      </c>
+      <c r="AR28" t="str">
+        <v>Παπακωνσταντίνου Σωτήριος</v>
+      </c>
+      <c r="AS28" t="str">
+        <v>Παπαλουκά Ελένη</v>
+      </c>
+      <c r="AT28" t="str">
+        <v>Πετροπούλου Βασιλική</v>
+      </c>
+      <c r="AU28" t="str">
+        <v>Τασιούλης Πολύκαρπος</v>
+      </c>
+      <c r="AV28" t="str">
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
+      </c>
+      <c r="AW28" t="str">
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AX28" t="str">
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A29" s="10">
+        <f>ROW()-1</f>
+        <v>28</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I29" s="6"/>
+      <c r="J29" s="1"/>
+      <c r="AA29" t="str" cm="1">
+        <f t="array" ref="AA29">IF(E33="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E33))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A30" s="10">
+        <f>ROW()-1</f>
+        <v>29</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="4"/>
+      <c r="G30" s="2"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="1"/>
+      <c r="AA30" t="str" cm="1">
+        <f t="array" ref="AA30">IF(E34="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E34))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:50" ht="17" x14ac:dyDescent="0.2">
+      <c r="A31" s="10">
+        <f>ROW()-1</f>
+        <v>30</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="1"/>
+      <c r="AA31" t="str" cm="1">
+        <f t="array" ref="AA31:AX31">IF(E35="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E35))))</f>
+        <v>Αγοράκη Ολυμπία</v>
+      </c>
+      <c r="AB31" t="str">
+        <v>Αλτόγλου Θεόδωρος</v>
+      </c>
+      <c r="AC31" t="str">
+        <v>Ανανιάδης Θεόδωρος</v>
+      </c>
+      <c r="AD31" t="str">
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
+      </c>
+      <c r="AE31" t="str">
+        <v>Γκίκα Μαρίνα</v>
+      </c>
+      <c r="AF31" t="str">
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
+      </c>
+      <c r="AG31" t="str">
+        <v>Δουμένης Νικόλαος</v>
+      </c>
+      <c r="AH31" t="str">
+        <v>Ιωαννίδη Λυδία</v>
+      </c>
+      <c r="AI31" t="str">
+        <v>Κατσαμάγκος Σταύρος</v>
+      </c>
+      <c r="AJ31" t="str">
+        <v>Καύκας Ανδρέας</v>
+      </c>
+      <c r="AK31" t="str">
+        <v>Μιχάλαρος Δημήτριος</v>
+      </c>
+      <c r="AL31" t="str">
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+      </c>
+      <c r="AM31" t="str">
+        <v>Μουσκάι Λορένα</v>
+      </c>
+      <c r="AN31" t="str">
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
+      </c>
+      <c r="AO31" t="str">
+        <v>Μουστάκα Κωνσταντίνα</v>
+      </c>
+      <c r="AP31" t="str">
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
+      </c>
+      <c r="AQ31" t="str">
+        <v>Παπαδόπουλος Αναστάσιος</v>
+      </c>
+      <c r="AR31" t="str">
+        <v>Παπακωνσταντίνου Σωτήριος</v>
+      </c>
+      <c r="AS31" t="str">
+        <v>Παπαλουκά Ελένη</v>
+      </c>
+      <c r="AT31" t="str">
+        <v>Πετροπούλου Βασιλική</v>
+      </c>
+      <c r="AU31" t="str">
+        <v>Τασιούλης Πολύκαρπος</v>
+      </c>
+      <c r="AV31" t="str">
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
+      </c>
+      <c r="AW31" t="str">
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AX31" t="str">
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+      </c>
+    </row>
+    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A32" s="10">
+        <f>ROW()-1</f>
+        <v>31</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="J32" s="1"/>
+      <c r="AA32" t="str" cm="1">
+        <f t="array" ref="AA32">IF(E36="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E36))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A33" s="10">
+        <f>ROW()-1</f>
+        <v>32</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="4"/>
+      <c r="G33" s="2"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="1"/>
+      <c r="AA33" t="str" cm="1">
+        <f t="array" ref="AA33">IF(E37="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E37))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:58" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="10">
+        <f>ROW()-1</f>
+        <v>33</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="2"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="1"/>
+      <c r="AA34" t="str" cm="1">
+        <f t="array" ref="AA34:AX34">IF(E38="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E38))))</f>
+        <v>Αγοράκη Ολυμπία</v>
+      </c>
+      <c r="AB34" t="str">
+        <v>Αλτόγλου Θεόδωρος</v>
+      </c>
+      <c r="AC34" t="str">
+        <v>Ανανιάδης Θεόδωρος</v>
+      </c>
+      <c r="AD34" t="str">
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
+      </c>
+      <c r="AE34" t="str">
+        <v>Γκίκα Μαρίνα</v>
+      </c>
+      <c r="AF34" t="str">
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
+      </c>
+      <c r="AG34" t="str">
+        <v>Δουμένης Νικόλαος</v>
+      </c>
+      <c r="AH34" t="str">
+        <v>Ιωαννίδη Λυδία</v>
+      </c>
+      <c r="AI34" t="str">
+        <v>Κατσαμάγκος Σταύρος</v>
+      </c>
+      <c r="AJ34" t="str">
+        <v>Καύκας Ανδρέας</v>
+      </c>
+      <c r="AK34" t="str">
+        <v>Μιχάλαρος Δημήτριος</v>
+      </c>
+      <c r="AL34" t="str">
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+      </c>
+      <c r="AM34" t="str">
+        <v>Μουσκάι Λορένα</v>
+      </c>
+      <c r="AN34" t="str">
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
+      </c>
+      <c r="AO34" t="str">
+        <v>Μουστάκα Κωνσταντίνα</v>
+      </c>
+      <c r="AP34" t="str">
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
+      </c>
+      <c r="AQ34" t="str">
+        <v>Παπαδόπουλος Αναστάσιος</v>
+      </c>
+      <c r="AR34" t="str">
+        <v>Παπακωνσταντίνου Σωτήριος</v>
+      </c>
+      <c r="AS34" t="str">
+        <v>Παπαλουκά Ελένη</v>
+      </c>
+      <c r="AT34" t="str">
+        <v>Πετροπούλου Βασιλική</v>
+      </c>
+      <c r="AU34" t="str">
+        <v>Τασιούλης Πολύκαρπος</v>
+      </c>
+      <c r="AV34" t="str">
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
+      </c>
+      <c r="AW34" t="str">
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AX34" t="str">
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+      </c>
+    </row>
+    <row r="35" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A35" s="10">
+        <f>ROW()-1</f>
+        <v>34</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="12"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I35" s="6"/>
+      <c r="J35" s="1"/>
+      <c r="AA35" t="str" cm="1">
+        <f t="array" ref="AA35">IF(E39="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E39))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A36" s="10">
+        <f>ROW()-1</f>
+        <v>35</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="12"/>
+      <c r="D36" s="4"/>
+      <c r="G36" s="2"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="1"/>
+      <c r="AA36" t="str" cm="1">
+        <f t="array" ref="AA36">IF(E40="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E40))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:58" ht="17" x14ac:dyDescent="0.2">
+      <c r="A37" s="10">
+        <f>ROW()-1</f>
+        <v>36</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G37" s="2"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="1"/>
+      <c r="AA37" t="str" cm="1">
+        <f t="array" ref="AA37">IF(E41="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E41))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A38" s="10">
+        <f>ROW()-1</f>
+        <v>37</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="12"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I38" s="6"/>
+      <c r="J38" s="1"/>
+      <c r="AA38" t="str" cm="1">
+        <f t="array" ref="AA38:BF38">IF(E42="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E42))))</f>
+        <v>Δούκα Αναστασία - Ζωή</v>
+      </c>
+      <c r="AB38" t="str">
+        <v>Θεοδώρου Βασιλική</v>
+      </c>
+      <c r="AC38" t="str">
+        <v>Καλλιγέρη Χάρις</v>
+      </c>
+      <c r="AD38" t="str">
+        <v>Κεφαλοπούλου Κανέλλα</v>
+      </c>
+      <c r="AE38" t="str">
+        <v>Κιμιγκέλη Ορσαλία</v>
+      </c>
+      <c r="AF38" t="str">
+        <v>Κόλα Κριστιάνα</v>
+      </c>
+      <c r="AG38" t="str">
+        <v>Κόττα Δέσποινα</v>
+      </c>
+      <c r="AH38" t="str">
+        <v>Λαμπριανίδης Ιάσων</v>
+      </c>
+      <c r="AI38" t="str">
+        <v>Μανώλακας Βασίλειος</v>
+      </c>
+      <c r="AJ38" t="str">
+        <v>Μαργέτη Ευαγγελία</v>
+      </c>
+      <c r="AK38" t="str">
+        <v>Μαρούγκα Φωτεινή</v>
+      </c>
+      <c r="AL38" t="str">
+        <v>Μιχαλόπουλος Σπυρίδωνας</v>
+      </c>
+      <c r="AM38" t="str">
+        <v>Μουρτζούκος Δημήτριος</v>
+      </c>
+      <c r="AN38" t="str">
+        <v>Μπούρας Ναπολέων</v>
+      </c>
+      <c r="AO38" t="str">
+        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
+      </c>
+      <c r="AP38" t="str">
+        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
+      </c>
+      <c r="AQ38" t="str">
+        <v xml:space="preserve">Πανταζή Μαρία </v>
+      </c>
+      <c r="AR38" t="str">
+        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
+      </c>
+      <c r="AS38" t="str">
+        <v>Παπανδρέου Σωτηρία</v>
+      </c>
+      <c r="AT38" t="str">
+        <v>Παυλίδη Ιωάννα</v>
+      </c>
+      <c r="AU38" t="str">
+        <v>Πετρόγιαννος Γεώργιος</v>
+      </c>
+      <c r="AV38" t="str">
+        <v>Πολίτη Γεωργία</v>
+      </c>
+      <c r="AW38" t="str">
+        <v>Ρούτη Μαργαρίτα</v>
+      </c>
+      <c r="AX38" t="str">
+        <v>Σαριπανίδου Χρυσούλα</v>
+      </c>
+      <c r="AY38" t="str">
+        <v>Σίνγκ Ανμόλ</v>
+      </c>
+      <c r="AZ38" t="str">
+        <v>Σύριος Νικόλαος</v>
+      </c>
+      <c r="BA38" t="str">
+        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
+      </c>
+      <c r="BB38" t="str">
+        <v>Τσεκούρα Αγγελική</v>
+      </c>
+      <c r="BC38" t="str">
+        <v>Τσουκαλάς Γεώργιος</v>
+      </c>
+      <c r="BD38" t="str">
+        <v>Φίλης Νικόλαος</v>
+      </c>
+      <c r="BE38" t="str">
+        <v>Χατζόγλου Δημήτριος</v>
+      </c>
+      <c r="BF38" t="str">
+        <v>Χριστοφής Ναπολέων</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A39" s="10">
+        <f>ROW()-1</f>
+        <v>38</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="12"/>
+      <c r="D39" s="4"/>
+      <c r="G39" s="2"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="1"/>
+      <c r="AA39" t="str" cm="1">
+        <f t="array" ref="AA39">IF(E43="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E43))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A40" s="10">
+        <f>ROW()-1</f>
+        <v>39</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="G40" s="2"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="1"/>
+      <c r="AA40" t="str" cm="1">
+        <f t="array" ref="AA40">IF(E44="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E44))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="10">
+        <f>ROW()-1</f>
+        <v>40</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="1"/>
+      <c r="AA41" t="str" cm="1">
+        <f t="array" ref="AA41:BF41">IF(E45="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E45))))</f>
+        <v>Δούκα Αναστασία - Ζωή</v>
+      </c>
+      <c r="AB41" t="str">
+        <v>Θεοδώρου Βασιλική</v>
+      </c>
+      <c r="AC41" t="str">
+        <v>Καλλιγέρη Χάρις</v>
+      </c>
+      <c r="AD41" t="str">
+        <v>Κεφαλοπούλου Κανέλλα</v>
+      </c>
+      <c r="AE41" t="str">
+        <v>Κιμιγκέλη Ορσαλία</v>
+      </c>
+      <c r="AF41" t="str">
+        <v>Κόλα Κριστιάνα</v>
+      </c>
+      <c r="AG41" t="str">
+        <v>Κόττα Δέσποινα</v>
+      </c>
+      <c r="AH41" t="str">
+        <v>Λαμπριανίδης Ιάσων</v>
+      </c>
+      <c r="AI41" t="str">
+        <v>Μανώλακας Βασίλειος</v>
+      </c>
+      <c r="AJ41" t="str">
+        <v>Μαργέτη Ευαγγελία</v>
+      </c>
+      <c r="AK41" t="str">
+        <v>Μαρούγκα Φωτεινή</v>
+      </c>
+      <c r="AL41" t="str">
+        <v>Μιχαλόπουλος Σπυρίδωνας</v>
+      </c>
+      <c r="AM41" t="str">
+        <v>Μουρτζούκος Δημήτριος</v>
+      </c>
+      <c r="AN41" t="str">
+        <v>Μπούρας Ναπολέων</v>
+      </c>
+      <c r="AO41" t="str">
+        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
+      </c>
+      <c r="AP41" t="str">
+        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
+      </c>
+      <c r="AQ41" t="str">
+        <v xml:space="preserve">Πανταζή Μαρία </v>
+      </c>
+      <c r="AR41" t="str">
+        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
+      </c>
+      <c r="AS41" t="str">
+        <v>Παπανδρέου Σωτηρία</v>
+      </c>
+      <c r="AT41" t="str">
+        <v>Παυλίδη Ιωάννα</v>
+      </c>
+      <c r="AU41" t="str">
+        <v>Πετρόγιαννος Γεώργιος</v>
+      </c>
+      <c r="AV41" t="str">
+        <v>Πολίτη Γεωργία</v>
+      </c>
+      <c r="AW41" t="str">
+        <v>Ρούτη Μαργαρίτα</v>
+      </c>
+      <c r="AX41" t="str">
+        <v>Σαριπανίδου Χρυσούλα</v>
+      </c>
+      <c r="AY41" t="str">
+        <v>Σίνγκ Ανμόλ</v>
+      </c>
+      <c r="AZ41" t="str">
+        <v>Σύριος Νικόλαος</v>
+      </c>
+      <c r="BA41" t="str">
+        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
+      </c>
+      <c r="BB41" t="str">
+        <v>Τσεκούρα Αγγελική</v>
+      </c>
+      <c r="BC41" t="str">
+        <v>Τσουκαλάς Γεώργιος</v>
+      </c>
+      <c r="BD41" t="str">
+        <v>Φίλης Νικόλαος</v>
+      </c>
+      <c r="BE41" t="str">
+        <v>Χατζόγλου Δημήτριος</v>
+      </c>
+      <c r="BF41" t="str">
+        <v>Χριστοφής Ναπολέων</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A42" s="10">
+        <f>ROW()-1</f>
+        <v>41</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="12"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I42" s="6"/>
+      <c r="J42" s="1"/>
+      <c r="AA42" t="str" cm="1">
+        <f t="array" ref="AA42">IF(E46="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E46))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A43" s="10">
+        <f>ROW()-1</f>
+        <v>42</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" s="12"/>
+      <c r="D43" s="4"/>
+      <c r="G43" s="2"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="1"/>
+      <c r="AA43" t="str" cm="1">
+        <f t="array" ref="AA43">IF(E47="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E47))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="10">
+        <f>ROW()-1</f>
+        <v>43</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G44" s="2"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="1"/>
+      <c r="AA44" t="str" cm="1">
+        <f t="array" ref="AA44:BF44">IF(E48="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E48))))</f>
+        <v>Δούκα Αναστασία - Ζωή</v>
+      </c>
+      <c r="AB44" t="str">
+        <v>Θεοδώρου Βασιλική</v>
+      </c>
+      <c r="AC44" t="str">
+        <v>Καλλιγέρη Χάρις</v>
+      </c>
+      <c r="AD44" t="str">
+        <v>Κεφαλοπούλου Κανέλλα</v>
+      </c>
+      <c r="AE44" t="str">
+        <v>Κιμιγκέλη Ορσαλία</v>
+      </c>
+      <c r="AF44" t="str">
+        <v>Κόλα Κριστιάνα</v>
+      </c>
+      <c r="AG44" t="str">
+        <v>Κόττα Δέσποινα</v>
+      </c>
+      <c r="AH44" t="str">
+        <v>Λαμπριανίδης Ιάσων</v>
+      </c>
+      <c r="AI44" t="str">
+        <v>Μανώλακας Βασίλειος</v>
+      </c>
+      <c r="AJ44" t="str">
+        <v>Μαργέτη Ευαγγελία</v>
+      </c>
+      <c r="AK44" t="str">
+        <v>Μαρούγκα Φωτεινή</v>
+      </c>
+      <c r="AL44" t="str">
+        <v>Μιχαλόπουλος Σπυρίδωνας</v>
+      </c>
+      <c r="AM44" t="str">
+        <v>Μουρτζούκος Δημήτριος</v>
+      </c>
+      <c r="AN44" t="str">
+        <v>Μπούρας Ναπολέων</v>
+      </c>
+      <c r="AO44" t="str">
+        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
+      </c>
+      <c r="AP44" t="str">
+        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
+      </c>
+      <c r="AQ44" t="str">
+        <v xml:space="preserve">Πανταζή Μαρία </v>
+      </c>
+      <c r="AR44" t="str">
+        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
+      </c>
+      <c r="AS44" t="str">
+        <v>Παπανδρέου Σωτηρία</v>
+      </c>
+      <c r="AT44" t="str">
+        <v>Παυλίδη Ιωάννα</v>
+      </c>
+      <c r="AU44" t="str">
+        <v>Πετρόγιαννος Γεώργιος</v>
+      </c>
+      <c r="AV44" t="str">
+        <v>Πολίτη Γεωργία</v>
+      </c>
+      <c r="AW44" t="str">
+        <v>Ρούτη Μαργαρίτα</v>
+      </c>
+      <c r="AX44" t="str">
+        <v>Σαριπανίδου Χρυσούλα</v>
+      </c>
+      <c r="AY44" t="str">
+        <v>Σίνγκ Ανμόλ</v>
+      </c>
+      <c r="AZ44" t="str">
+        <v>Σύριος Νικόλαος</v>
+      </c>
+      <c r="BA44" t="str">
+        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
+      </c>
+      <c r="BB44" t="str">
+        <v>Τσεκούρα Αγγελική</v>
+      </c>
+      <c r="BC44" t="str">
+        <v>Τσουκαλάς Γεώργιος</v>
+      </c>
+      <c r="BD44" t="str">
+        <v>Φίλης Νικόλαος</v>
+      </c>
+      <c r="BE44" t="str">
+        <v>Χατζόγλου Δημήτριος</v>
+      </c>
+      <c r="BF44" t="str">
+        <v>Χριστοφής Ναπολέων</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A45" s="10">
+        <f>ROW()-1</f>
+        <v>44</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I45" s="6"/>
+      <c r="J45" s="1"/>
+      <c r="AA45" t="str" cm="1">
+        <f t="array" ref="AA45">IF(E49="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E49))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A46" s="10">
+        <f>ROW()-1</f>
+        <v>45</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="12"/>
+      <c r="D46" s="4"/>
+      <c r="G46" s="2"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="1"/>
+      <c r="AA46" t="str" cm="1">
+        <f t="array" ref="AA46">IF(E50="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E50))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:58" ht="17" x14ac:dyDescent="0.2">
+      <c r="A47" s="10">
+        <f>ROW()-1</f>
+        <v>46</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="1"/>
+      <c r="AA47" t="str" cm="1">
+        <f t="array" ref="AA47:BF47">IF(E51="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E51))))</f>
+        <v>Δούκα Αναστασία - Ζωή</v>
+      </c>
+      <c r="AB47" t="str">
+        <v>Θεοδώρου Βασιλική</v>
+      </c>
+      <c r="AC47" t="str">
+        <v>Καλλιγέρη Χάρις</v>
+      </c>
+      <c r="AD47" t="str">
+        <v>Κεφαλοπούλου Κανέλλα</v>
+      </c>
+      <c r="AE47" t="str">
+        <v>Κιμιγκέλη Ορσαλία</v>
+      </c>
+      <c r="AF47" t="str">
+        <v>Κόλα Κριστιάνα</v>
+      </c>
+      <c r="AG47" t="str">
+        <v>Κόττα Δέσποινα</v>
+      </c>
+      <c r="AH47" t="str">
+        <v>Λαμπριανίδης Ιάσων</v>
+      </c>
+      <c r="AI47" t="str">
+        <v>Μανώλακας Βασίλειος</v>
+      </c>
+      <c r="AJ47" t="str">
+        <v>Μαργέτη Ευαγγελία</v>
+      </c>
+      <c r="AK47" t="str">
+        <v>Μαρούγκα Φωτεινή</v>
+      </c>
+      <c r="AL47" t="str">
+        <v>Μιχαλόπουλος Σπυρίδωνας</v>
+      </c>
+      <c r="AM47" t="str">
+        <v>Μουρτζούκος Δημήτριος</v>
+      </c>
+      <c r="AN47" t="str">
+        <v>Μπούρας Ναπολέων</v>
+      </c>
+      <c r="AO47" t="str">
+        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
+      </c>
+      <c r="AP47" t="str">
+        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
+      </c>
+      <c r="AQ47" t="str">
+        <v xml:space="preserve">Πανταζή Μαρία </v>
+      </c>
+      <c r="AR47" t="str">
+        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
+      </c>
+      <c r="AS47" t="str">
+        <v>Παπανδρέου Σωτηρία</v>
+      </c>
+      <c r="AT47" t="str">
+        <v>Παυλίδη Ιωάννα</v>
+      </c>
+      <c r="AU47" t="str">
+        <v>Πετρόγιαννος Γεώργιος</v>
+      </c>
+      <c r="AV47" t="str">
+        <v>Πολίτη Γεωργία</v>
+      </c>
+      <c r="AW47" t="str">
+        <v>Ρούτη Μαργαρίτα</v>
+      </c>
+      <c r="AX47" t="str">
+        <v>Σαριπανίδου Χρυσούλα</v>
+      </c>
+      <c r="AY47" t="str">
+        <v>Σίνγκ Ανμόλ</v>
+      </c>
+      <c r="AZ47" t="str">
+        <v>Σύριος Νικόλαος</v>
+      </c>
+      <c r="BA47" t="str">
+        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
+      </c>
+      <c r="BB47" t="str">
+        <v>Τσεκούρα Αγγελική</v>
+      </c>
+      <c r="BC47" t="str">
+        <v>Τσουκαλάς Γεώργιος</v>
+      </c>
+      <c r="BD47" t="str">
+        <v>Φίλης Νικόλαος</v>
+      </c>
+      <c r="BE47" t="str">
+        <v>Χατζόγλου Δημήτριος</v>
+      </c>
+      <c r="BF47" t="str">
+        <v>Χριστοφής Ναπολέων</v>
+      </c>
+    </row>
+    <row r="48" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A48" s="10">
+        <f>ROW()-1</f>
+        <v>47</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I48" s="6"/>
+      <c r="J48" s="1"/>
+      <c r="AA48" t="str" cm="1">
+        <f t="array" ref="AA48">IF(E52="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E52))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A49" s="10">
+        <f>ROW()-1</f>
+        <v>48</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" s="12"/>
+      <c r="D49" s="4"/>
+      <c r="G49" s="2"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="1"/>
+      <c r="AA49" t="str" cm="1">
+        <f t="array" ref="AA49">IF(E53="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E53))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+      <c r="A50" s="10">
+        <f>ROW()-1</f>
+        <v>49</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="2"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="1"/>
+      <c r="AA50" t="str" cm="1">
+        <f t="array" ref="AA50:BF50">IF(E54="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E54))))</f>
+        <v>Δούκα Αναστασία - Ζωή</v>
+      </c>
+      <c r="AB50" t="str">
+        <v>Θεοδώρου Βασιλική</v>
+      </c>
+      <c r="AC50" t="str">
+        <v>Καλλιγέρη Χάρις</v>
+      </c>
+      <c r="AD50" t="str">
+        <v>Κεφαλοπούλου Κανέλλα</v>
+      </c>
+      <c r="AE50" t="str">
+        <v>Κιμιγκέλη Ορσαλία</v>
+      </c>
+      <c r="AF50" t="str">
+        <v>Κόλα Κριστιάνα</v>
+      </c>
+      <c r="AG50" t="str">
+        <v>Κόττα Δέσποινα</v>
+      </c>
+      <c r="AH50" t="str">
+        <v>Λαμπριανίδης Ιάσων</v>
+      </c>
+      <c r="AI50" t="str">
+        <v>Μανώλακας Βασίλειος</v>
+      </c>
+      <c r="AJ50" t="str">
+        <v>Μαργέτη Ευαγγελία</v>
+      </c>
+      <c r="AK50" t="str">
+        <v>Μαρούγκα Φωτεινή</v>
+      </c>
+      <c r="AL50" t="str">
+        <v>Μιχαλόπουλος Σπυρίδωνας</v>
+      </c>
+      <c r="AM50" t="str">
+        <v>Μουρτζούκος Δημήτριος</v>
+      </c>
+      <c r="AN50" t="str">
+        <v>Μπούρας Ναπολέων</v>
+      </c>
+      <c r="AO50" t="str">
+        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
+      </c>
+      <c r="AP50" t="str">
+        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
+      </c>
+      <c r="AQ50" t="str">
+        <v xml:space="preserve">Πανταζή Μαρία </v>
+      </c>
+      <c r="AR50" t="str">
+        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
+      </c>
+      <c r="AS50" t="str">
+        <v>Παπανδρέου Σωτηρία</v>
+      </c>
+      <c r="AT50" t="str">
+        <v>Παυλίδη Ιωάννα</v>
+      </c>
+      <c r="AU50" t="str">
+        <v>Πετρόγιαννος Γεώργιος</v>
+      </c>
+      <c r="AV50" t="str">
+        <v>Πολίτη Γεωργία</v>
+      </c>
+      <c r="AW50" t="str">
+        <v>Ρούτη Μαργαρίτα</v>
+      </c>
+      <c r="AX50" t="str">
+        <v>Σαριπανίδου Χρυσούλα</v>
+      </c>
+      <c r="AY50" t="str">
+        <v>Σίνγκ Ανμόλ</v>
+      </c>
+      <c r="AZ50" t="str">
+        <v>Σύριος Νικόλαος</v>
+      </c>
+      <c r="BA50" t="str">
+        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
+      </c>
+      <c r="BB50" t="str">
+        <v>Τσεκούρα Αγγελική</v>
+      </c>
+      <c r="BC50" t="str">
+        <v>Τσουκαλάς Γεώργιος</v>
+      </c>
+      <c r="BD50" t="str">
+        <v>Φίλης Νικόλαος</v>
+      </c>
+      <c r="BE50" t="str">
+        <v>Χατζόγλου Δημήτριος</v>
+      </c>
+      <c r="BF50" t="str">
+        <v>Χριστοφής Ναπολέων</v>
+      </c>
+    </row>
+    <row r="51" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A51" s="10">
+        <f>ROW()-1</f>
+        <v>50</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="12"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I51" s="6"/>
+      <c r="J51" s="1"/>
+      <c r="AA51" t="str" cm="1">
+        <f t="array" ref="AA51">IF(E55="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E55))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="10">
+        <f>ROW()-1</f>
+        <v>51</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="12"/>
+      <c r="D52" s="4"/>
+      <c r="G52" s="2"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="1"/>
+      <c r="AA52" t="str" cm="1">
+        <f t="array" ref="AA52">IF(E56="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E56))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+      <c r="A53" s="10">
+        <f>ROW()-1</f>
         <v>52</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="B53" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="1"/>
+      <c r="AA53" t="str" cm="1">
+        <f t="array" ref="AA53">IF(E57="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E57))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <f>ROW()-1</f>
         <v>53</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="Z25" t="str" cm="1">
-        <f t="array" ref="Z25">IF(D25="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D25))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="B54" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E26" s="2" t="s">
+      <c r="C54" s="12"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I54" s="6"/>
+      <c r="J54" s="1"/>
+      <c r="AA54" t="str" cm="1">
+        <f t="array" ref="AA54">IF(E58="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E58))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A55" s="10">
+        <f>ROW()-1</f>
         <v>54</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="B55" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="12"/>
+      <c r="D55" s="4"/>
+      <c r="G55" s="2"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="1"/>
+      <c r="AA55" t="str" cm="1">
+        <f t="array" ref="AA55">IF(E59="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E59))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
+        <f>ROW()-1</f>
+        <v>55</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="12"/>
+      <c r="D56" s="4"/>
+      <c r="G56" s="2"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="1"/>
+      <c r="AA56" t="str" cm="1">
+        <f t="array" ref="AA56">IF(E60="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E60))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
+        <f>ROW()-1</f>
+        <v>56</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" s="12"/>
+      <c r="D57" s="4"/>
+      <c r="G57" s="2"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="1"/>
+      <c r="AA57" t="str" cm="1">
+        <f t="array" ref="AA57">IF(E61="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E61))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+      <c r="A58" s="10">
+        <f>ROW()-1</f>
         <v>57</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="Z26" t="str" cm="1">
-        <f t="array" ref="Z26:AW26">IF(D26="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D26))))</f>
-        <v>Αγοράκη Ολυμπία</v>
-      </c>
-      <c r="AA26" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
-      </c>
-      <c r="AB26" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
-      </c>
-      <c r="AC26" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
-      </c>
-      <c r="AD26" t="str">
-        <v>Γκίκα Μαρίνα</v>
-      </c>
-      <c r="AE26" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
-      </c>
-      <c r="AF26" t="str">
-        <v>Δουμένης Νικόλαος</v>
-      </c>
-      <c r="AG26" t="str">
-        <v>Ιωαννίδη Λυδία</v>
-      </c>
-      <c r="AH26" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
-      </c>
-      <c r="AI26" t="str">
-        <v>Καύκας Ανδρέας</v>
-      </c>
-      <c r="AJ26" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
-      </c>
-      <c r="AK26" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
-      </c>
-      <c r="AL26" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AM26" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AN26" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AO26" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AP26" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AQ26" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AR26" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AS26" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AT26" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AU26" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AV26" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AW26" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
-      </c>
-    </row>
-    <row r="27" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="B58" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G58" s="2"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="1"/>
+      <c r="AA58" t="str" cm="1">
+        <f t="array" ref="AA58">IF(E62="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E62))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A59" s="10">
+        <f>ROW()-1</f>
+        <v>58</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="4"/>
-      <c r="H27" s="6"/>
-      <c r="Z27" t="str" cm="1">
-        <f t="array" ref="Z27">IF(D27="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D27))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:49" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="4" t="s">
+      <c r="C59" s="12"/>
+      <c r="D59" s="4"/>
+      <c r="G59" s="2"/>
+      <c r="I59" s="6"/>
+      <c r="Z59" t="str" cm="1">
+        <f t="array" ref="Z59">IF(D63="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D63))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A60" s="10">
+        <f>ROW()-1</f>
         <v>59</v>
       </c>
-      <c r="H28" s="6"/>
-      <c r="Z28" t="str" cm="1">
-        <f t="array" ref="Z28">IF(D28="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D28))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="B60" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="Z60" t="str" cm="1">
+        <f t="array" ref="Z60">IF(D64="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D64))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A61" s="10">
+        <f>ROW()-1</f>
         <v>60</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="H29" s="6"/>
-      <c r="Z29" t="str" cm="1">
-        <f t="array" ref="Z29:AW29">IF(D29="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D29))))</f>
-        <v>Αγοράκη Ολυμπία</v>
-      </c>
-      <c r="AA29" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
-      </c>
-      <c r="AB29" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
-      </c>
-      <c r="AC29" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
-      </c>
-      <c r="AD29" t="str">
-        <v>Γκίκα Μαρίνα</v>
-      </c>
-      <c r="AE29" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
-      </c>
-      <c r="AF29" t="str">
-        <v>Δουμένης Νικόλαος</v>
-      </c>
-      <c r="AG29" t="str">
-        <v>Ιωαννίδη Λυδία</v>
-      </c>
-      <c r="AH29" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
-      </c>
-      <c r="AI29" t="str">
-        <v>Καύκας Ανδρέας</v>
-      </c>
-      <c r="AJ29" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
-      </c>
-      <c r="AK29" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
-      </c>
-      <c r="AL29" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AM29" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AN29" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AO29" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AP29" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AQ29" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AR29" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AS29" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AT29" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AU29" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AV29" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AW29" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
-      </c>
-    </row>
-    <row r="30" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="B61" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="4"/>
-      <c r="H30" s="6"/>
-      <c r="Z30" t="str" cm="1">
-        <f t="array" ref="Z30">IF(D30="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D30))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="1:49" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="Z31" t="str" cm="1">
-        <f t="array" ref="Z31">IF(D31="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D31))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H32" s="6"/>
-      <c r="Z32" t="str" cm="1">
-        <f t="array" ref="Z32:AW32">IF(D32="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D32))))</f>
-        <v>Αγοράκη Ολυμπία</v>
-      </c>
-      <c r="AA32" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
-      </c>
-      <c r="AB32" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
-      </c>
-      <c r="AC32" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
-      </c>
-      <c r="AD32" t="str">
-        <v>Γκίκα Μαρίνα</v>
-      </c>
-      <c r="AE32" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
-      </c>
-      <c r="AF32" t="str">
-        <v>Δουμένης Νικόλαος</v>
-      </c>
-      <c r="AG32" t="str">
-        <v>Ιωαννίδη Λυδία</v>
-      </c>
-      <c r="AH32" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
-      </c>
-      <c r="AI32" t="str">
-        <v>Καύκας Ανδρέας</v>
-      </c>
-      <c r="AJ32" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
-      </c>
-      <c r="AK32" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
-      </c>
-      <c r="AL32" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AM32" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AN32" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AO32" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AP32" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AQ32" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AR32" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AS32" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AT32" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AU32" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AV32" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AW32" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
-      </c>
-    </row>
-    <row r="33" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A33" s="5" t="s">
+      <c r="C61" s="12"/>
+      <c r="D61" s="4"/>
+      <c r="G61" s="2"/>
+      <c r="I61" s="6"/>
+      <c r="Z61" t="str" cm="1">
+        <f t="array" ref="Z61">IF(D65="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D65))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:58" x14ac:dyDescent="0.2">
+      <c r="A62" s="10">
+        <f>ROW()-1</f>
+        <v>61</v>
+      </c>
+      <c r="B62" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="4"/>
-      <c r="H33" s="6"/>
-      <c r="Z33" t="str" cm="1">
-        <f t="array" ref="Z33">IF(D33="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D33))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="Z34" t="str" cm="1">
-        <f t="array" ref="Z34">IF(D34="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D34))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A35" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="H35" s="6"/>
-      <c r="Z35" t="str" cm="1">
-        <f t="array" ref="Z35:AW35">IF(D35="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D35))))</f>
-        <v>Αγοράκη Ολυμπία</v>
-      </c>
-      <c r="AA35" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
-      </c>
-      <c r="AB35" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
-      </c>
-      <c r="AC35" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
-      </c>
-      <c r="AD35" t="str">
-        <v>Γκίκα Μαρίνα</v>
-      </c>
-      <c r="AE35" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
-      </c>
-      <c r="AF35" t="str">
-        <v>Δουμένης Νικόλαος</v>
-      </c>
-      <c r="AG35" t="str">
-        <v>Ιωαννίδη Λυδία</v>
-      </c>
-      <c r="AH35" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
-      </c>
-      <c r="AI35" t="str">
-        <v>Καύκας Ανδρέας</v>
-      </c>
-      <c r="AJ35" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
-      </c>
-      <c r="AK35" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
-      </c>
-      <c r="AL35" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AM35" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AN35" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AO35" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AP35" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AQ35" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AR35" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AS35" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AT35" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AU35" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AV35" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AW35" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
-      </c>
-    </row>
-    <row r="36" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="4"/>
-      <c r="H36" s="6"/>
-      <c r="Z36" t="str" cm="1">
-        <f t="array" ref="Z36">IF(D36="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D36))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="37" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H37" s="6"/>
-      <c r="Z37" t="str" cm="1">
-        <f t="array" ref="Z37">IF(D37="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D37))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A38" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H38" s="6"/>
-      <c r="Z38" t="str" cm="1">
-        <f t="array" ref="Z38:AW38">IF(D38="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D38))))</f>
-        <v>Αγοράκη Ολυμπία</v>
-      </c>
-      <c r="AA38" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
-      </c>
-      <c r="AB38" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
-      </c>
-      <c r="AC38" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
-      </c>
-      <c r="AD38" t="str">
-        <v>Γκίκα Μαρίνα</v>
-      </c>
-      <c r="AE38" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
-      </c>
-      <c r="AF38" t="str">
-        <v>Δουμένης Νικόλαος</v>
-      </c>
-      <c r="AG38" t="str">
-        <v>Ιωαννίδη Λυδία</v>
-      </c>
-      <c r="AH38" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
-      </c>
-      <c r="AI38" t="str">
-        <v>Καύκας Ανδρέας</v>
-      </c>
-      <c r="AJ38" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
-      </c>
-      <c r="AK38" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
-      </c>
-      <c r="AL38" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AM38" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AN38" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AO38" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AP38" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AQ38" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AR38" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AS38" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AT38" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AU38" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AV38" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AW38" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
-      </c>
-    </row>
-    <row r="39" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A39" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" s="4"/>
-      <c r="H39" s="6"/>
-      <c r="Z39" t="str" cm="1">
-        <f t="array" ref="Z39">IF(D39="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D39))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A40" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="4"/>
-      <c r="H40" s="6"/>
-      <c r="Z40" t="str" cm="1">
-        <f t="array" ref="Z40">IF(D40="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D40))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="H41" s="6"/>
-      <c r="Z41" t="str" cm="1">
-        <f t="array" ref="Z41">IF(D41="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D41))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A42" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="6"/>
-      <c r="Z42" t="str" cm="1">
-        <f t="array" ref="Z42:BE42">IF(D42="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D42))))</f>
-        <v>Δούκα Αναστασία - Ζωή</v>
-      </c>
-      <c r="AA42" t="str">
-        <v>Θεοδώρου Βασιλική</v>
-      </c>
-      <c r="AB42" t="str">
-        <v>Καλλιγέρη Χάρις</v>
-      </c>
-      <c r="AC42" t="str">
-        <v>Κεφαλοπούλου Κανέλλα</v>
-      </c>
-      <c r="AD42" t="str">
-        <v>Κιμιγκέλη Ορσαλία</v>
-      </c>
-      <c r="AE42" t="str">
-        <v>Κόλα Κριστιάνα</v>
-      </c>
-      <c r="AF42" t="str">
-        <v>Κόττα Δέσποινα</v>
-      </c>
-      <c r="AG42" t="str">
-        <v>Λαμπριανίδης Ιάσων</v>
-      </c>
-      <c r="AH42" t="str">
-        <v>Μανώλακας Βασίλειος</v>
-      </c>
-      <c r="AI42" t="str">
-        <v>Μαργέτη Ευαγγελία</v>
-      </c>
-      <c r="AJ42" t="str">
-        <v>Μαρούγκα Φωτεινή</v>
-      </c>
-      <c r="AK42" t="str">
-        <v>Μιχαλόπουλος Σπυρίδωνας</v>
-      </c>
-      <c r="AL42" t="str">
-        <v>Μουρτζούκος Δημήτριος</v>
-      </c>
-      <c r="AM42" t="str">
-        <v>Μπούρας Ναπολέων</v>
-      </c>
-      <c r="AN42" t="str">
-        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
-      </c>
-      <c r="AO42" t="str">
-        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
-      </c>
-      <c r="AP42" t="str">
-        <v xml:space="preserve">Πανταζή Μαρία </v>
-      </c>
-      <c r="AQ42" t="str">
-        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
-      </c>
-      <c r="AR42" t="str">
-        <v>Παπανδρέου Σωτηρία</v>
-      </c>
-      <c r="AS42" t="str">
-        <v>Παυλίδη Ιωάννα</v>
-      </c>
-      <c r="AT42" t="str">
-        <v>Πετρόγιαννος Γεώργιος</v>
-      </c>
-      <c r="AU42" t="str">
-        <v>Πολίτη Γεωργία</v>
-      </c>
-      <c r="AV42" t="str">
-        <v>Ρούτη Μαργαρίτα</v>
-      </c>
-      <c r="AW42" t="str">
-        <v>Σαριπανίδου Χρυσούλα</v>
-      </c>
-      <c r="AX42" t="str">
-        <v>Σίνγκ Ανμόλ</v>
-      </c>
-      <c r="AY42" t="str">
-        <v>Σύριος Νικόλαος</v>
-      </c>
-      <c r="AZ42" t="str">
-        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
-      </c>
-      <c r="BA42" t="str">
-        <v>Τσεκούρα Αγγελική</v>
-      </c>
-      <c r="BB42" t="str">
-        <v>Τσουκαλάς Γεώργιος</v>
-      </c>
-      <c r="BC42" t="str">
-        <v>Φίλης Νικόλαος</v>
-      </c>
-      <c r="BD42" t="str">
-        <v>Χατζόγλου Δημήτριος</v>
-      </c>
-      <c r="BE42" t="str">
-        <v>Χριστοφής Ναπολέων</v>
-      </c>
-    </row>
-    <row r="43" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A43" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="4"/>
-      <c r="H43" s="6"/>
-      <c r="Z43" t="str" cm="1">
-        <f t="array" ref="Z43">IF(D43="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D43))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:57" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="H44" s="6"/>
-      <c r="Z44" t="str" cm="1">
-        <f t="array" ref="Z44">IF(D44="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D44))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A45" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H45" s="6"/>
-      <c r="Z45" t="str" cm="1">
-        <f t="array" ref="Z45:BE45">IF(D45="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D45))))</f>
-        <v>Δούκα Αναστασία - Ζωή</v>
-      </c>
-      <c r="AA45" t="str">
-        <v>Θεοδώρου Βασιλική</v>
-      </c>
-      <c r="AB45" t="str">
-        <v>Καλλιγέρη Χάρις</v>
-      </c>
-      <c r="AC45" t="str">
-        <v>Κεφαλοπούλου Κανέλλα</v>
-      </c>
-      <c r="AD45" t="str">
-        <v>Κιμιγκέλη Ορσαλία</v>
-      </c>
-      <c r="AE45" t="str">
-        <v>Κόλα Κριστιάνα</v>
-      </c>
-      <c r="AF45" t="str">
-        <v>Κόττα Δέσποινα</v>
-      </c>
-      <c r="AG45" t="str">
-        <v>Λαμπριανίδης Ιάσων</v>
-      </c>
-      <c r="AH45" t="str">
-        <v>Μανώλακας Βασίλειος</v>
-      </c>
-      <c r="AI45" t="str">
-        <v>Μαργέτη Ευαγγελία</v>
-      </c>
-      <c r="AJ45" t="str">
-        <v>Μαρούγκα Φωτεινή</v>
-      </c>
-      <c r="AK45" t="str">
-        <v>Μιχαλόπουλος Σπυρίδωνας</v>
-      </c>
-      <c r="AL45" t="str">
-        <v>Μουρτζούκος Δημήτριος</v>
-      </c>
-      <c r="AM45" t="str">
-        <v>Μπούρας Ναπολέων</v>
-      </c>
-      <c r="AN45" t="str">
-        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
-      </c>
-      <c r="AO45" t="str">
-        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
-      </c>
-      <c r="AP45" t="str">
-        <v xml:space="preserve">Πανταζή Μαρία </v>
-      </c>
-      <c r="AQ45" t="str">
-        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
-      </c>
-      <c r="AR45" t="str">
-        <v>Παπανδρέου Σωτηρία</v>
-      </c>
-      <c r="AS45" t="str">
-        <v>Παυλίδη Ιωάννα</v>
-      </c>
-      <c r="AT45" t="str">
-        <v>Πετρόγιαννος Γεώργιος</v>
-      </c>
-      <c r="AU45" t="str">
-        <v>Πολίτη Γεωργία</v>
-      </c>
-      <c r="AV45" t="str">
-        <v>Ρούτη Μαργαρίτα</v>
-      </c>
-      <c r="AW45" t="str">
-        <v>Σαριπανίδου Χρυσούλα</v>
-      </c>
-      <c r="AX45" t="str">
-        <v>Σίνγκ Ανμόλ</v>
-      </c>
-      <c r="AY45" t="str">
-        <v>Σύριος Νικόλαος</v>
-      </c>
-      <c r="AZ45" t="str">
-        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
-      </c>
-      <c r="BA45" t="str">
-        <v>Τσεκούρα Αγγελική</v>
-      </c>
-      <c r="BB45" t="str">
-        <v>Τσουκαλάς Γεώργιος</v>
-      </c>
-      <c r="BC45" t="str">
-        <v>Φίλης Νικόλαος</v>
-      </c>
-      <c r="BD45" t="str">
-        <v>Χατζόγλου Δημήτριος</v>
-      </c>
-      <c r="BE45" t="str">
-        <v>Χριστοφής Ναπολέων</v>
-      </c>
-    </row>
-    <row r="46" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A46" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" s="4"/>
-      <c r="H46" s="6"/>
-      <c r="Z46" t="str" cm="1">
-        <f t="array" ref="Z46">IF(D46="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D46))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:57" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H47" s="6"/>
-      <c r="Z47" t="str" cm="1">
-        <f t="array" ref="Z47">IF(D47="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D47))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A48" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H48" s="6"/>
-      <c r="Z48" t="str" cm="1">
-        <f t="array" ref="Z48:BE48">IF(D48="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D48))))</f>
-        <v>Δούκα Αναστασία - Ζωή</v>
-      </c>
-      <c r="AA48" t="str">
-        <v>Θεοδώρου Βασιλική</v>
-      </c>
-      <c r="AB48" t="str">
-        <v>Καλλιγέρη Χάρις</v>
-      </c>
-      <c r="AC48" t="str">
-        <v>Κεφαλοπούλου Κανέλλα</v>
-      </c>
-      <c r="AD48" t="str">
-        <v>Κιμιγκέλη Ορσαλία</v>
-      </c>
-      <c r="AE48" t="str">
-        <v>Κόλα Κριστιάνα</v>
-      </c>
-      <c r="AF48" t="str">
-        <v>Κόττα Δέσποινα</v>
-      </c>
-      <c r="AG48" t="str">
-        <v>Λαμπριανίδης Ιάσων</v>
-      </c>
-      <c r="AH48" t="str">
-        <v>Μανώλακας Βασίλειος</v>
-      </c>
-      <c r="AI48" t="str">
-        <v>Μαργέτη Ευαγγελία</v>
-      </c>
-      <c r="AJ48" t="str">
-        <v>Μαρούγκα Φωτεινή</v>
-      </c>
-      <c r="AK48" t="str">
-        <v>Μιχαλόπουλος Σπυρίδωνας</v>
-      </c>
-      <c r="AL48" t="str">
-        <v>Μουρτζούκος Δημήτριος</v>
-      </c>
-      <c r="AM48" t="str">
-        <v>Μπούρας Ναπολέων</v>
-      </c>
-      <c r="AN48" t="str">
-        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
-      </c>
-      <c r="AO48" t="str">
-        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
-      </c>
-      <c r="AP48" t="str">
-        <v xml:space="preserve">Πανταζή Μαρία </v>
-      </c>
-      <c r="AQ48" t="str">
-        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
-      </c>
-      <c r="AR48" t="str">
-        <v>Παπανδρέου Σωτηρία</v>
-      </c>
-      <c r="AS48" t="str">
-        <v>Παυλίδη Ιωάννα</v>
-      </c>
-      <c r="AT48" t="str">
-        <v>Πετρόγιαννος Γεώργιος</v>
-      </c>
-      <c r="AU48" t="str">
-        <v>Πολίτη Γεωργία</v>
-      </c>
-      <c r="AV48" t="str">
-        <v>Ρούτη Μαργαρίτα</v>
-      </c>
-      <c r="AW48" t="str">
-        <v>Σαριπανίδου Χρυσούλα</v>
-      </c>
-      <c r="AX48" t="str">
-        <v>Σίνγκ Ανμόλ</v>
-      </c>
-      <c r="AY48" t="str">
-        <v>Σύριος Νικόλαος</v>
-      </c>
-      <c r="AZ48" t="str">
-        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
-      </c>
-      <c r="BA48" t="str">
-        <v>Τσεκούρα Αγγελική</v>
-      </c>
-      <c r="BB48" t="str">
-        <v>Τσουκαλάς Γεώργιος</v>
-      </c>
-      <c r="BC48" t="str">
-        <v>Φίλης Νικόλαος</v>
-      </c>
-      <c r="BD48" t="str">
-        <v>Χατζόγλου Δημήτριος</v>
-      </c>
-      <c r="BE48" t="str">
-        <v>Χριστοφής Ναπολέων</v>
-      </c>
-    </row>
-    <row r="49" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A49" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" s="4"/>
-      <c r="H49" s="6"/>
-      <c r="Z49" t="str" cm="1">
-        <f t="array" ref="Z49">IF(D49="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D49))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:57" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H50" s="6"/>
-      <c r="Z50" t="str" cm="1">
-        <f t="array" ref="Z50">IF(D50="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D50))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A51" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H51" s="6"/>
-      <c r="Z51" t="str" cm="1">
-        <f t="array" ref="Z51:BE51">IF(D51="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D51))))</f>
-        <v>Δούκα Αναστασία - Ζωή</v>
-      </c>
-      <c r="AA51" t="str">
-        <v>Θεοδώρου Βασιλική</v>
-      </c>
-      <c r="AB51" t="str">
-        <v>Καλλιγέρη Χάρις</v>
-      </c>
-      <c r="AC51" t="str">
-        <v>Κεφαλοπούλου Κανέλλα</v>
-      </c>
-      <c r="AD51" t="str">
-        <v>Κιμιγκέλη Ορσαλία</v>
-      </c>
-      <c r="AE51" t="str">
-        <v>Κόλα Κριστιάνα</v>
-      </c>
-      <c r="AF51" t="str">
-        <v>Κόττα Δέσποινα</v>
-      </c>
-      <c r="AG51" t="str">
-        <v>Λαμπριανίδης Ιάσων</v>
-      </c>
-      <c r="AH51" t="str">
-        <v>Μανώλακας Βασίλειος</v>
-      </c>
-      <c r="AI51" t="str">
-        <v>Μαργέτη Ευαγγελία</v>
-      </c>
-      <c r="AJ51" t="str">
-        <v>Μαρούγκα Φωτεινή</v>
-      </c>
-      <c r="AK51" t="str">
-        <v>Μιχαλόπουλος Σπυρίδωνας</v>
-      </c>
-      <c r="AL51" t="str">
-        <v>Μουρτζούκος Δημήτριος</v>
-      </c>
-      <c r="AM51" t="str">
-        <v>Μπούρας Ναπολέων</v>
-      </c>
-      <c r="AN51" t="str">
-        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
-      </c>
-      <c r="AO51" t="str">
-        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
-      </c>
-      <c r="AP51" t="str">
-        <v xml:space="preserve">Πανταζή Μαρία </v>
-      </c>
-      <c r="AQ51" t="str">
-        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
-      </c>
-      <c r="AR51" t="str">
-        <v>Παπανδρέου Σωτηρία</v>
-      </c>
-      <c r="AS51" t="str">
-        <v>Παυλίδη Ιωάννα</v>
-      </c>
-      <c r="AT51" t="str">
-        <v>Πετρόγιαννος Γεώργιος</v>
-      </c>
-      <c r="AU51" t="str">
-        <v>Πολίτη Γεωργία</v>
-      </c>
-      <c r="AV51" t="str">
-        <v>Ρούτη Μαργαρίτα</v>
-      </c>
-      <c r="AW51" t="str">
-        <v>Σαριπανίδου Χρυσούλα</v>
-      </c>
-      <c r="AX51" t="str">
-        <v>Σίνγκ Ανμόλ</v>
-      </c>
-      <c r="AY51" t="str">
-        <v>Σύριος Νικόλαος</v>
-      </c>
-      <c r="AZ51" t="str">
-        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
-      </c>
-      <c r="BA51" t="str">
-        <v>Τσεκούρα Αγγελική</v>
-      </c>
-      <c r="BB51" t="str">
-        <v>Τσουκαλάς Γεώργιος</v>
-      </c>
-      <c r="BC51" t="str">
-        <v>Φίλης Νικόλαος</v>
-      </c>
-      <c r="BD51" t="str">
-        <v>Χατζόγλου Δημήτριος</v>
-      </c>
-      <c r="BE51" t="str">
-        <v>Χριστοφής Ναπολέων</v>
-      </c>
-    </row>
-    <row r="52" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A52" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" s="4"/>
-      <c r="H52" s="6"/>
-      <c r="Z52" t="str" cm="1">
-        <f t="array" ref="Z52">IF(D52="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D52))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:57" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H53" s="6"/>
-      <c r="Z53" t="str" cm="1">
-        <f t="array" ref="Z53">IF(D53="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D53))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A54" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="H54" s="6"/>
-      <c r="Z54" t="str" cm="1">
-        <f t="array" ref="Z54:BE54">IF(D54="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D54))))</f>
-        <v>Δούκα Αναστασία - Ζωή</v>
-      </c>
-      <c r="AA54" t="str">
-        <v>Θεοδώρου Βασιλική</v>
-      </c>
-      <c r="AB54" t="str">
-        <v>Καλλιγέρη Χάρις</v>
-      </c>
-      <c r="AC54" t="str">
-        <v>Κεφαλοπούλου Κανέλλα</v>
-      </c>
-      <c r="AD54" t="str">
-        <v>Κιμιγκέλη Ορσαλία</v>
-      </c>
-      <c r="AE54" t="str">
-        <v>Κόλα Κριστιάνα</v>
-      </c>
-      <c r="AF54" t="str">
-        <v>Κόττα Δέσποινα</v>
-      </c>
-      <c r="AG54" t="str">
-        <v>Λαμπριανίδης Ιάσων</v>
-      </c>
-      <c r="AH54" t="str">
-        <v>Μανώλακας Βασίλειος</v>
-      </c>
-      <c r="AI54" t="str">
-        <v>Μαργέτη Ευαγγελία</v>
-      </c>
-      <c r="AJ54" t="str">
-        <v>Μαρούγκα Φωτεινή</v>
-      </c>
-      <c r="AK54" t="str">
-        <v>Μιχαλόπουλος Σπυρίδωνας</v>
-      </c>
-      <c r="AL54" t="str">
-        <v>Μουρτζούκος Δημήτριος</v>
-      </c>
-      <c r="AM54" t="str">
-        <v>Μπούρας Ναπολέων</v>
-      </c>
-      <c r="AN54" t="str">
-        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
-      </c>
-      <c r="AO54" t="str">
-        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
-      </c>
-      <c r="AP54" t="str">
-        <v xml:space="preserve">Πανταζή Μαρία </v>
-      </c>
-      <c r="AQ54" t="str">
-        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
-      </c>
-      <c r="AR54" t="str">
-        <v>Παπανδρέου Σωτηρία</v>
-      </c>
-      <c r="AS54" t="str">
-        <v>Παυλίδη Ιωάννα</v>
-      </c>
-      <c r="AT54" t="str">
-        <v>Πετρόγιαννος Γεώργιος</v>
-      </c>
-      <c r="AU54" t="str">
-        <v>Πολίτη Γεωργία</v>
-      </c>
-      <c r="AV54" t="str">
-        <v>Ρούτη Μαργαρίτα</v>
-      </c>
-      <c r="AW54" t="str">
-        <v>Σαριπανίδου Χρυσούλα</v>
-      </c>
-      <c r="AX54" t="str">
-        <v>Σίνγκ Ανμόλ</v>
-      </c>
-      <c r="AY54" t="str">
-        <v>Σύριος Νικόλαος</v>
-      </c>
-      <c r="AZ54" t="str">
-        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
-      </c>
-      <c r="BA54" t="str">
-        <v>Τσεκούρα Αγγελική</v>
-      </c>
-      <c r="BB54" t="str">
-        <v>Τσουκαλάς Γεώργιος</v>
-      </c>
-      <c r="BC54" t="str">
-        <v>Φίλης Νικόλαος</v>
-      </c>
-      <c r="BD54" t="str">
-        <v>Χατζόγλου Δημήτριος</v>
-      </c>
-      <c r="BE54" t="str">
-        <v>Χριστοφής Ναπολέων</v>
-      </c>
-    </row>
-    <row r="55" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A55" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="4"/>
-      <c r="H55" s="6"/>
-      <c r="Z55" t="str" cm="1">
-        <f t="array" ref="Z55">IF(D55="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D55))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="56" spans="1:57" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="4"/>
-      <c r="H56" s="6"/>
-      <c r="Z56" t="str" cm="1">
-        <f t="array" ref="Z56">IF(D56="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D56))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A57" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="4"/>
-      <c r="H57" s="6"/>
-      <c r="Z57" t="str" cm="1">
-        <f t="array" ref="Z57">IF(D57="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D57))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:57" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="H58" s="6"/>
-      <c r="Z58" t="str" cm="1">
-        <f t="array" ref="Z58">IF(D58="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D58))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A59" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="4"/>
-      <c r="H59" s="6"/>
-      <c r="Z59" t="str" cm="1">
-        <f t="array" ref="Z59">IF(D59="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D59))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A60" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="4"/>
-      <c r="G60" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H60" s="6">
-        <v>0</v>
-      </c>
-      <c r="Z60" t="str" cm="1">
-        <f t="array" ref="Z60">IF(D60="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D60))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A61" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="4"/>
-      <c r="H61" s="6"/>
-      <c r="Z61" t="str" cm="1">
-        <f t="array" ref="Z61">IF(D61="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D61))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:57" x14ac:dyDescent="0.2">
-      <c r="A62" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="4"/>
-      <c r="H62" s="6"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="4"/>
+      <c r="G62" s="2"/>
+      <c r="I62" s="6"/>
       <c r="Z62" t="str" cm="1">
-        <f t="array" ref="Z62">IF(D62="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D62))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:57" x14ac:dyDescent="0.2">
+        <f t="array" ref="Z62">IF(D66="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D66))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:58" x14ac:dyDescent="0.2">
       <c r="Z63" t="str" cm="1">
-        <f t="array" ref="Z63">IF(D63="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D63))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:57" x14ac:dyDescent="0.2">
+        <f t="array" ref="Z63">IF(D67="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D67))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:58" x14ac:dyDescent="0.2">
       <c r="Z64" t="str" cm="1">
-        <f t="array" ref="Z64">IF(D64="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D64))))</f>
+        <f t="array" ref="Z64">IF(D68="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D68))))</f>
         <v/>
       </c>
     </row>
     <row r="65" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z65" t="str" cm="1">
-        <f t="array" ref="Z65">IF(D65="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D65))))</f>
+        <f t="array" ref="Z65">IF(D69="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D69))))</f>
         <v/>
       </c>
     </row>
     <row r="66" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z66" t="str" cm="1">
-        <f t="array" ref="Z66">IF(D66="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D66))))</f>
+        <f t="array" ref="Z66">IF(D70="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D70))))</f>
         <v/>
       </c>
     </row>
     <row r="67" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z67" t="str" cm="1">
-        <f t="array" ref="Z67">IF(D67="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D67))))</f>
+        <f t="array" ref="Z67">IF(D71="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D71))))</f>
         <v/>
       </c>
     </row>
     <row r="68" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z68" t="str" cm="1">
-        <f t="array" ref="Z68">IF(D68="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D68))))</f>
+        <f t="array" ref="Z68">IF(D72="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D72))))</f>
         <v/>
       </c>
     </row>
     <row r="69" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z69" t="str" cm="1">
-        <f t="array" ref="Z69">IF(D69="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D69))))</f>
+        <f t="array" ref="Z69">IF(D73="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D73))))</f>
         <v/>
       </c>
     </row>
     <row r="70" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z70" t="str" cm="1">
-        <f t="array" ref="Z70">IF(D70="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D70))))</f>
+        <f t="array" ref="Z70">IF(D74="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D74))))</f>
         <v/>
       </c>
     </row>
     <row r="71" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z71" t="str" cm="1">
-        <f t="array" ref="Z71">IF(D71="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D71))))</f>
+        <f t="array" ref="Z71">IF(D75="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D75))))</f>
         <v/>
       </c>
     </row>
     <row r="72" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z72" t="str" cm="1">
-        <f t="array" ref="Z72">IF(D72="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D72))))</f>
+        <f t="array" ref="Z72">IF(D76="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D76))))</f>
         <v/>
       </c>
     </row>
     <row r="73" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z73" t="str" cm="1">
-        <f t="array" ref="Z73">IF(D73="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D73))))</f>
+        <f t="array" ref="Z73">IF(D77="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D77))))</f>
         <v/>
       </c>
     </row>
     <row r="74" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z74" t="str" cm="1">
-        <f t="array" ref="Z74">IF(D74="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D74))))</f>
+        <f t="array" ref="Z74">IF(D78="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D78))))</f>
         <v/>
       </c>
     </row>
     <row r="75" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z75" t="str" cm="1">
-        <f t="array" ref="Z75">IF(D75="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D75))))</f>
+        <f t="array" ref="Z75">IF(D79="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D79))))</f>
         <v/>
       </c>
     </row>
     <row r="76" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z76" t="str" cm="1">
-        <f t="array" ref="Z76">IF(D76="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D76))))</f>
+        <f t="array" ref="Z76">IF(D80="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D80))))</f>
         <v/>
       </c>
     </row>
     <row r="77" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z77" t="str" cm="1">
-        <f t="array" ref="Z77">IF(D77="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D77))))</f>
+        <f t="array" ref="Z77">IF(D81="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D81))))</f>
         <v/>
       </c>
     </row>
     <row r="78" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z78" t="str" cm="1">
-        <f t="array" ref="Z78">IF(D78="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D78))))</f>
+        <f t="array" ref="Z78">IF(D82="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D82))))</f>
         <v/>
       </c>
     </row>
     <row r="79" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z79" t="str" cm="1">
-        <f t="array" ref="Z79">IF(D79="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D79))))</f>
+        <f t="array" ref="Z79">IF(D83="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D83))))</f>
         <v/>
       </c>
     </row>
     <row r="80" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z80" t="str" cm="1">
-        <f t="array" ref="Z80">IF(D80="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D80))))</f>
+        <f t="array" ref="Z80">IF(D84="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D84))))</f>
         <v/>
       </c>
     </row>
     <row r="81" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z81" t="str" cm="1">
-        <f t="array" ref="Z81">IF(D81="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D81))))</f>
+        <f t="array" ref="Z81">IF(D85="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D85))))</f>
         <v/>
       </c>
     </row>
     <row r="82" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z82" t="str" cm="1">
-        <f t="array" ref="Z82">IF(D82="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D82))))</f>
+        <f t="array" ref="Z82">IF(D86="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D86))))</f>
         <v/>
       </c>
     </row>
     <row r="83" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z83" t="str" cm="1">
-        <f t="array" ref="Z83">IF(D83="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D83))))</f>
+        <f t="array" ref="Z83">IF(D87="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D87))))</f>
         <v/>
       </c>
     </row>
     <row r="84" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z84" t="str" cm="1">
-        <f t="array" ref="Z84">IF(D84="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D84))))</f>
+        <f t="array" ref="Z84">IF(D88="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D88))))</f>
         <v/>
       </c>
     </row>
     <row r="85" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z85" t="str" cm="1">
-        <f t="array" ref="Z85">IF(D85="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D85))))</f>
+        <f t="array" ref="Z85">IF(D89="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D89))))</f>
         <v/>
       </c>
     </row>
     <row r="86" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z86" t="str" cm="1">
-        <f t="array" ref="Z86">IF(D86="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D86))))</f>
+        <f t="array" ref="Z86">IF(D90="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D90))))</f>
         <v/>
       </c>
     </row>
     <row r="87" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z87" t="str" cm="1">
-        <f t="array" ref="Z87">IF(D87="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D87))))</f>
+        <f t="array" ref="Z87">IF(D91="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D91))))</f>
         <v/>
       </c>
     </row>
     <row r="88" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z88" t="str" cm="1">
-        <f t="array" ref="Z88">IF(D88="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D88))))</f>
+        <f t="array" ref="Z88">IF(D92="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D92))))</f>
         <v/>
       </c>
     </row>
     <row r="89" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z89" t="str" cm="1">
-        <f t="array" ref="Z89">IF(D89="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D89))))</f>
+        <f t="array" ref="Z89">IF(D93="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D93))))</f>
         <v/>
       </c>
     </row>
     <row r="90" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z90" t="str" cm="1">
-        <f t="array" ref="Z90">IF(D90="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D90))))</f>
+        <f t="array" ref="Z90">IF(D94="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D94))))</f>
         <v/>
       </c>
     </row>
     <row r="91" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z91" t="str" cm="1">
-        <f t="array" ref="Z91">IF(D91="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D91))))</f>
+        <f t="array" ref="Z91">IF(D95="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D95))))</f>
         <v/>
       </c>
     </row>
     <row r="92" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z92" t="str" cm="1">
-        <f t="array" ref="Z92">IF(D92="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D92))))</f>
+        <f t="array" ref="Z92">IF(D96="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D96))))</f>
         <v/>
       </c>
     </row>
     <row r="93" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z93" t="str" cm="1">
-        <f t="array" ref="Z93">IF(D93="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D93))))</f>
+        <f t="array" ref="Z93">IF(D97="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D97))))</f>
         <v/>
       </c>
     </row>
     <row r="94" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z94" t="str" cm="1">
-        <f t="array" ref="Z94">IF(D94="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D94))))</f>
+        <f t="array" ref="Z94">IF(D98="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D98))))</f>
         <v/>
       </c>
     </row>
     <row r="95" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z95" t="str" cm="1">
-        <f t="array" ref="Z95">IF(D95="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D95))))</f>
+        <f t="array" ref="Z95">IF(D99="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D99))))</f>
         <v/>
       </c>
     </row>
     <row r="96" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z96" t="str" cm="1">
-        <f t="array" ref="Z96">IF(D96="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D96))))</f>
+        <f t="array" ref="Z96">IF(D100="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D100))))</f>
         <v/>
       </c>
     </row>
     <row r="97" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z97" t="str" cm="1">
-        <f t="array" ref="Z97">IF(D97="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D97))))</f>
+        <f t="array" ref="Z97">IF(D101="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D101))))</f>
         <v/>
       </c>
     </row>
     <row r="98" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z98" t="str" cm="1">
-        <f t="array" ref="Z98">IF(D98="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D98))))</f>
+        <f t="array" ref="Z98">IF(D102="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D102))))</f>
         <v/>
       </c>
     </row>
     <row r="99" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z99" t="str" cm="1">
-        <f t="array" ref="Z99">IF(D99="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D99))))</f>
+        <f t="array" ref="Z99">IF(D103="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D103))))</f>
         <v/>
       </c>
     </row>
     <row r="100" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z100" t="str" cm="1">
-        <f t="array" ref="Z100">IF(D100="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D100))))</f>
+        <f t="array" ref="Z100">IF(D104="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D104))))</f>
         <v/>
       </c>
     </row>
     <row r="101" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z101" t="str" cm="1">
-        <f t="array" ref="Z101">IF(D101="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D101))))</f>
+        <f t="array" ref="Z101">IF(D105="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D105))))</f>
         <v/>
       </c>
     </row>
     <row r="102" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z102" t="str" cm="1">
-        <f t="array" ref="Z102">IF(D102="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D102))))</f>
+        <f t="array" ref="Z102">IF(D106="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D106))))</f>
         <v/>
       </c>
     </row>
     <row r="103" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z103" t="str" cm="1">
-        <f t="array" ref="Z103">IF(D103="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D103))))</f>
+        <f t="array" ref="Z103">IF(D107="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D107))))</f>
         <v/>
       </c>
     </row>
     <row r="104" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z104" t="str" cm="1">
-        <f t="array" ref="Z104">IF(D104="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D104))))</f>
+        <f t="array" ref="Z104">IF(D108="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D108))))</f>
         <v/>
       </c>
     </row>
     <row r="105" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z105" t="str" cm="1">
-        <f t="array" ref="Z105">IF(D105="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D105))))</f>
+        <f t="array" ref="Z105">IF(D109="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D109))))</f>
         <v/>
       </c>
     </row>
     <row r="106" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z106" t="str" cm="1">
-        <f t="array" ref="Z106">IF(D106="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D106))))</f>
+        <f t="array" ref="Z106">IF(D110="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D110))))</f>
         <v/>
       </c>
     </row>
     <row r="107" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z107" t="str" cm="1">
-        <f t="array" ref="Z107">IF(D107="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D107))))</f>
+        <f t="array" ref="Z107">IF(D111="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D111))))</f>
         <v/>
       </c>
     </row>
     <row r="108" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z108" t="str" cm="1">
-        <f t="array" ref="Z108">IF(D108="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D108))))</f>
+        <f t="array" ref="Z108">IF(D112="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D112))))</f>
         <v/>
       </c>
     </row>
     <row r="109" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z109" t="str" cm="1">
-        <f t="array" ref="Z109">IF(D109="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D109))))</f>
+        <f t="array" ref="Z109">IF(D113="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D113))))</f>
         <v/>
       </c>
     </row>
     <row r="110" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z110" t="str" cm="1">
-        <f t="array" ref="Z110">IF(D110="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D110))))</f>
+        <f t="array" ref="Z110">IF(D114="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D114))))</f>
         <v/>
       </c>
     </row>
     <row r="111" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z111" t="str" cm="1">
-        <f t="array" ref="Z111">IF(D111="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D111))))</f>
+        <f t="array" ref="Z111">IF(D115="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D115))))</f>
         <v/>
       </c>
     </row>
     <row r="112" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z112" t="str" cm="1">
-        <f t="array" ref="Z112">IF(D112="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D112))))</f>
+        <f t="array" ref="Z112">IF(D116="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D116))))</f>
         <v/>
       </c>
     </row>
     <row r="113" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z113" t="str" cm="1">
-        <f t="array" ref="Z113">IF(D113="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D113))))</f>
+        <f t="array" ref="Z113">IF(D117="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D117))))</f>
         <v/>
       </c>
     </row>
     <row r="114" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z114" t="str" cm="1">
-        <f t="array" ref="Z114">IF(D114="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D114))))</f>
+        <f t="array" ref="Z114">IF(D118="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D118))))</f>
         <v/>
       </c>
     </row>
     <row r="115" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z115" t="str" cm="1">
-        <f t="array" ref="Z115">IF(D115="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D115))))</f>
+        <f t="array" ref="Z115">IF(D119="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D119))))</f>
         <v/>
       </c>
     </row>
     <row r="116" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z116" t="str" cm="1">
-        <f t="array" ref="Z116">IF(D116="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D116))))</f>
+        <f t="array" ref="Z116">IF(D120="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D120))))</f>
         <v/>
       </c>
     </row>
     <row r="117" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z117" t="str" cm="1">
-        <f t="array" ref="Z117">IF(D117="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D117))))</f>
+        <f t="array" ref="Z117">IF(D121="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D121))))</f>
         <v/>
       </c>
     </row>
     <row r="118" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z118" t="str" cm="1">
-        <f t="array" ref="Z118">IF(D118="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D118))))</f>
+        <f t="array" ref="Z118">IF(D122="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D122))))</f>
         <v/>
       </c>
     </row>
     <row r="119" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z119" t="str" cm="1">
-        <f t="array" ref="Z119">IF(D119="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D119))))</f>
+        <f t="array" ref="Z119">IF(D123="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D123))))</f>
         <v/>
       </c>
     </row>
     <row r="120" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z120" t="str" cm="1">
-        <f t="array" ref="Z120">IF(D120="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D120))))</f>
+        <f t="array" ref="Z120">IF(D124="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D124))))</f>
         <v/>
       </c>
     </row>
     <row r="121" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z121" t="str" cm="1">
-        <f t="array" ref="Z121">IF(D121="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D121))))</f>
+        <f t="array" ref="Z121">IF(D125="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D125))))</f>
         <v/>
       </c>
     </row>
     <row r="122" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z122" t="str" cm="1">
-        <f t="array" ref="Z122">IF(D122="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D122))))</f>
+        <f t="array" ref="Z122">IF(D126="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D126))))</f>
         <v/>
       </c>
     </row>
     <row r="123" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z123" t="str" cm="1">
-        <f t="array" ref="Z123">IF(D123="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D123))))</f>
+        <f t="array" ref="Z123">IF(D127="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D127))))</f>
         <v/>
       </c>
     </row>
     <row r="124" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z124" t="str" cm="1">
-        <f t="array" ref="Z124">IF(D124="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D124))))</f>
+        <f t="array" ref="Z124">IF(D128="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D128))))</f>
         <v/>
       </c>
     </row>
     <row r="125" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z125" t="str" cm="1">
-        <f t="array" ref="Z125">IF(D125="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D125))))</f>
+        <f t="array" ref="Z125">IF(D129="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D129))))</f>
         <v/>
       </c>
     </row>
     <row r="126" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z126" t="str" cm="1">
-        <f t="array" ref="Z126">IF(D126="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D126))))</f>
+        <f t="array" ref="Z126">IF(D130="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D130))))</f>
         <v/>
       </c>
     </row>
     <row r="127" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z127" t="str" cm="1">
-        <f t="array" ref="Z127">IF(D127="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D127))))</f>
+        <f t="array" ref="Z127">IF(D131="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D131))))</f>
         <v/>
       </c>
     </row>
     <row r="128" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z128" t="str" cm="1">
-        <f t="array" ref="Z128">IF(D128="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D128))))</f>
+        <f t="array" ref="Z128">IF(D132="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D132))))</f>
         <v/>
       </c>
     </row>
     <row r="129" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z129" t="str" cm="1">
-        <f t="array" ref="Z129">IF(D129="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D129))))</f>
+        <f t="array" ref="Z129">IF(D133="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D133))))</f>
         <v/>
       </c>
     </row>
     <row r="130" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z130" t="str" cm="1">
-        <f t="array" ref="Z130">IF(D130="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D130))))</f>
+        <f t="array" ref="Z130">IF(D134="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D134))))</f>
         <v/>
       </c>
     </row>
     <row r="131" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z131" t="str" cm="1">
-        <f t="array" ref="Z131">IF(D131="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D131))))</f>
+        <f t="array" ref="Z131">IF(D135="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D135))))</f>
         <v/>
       </c>
     </row>
     <row r="132" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z132" t="str" cm="1">
-        <f t="array" ref="Z132">IF(D132="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D132))))</f>
+        <f t="array" ref="Z132">IF(D136="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D136))))</f>
         <v/>
       </c>
     </row>
     <row r="133" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z133" t="str" cm="1">
-        <f t="array" ref="Z133">IF(D133="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D133))))</f>
+        <f t="array" ref="Z133">IF(D137="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D137))))</f>
         <v/>
       </c>
     </row>
     <row r="134" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z134" t="str" cm="1">
-        <f t="array" ref="Z134">IF(D134="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D134))))</f>
+        <f t="array" ref="Z134">IF(D138="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D138))))</f>
         <v/>
       </c>
     </row>
     <row r="135" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z135" t="str" cm="1">
-        <f t="array" ref="Z135">IF(D135="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D135))))</f>
+        <f t="array" ref="Z135">IF(D139="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D139))))</f>
         <v/>
       </c>
     </row>
     <row r="136" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z136" t="str" cm="1">
-        <f t="array" ref="Z136">IF(D136="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D136))))</f>
+        <f t="array" ref="Z136">IF(D140="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D140))))</f>
         <v/>
       </c>
     </row>
     <row r="137" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z137" t="str" cm="1">
-        <f t="array" ref="Z137">IF(D137="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D137))))</f>
+        <f t="array" ref="Z137">IF(D141="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D141))))</f>
         <v/>
       </c>
     </row>
     <row r="138" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z138" t="str" cm="1">
-        <f t="array" ref="Z138">IF(D138="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D138))))</f>
+        <f t="array" ref="Z138">IF(D142="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D142))))</f>
         <v/>
       </c>
     </row>
     <row r="139" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z139" t="str" cm="1">
-        <f t="array" ref="Z139">IF(D139="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D139))))</f>
+        <f t="array" ref="Z139">IF(D143="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D143))))</f>
         <v/>
       </c>
     </row>
     <row r="140" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z140" t="str" cm="1">
-        <f t="array" ref="Z140">IF(D140="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D140))))</f>
+        <f t="array" ref="Z140">IF(D144="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D144))))</f>
         <v/>
       </c>
     </row>
     <row r="141" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z141" t="str" cm="1">
-        <f t="array" ref="Z141">IF(D141="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D141))))</f>
+        <f t="array" ref="Z141">IF(D145="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D145))))</f>
         <v/>
       </c>
     </row>
     <row r="142" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z142" t="str" cm="1">
-        <f t="array" ref="Z142">IF(D142="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D142))))</f>
+        <f t="array" ref="Z142">IF(D146="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D146))))</f>
         <v/>
       </c>
     </row>
     <row r="143" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z143" t="str" cm="1">
-        <f t="array" ref="Z143">IF(D143="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D143))))</f>
+        <f t="array" ref="Z143">IF(D147="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D147))))</f>
         <v/>
       </c>
     </row>
     <row r="144" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z144" t="str" cm="1">
-        <f t="array" ref="Z144">IF(D144="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D144))))</f>
+        <f t="array" ref="Z144">IF(D148="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D148))))</f>
         <v/>
       </c>
     </row>
     <row r="145" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z145" t="str" cm="1">
-        <f t="array" ref="Z145">IF(D145="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D145))))</f>
+        <f t="array" ref="Z145">IF(D149="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D149))))</f>
         <v/>
       </c>
     </row>
     <row r="146" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z146" t="str" cm="1">
-        <f t="array" ref="Z146">IF(D146="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D146))))</f>
+        <f t="array" ref="Z146">IF(D150="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D150))))</f>
         <v/>
       </c>
     </row>
     <row r="147" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z147" t="str" cm="1">
-        <f t="array" ref="Z147">IF(D147="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D147))))</f>
+        <f t="array" ref="Z147">IF(D151="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D151))))</f>
         <v/>
       </c>
     </row>
     <row r="148" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z148" t="str" cm="1">
-        <f t="array" ref="Z148">IF(D148="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D148))))</f>
+        <f t="array" ref="Z148">IF(D152="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D152))))</f>
         <v/>
       </c>
     </row>
     <row r="149" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z149" t="str" cm="1">
-        <f t="array" ref="Z149">IF(D149="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D149))))</f>
+        <f t="array" ref="Z149">IF(D153="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D153))))</f>
         <v/>
       </c>
     </row>
     <row r="150" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z150" t="str" cm="1">
-        <f t="array" ref="Z150">IF(D150="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D150))))</f>
+        <f t="array" ref="Z150">IF(D154="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D154))))</f>
         <v/>
       </c>
     </row>
     <row r="151" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z151" t="str" cm="1">
-        <f t="array" ref="Z151">IF(D151="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D151))))</f>
+        <f t="array" ref="Z151">IF(D155="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D155))))</f>
         <v/>
       </c>
     </row>
     <row r="152" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z152" t="str" cm="1">
-        <f t="array" ref="Z152">IF(D152="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D152))))</f>
+        <f t="array" ref="Z152">IF(D156="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D156))))</f>
         <v/>
       </c>
     </row>
     <row r="153" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z153" t="str" cm="1">
-        <f t="array" ref="Z153">IF(D153="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D153))))</f>
+        <f t="array" ref="Z153">IF(D157="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D157))))</f>
         <v/>
       </c>
     </row>
     <row r="154" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z154" t="str" cm="1">
-        <f t="array" ref="Z154">IF(D154="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D154))))</f>
+        <f t="array" ref="Z154">IF(D158="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D158))))</f>
         <v/>
       </c>
     </row>
     <row r="155" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z155" t="str" cm="1">
-        <f t="array" ref="Z155">IF(D155="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D155))))</f>
+        <f t="array" ref="Z155">IF(D159="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D159))))</f>
         <v/>
       </c>
     </row>
     <row r="156" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z156" t="str" cm="1">
-        <f t="array" ref="Z156">IF(D156="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D156))))</f>
+        <f t="array" ref="Z156">IF(D160="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D160))))</f>
         <v/>
       </c>
     </row>
     <row r="157" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z157" t="str" cm="1">
-        <f t="array" ref="Z157">IF(D157="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D157))))</f>
+        <f t="array" ref="Z157">IF(D161="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D161))))</f>
         <v/>
       </c>
     </row>
     <row r="158" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z158" t="str" cm="1">
-        <f t="array" ref="Z158">IF(D158="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D158))))</f>
+        <f t="array" ref="Z158">IF(D162="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D162))))</f>
         <v/>
       </c>
     </row>
     <row r="159" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z159" t="str" cm="1">
-        <f t="array" ref="Z159">IF(D159="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D159))))</f>
+        <f t="array" ref="Z159">IF(D163="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D163))))</f>
         <v/>
       </c>
     </row>
     <row r="160" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z160" t="str" cm="1">
-        <f t="array" ref="Z160">IF(D160="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D160))))</f>
+        <f t="array" ref="Z160">IF(D164="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D164))))</f>
         <v/>
       </c>
     </row>
     <row r="161" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z161" t="str" cm="1">
-        <f t="array" ref="Z161">IF(D161="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D161))))</f>
+        <f t="array" ref="Z161">IF(D165="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D165))))</f>
         <v/>
       </c>
     </row>
     <row r="162" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z162" t="str" cm="1">
-        <f t="array" ref="Z162">IF(D162="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D162))))</f>
+        <f t="array" ref="Z162">IF(D166="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D166))))</f>
         <v/>
       </c>
     </row>
     <row r="163" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z163" t="str" cm="1">
-        <f t="array" ref="Z163">IF(D163="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D163))))</f>
+        <f t="array" ref="Z163">IF(D167="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D167))))</f>
         <v/>
       </c>
     </row>
     <row r="164" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z164" t="str" cm="1">
-        <f t="array" ref="Z164">IF(D164="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D164))))</f>
+        <f t="array" ref="Z164">IF(D168="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D168))))</f>
         <v/>
       </c>
     </row>
     <row r="165" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z165" t="str" cm="1">
-        <f t="array" ref="Z165">IF(D165="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D165))))</f>
+        <f t="array" ref="Z165">IF(D169="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D169))))</f>
         <v/>
       </c>
     </row>
     <row r="166" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z166" t="str" cm="1">
-        <f t="array" ref="Z166">IF(D166="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D166))))</f>
+        <f t="array" ref="Z166">IF(D170="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D170))))</f>
         <v/>
       </c>
     </row>
     <row r="167" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z167" t="str" cm="1">
-        <f t="array" ref="Z167">IF(D167="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D167))))</f>
+        <f t="array" ref="Z167">IF(D171="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D171))))</f>
         <v/>
       </c>
     </row>
     <row r="168" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z168" t="str" cm="1">
-        <f t="array" ref="Z168">IF(D168="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D168))))</f>
+        <f t="array" ref="Z168">IF(D172="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D172))))</f>
         <v/>
       </c>
     </row>
     <row r="169" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z169" t="str" cm="1">
-        <f t="array" ref="Z169">IF(D169="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D169))))</f>
+        <f t="array" ref="Z169">IF(D173="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D173))))</f>
         <v/>
       </c>
     </row>
     <row r="170" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z170" t="str" cm="1">
-        <f t="array" ref="Z170">IF(D170="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D170))))</f>
+        <f t="array" ref="Z170">IF(D174="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D174))))</f>
         <v/>
       </c>
     </row>
     <row r="171" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z171" t="str" cm="1">
-        <f t="array" ref="Z171">IF(D171="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D171))))</f>
+        <f t="array" ref="Z171">IF(D175="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D175))))</f>
         <v/>
       </c>
     </row>
     <row r="172" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z172" t="str" cm="1">
-        <f t="array" ref="Z172">IF(D172="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D172))))</f>
+        <f t="array" ref="Z172">IF(D176="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D176))))</f>
         <v/>
       </c>
     </row>
     <row r="173" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z173" t="str" cm="1">
-        <f t="array" ref="Z173">IF(D173="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D173))))</f>
+        <f t="array" ref="Z173">IF(D177="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D177))))</f>
         <v/>
       </c>
     </row>
     <row r="174" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z174" t="str" cm="1">
-        <f t="array" ref="Z174">IF(D174="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D174))))</f>
+        <f t="array" ref="Z174">IF(D178="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D178))))</f>
         <v/>
       </c>
     </row>
     <row r="175" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z175" t="str" cm="1">
-        <f t="array" ref="Z175">IF(D175="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D175))))</f>
+        <f t="array" ref="Z175">IF(D179="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D179))))</f>
         <v/>
       </c>
     </row>
     <row r="176" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z176" t="str" cm="1">
-        <f t="array" ref="Z176">IF(D176="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D176))))</f>
+        <f t="array" ref="Z176">IF(D180="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D180))))</f>
         <v/>
       </c>
     </row>
     <row r="177" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z177" t="str" cm="1">
-        <f t="array" ref="Z177">IF(D177="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D177))))</f>
+        <f t="array" ref="Z177">IF(D181="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D181))))</f>
         <v/>
       </c>
     </row>
     <row r="178" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z178" t="str" cm="1">
-        <f t="array" ref="Z178">IF(D178="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D178))))</f>
+        <f t="array" ref="Z178">IF(D182="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D182))))</f>
         <v/>
       </c>
     </row>
     <row r="179" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z179" t="str" cm="1">
-        <f t="array" ref="Z179">IF(D179="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D179))))</f>
+        <f t="array" ref="Z179">IF(D183="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D183))))</f>
         <v/>
       </c>
     </row>
     <row r="180" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z180" t="str" cm="1">
-        <f t="array" ref="Z180">IF(D180="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D180))))</f>
+        <f t="array" ref="Z180">IF(D184="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D184))))</f>
         <v/>
       </c>
     </row>
     <row r="181" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z181" t="str" cm="1">
-        <f t="array" ref="Z181">IF(D181="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D181))))</f>
+        <f t="array" ref="Z181">IF(D185="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D185))))</f>
         <v/>
       </c>
     </row>
     <row r="182" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z182" t="str" cm="1">
-        <f t="array" ref="Z182">IF(D182="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D182))))</f>
+        <f t="array" ref="Z182">IF(D186="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D186))))</f>
         <v/>
       </c>
     </row>
     <row r="183" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z183" t="str" cm="1">
-        <f t="array" ref="Z183">IF(D183="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D183))))</f>
+        <f t="array" ref="Z183">IF(D187="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D187))))</f>
         <v/>
       </c>
     </row>
     <row r="184" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z184" t="str" cm="1">
-        <f t="array" ref="Z184">IF(D184="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D184))))</f>
+        <f t="array" ref="Z184">IF(D188="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D188))))</f>
         <v/>
       </c>
     </row>
     <row r="185" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z185" t="str" cm="1">
-        <f t="array" ref="Z185">IF(D185="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D185))))</f>
+        <f t="array" ref="Z185">IF(D189="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D189))))</f>
         <v/>
       </c>
     </row>
     <row r="186" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z186" t="str" cm="1">
-        <f t="array" ref="Z186">IF(D186="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D186))))</f>
+        <f t="array" ref="Z186">IF(D190="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D190))))</f>
         <v/>
       </c>
     </row>
     <row r="187" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z187" t="str" cm="1">
-        <f t="array" ref="Z187">IF(D187="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D187))))</f>
+        <f t="array" ref="Z187">IF(D191="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D191))))</f>
         <v/>
       </c>
     </row>
     <row r="188" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z188" t="str" cm="1">
-        <f t="array" ref="Z188">IF(D188="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D188))))</f>
+        <f t="array" ref="Z188">IF(D192="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D192))))</f>
         <v/>
       </c>
     </row>
     <row r="189" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z189" t="str" cm="1">
-        <f t="array" ref="Z189">IF(D189="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D189))))</f>
+        <f t="array" ref="Z189">IF(D193="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D193))))</f>
         <v/>
       </c>
     </row>
     <row r="190" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z190" t="str" cm="1">
-        <f t="array" ref="Z190">IF(D190="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D190))))</f>
+        <f t="array" ref="Z190">IF(D194="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D194))))</f>
         <v/>
       </c>
     </row>
     <row r="191" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z191" t="str" cm="1">
-        <f t="array" ref="Z191">IF(D191="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D191))))</f>
+        <f t="array" ref="Z191">IF(D195="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D195))))</f>
         <v/>
       </c>
     </row>
     <row r="192" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z192" t="str" cm="1">
-        <f t="array" ref="Z192">IF(D192="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D192))))</f>
+        <f t="array" ref="Z192">IF(D196="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D196))))</f>
         <v/>
       </c>
     </row>
     <row r="193" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z193" t="str" cm="1">
-        <f t="array" ref="Z193">IF(D193="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D193))))</f>
+        <f t="array" ref="Z193">IF(D197="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D197))))</f>
         <v/>
       </c>
     </row>
     <row r="194" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z194" t="str" cm="1">
-        <f t="array" ref="Z194">IF(D194="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D194))))</f>
+        <f t="array" ref="Z194">IF(D198="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D198))))</f>
         <v/>
       </c>
     </row>
     <row r="195" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z195" t="str" cm="1">
-        <f t="array" ref="Z195">IF(D195="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D195))))</f>
+        <f t="array" ref="Z195">IF(D199="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D199))))</f>
         <v/>
       </c>
     </row>
     <row r="196" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z196" t="str" cm="1">
-        <f t="array" ref="Z196">IF(D196="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D196))))</f>
+        <f t="array" ref="Z196">IF(D200="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D200))))</f>
         <v/>
       </c>
     </row>
     <row r="197" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z197" t="str" cm="1">
-        <f t="array" ref="Z197">IF(D197="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D197))))</f>
+        <f t="array" ref="Z197">IF(D201="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D201))))</f>
         <v/>
       </c>
     </row>
     <row r="198" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z198" t="str" cm="1">
-        <f t="array" ref="Z198">IF(D198="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D198))))</f>
+        <f t="array" ref="Z198">IF(D202="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D202))))</f>
         <v/>
       </c>
     </row>
     <row r="199" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z199" t="str" cm="1">
-        <f t="array" ref="Z199">IF(D199="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D199))))</f>
+        <f t="array" ref="Z199">IF(D203="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D203))))</f>
         <v/>
       </c>
     </row>
     <row r="200" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z200" t="str" cm="1">
-        <f t="array" ref="Z200">IF(D200="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D200))))</f>
+        <f t="array" ref="Z200">IF(D204="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D204))))</f>
         <v/>
       </c>
     </row>
     <row r="201" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z201" t="str" cm="1">
-        <f t="array" ref="Z201">IF(D201="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D201))))</f>
+        <f t="array" ref="Z201">IF(D205="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D205))))</f>
         <v/>
       </c>
     </row>
     <row r="202" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z202" t="str" cm="1">
-        <f t="array" ref="Z202">IF(D202="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D202))))</f>
+        <f t="array" ref="Z202">IF(D206="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D206))))</f>
         <v/>
       </c>
     </row>
     <row r="203" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z203" t="str" cm="1">
-        <f t="array" ref="Z203">IF(D203="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D203))))</f>
+        <f t="array" ref="Z203">IF(D207="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D207))))</f>
         <v/>
       </c>
     </row>
     <row r="204" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z204" t="str" cm="1">
-        <f t="array" ref="Z204">IF(D204="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D204))))</f>
+        <f t="array" ref="Z204">IF(D208="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D208))))</f>
         <v/>
       </c>
     </row>
     <row r="205" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z205" t="str" cm="1">
-        <f t="array" ref="Z205">IF(D205="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D205))))</f>
+        <f t="array" ref="Z205">IF(D209="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D209))))</f>
         <v/>
       </c>
     </row>
     <row r="206" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z206" t="str" cm="1">
-        <f t="array" ref="Z206">IF(D206="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D206))))</f>
+        <f t="array" ref="Z206">IF(D210="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D210))))</f>
         <v/>
       </c>
     </row>
     <row r="207" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z207" t="str" cm="1">
-        <f t="array" ref="Z207">IF(D207="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D207))))</f>
+        <f t="array" ref="Z207">IF(D211="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D211))))</f>
         <v/>
       </c>
     </row>
     <row r="208" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z208" t="str" cm="1">
-        <f t="array" ref="Z208">IF(D208="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D208))))</f>
+        <f t="array" ref="Z208">IF(D212="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D212))))</f>
         <v/>
       </c>
     </row>
     <row r="209" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z209" t="str" cm="1">
-        <f t="array" ref="Z209">IF(D209="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D209))))</f>
+        <f t="array" ref="Z209">IF(D213="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D213))))</f>
         <v/>
       </c>
     </row>
     <row r="210" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z210" t="str" cm="1">
-        <f t="array" ref="Z210">IF(D210="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D210))))</f>
+        <f t="array" ref="Z210">IF(D214="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D214))))</f>
         <v/>
       </c>
     </row>
     <row r="211" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z211" t="str" cm="1">
-        <f t="array" ref="Z211">IF(D211="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D211))))</f>
+        <f t="array" ref="Z211">IF(D215="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D215))))</f>
         <v/>
       </c>
     </row>
     <row r="212" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z212" t="str" cm="1">
-        <f t="array" ref="Z212">IF(D212="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D212))))</f>
+        <f t="array" ref="Z212">IF(D216="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D216))))</f>
         <v/>
       </c>
     </row>
     <row r="213" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z213" t="str" cm="1">
-        <f t="array" ref="Z213">IF(D213="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D213))))</f>
+        <f t="array" ref="Z213">IF(D217="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D217))))</f>
         <v/>
       </c>
     </row>
     <row r="214" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z214" t="str" cm="1">
-        <f t="array" ref="Z214">IF(D214="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D214))))</f>
+        <f t="array" ref="Z214">IF(D218="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D218))))</f>
         <v/>
       </c>
     </row>
     <row r="215" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z215" t="str" cm="1">
-        <f t="array" ref="Z215">IF(D215="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D215))))</f>
+        <f t="array" ref="Z215">IF(D219="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D219))))</f>
         <v/>
       </c>
     </row>
     <row r="216" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z216" t="str" cm="1">
-        <f t="array" ref="Z216">IF(D216="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D216))))</f>
+        <f t="array" ref="Z216">IF(D220="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D220))))</f>
         <v/>
       </c>
     </row>
     <row r="217" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z217" t="str" cm="1">
-        <f t="array" ref="Z217">IF(D217="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D217))))</f>
+        <f t="array" ref="Z217">IF(D221="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D221))))</f>
         <v/>
       </c>
     </row>
     <row r="218" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z218" t="str" cm="1">
-        <f t="array" ref="Z218">IF(D218="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D218))))</f>
+        <f t="array" ref="Z218">IF(D222="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D222))))</f>
         <v/>
       </c>
     </row>
     <row r="219" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z219" t="str" cm="1">
-        <f t="array" ref="Z219">IF(D219="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D219))))</f>
+        <f t="array" ref="Z219">IF(D223="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D223))))</f>
         <v/>
       </c>
     </row>
     <row r="220" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z220" t="str" cm="1">
-        <f t="array" ref="Z220">IF(D220="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D220))))</f>
+        <f t="array" ref="Z220">IF(D224="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D224))))</f>
         <v/>
       </c>
     </row>
     <row r="221" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z221" t="str" cm="1">
-        <f t="array" ref="Z221">IF(D221="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D221))))</f>
+        <f t="array" ref="Z221">IF(D225="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D225))))</f>
         <v/>
       </c>
     </row>
     <row r="222" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z222" t="str" cm="1">
-        <f t="array" ref="Z222">IF(D222="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D222))))</f>
+        <f t="array" ref="Z222">IF(D226="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D226))))</f>
         <v/>
       </c>
     </row>
     <row r="223" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z223" t="str" cm="1">
-        <f t="array" ref="Z223">IF(D223="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D223))))</f>
+        <f t="array" ref="Z223">IF(D227="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D227))))</f>
         <v/>
       </c>
     </row>
     <row r="224" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z224" t="str" cm="1">
-        <f t="array" ref="Z224">IF(D224="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D224))))</f>
+        <f t="array" ref="Z224">IF(D228="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D228))))</f>
         <v/>
       </c>
     </row>
     <row r="225" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z225" t="str" cm="1">
-        <f t="array" ref="Z225">IF(D225="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D225))))</f>
+        <f t="array" ref="Z225">IF(D229="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D229))))</f>
         <v/>
       </c>
     </row>
     <row r="226" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z226" t="str" cm="1">
-        <f t="array" ref="Z226">IF(D226="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D226))))</f>
+        <f t="array" ref="Z226">IF(D230="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D230))))</f>
         <v/>
       </c>
     </row>
     <row r="227" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z227" t="str" cm="1">
-        <f t="array" ref="Z227">IF(D227="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D227))))</f>
+        <f t="array" ref="Z227">IF(D231="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D231))))</f>
         <v/>
       </c>
     </row>
     <row r="228" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z228" t="str" cm="1">
-        <f t="array" ref="Z228">IF(D228="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D228))))</f>
+        <f t="array" ref="Z228">IF(D232="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D232))))</f>
         <v/>
       </c>
     </row>
     <row r="229" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z229" t="str" cm="1">
-        <f t="array" ref="Z229">IF(D229="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D229))))</f>
+        <f t="array" ref="Z229">IF(D233="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D233))))</f>
         <v/>
       </c>
     </row>
     <row r="230" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z230" t="str" cm="1">
-        <f t="array" ref="Z230">IF(D230="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D230))))</f>
+        <f t="array" ref="Z230">IF(D234="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D234))))</f>
         <v/>
       </c>
     </row>
     <row r="231" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z231" t="str" cm="1">
-        <f t="array" ref="Z231">IF(D231="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D231))))</f>
+        <f t="array" ref="Z231">IF(D235="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D235))))</f>
         <v/>
       </c>
     </row>
     <row r="232" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z232" t="str" cm="1">
-        <f t="array" ref="Z232">IF(D232="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D232))))</f>
+        <f t="array" ref="Z232">IF(D236="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D236))))</f>
         <v/>
       </c>
     </row>
     <row r="233" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z233" t="str" cm="1">
-        <f t="array" ref="Z233">IF(D233="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D233))))</f>
+        <f t="array" ref="Z233">IF(D237="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D237))))</f>
         <v/>
       </c>
     </row>
     <row r="234" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z234" t="str" cm="1">
-        <f t="array" ref="Z234">IF(D234="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D234))))</f>
+        <f t="array" ref="Z234">IF(D238="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D238))))</f>
         <v/>
       </c>
     </row>
     <row r="235" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z235" t="str" cm="1">
-        <f t="array" ref="Z235">IF(D235="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D235))))</f>
+        <f t="array" ref="Z235">IF(D239="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D239))))</f>
         <v/>
       </c>
     </row>
     <row r="236" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z236" t="str" cm="1">
-        <f t="array" ref="Z236">IF(D236="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D236))))</f>
+        <f t="array" ref="Z236">IF(D240="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D240))))</f>
         <v/>
       </c>
     </row>
     <row r="237" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z237" t="str" cm="1">
-        <f t="array" ref="Z237">IF(D237="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D237))))</f>
+        <f t="array" ref="Z237">IF(D241="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D241))))</f>
         <v/>
       </c>
     </row>
     <row r="238" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z238" t="str" cm="1">
-        <f t="array" ref="Z238">IF(D238="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D238))))</f>
+        <f t="array" ref="Z238">IF(D242="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D242))))</f>
         <v/>
       </c>
     </row>
     <row r="239" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z239" t="str" cm="1">
-        <f t="array" ref="Z239">IF(D239="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D239))))</f>
+        <f t="array" ref="Z239">IF(D243="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D243))))</f>
         <v/>
       </c>
     </row>
     <row r="240" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z240" t="str" cm="1">
-        <f t="array" ref="Z240">IF(D240="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D240))))</f>
+        <f t="array" ref="Z240">IF(D244="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D244))))</f>
         <v/>
       </c>
     </row>
     <row r="241" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z241" t="str" cm="1">
-        <f t="array" ref="Z241">IF(D241="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D241))))</f>
+        <f t="array" ref="Z241">IF(D245="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D245))))</f>
         <v/>
       </c>
     </row>
     <row r="242" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z242" t="str" cm="1">
-        <f t="array" ref="Z242">IF(D242="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D242))))</f>
+        <f t="array" ref="Z242">IF(D246="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D246))))</f>
         <v/>
       </c>
     </row>
     <row r="243" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z243" t="str" cm="1">
-        <f t="array" ref="Z243">IF(D243="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D243))))</f>
+        <f t="array" ref="Z243">IF(D247="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D247))))</f>
         <v/>
       </c>
     </row>
     <row r="244" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z244" t="str" cm="1">
-        <f t="array" ref="Z244">IF(D244="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D244))))</f>
+        <f t="array" ref="Z244">IF(D248="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D248))))</f>
         <v/>
       </c>
     </row>
     <row r="245" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z245" t="str" cm="1">
-        <f t="array" ref="Z245">IF(D245="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D245))))</f>
+        <f t="array" ref="Z245">IF(D249="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D249))))</f>
         <v/>
       </c>
     </row>
     <row r="246" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z246" t="str" cm="1">
-        <f t="array" ref="Z246">IF(D246="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D246))))</f>
+        <f t="array" ref="Z246">IF(D250="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D250))))</f>
         <v/>
       </c>
     </row>
     <row r="247" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z247" t="str" cm="1">
-        <f t="array" ref="Z247">IF(D247="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D247))))</f>
+        <f t="array" ref="Z247">IF(D251="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D251))))</f>
         <v/>
       </c>
     </row>
     <row r="248" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z248" t="str" cm="1">
-        <f t="array" ref="Z248">IF(D248="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D248))))</f>
+        <f t="array" ref="Z248">IF(D252="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D252))))</f>
         <v/>
       </c>
     </row>
     <row r="249" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z249" t="str" cm="1">
-        <f t="array" ref="Z249">IF(D249="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D249))))</f>
+        <f t="array" ref="Z249">IF(D253="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D253))))</f>
         <v/>
       </c>
     </row>
     <row r="250" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z250" t="str" cm="1">
-        <f t="array" ref="Z250">IF(D250="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D250))))</f>
+        <f t="array" ref="Z250">IF(D254="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D254))))</f>
         <v/>
       </c>
     </row>
     <row r="251" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z251" t="str" cm="1">
-        <f t="array" ref="Z251">IF(D251="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D251))))</f>
+        <f t="array" ref="Z251">IF(D255="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D255))))</f>
         <v/>
       </c>
     </row>
     <row r="252" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z252" t="str" cm="1">
-        <f t="array" ref="Z252">IF(D252="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D252))))</f>
+        <f t="array" ref="Z252">IF(D256="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D256))))</f>
         <v/>
       </c>
     </row>
     <row r="253" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z253" t="str" cm="1">
-        <f t="array" ref="Z253">IF(D253="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D253))))</f>
+        <f t="array" ref="Z253">IF(D257="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D257))))</f>
         <v/>
       </c>
     </row>
     <row r="254" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z254" t="str" cm="1">
-        <f t="array" ref="Z254">IF(D254="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D254))))</f>
+        <f t="array" ref="Z254">IF(D258="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D258))))</f>
         <v/>
       </c>
     </row>
     <row r="255" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z255" t="str" cm="1">
-        <f t="array" ref="Z255">IF(D255="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D255))))</f>
+        <f t="array" ref="Z255">IF(D259="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D259))))</f>
         <v/>
       </c>
     </row>
     <row r="256" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z256" t="str" cm="1">
-        <f t="array" ref="Z256">IF(D256="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D256))))</f>
+        <f t="array" ref="Z256">IF(D260="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D260))))</f>
         <v/>
       </c>
     </row>
     <row r="257" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z257" t="str" cm="1">
-        <f t="array" ref="Z257">IF(D257="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D257))))</f>
+        <f t="array" ref="Z257">IF(D261="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D261))))</f>
         <v/>
       </c>
     </row>
     <row r="258" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z258" t="str" cm="1">
-        <f t="array" ref="Z258">IF(D258="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D258))))</f>
+        <f t="array" ref="Z258">IF(D262="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D262))))</f>
         <v/>
       </c>
     </row>
     <row r="259" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z259" t="str" cm="1">
-        <f t="array" ref="Z259">IF(D259="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D259))))</f>
+        <f t="array" ref="Z259">IF(D263="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D263))))</f>
         <v/>
       </c>
     </row>
     <row r="260" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z260" t="str" cm="1">
-        <f t="array" ref="Z260">IF(D260="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D260))))</f>
+        <f t="array" ref="Z260">IF(D264="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D264))))</f>
         <v/>
       </c>
     </row>
     <row r="261" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z261" t="str" cm="1">
-        <f t="array" ref="Z261">IF(D261="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D261))))</f>
+        <f t="array" ref="Z261">IF(D265="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D265))))</f>
         <v/>
       </c>
     </row>
     <row r="262" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z262" t="str" cm="1">
-        <f t="array" ref="Z262">IF(D262="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D262))))</f>
+        <f t="array" ref="Z262">IF(D266="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D266))))</f>
         <v/>
       </c>
     </row>
     <row r="263" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z263" t="str" cm="1">
-        <f t="array" ref="Z263">IF(D263="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D263))))</f>
+        <f t="array" ref="Z263">IF(D267="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D267))))</f>
         <v/>
       </c>
     </row>
     <row r="264" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z264" t="str" cm="1">
-        <f t="array" ref="Z264">IF(D264="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D264))))</f>
+        <f t="array" ref="Z264">IF(D268="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D268))))</f>
         <v/>
       </c>
     </row>
     <row r="265" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z265" t="str" cm="1">
-        <f t="array" ref="Z265">IF(D265="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D265))))</f>
+        <f t="array" ref="Z265">IF(D269="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D269))))</f>
         <v/>
       </c>
     </row>
     <row r="266" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z266" t="str" cm="1">
-        <f t="array" ref="Z266">IF(D266="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D266))))</f>
+        <f t="array" ref="Z266">IF(D270="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D270))))</f>
         <v/>
       </c>
     </row>
     <row r="267" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z267" t="str" cm="1">
-        <f t="array" ref="Z267">IF(D267="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D267))))</f>
+        <f t="array" ref="Z267">IF(D271="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D271))))</f>
         <v/>
       </c>
     </row>
     <row r="268" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z268" t="str" cm="1">
-        <f t="array" ref="Z268">IF(D268="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D268))))</f>
+        <f t="array" ref="Z268">IF(D272="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D272))))</f>
         <v/>
       </c>
     </row>
     <row r="269" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z269" t="str" cm="1">
-        <f t="array" ref="Z269">IF(D269="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D269))))</f>
+        <f t="array" ref="Z269">IF(D273="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D273))))</f>
         <v/>
       </c>
     </row>
     <row r="270" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z270" t="str" cm="1">
-        <f t="array" ref="Z270">IF(D270="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D270))))</f>
+        <f t="array" ref="Z270">IF(D274="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D274))))</f>
         <v/>
       </c>
     </row>
     <row r="271" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z271" t="str" cm="1">
-        <f t="array" ref="Z271">IF(D271="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D271))))</f>
+        <f t="array" ref="Z271">IF(D275="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D275))))</f>
         <v/>
       </c>
     </row>
     <row r="272" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z272" t="str" cm="1">
-        <f t="array" ref="Z272">IF(D272="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D272))))</f>
+        <f t="array" ref="Z272">IF(D276="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D276))))</f>
         <v/>
       </c>
     </row>
     <row r="273" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z273" t="str" cm="1">
-        <f t="array" ref="Z273">IF(D273="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D273))))</f>
+        <f t="array" ref="Z273">IF(D277="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D277))))</f>
         <v/>
       </c>
     </row>
     <row r="274" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z274" t="str" cm="1">
-        <f t="array" ref="Z274">IF(D274="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D274))))</f>
+        <f t="array" ref="Z274">IF(D278="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D278))))</f>
         <v/>
       </c>
     </row>
     <row r="275" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z275" t="str" cm="1">
-        <f t="array" ref="Z275">IF(D275="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D275))))</f>
+        <f t="array" ref="Z275">IF(D279="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D279))))</f>
         <v/>
       </c>
     </row>
     <row r="276" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z276" t="str" cm="1">
-        <f t="array" ref="Z276">IF(D276="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D276))))</f>
+        <f t="array" ref="Z276">IF(D280="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D280))))</f>
         <v/>
       </c>
     </row>
     <row r="277" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z277" t="str" cm="1">
-        <f t="array" ref="Z277">IF(D277="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D277))))</f>
+        <f t="array" ref="Z277">IF(D281="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D281))))</f>
         <v/>
       </c>
     </row>
     <row r="278" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z278" t="str" cm="1">
-        <f t="array" ref="Z278">IF(D278="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D278))))</f>
+        <f t="array" ref="Z278">IF(D282="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D282))))</f>
         <v/>
       </c>
     </row>
     <row r="279" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z279" t="str" cm="1">
-        <f t="array" ref="Z279">IF(D279="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D279))))</f>
+        <f t="array" ref="Z279">IF(D283="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D283))))</f>
         <v/>
       </c>
     </row>
     <row r="280" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z280" t="str" cm="1">
-        <f t="array" ref="Z280">IF(D280="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D280))))</f>
+        <f t="array" ref="Z280">IF(D284="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D284))))</f>
         <v/>
       </c>
     </row>
     <row r="281" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z281" t="str" cm="1">
-        <f t="array" ref="Z281">IF(D281="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D281))))</f>
+        <f t="array" ref="Z281">IF(D285="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D285))))</f>
         <v/>
       </c>
     </row>
     <row r="282" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z282" t="str" cm="1">
-        <f t="array" ref="Z282">IF(D282="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D282))))</f>
+        <f t="array" ref="Z282">IF(D286="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D286))))</f>
         <v/>
       </c>
     </row>
     <row r="283" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z283" t="str" cm="1">
-        <f t="array" ref="Z283">IF(D283="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D283))))</f>
+        <f t="array" ref="Z283">IF(D287="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D287))))</f>
         <v/>
       </c>
     </row>
     <row r="284" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z284" t="str" cm="1">
-        <f t="array" ref="Z284">IF(D284="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D284))))</f>
+        <f t="array" ref="Z284">IF(D288="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D288))))</f>
         <v/>
       </c>
     </row>
     <row r="285" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z285" t="str" cm="1">
-        <f t="array" ref="Z285">IF(D285="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D285))))</f>
+        <f t="array" ref="Z285">IF(D289="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D289))))</f>
         <v/>
       </c>
     </row>
     <row r="286" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z286" t="str" cm="1">
-        <f t="array" ref="Z286">IF(D286="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D286))))</f>
+        <f t="array" ref="Z286">IF(D290="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D290))))</f>
         <v/>
       </c>
     </row>
     <row r="287" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z287" t="str" cm="1">
-        <f t="array" ref="Z287">IF(D287="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D287))))</f>
+        <f t="array" ref="Z287">IF(D291="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D291))))</f>
         <v/>
       </c>
     </row>
     <row r="288" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z288" t="str" cm="1">
-        <f t="array" ref="Z288">IF(D288="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D288))))</f>
+        <f t="array" ref="Z288">IF(D292="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D292))))</f>
         <v/>
       </c>
     </row>
     <row r="289" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z289" t="str" cm="1">
-        <f t="array" ref="Z289">IF(D289="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D289))))</f>
+        <f t="array" ref="Z289">IF(D293="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D293))))</f>
         <v/>
       </c>
     </row>
     <row r="290" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z290" t="str" cm="1">
-        <f t="array" ref="Z290">IF(D290="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D290))))</f>
+        <f t="array" ref="Z290">IF(D294="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D294))))</f>
         <v/>
       </c>
     </row>
     <row r="291" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z291" t="str" cm="1">
-        <f t="array" ref="Z291">IF(D291="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D291))))</f>
+        <f t="array" ref="Z291">IF(D295="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D295))))</f>
         <v/>
       </c>
     </row>
     <row r="292" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z292" t="str" cm="1">
-        <f t="array" ref="Z292">IF(D292="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D292))))</f>
+        <f t="array" ref="Z292">IF(D296="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D296))))</f>
         <v/>
       </c>
     </row>
     <row r="293" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z293" t="str" cm="1">
-        <f t="array" ref="Z293">IF(D293="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D293))))</f>
+        <f t="array" ref="Z293">IF(D297="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D297))))</f>
         <v/>
       </c>
     </row>
     <row r="294" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z294" t="str" cm="1">
-        <f t="array" ref="Z294">IF(D294="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D294))))</f>
+        <f t="array" ref="Z294">IF(D298="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D298))))</f>
         <v/>
       </c>
     </row>
     <row r="295" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z295" t="str" cm="1">
-        <f t="array" ref="Z295">IF(D295="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D295))))</f>
+        <f t="array" ref="Z295">IF(D299="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D299))))</f>
         <v/>
       </c>
     </row>
     <row r="296" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z296" t="str" cm="1">
-        <f t="array" ref="Z296">IF(D296="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D296))))</f>
+        <f t="array" ref="Z296">IF(D300="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D300))))</f>
         <v/>
       </c>
     </row>
     <row r="297" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z297" t="str" cm="1">
-        <f t="array" ref="Z297">IF(D297="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D297))))</f>
+        <f t="array" ref="Z297">IF(D301="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D301))))</f>
         <v/>
       </c>
     </row>
     <row r="298" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z298" t="str" cm="1">
-        <f t="array" ref="Z298">IF(D298="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D298))))</f>
+        <f t="array" ref="Z298">IF(D302="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D302))))</f>
         <v/>
       </c>
     </row>
     <row r="299" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z299" t="str" cm="1">
-        <f t="array" ref="Z299">IF(D299="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D299))))</f>
+        <f t="array" ref="Z299">IF(D303="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D303))))</f>
         <v/>
       </c>
     </row>
     <row r="300" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z300" t="str" cm="1">
-        <f t="array" ref="Z300">IF(D300="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D300))))</f>
+        <f t="array" ref="Z300">IF(D304="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D304))))</f>
         <v/>
       </c>
     </row>
     <row r="301" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z301" t="str" cm="1">
-        <f t="array" ref="Z301">IF(D301="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D301))))</f>
+        <f t="array" ref="Z301">IF(D305="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D305))))</f>
         <v/>
       </c>
     </row>
     <row r="302" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z302" t="str" cm="1">
-        <f t="array" ref="Z302">IF(D302="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D302))))</f>
+        <f t="array" ref="Z302">IF(D306="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D306))))</f>
         <v/>
       </c>
     </row>
     <row r="303" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z303" t="str" cm="1">
-        <f t="array" ref="Z303">IF(D303="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D303))))</f>
+        <f t="array" ref="Z303">IF(D307="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D307))))</f>
         <v/>
       </c>
     </row>
     <row r="304" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z304" t="str" cm="1">
-        <f t="array" ref="Z304">IF(D304="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D304))))</f>
+        <f t="array" ref="Z304">IF(D308="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D308))))</f>
         <v/>
       </c>
     </row>
     <row r="305" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z305" t="str" cm="1">
-        <f t="array" ref="Z305">IF(D305="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D305))))</f>
+        <f t="array" ref="Z305">IF(D309="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D309))))</f>
         <v/>
       </c>
     </row>
     <row r="306" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z306" t="str" cm="1">
-        <f t="array" ref="Z306">IF(D306="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D306))))</f>
+        <f t="array" ref="Z306">IF(D310="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D310))))</f>
         <v/>
       </c>
     </row>
     <row r="307" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z307" t="str" cm="1">
-        <f t="array" ref="Z307">IF(D307="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D307))))</f>
+        <f t="array" ref="Z307">IF(D311="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D311))))</f>
         <v/>
       </c>
     </row>
     <row r="308" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z308" t="str" cm="1">
-        <f t="array" ref="Z308">IF(D308="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D308))))</f>
+        <f t="array" ref="Z308">IF(D312="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D312))))</f>
         <v/>
       </c>
     </row>
     <row r="309" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z309" t="str" cm="1">
-        <f t="array" ref="Z309">IF(D309="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D309))))</f>
+        <f t="array" ref="Z309">IF(D313="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D313))))</f>
         <v/>
       </c>
     </row>
     <row r="310" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z310" t="str" cm="1">
-        <f t="array" ref="Z310">IF(D310="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D310))))</f>
+        <f t="array" ref="Z310">IF(D314="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D314))))</f>
         <v/>
       </c>
     </row>
     <row r="311" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z311" t="str" cm="1">
-        <f t="array" ref="Z311">IF(D311="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D311))))</f>
+        <f t="array" ref="Z311">IF(D315="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D315))))</f>
         <v/>
       </c>
     </row>
     <row r="312" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z312" t="str" cm="1">
-        <f t="array" ref="Z312">IF(D312="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D312))))</f>
+        <f t="array" ref="Z312">IF(D316="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D316))))</f>
         <v/>
       </c>
     </row>
     <row r="313" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z313" t="str" cm="1">
-        <f t="array" ref="Z313">IF(D313="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D313))))</f>
+        <f t="array" ref="Z313">IF(D317="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D317))))</f>
         <v/>
       </c>
     </row>
     <row r="314" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z314" t="str" cm="1">
-        <f t="array" ref="Z314">IF(D314="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D314))))</f>
+        <f t="array" ref="Z314">IF(D318="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D318))))</f>
         <v/>
       </c>
     </row>
     <row r="315" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z315" t="str" cm="1">
-        <f t="array" ref="Z315">IF(D315="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D315))))</f>
+        <f t="array" ref="Z315">IF(D319="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D319))))</f>
         <v/>
       </c>
     </row>
     <row r="316" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z316" t="str" cm="1">
-        <f t="array" ref="Z316">IF(D316="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D316))))</f>
+        <f t="array" ref="Z316">IF(D320="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D320))))</f>
         <v/>
       </c>
     </row>
     <row r="317" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z317" t="str" cm="1">
-        <f t="array" ref="Z317">IF(D317="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D317))))</f>
+        <f t="array" ref="Z317">IF(D321="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D321))))</f>
         <v/>
       </c>
     </row>
     <row r="318" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z318" t="str" cm="1">
-        <f t="array" ref="Z318">IF(D318="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D318))))</f>
+        <f t="array" ref="Z318">IF(D322="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D322))))</f>
         <v/>
       </c>
     </row>
     <row r="319" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z319" t="str" cm="1">
-        <f t="array" ref="Z319">IF(D319="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D319))))</f>
+        <f t="array" ref="Z319">IF(D323="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D323))))</f>
         <v/>
       </c>
     </row>
     <row r="320" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z320" t="str" cm="1">
-        <f t="array" ref="Z320">IF(D320="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D320))))</f>
+        <f t="array" ref="Z320">IF(D324="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D324))))</f>
         <v/>
       </c>
     </row>
     <row r="321" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z321" t="str" cm="1">
-        <f t="array" ref="Z321">IF(D321="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D321))))</f>
+        <f t="array" ref="Z321">IF(D325="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D325))))</f>
         <v/>
       </c>
     </row>
     <row r="322" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z322" t="str" cm="1">
-        <f t="array" ref="Z322">IF(D322="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D322))))</f>
+        <f t="array" ref="Z322">IF(D326="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D326))))</f>
         <v/>
       </c>
     </row>
     <row r="323" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z323" t="str" cm="1">
-        <f t="array" ref="Z323">IF(D323="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D323))))</f>
+        <f t="array" ref="Z323">IF(D327="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D327))))</f>
         <v/>
       </c>
     </row>
     <row r="324" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z324" t="str" cm="1">
-        <f t="array" ref="Z324">IF(D324="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D324))))</f>
+        <f t="array" ref="Z324">IF(D328="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D328))))</f>
         <v/>
       </c>
     </row>
     <row r="325" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z325" t="str" cm="1">
-        <f t="array" ref="Z325">IF(D325="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D325))))</f>
+        <f t="array" ref="Z325">IF(D329="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D329))))</f>
         <v/>
       </c>
     </row>
     <row r="326" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z326" t="str" cm="1">
-        <f t="array" ref="Z326">IF(D326="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D326))))</f>
+        <f t="array" ref="Z326">IF(D330="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D330))))</f>
         <v/>
       </c>
     </row>
     <row r="327" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z327" t="str" cm="1">
-        <f t="array" ref="Z327">IF(D327="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D327))))</f>
+        <f t="array" ref="Z327">IF(D331="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D331))))</f>
         <v/>
       </c>
     </row>
     <row r="328" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z328" t="str" cm="1">
-        <f t="array" ref="Z328">IF(D328="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D328))))</f>
+        <f t="array" ref="Z328">IF(D332="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D332))))</f>
         <v/>
       </c>
     </row>
     <row r="329" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z329" t="str" cm="1">
-        <f t="array" ref="Z329">IF(D329="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D329))))</f>
+        <f t="array" ref="Z329">IF(D333="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D333))))</f>
         <v/>
       </c>
     </row>
     <row r="330" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z330" t="str" cm="1">
-        <f t="array" ref="Z330">IF(D330="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D330))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="331" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z331" t="str" cm="1">
-        <f t="array" ref="Z331">IF(D331="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D331))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="332" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z332" t="str" cm="1">
-        <f t="array" ref="Z332">IF(D332="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D332))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="333" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z333" t="str" cm="1">
-        <f t="array" ref="Z333">IF(D333="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D333))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="334" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z334" t="str" cm="1">
-        <f t="array" ref="Z334">IF(D334="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D334))))</f>
+        <f t="array" ref="Z330">IF(D334="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D334))))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:H62">
+  <conditionalFormatting sqref="A2:I62">
     <cfRule type="expression" dxfId="5" priority="1">
-      <formula>$A2="Image"</formula>
+      <formula>$B2="Image"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="2">
-      <formula>$A2="Unattended"</formula>
+      <formula>$B2="Unattended"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="3">
-      <formula>$A2="Names"</formula>
+      <formula>$B2="Names"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="4">
-      <formula>$A2="Title"</formula>
+      <formula>$B2="Title"</formula>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="5">
-      <formula>$A2="Blank"</formula>
+      <formula>$B2="Blank"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A62" xr:uid="{5617E6A3-A45D-A149-9413-64DCE891C6E5}">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:G21" xr:uid="{6203C661-ADF7-6E4F-9F56-91BA5CFCE5F2}">
+      <formula1>_xlfn.ANCHORARRAY(#REF!)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F17" xr:uid="{1F94B56B-F8AA-AA43-9D00-1CB9410F5821}">
+      <formula1>_xlfn.ANCHORARRAY(AA2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F62" xr:uid="{223738F0-904C-EF49-B5FB-6F0EC97B1C65}">
+      <formula1>_xlfn.ANCHORARRAY(AA18)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G17" xr:uid="{4F7EC304-E9E0-844B-A75C-0D3F224D3A31}">
+      <formula1>_xlfn.ANCHORARRAY(AA2)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22:G62" xr:uid="{7C6D5477-AF8E-284D-B80D-F918A782DDBD}">
+      <formula1>_xlfn.ANCHORARRAY(AA18)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B62" xr:uid="{149ED5FE-6586-D048-9D95-0A1F563EE7B0}">
       <formula1>"Blank,Title,Names,Unattended,Image"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G62" xr:uid="{0C98340D-8637-1D4F-90E3-18D3FA303E8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H62" xr:uid="{00458457-181C-DD48-B0A3-3AA4591A8F19}">
       <formula1>"Yes,No"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E62" xr:uid="{58DAFFD4-8672-654E-A2F7-9C5232E04C15}">
-      <formula1>_xlfn.ANCHORARRAY(Z2)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F62" xr:uid="{B63D1895-6857-0E4E-8C0B-7D1FA2B72D9A}">
-      <formula1>_xlfn.ANCHORARRAY(Z2)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4787,17 +5149,17 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{E709A4CD-2E5D-714C-8FB5-F4C155BB24CC}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7F73A163-9D8B-7848-90EB-39BC7C9CAD79}">
           <x14:formula1>
             <xm:f>Names!$B$2:$B$2</xm:f>
           </x14:formula1>
           <xm:sqref>C63:C1048576</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{164FE455-A76D-C54B-9D8F-8847561ECC13}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7EB283A5-A5D2-ED4C-861A-A829636A8D31}">
           <x14:formula1>
             <xm:f>Names!$B$2:$B$50004</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D62</xm:sqref>
+          <xm:sqref>E2:E62</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -4811,7 +5173,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C66" sqref="C66"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/resources/template.xlsx
+++ b/resources/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfkain/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1D5FBC-553C-5941-B4FF-A75C20C03750}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436EDB0F-0DD9-FA49-8CB9-B17EB4DF1567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34140" windowHeight="27300" xr2:uid="{31235C52-23CF-6F4B-906D-2BCD49615FB2}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -555,9 +555,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -580,7 +577,111 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCAD2D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF6E684F"/>
+          <bgColor rgb="FFF1F2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF6E684F"/>
+          <bgColor rgb="FFF1F2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCAD2D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF6E684F"/>
+          <bgColor rgb="FFF1F2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FF6E684F"/>
+          <bgColor rgb="FFF1F2DA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -644,38 +745,14 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9978637043366805E-2"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <numFmt numFmtId="164" formatCode="00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -700,20 +777,44 @@
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </left>
+        <right style="thin">
+          <color theme="2" tint="-9.9978637043366805E-2"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="00"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -807,15 +908,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleLight8 2" pivot="0" count="9" xr9:uid="{80D2B743-4329-6544-8889-4B0B004A6420}">
-      <tableStyleElement type="wholeTable" dxfId="25"/>
-      <tableStyleElement type="headerRow" dxfId="24"/>
-      <tableStyleElement type="totalRow" dxfId="23"/>
-      <tableStyleElement type="firstColumn" dxfId="22"/>
-      <tableStyleElement type="lastColumn" dxfId="21"/>
-      <tableStyleElement type="firstRowStripe" dxfId="20"/>
-      <tableStyleElement type="secondRowStripe" dxfId="19"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="18"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="17"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="totalRow" dxfId="33"/>
+      <tableStyleElement type="firstColumn" dxfId="32"/>
+      <tableStyleElement type="lastColumn" dxfId="31"/>
+      <tableStyleElement type="firstRowStripe" dxfId="30"/>
+      <tableStyleElement type="secondRowStripe" dxfId="29"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -840,23 +941,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84E6271E-1140-5E4E-8C94-6B7E104C92AD}" name="Flow" displayName="Flow" ref="A1:I62" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84E6271E-1140-5E4E-8C94-6B7E104C92AD}" name="Flow" displayName="Flow" ref="A1:I62" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A1:I62" xr:uid="{84E6271E-1140-5E4E-8C94-6B7E104C92AD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I62">
     <sortCondition ref="A1:A62"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{9FB372EE-CC04-3D4B-B0DB-CDB6BC0707DC}" name="#" dataDxfId="8">
+    <tableColumn id="10" xr3:uid="{9FB372EE-CC04-3D4B-B0DB-CDB6BC0707DC}" name="#" dataDxfId="24">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D373A835-1BA4-AE45-9363-EE67E6165767}" name="Type" dataDxfId="6"/>
-    <tableColumn id="1" xr3:uid="{DA0621C3-BCB2-254D-93C7-AC63CC141306}" name="Title" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{57A8305B-55FC-E949-81F4-841B61FC4B23}" name="Subtitle" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{5BC695E7-5490-5647-A005-C433DAA5B19B}" name="Group" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{0C3D6887-B103-F14F-9A95-9058AB0F7C1C}" name="From" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{872D8E49-A803-AA40-AD08-83386EB17B64}" name="Until" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{6F06AFA4-A4D4-E242-AA22-F08727EA7CF0}" name="Main Only" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{7A62BBC9-6DF9-694F-A31F-9635C8DE492C}" name="Precedence" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{D373A835-1BA4-AE45-9363-EE67E6165767}" name="Type" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{DA0621C3-BCB2-254D-93C7-AC63CC141306}" name="Title" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{57A8305B-55FC-E949-81F4-841B61FC4B23}" name="Subtitle" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{5BC695E7-5490-5647-A005-C433DAA5B19B}" name="Group" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{0C3D6887-B103-F14F-9A95-9058AB0F7C1C}" name="From" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{872D8E49-A803-AA40-AD08-83386EB17B64}" name="Until" dataDxfId="18"/>
+    <tableColumn id="8" xr3:uid="{6F06AFA4-A4D4-E242-AA22-F08727EA7CF0}" name="Main Only" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{7A62BBC9-6DF9-694F-A31F-9635C8DE492C}" name="Precedence" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1199,18 +1300,18 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.5" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="47.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" style="9" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="27.1640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="27.5" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="7" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
@@ -1219,7 +1320,7 @@
       <c r="A1" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -1231,7 +1332,7 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1245,15 +1346,14 @@
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A2" s="10">
-        <f>ROW()-1</f>
+      <c r="A2" s="9">
+        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="11"/>
-      <c r="G2" s="2"/>
+      <c r="C2" s="10"/>
       <c r="I2" s="6"/>
       <c r="AA2" t="str" cm="1">
         <f t="array" ref="AA2">IF(E2="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E2)))</f>
@@ -1261,20 +1361,19 @@
       </c>
     </row>
     <row r="3" spans="1:39" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <f>ROW()-1</f>
+      <c r="A3" s="9">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2"/>
       <c r="I3" s="6"/>
       <c r="AA3" t="str" cm="1">
         <f t="array" ref="AA3">IF(E3="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E3)))</f>
@@ -1282,17 +1381,16 @@
       </c>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A4" s="10">
-        <f>ROW()-1</f>
+      <c r="A4" s="9">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="2"/>
       <c r="I4" s="6"/>
       <c r="AA4" t="str" cm="1">
         <f t="array" ref="AA4">IF(E4="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E4)))</f>
@@ -1300,18 +1398,17 @@
       </c>
     </row>
     <row r="5" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A5" s="10">
-        <f>ROW()-1</f>
+      <c r="A5" s="9">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="12"/>
+      <c r="C5" s="11"/>
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="2"/>
       <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
@@ -1328,15 +1425,14 @@
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A6" s="10">
-        <f>ROW()-1</f>
+      <c r="A6" s="9">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="11"/>
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
       <c r="AA6" t="str" cm="1">
@@ -1345,17 +1441,16 @@
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A7" s="10">
-        <f>ROW()-1</f>
-        <v>6</v>
-      </c>
-      <c r="B7" s="14" t="s">
+      <c r="A7" s="9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="2"/>
       <c r="I7" s="6"/>
       <c r="J7" s="1"/>
       <c r="AA7" t="str" cm="1">
@@ -1364,18 +1459,17 @@
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A8" s="10">
-        <f>ROW()-1</f>
+      <c r="A8" s="9">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="11"/>
       <c r="E8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G8" s="2"/>
       <c r="H8" s="7" t="s">
         <v>18</v>
       </c>
@@ -1389,20 +1483,19 @@
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A9" s="10">
-        <f>ROW()-1</f>
+      <c r="A9" s="9">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="2"/>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
       <c r="AA9" t="str" cm="1">
@@ -1411,15 +1504,14 @@
       </c>
     </row>
     <row r="10" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A10" s="10">
-        <f>ROW()-1</f>
+      <c r="A10" s="9">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="11"/>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
       <c r="AA10" t="str" cm="1">
@@ -1428,17 +1520,16 @@
       </c>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A11" s="10">
-        <f>ROW()-1</f>
+      <c r="A11" s="9">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="2"/>
       <c r="I11" s="6"/>
       <c r="J11" s="1"/>
       <c r="AA11" t="str" cm="1">
@@ -1447,20 +1538,19 @@
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A12" s="10">
-        <f>ROW()-1</f>
+      <c r="A12" s="9">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="2"/>
       <c r="I12" s="6"/>
       <c r="J12" s="1"/>
       <c r="AA12" t="str" cm="1">
@@ -1469,18 +1559,18 @@
       </c>
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A13" s="10">
-        <f>ROW()-1</f>
+      <c r="A13" s="9">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="11"/>
       <c r="E13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="2" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -1530,15 +1620,14 @@
       </c>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A14" s="10">
-        <f>ROW()-1</f>
+      <c r="A14" s="9">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="G14" s="2"/>
+      <c r="C14" s="11"/>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
       <c r="AA14" t="str" cm="1">
@@ -1547,20 +1636,19 @@
       </c>
     </row>
     <row r="15" spans="1:39" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="10">
-        <f>ROW()-1</f>
+      <c r="A15" s="9">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G15" s="2"/>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
       <c r="AA15" t="str" cm="1">
@@ -1569,19 +1657,19 @@
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
-      <c r="A16" s="10">
-        <f>ROW()-1</f>
+      <c r="A16" s="9">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="11"/>
       <c r="D16" s="4"/>
       <c r="E16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="G16" s="2" t="s">
@@ -1631,16 +1719,15 @@
       </c>
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A17" s="10">
-        <f>ROW()-1</f>
+      <c r="A17" s="9">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="11"/>
       <c r="D17" s="4"/>
-      <c r="G17" s="2"/>
       <c r="I17" s="6"/>
       <c r="J17" s="1"/>
       <c r="AA17" t="str" cm="1">
@@ -1649,41 +1736,40 @@
       </c>
     </row>
     <row r="18" spans="1:50" ht="34" x14ac:dyDescent="0.2">
-      <c r="A18" s="10">
-        <f>ROW()-1</f>
+      <c r="A18" s="9">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G18" s="2"/>
       <c r="I18" s="6"/>
       <c r="J18" s="1"/>
       <c r="AA18" t="str" cm="1">
-        <f t="array" ref="AA18">IF(E22="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E22))))</f>
+        <f t="array" ref="AA18">IF(E18="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E18)))</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A19" s="10">
-        <f>ROW()-1</f>
+      <c r="A19" s="9">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="11"/>
       <c r="D19" s="4"/>
       <c r="E19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1692,222 +1778,117 @@
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
       <c r="AA19" t="str" cm="1">
-        <f t="array" ref="AA19:AX19">IF(E23="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E23))))</f>
-        <v>Αγοράκη Ολυμπία</v>
+        <f t="array" ref="AA19:AM19">IF(E19="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E19)))</f>
+        <v>Βλασσοπούλου Μιχαέλα</v>
       </c>
       <c r="AB19" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
+        <v>Γκέλη Δέσποινα</v>
       </c>
       <c r="AC19" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
+        <v>Δομπρογιάννη Ελένη - Ιωάννα</v>
       </c>
       <c r="AD19" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
+        <v xml:space="preserve">Λιάκου Αθανασία - Ιωάννα </v>
       </c>
       <c r="AE19" t="str">
-        <v>Γκίκα Μαρίνα</v>
+        <v>Λούκας Χρήστος</v>
       </c>
       <c r="AF19" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
+        <v xml:space="preserve">Μιχαήλου Αικατερίνη </v>
       </c>
       <c r="AG19" t="str">
-        <v>Δουμένης Νικόλαος</v>
+        <v>Μπόβαλης Ευάγγελος - Μάριος</v>
       </c>
       <c r="AH19" t="str">
-        <v>Ιωαννίδη Λυδία</v>
+        <v>Παπαθανασίου Δημήτριος</v>
       </c>
       <c r="AI19" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
+        <v>Πετρόγιαννος Ευάγγελος</v>
       </c>
       <c r="AJ19" t="str">
-        <v>Καύκας Ανδρέας</v>
+        <v>Πισσάνη Σωτηρία</v>
       </c>
       <c r="AK19" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
+        <v>Τριανταφύλλου Αγγελική - Παρασκευή</v>
       </c>
       <c r="AL19" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+        <v>Φουρτουλάκης Ιωάννης</v>
       </c>
       <c r="AM19" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AN19" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AO19" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AP19" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AQ19" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AR19" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AS19" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AT19" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AU19" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AV19" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AW19" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AX19" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+        <v>Ψάλτης Γεώργιος</v>
       </c>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A20" s="10">
-        <f>ROW()-1</f>
+      <c r="A20" s="9">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="11"/>
       <c r="D20" s="4"/>
-      <c r="G20" s="2"/>
       <c r="I20" s="6"/>
       <c r="J20" s="1"/>
       <c r="AA20" t="str" cm="1">
-        <f t="array" ref="AA20">IF(E24="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E24))))</f>
+        <f t="array" ref="AA20">IF(E20="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E20)))</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A21" s="10">
-        <f>ROW()-1</f>
+      <c r="A21" s="9">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="G21" s="2"/>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
       <c r="AA21" t="str" cm="1">
-        <f t="array" ref="AA21">IF(E25="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E25))))</f>
+        <f t="array" ref="AA21">IF(E21="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E21)))</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:50" ht="17" x14ac:dyDescent="0.2">
-      <c r="A22" s="10">
-        <f>ROW()-1</f>
+      <c r="A22" s="9">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="2"/>
       <c r="I22" s="6"/>
       <c r="J22" s="1"/>
       <c r="AA22" t="str" cm="1">
-        <f t="array" ref="AA22:AX22">IF(E26="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E26))))</f>
-        <v>Αγοράκη Ολυμπία</v>
-      </c>
-      <c r="AB22" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
-      </c>
-      <c r="AC22" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
-      </c>
-      <c r="AD22" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
-      </c>
-      <c r="AE22" t="str">
-        <v>Γκίκα Μαρίνα</v>
-      </c>
-      <c r="AF22" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
-      </c>
-      <c r="AG22" t="str">
-        <v>Δουμένης Νικόλαος</v>
-      </c>
-      <c r="AH22" t="str">
-        <v>Ιωαννίδη Λυδία</v>
-      </c>
-      <c r="AI22" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
-      </c>
-      <c r="AJ22" t="str">
-        <v>Καύκας Ανδρέας</v>
-      </c>
-      <c r="AK22" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
-      </c>
-      <c r="AL22" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
-      </c>
-      <c r="AM22" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AN22" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AO22" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AP22" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AQ22" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AR22" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AS22" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AT22" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AU22" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AV22" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AW22" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AX22" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+        <f t="array" ref="AA22">IF(E22="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E22)))</f>
+        <v/>
       </c>
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A23" s="10">
-        <f>ROW()-1</f>
+      <c r="A23" s="9">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="4"/>
       <c r="E23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="F23" s="2" t="s">
         <v>7</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1916,133 +1897,131 @@
       <c r="I23" s="6"/>
       <c r="J23" s="1"/>
       <c r="AA23" t="str" cm="1">
-        <f t="array" ref="AA23">IF(E27="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E27))))</f>
-        <v/>
+        <f t="array" ref="AA23:AX23">IF(E23="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E23)))</f>
+        <v>Αγοράκη Ολυμπία</v>
+      </c>
+      <c r="AB23" t="str">
+        <v>Αλτόγλου Θεόδωρος</v>
+      </c>
+      <c r="AC23" t="str">
+        <v>Ανανιάδης Θεόδωρος</v>
+      </c>
+      <c r="AD23" t="str">
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
+      </c>
+      <c r="AE23" t="str">
+        <v>Γκίκα Μαρίνα</v>
+      </c>
+      <c r="AF23" t="str">
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
+      </c>
+      <c r="AG23" t="str">
+        <v>Δουμένης Νικόλαος</v>
+      </c>
+      <c r="AH23" t="str">
+        <v>Ιωαννίδη Λυδία</v>
+      </c>
+      <c r="AI23" t="str">
+        <v>Κατσαμάγκος Σταύρος</v>
+      </c>
+      <c r="AJ23" t="str">
+        <v>Καύκας Ανδρέας</v>
+      </c>
+      <c r="AK23" t="str">
+        <v>Μιχάλαρος Δημήτριος</v>
+      </c>
+      <c r="AL23" t="str">
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+      </c>
+      <c r="AM23" t="str">
+        <v>Μουσκάι Λορένα</v>
+      </c>
+      <c r="AN23" t="str">
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
+      </c>
+      <c r="AO23" t="str">
+        <v>Μουστάκα Κωνσταντίνα</v>
+      </c>
+      <c r="AP23" t="str">
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
+      </c>
+      <c r="AQ23" t="str">
+        <v>Παπαδόπουλος Αναστάσιος</v>
+      </c>
+      <c r="AR23" t="str">
+        <v>Παπακωνσταντίνου Σωτήριος</v>
+      </c>
+      <c r="AS23" t="str">
+        <v>Παπαλουκά Ελένη</v>
+      </c>
+      <c r="AT23" t="str">
+        <v>Πετροπούλου Βασιλική</v>
+      </c>
+      <c r="AU23" t="str">
+        <v>Τασιούλης Πολύκαρπος</v>
+      </c>
+      <c r="AV23" t="str">
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
+      </c>
+      <c r="AW23" t="str">
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AX23" t="str">
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
       </c>
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A24" s="10">
-        <f>ROW()-1</f>
+      <c r="A24" s="9">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="11"/>
       <c r="D24" s="4"/>
-      <c r="G24" s="2"/>
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
       <c r="AA24" t="str" cm="1">
-        <f t="array" ref="AA24">IF(E28="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E28))))</f>
+        <f t="array" ref="AA24">IF(E24="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E24)))</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:50" ht="34" x14ac:dyDescent="0.2">
-      <c r="A25" s="10">
-        <f>ROW()-1</f>
+      <c r="A25" s="9">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="2"/>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
       <c r="AA25" t="str" cm="1">
-        <f t="array" ref="AA25:AX25">IF(E29="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E29))))</f>
-        <v>Αγοράκη Ολυμπία</v>
-      </c>
-      <c r="AB25" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
-      </c>
-      <c r="AC25" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
-      </c>
-      <c r="AD25" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
-      </c>
-      <c r="AE25" t="str">
-        <v>Γκίκα Μαρίνα</v>
-      </c>
-      <c r="AF25" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
-      </c>
-      <c r="AG25" t="str">
-        <v>Δουμένης Νικόλαος</v>
-      </c>
-      <c r="AH25" t="str">
-        <v>Ιωαννίδη Λυδία</v>
-      </c>
-      <c r="AI25" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
-      </c>
-      <c r="AJ25" t="str">
-        <v>Καύκας Ανδρέας</v>
-      </c>
-      <c r="AK25" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
-      </c>
-      <c r="AL25" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
-      </c>
-      <c r="AM25" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AN25" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AO25" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AP25" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AQ25" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AR25" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AS25" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AT25" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AU25" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AV25" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AW25" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AX25" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+        <f t="array" ref="AA25">IF(E25="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E25)))</f>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A26" s="10">
-        <f>ROW()-1</f>
+      <c r="A26" s="9">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="4"/>
       <c r="E26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G26" s="2" t="s">
@@ -2051,133 +2030,131 @@
       <c r="I26" s="6"/>
       <c r="J26" s="1"/>
       <c r="AA26" t="str" cm="1">
-        <f t="array" ref="AA26">IF(E30="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E30))))</f>
-        <v/>
+        <f t="array" ref="AA26:AX26">IF(E26="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E26)))</f>
+        <v>Αγοράκη Ολυμπία</v>
+      </c>
+      <c r="AB26" t="str">
+        <v>Αλτόγλου Θεόδωρος</v>
+      </c>
+      <c r="AC26" t="str">
+        <v>Ανανιάδης Θεόδωρος</v>
+      </c>
+      <c r="AD26" t="str">
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
+      </c>
+      <c r="AE26" t="str">
+        <v>Γκίκα Μαρίνα</v>
+      </c>
+      <c r="AF26" t="str">
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
+      </c>
+      <c r="AG26" t="str">
+        <v>Δουμένης Νικόλαος</v>
+      </c>
+      <c r="AH26" t="str">
+        <v>Ιωαννίδη Λυδία</v>
+      </c>
+      <c r="AI26" t="str">
+        <v>Κατσαμάγκος Σταύρος</v>
+      </c>
+      <c r="AJ26" t="str">
+        <v>Καύκας Ανδρέας</v>
+      </c>
+      <c r="AK26" t="str">
+        <v>Μιχάλαρος Δημήτριος</v>
+      </c>
+      <c r="AL26" t="str">
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+      </c>
+      <c r="AM26" t="str">
+        <v>Μουσκάι Λορένα</v>
+      </c>
+      <c r="AN26" t="str">
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
+      </c>
+      <c r="AO26" t="str">
+        <v>Μουστάκα Κωνσταντίνα</v>
+      </c>
+      <c r="AP26" t="str">
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
+      </c>
+      <c r="AQ26" t="str">
+        <v>Παπαδόπουλος Αναστάσιος</v>
+      </c>
+      <c r="AR26" t="str">
+        <v>Παπακωνσταντίνου Σωτήριος</v>
+      </c>
+      <c r="AS26" t="str">
+        <v>Παπαλουκά Ελένη</v>
+      </c>
+      <c r="AT26" t="str">
+        <v>Πετροπούλου Βασιλική</v>
+      </c>
+      <c r="AU26" t="str">
+        <v>Τασιούλης Πολύκαρπος</v>
+      </c>
+      <c r="AV26" t="str">
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
+      </c>
+      <c r="AW26" t="str">
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AX26" t="str">
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
       </c>
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A27" s="10">
-        <f>ROW()-1</f>
+      <c r="A27" s="9">
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="11"/>
       <c r="D27" s="4"/>
-      <c r="G27" s="2"/>
       <c r="I27" s="6"/>
       <c r="J27" s="1"/>
       <c r="AA27" t="str" cm="1">
-        <f t="array" ref="AA27">IF(E31="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E31))))</f>
+        <f t="array" ref="AA27">IF(E27="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E27)))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:50" ht="17" x14ac:dyDescent="0.2">
-      <c r="A28" s="10">
-        <f>ROW()-1</f>
+      <c r="A28" s="9">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G28" s="2"/>
       <c r="I28" s="6"/>
       <c r="J28" s="1"/>
       <c r="AA28" t="str" cm="1">
-        <f t="array" ref="AA28:AX28">IF(E32="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E32))))</f>
-        <v>Αγοράκη Ολυμπία</v>
-      </c>
-      <c r="AB28" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
-      </c>
-      <c r="AC28" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
-      </c>
-      <c r="AD28" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
-      </c>
-      <c r="AE28" t="str">
-        <v>Γκίκα Μαρίνα</v>
-      </c>
-      <c r="AF28" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
-      </c>
-      <c r="AG28" t="str">
-        <v>Δουμένης Νικόλαος</v>
-      </c>
-      <c r="AH28" t="str">
-        <v>Ιωαννίδη Λυδία</v>
-      </c>
-      <c r="AI28" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
-      </c>
-      <c r="AJ28" t="str">
-        <v>Καύκας Ανδρέας</v>
-      </c>
-      <c r="AK28" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
-      </c>
-      <c r="AL28" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
-      </c>
-      <c r="AM28" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AN28" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AO28" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AP28" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AQ28" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AR28" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AS28" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AT28" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AU28" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AV28" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AW28" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AX28" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+        <f t="array" ref="AA28">IF(E28="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E28)))</f>
+        <v/>
       </c>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A29" s="10">
-        <f>ROW()-1</f>
+      <c r="A29" s="9">
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="11"/>
       <c r="D29" s="4"/>
       <c r="E29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="2" t="s">
         <v>60</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -2186,133 +2163,131 @@
       <c r="I29" s="6"/>
       <c r="J29" s="1"/>
       <c r="AA29" t="str" cm="1">
-        <f t="array" ref="AA29">IF(E33="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E33))))</f>
-        <v/>
+        <f t="array" ref="AA29:AX29">IF(E29="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E29)))</f>
+        <v>Αγοράκη Ολυμπία</v>
+      </c>
+      <c r="AB29" t="str">
+        <v>Αλτόγλου Θεόδωρος</v>
+      </c>
+      <c r="AC29" t="str">
+        <v>Ανανιάδης Θεόδωρος</v>
+      </c>
+      <c r="AD29" t="str">
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
+      </c>
+      <c r="AE29" t="str">
+        <v>Γκίκα Μαρίνα</v>
+      </c>
+      <c r="AF29" t="str">
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
+      </c>
+      <c r="AG29" t="str">
+        <v>Δουμένης Νικόλαος</v>
+      </c>
+      <c r="AH29" t="str">
+        <v>Ιωαννίδη Λυδία</v>
+      </c>
+      <c r="AI29" t="str">
+        <v>Κατσαμάγκος Σταύρος</v>
+      </c>
+      <c r="AJ29" t="str">
+        <v>Καύκας Ανδρέας</v>
+      </c>
+      <c r="AK29" t="str">
+        <v>Μιχάλαρος Δημήτριος</v>
+      </c>
+      <c r="AL29" t="str">
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+      </c>
+      <c r="AM29" t="str">
+        <v>Μουσκάι Λορένα</v>
+      </c>
+      <c r="AN29" t="str">
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
+      </c>
+      <c r="AO29" t="str">
+        <v>Μουστάκα Κωνσταντίνα</v>
+      </c>
+      <c r="AP29" t="str">
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
+      </c>
+      <c r="AQ29" t="str">
+        <v>Παπαδόπουλος Αναστάσιος</v>
+      </c>
+      <c r="AR29" t="str">
+        <v>Παπακωνσταντίνου Σωτήριος</v>
+      </c>
+      <c r="AS29" t="str">
+        <v>Παπαλουκά Ελένη</v>
+      </c>
+      <c r="AT29" t="str">
+        <v>Πετροπούλου Βασιλική</v>
+      </c>
+      <c r="AU29" t="str">
+        <v>Τασιούλης Πολύκαρπος</v>
+      </c>
+      <c r="AV29" t="str">
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
+      </c>
+      <c r="AW29" t="str">
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AX29" t="str">
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
       </c>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A30" s="10">
-        <f>ROW()-1</f>
+      <c r="A30" s="9">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="12"/>
+      <c r="C30" s="11"/>
       <c r="D30" s="4"/>
-      <c r="G30" s="2"/>
       <c r="I30" s="6"/>
       <c r="J30" s="1"/>
       <c r="AA30" t="str" cm="1">
-        <f t="array" ref="AA30">IF(E34="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E34))))</f>
+        <f t="array" ref="AA30">IF(E30="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E30)))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:50" ht="17" x14ac:dyDescent="0.2">
-      <c r="A31" s="10">
-        <f>ROW()-1</f>
+      <c r="A31" s="9">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="G31" s="2"/>
       <c r="I31" s="6"/>
       <c r="J31" s="1"/>
       <c r="AA31" t="str" cm="1">
-        <f t="array" ref="AA31:AX31">IF(E35="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E35))))</f>
-        <v>Αγοράκη Ολυμπία</v>
-      </c>
-      <c r="AB31" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
-      </c>
-      <c r="AC31" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
-      </c>
-      <c r="AD31" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
-      </c>
-      <c r="AE31" t="str">
-        <v>Γκίκα Μαρίνα</v>
-      </c>
-      <c r="AF31" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
-      </c>
-      <c r="AG31" t="str">
-        <v>Δουμένης Νικόλαος</v>
-      </c>
-      <c r="AH31" t="str">
-        <v>Ιωαννίδη Λυδία</v>
-      </c>
-      <c r="AI31" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
-      </c>
-      <c r="AJ31" t="str">
-        <v>Καύκας Ανδρέας</v>
-      </c>
-      <c r="AK31" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
-      </c>
-      <c r="AL31" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
-      </c>
-      <c r="AM31" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AN31" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AO31" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AP31" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AQ31" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AR31" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AS31" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AT31" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AU31" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AV31" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AW31" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AX31" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+        <f t="array" ref="AA31">IF(E31="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E31)))</f>
+        <v/>
       </c>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A32" s="10">
-        <f>ROW()-1</f>
+      <c r="A32" s="9">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="12"/>
+      <c r="C32" s="11"/>
       <c r="D32" s="4"/>
       <c r="E32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G32" s="2" t="s">
@@ -2321,133 +2296,131 @@
       <c r="I32" s="6"/>
       <c r="J32" s="1"/>
       <c r="AA32" t="str" cm="1">
-        <f t="array" ref="AA32">IF(E36="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E36))))</f>
-        <v/>
+        <f t="array" ref="AA32:AX32">IF(E32="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E32)))</f>
+        <v>Αγοράκη Ολυμπία</v>
+      </c>
+      <c r="AB32" t="str">
+        <v>Αλτόγλου Θεόδωρος</v>
+      </c>
+      <c r="AC32" t="str">
+        <v>Ανανιάδης Θεόδωρος</v>
+      </c>
+      <c r="AD32" t="str">
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
+      </c>
+      <c r="AE32" t="str">
+        <v>Γκίκα Μαρίνα</v>
+      </c>
+      <c r="AF32" t="str">
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
+      </c>
+      <c r="AG32" t="str">
+        <v>Δουμένης Νικόλαος</v>
+      </c>
+      <c r="AH32" t="str">
+        <v>Ιωαννίδη Λυδία</v>
+      </c>
+      <c r="AI32" t="str">
+        <v>Κατσαμάγκος Σταύρος</v>
+      </c>
+      <c r="AJ32" t="str">
+        <v>Καύκας Ανδρέας</v>
+      </c>
+      <c r="AK32" t="str">
+        <v>Μιχάλαρος Δημήτριος</v>
+      </c>
+      <c r="AL32" t="str">
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+      </c>
+      <c r="AM32" t="str">
+        <v>Μουσκάι Λορένα</v>
+      </c>
+      <c r="AN32" t="str">
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
+      </c>
+      <c r="AO32" t="str">
+        <v>Μουστάκα Κωνσταντίνα</v>
+      </c>
+      <c r="AP32" t="str">
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
+      </c>
+      <c r="AQ32" t="str">
+        <v>Παπαδόπουλος Αναστάσιος</v>
+      </c>
+      <c r="AR32" t="str">
+        <v>Παπακωνσταντίνου Σωτήριος</v>
+      </c>
+      <c r="AS32" t="str">
+        <v>Παπαλουκά Ελένη</v>
+      </c>
+      <c r="AT32" t="str">
+        <v>Πετροπούλου Βασιλική</v>
+      </c>
+      <c r="AU32" t="str">
+        <v>Τασιούλης Πολύκαρπος</v>
+      </c>
+      <c r="AV32" t="str">
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
+      </c>
+      <c r="AW32" t="str">
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AX32" t="str">
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
       </c>
     </row>
     <row r="33" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A33" s="10">
-        <f>ROW()-1</f>
+      <c r="A33" s="9">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="12"/>
+      <c r="C33" s="11"/>
       <c r="D33" s="4"/>
-      <c r="G33" s="2"/>
       <c r="I33" s="6"/>
       <c r="J33" s="1"/>
       <c r="AA33" t="str" cm="1">
-        <f t="array" ref="AA33">IF(E37="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E37))))</f>
+        <f t="array" ref="AA33">IF(E33="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E33)))</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="10">
-        <f>ROW()-1</f>
+      <c r="A34" s="9">
+        <f t="shared" ref="A34:A62" si="1">ROW()-1</f>
         <v>33</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="11" t="s">
         <v>70</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="2"/>
       <c r="I34" s="6"/>
       <c r="J34" s="1"/>
       <c r="AA34" t="str" cm="1">
-        <f t="array" ref="AA34:AX34">IF(E38="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E38))))</f>
-        <v>Αγοράκη Ολυμπία</v>
-      </c>
-      <c r="AB34" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
-      </c>
-      <c r="AC34" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
-      </c>
-      <c r="AD34" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
-      </c>
-      <c r="AE34" t="str">
-        <v>Γκίκα Μαρίνα</v>
-      </c>
-      <c r="AF34" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
-      </c>
-      <c r="AG34" t="str">
-        <v>Δουμένης Νικόλαος</v>
-      </c>
-      <c r="AH34" t="str">
-        <v>Ιωαννίδη Λυδία</v>
-      </c>
-      <c r="AI34" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
-      </c>
-      <c r="AJ34" t="str">
-        <v>Καύκας Ανδρέας</v>
-      </c>
-      <c r="AK34" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
-      </c>
-      <c r="AL34" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
-      </c>
-      <c r="AM34" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AN34" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AO34" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AP34" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AQ34" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AR34" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AS34" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AT34" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AU34" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AV34" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AW34" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AX34" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
+        <f t="array" ref="AA34">IF(E34="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E34)))</f>
+        <v/>
       </c>
     </row>
     <row r="35" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A35" s="10">
-        <f>ROW()-1</f>
+      <c r="A35" s="9">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C35" s="12"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="4"/>
       <c r="E35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="2" t="s">
         <v>72</v>
       </c>
       <c r="G35" s="2" t="s">
@@ -2456,64 +2429,131 @@
       <c r="I35" s="6"/>
       <c r="J35" s="1"/>
       <c r="AA35" t="str" cm="1">
-        <f t="array" ref="AA35">IF(E39="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E39))))</f>
-        <v/>
+        <f t="array" ref="AA35:AX35">IF(E35="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E35)))</f>
+        <v>Αγοράκη Ολυμπία</v>
+      </c>
+      <c r="AB35" t="str">
+        <v>Αλτόγλου Θεόδωρος</v>
+      </c>
+      <c r="AC35" t="str">
+        <v>Ανανιάδης Θεόδωρος</v>
+      </c>
+      <c r="AD35" t="str">
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
+      </c>
+      <c r="AE35" t="str">
+        <v>Γκίκα Μαρίνα</v>
+      </c>
+      <c r="AF35" t="str">
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
+      </c>
+      <c r="AG35" t="str">
+        <v>Δουμένης Νικόλαος</v>
+      </c>
+      <c r="AH35" t="str">
+        <v>Ιωαννίδη Λυδία</v>
+      </c>
+      <c r="AI35" t="str">
+        <v>Κατσαμάγκος Σταύρος</v>
+      </c>
+      <c r="AJ35" t="str">
+        <v>Καύκας Ανδρέας</v>
+      </c>
+      <c r="AK35" t="str">
+        <v>Μιχάλαρος Δημήτριος</v>
+      </c>
+      <c r="AL35" t="str">
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
+      </c>
+      <c r="AM35" t="str">
+        <v>Μουσκάι Λορένα</v>
+      </c>
+      <c r="AN35" t="str">
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
+      </c>
+      <c r="AO35" t="str">
+        <v>Μουστάκα Κωνσταντίνα</v>
+      </c>
+      <c r="AP35" t="str">
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
+      </c>
+      <c r="AQ35" t="str">
+        <v>Παπαδόπουλος Αναστάσιος</v>
+      </c>
+      <c r="AR35" t="str">
+        <v>Παπακωνσταντίνου Σωτήριος</v>
+      </c>
+      <c r="AS35" t="str">
+        <v>Παπαλουκά Ελένη</v>
+      </c>
+      <c r="AT35" t="str">
+        <v>Πετροπούλου Βασιλική</v>
+      </c>
+      <c r="AU35" t="str">
+        <v>Τασιούλης Πολύκαρπος</v>
+      </c>
+      <c r="AV35" t="str">
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
+      </c>
+      <c r="AW35" t="str">
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AX35" t="str">
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
       </c>
     </row>
     <row r="36" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A36" s="10">
-        <f>ROW()-1</f>
+      <c r="A36" s="9">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C36" s="12"/>
+      <c r="C36" s="11"/>
       <c r="D36" s="4"/>
-      <c r="G36" s="2"/>
       <c r="I36" s="6"/>
       <c r="J36" s="1"/>
       <c r="AA36" t="str" cm="1">
-        <f t="array" ref="AA36">IF(E40="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E40))))</f>
+        <f t="array" ref="AA36">IF(E36="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E36)))</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="10">
-        <f>ROW()-1</f>
+      <c r="A37" s="9">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G37" s="2"/>
       <c r="I37" s="6"/>
       <c r="J37" s="1"/>
       <c r="AA37" t="str" cm="1">
-        <f t="array" ref="AA37">IF(E41="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E41))))</f>
+        <f t="array" ref="AA37">IF(E37="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E37)))</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A38" s="10">
-        <f>ROW()-1</f>
+      <c r="A38" s="9">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="12"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="4"/>
       <c r="E38" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F38" s="2" t="s">
         <v>78</v>
       </c>
       <c r="G38" s="2" t="s">
@@ -2522,270 +2562,150 @@
       <c r="I38" s="6"/>
       <c r="J38" s="1"/>
       <c r="AA38" t="str" cm="1">
-        <f t="array" ref="AA38:BF38">IF(E42="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E42))))</f>
-        <v>Δούκα Αναστασία - Ζωή</v>
+        <f t="array" ref="AA38:AX38">IF(E38="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E38)))</f>
+        <v>Αγοράκη Ολυμπία</v>
       </c>
       <c r="AB38" t="str">
-        <v>Θεοδώρου Βασιλική</v>
+        <v>Αλτόγλου Θεόδωρος</v>
       </c>
       <c r="AC38" t="str">
-        <v>Καλλιγέρη Χάρις</v>
+        <v>Ανανιάδης Θεόδωρος</v>
       </c>
       <c r="AD38" t="str">
-        <v>Κεφαλοπούλου Κανέλλα</v>
+        <v>Βλάχου Σταυρούλα - Μαρία</v>
       </c>
       <c r="AE38" t="str">
-        <v>Κιμιγκέλη Ορσαλία</v>
+        <v>Γκίκα Μαρίνα</v>
       </c>
       <c r="AF38" t="str">
-        <v>Κόλα Κριστιάνα</v>
+        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
       </c>
       <c r="AG38" t="str">
-        <v>Κόττα Δέσποινα</v>
+        <v>Δουμένης Νικόλαος</v>
       </c>
       <c r="AH38" t="str">
-        <v>Λαμπριανίδης Ιάσων</v>
+        <v>Ιωαννίδη Λυδία</v>
       </c>
       <c r="AI38" t="str">
-        <v>Μανώλακας Βασίλειος</v>
+        <v>Κατσαμάγκος Σταύρος</v>
       </c>
       <c r="AJ38" t="str">
-        <v>Μαργέτη Ευαγγελία</v>
+        <v>Καύκας Ανδρέας</v>
       </c>
       <c r="AK38" t="str">
-        <v>Μαρούγκα Φωτεινή</v>
+        <v>Μιχάλαρος Δημήτριος</v>
       </c>
       <c r="AL38" t="str">
-        <v>Μιχαλόπουλος Σπυρίδωνας</v>
+        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
       </c>
       <c r="AM38" t="str">
-        <v>Μουρτζούκος Δημήτριος</v>
+        <v>Μουσκάι Λορένα</v>
       </c>
       <c r="AN38" t="str">
-        <v>Μπούρας Ναπολέων</v>
+        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
       </c>
       <c r="AO38" t="str">
-        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
+        <v>Μουστάκα Κωνσταντίνα</v>
       </c>
       <c r="AP38" t="str">
-        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
+        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
       </c>
       <c r="AQ38" t="str">
-        <v xml:space="preserve">Πανταζή Μαρία </v>
+        <v>Παπαδόπουλος Αναστάσιος</v>
       </c>
       <c r="AR38" t="str">
-        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
+        <v>Παπακωνσταντίνου Σωτήριος</v>
       </c>
       <c r="AS38" t="str">
-        <v>Παπανδρέου Σωτηρία</v>
+        <v>Παπαλουκά Ελένη</v>
       </c>
       <c r="AT38" t="str">
-        <v>Παυλίδη Ιωάννα</v>
+        <v>Πετροπούλου Βασιλική</v>
       </c>
       <c r="AU38" t="str">
-        <v>Πετρόγιαννος Γεώργιος</v>
+        <v>Τασιούλης Πολύκαρπος</v>
       </c>
       <c r="AV38" t="str">
-        <v>Πολίτη Γεωργία</v>
+        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
       </c>
       <c r="AW38" t="str">
-        <v>Ρούτη Μαργαρίτα</v>
+        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
       </c>
       <c r="AX38" t="str">
-        <v>Σαριπανίδου Χρυσούλα</v>
-      </c>
-      <c r="AY38" t="str">
-        <v>Σίνγκ Ανμόλ</v>
-      </c>
-      <c r="AZ38" t="str">
-        <v>Σύριος Νικόλαος</v>
-      </c>
-      <c r="BA38" t="str">
-        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
-      </c>
-      <c r="BB38" t="str">
-        <v>Τσεκούρα Αγγελική</v>
-      </c>
-      <c r="BC38" t="str">
-        <v>Τσουκαλάς Γεώργιος</v>
-      </c>
-      <c r="BD38" t="str">
-        <v>Φίλης Νικόλαος</v>
-      </c>
-      <c r="BE38" t="str">
-        <v>Χατζόγλου Δημήτριος</v>
-      </c>
-      <c r="BF38" t="str">
-        <v>Χριστοφής Ναπολέων</v>
+        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
       </c>
     </row>
     <row r="39" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A39" s="10">
-        <f>ROW()-1</f>
+      <c r="A39" s="9">
+        <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C39" s="12"/>
+      <c r="C39" s="11"/>
       <c r="D39" s="4"/>
-      <c r="G39" s="2"/>
       <c r="I39" s="6"/>
       <c r="J39" s="1"/>
       <c r="AA39" t="str" cm="1">
-        <f t="array" ref="AA39">IF(E43="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E43))))</f>
+        <f t="array" ref="AA39">IF(E39="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E39)))</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A40" s="10">
-        <f>ROW()-1</f>
+      <c r="A40" s="9">
+        <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>82</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="G40" s="2"/>
       <c r="I40" s="6"/>
       <c r="J40" s="1"/>
       <c r="AA40" t="str" cm="1">
-        <f t="array" ref="AA40">IF(E44="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E44))))</f>
+        <f t="array" ref="AA40">IF(E40="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E40)))</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:58" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="10">
-        <f>ROW()-1</f>
+      <c r="A41" s="9">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>122</v>
       </c>
       <c r="D41" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="G41" s="2"/>
       <c r="I41" s="6"/>
       <c r="J41" s="1"/>
       <c r="AA41" t="str" cm="1">
-        <f t="array" ref="AA41:BF41">IF(E45="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E45))))</f>
-        <v>Δούκα Αναστασία - Ζωή</v>
-      </c>
-      <c r="AB41" t="str">
-        <v>Θεοδώρου Βασιλική</v>
-      </c>
-      <c r="AC41" t="str">
-        <v>Καλλιγέρη Χάρις</v>
-      </c>
-      <c r="AD41" t="str">
-        <v>Κεφαλοπούλου Κανέλλα</v>
-      </c>
-      <c r="AE41" t="str">
-        <v>Κιμιγκέλη Ορσαλία</v>
-      </c>
-      <c r="AF41" t="str">
-        <v>Κόλα Κριστιάνα</v>
-      </c>
-      <c r="AG41" t="str">
-        <v>Κόττα Δέσποινα</v>
-      </c>
-      <c r="AH41" t="str">
-        <v>Λαμπριανίδης Ιάσων</v>
-      </c>
-      <c r="AI41" t="str">
-        <v>Μανώλακας Βασίλειος</v>
-      </c>
-      <c r="AJ41" t="str">
-        <v>Μαργέτη Ευαγγελία</v>
-      </c>
-      <c r="AK41" t="str">
-        <v>Μαρούγκα Φωτεινή</v>
-      </c>
-      <c r="AL41" t="str">
-        <v>Μιχαλόπουλος Σπυρίδωνας</v>
-      </c>
-      <c r="AM41" t="str">
-        <v>Μουρτζούκος Δημήτριος</v>
-      </c>
-      <c r="AN41" t="str">
-        <v>Μπούρας Ναπολέων</v>
-      </c>
-      <c r="AO41" t="str">
-        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
-      </c>
-      <c r="AP41" t="str">
-        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
-      </c>
-      <c r="AQ41" t="str">
-        <v xml:space="preserve">Πανταζή Μαρία </v>
-      </c>
-      <c r="AR41" t="str">
-        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
-      </c>
-      <c r="AS41" t="str">
-        <v>Παπανδρέου Σωτηρία</v>
-      </c>
-      <c r="AT41" t="str">
-        <v>Παυλίδη Ιωάννα</v>
-      </c>
-      <c r="AU41" t="str">
-        <v>Πετρόγιαννος Γεώργιος</v>
-      </c>
-      <c r="AV41" t="str">
-        <v>Πολίτη Γεωργία</v>
-      </c>
-      <c r="AW41" t="str">
-        <v>Ρούτη Μαργαρίτα</v>
-      </c>
-      <c r="AX41" t="str">
-        <v>Σαριπανίδου Χρυσούλα</v>
-      </c>
-      <c r="AY41" t="str">
-        <v>Σίνγκ Ανμόλ</v>
-      </c>
-      <c r="AZ41" t="str">
-        <v>Σύριος Νικόλαος</v>
-      </c>
-      <c r="BA41" t="str">
-        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
-      </c>
-      <c r="BB41" t="str">
-        <v>Τσεκούρα Αγγελική</v>
-      </c>
-      <c r="BC41" t="str">
-        <v>Τσουκαλάς Γεώργιος</v>
-      </c>
-      <c r="BD41" t="str">
-        <v>Φίλης Νικόλαος</v>
-      </c>
-      <c r="BE41" t="str">
-        <v>Χατζόγλου Δημήτριος</v>
-      </c>
-      <c r="BF41" t="str">
-        <v>Χριστοφής Ναπολέων</v>
+        <f t="array" ref="AA41">IF(E41="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E41)))</f>
+        <v/>
       </c>
     </row>
     <row r="42" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A42" s="10">
-        <f>ROW()-1</f>
+      <c r="A42" s="9">
+        <f t="shared" si="1"/>
         <v>41</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="12"/>
+      <c r="C42" s="11"/>
       <c r="D42" s="4"/>
       <c r="E42" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="2" t="s">
         <v>124</v>
       </c>
       <c r="G42" s="2" t="s">
@@ -2794,157 +2714,155 @@
       <c r="I42" s="6"/>
       <c r="J42" s="1"/>
       <c r="AA42" t="str" cm="1">
-        <f t="array" ref="AA42">IF(E46="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E46))))</f>
-        <v/>
+        <f t="array" ref="AA42:BF42">IF(E42="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E42)))</f>
+        <v>Δούκα Αναστασία - Ζωή</v>
+      </c>
+      <c r="AB42" t="str">
+        <v>Θεοδώρου Βασιλική</v>
+      </c>
+      <c r="AC42" t="str">
+        <v>Καλλιγέρη Χάρις</v>
+      </c>
+      <c r="AD42" t="str">
+        <v>Κεφαλοπούλου Κανέλλα</v>
+      </c>
+      <c r="AE42" t="str">
+        <v>Κιμιγκέλη Ορσαλία</v>
+      </c>
+      <c r="AF42" t="str">
+        <v>Κόλα Κριστιάνα</v>
+      </c>
+      <c r="AG42" t="str">
+        <v>Κόττα Δέσποινα</v>
+      </c>
+      <c r="AH42" t="str">
+        <v>Λαμπριανίδης Ιάσων</v>
+      </c>
+      <c r="AI42" t="str">
+        <v>Μανώλακας Βασίλειος</v>
+      </c>
+      <c r="AJ42" t="str">
+        <v>Μαργέτη Ευαγγελία</v>
+      </c>
+      <c r="AK42" t="str">
+        <v>Μαρούγκα Φωτεινή</v>
+      </c>
+      <c r="AL42" t="str">
+        <v>Μιχαλόπουλος Σπυρίδωνας</v>
+      </c>
+      <c r="AM42" t="str">
+        <v>Μουρτζούκος Δημήτριος</v>
+      </c>
+      <c r="AN42" t="str">
+        <v>Μπούρας Ναπολέων</v>
+      </c>
+      <c r="AO42" t="str">
+        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
+      </c>
+      <c r="AP42" t="str">
+        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
+      </c>
+      <c r="AQ42" t="str">
+        <v xml:space="preserve">Πανταζή Μαρία </v>
+      </c>
+      <c r="AR42" t="str">
+        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
+      </c>
+      <c r="AS42" t="str">
+        <v>Παπανδρέου Σωτηρία</v>
+      </c>
+      <c r="AT42" t="str">
+        <v>Παυλίδη Ιωάννα</v>
+      </c>
+      <c r="AU42" t="str">
+        <v>Πετρόγιαννος Γεώργιος</v>
+      </c>
+      <c r="AV42" t="str">
+        <v>Πολίτη Γεωργία</v>
+      </c>
+      <c r="AW42" t="str">
+        <v>Ρούτη Μαργαρίτα</v>
+      </c>
+      <c r="AX42" t="str">
+        <v>Σαριπανίδου Χρυσούλα</v>
+      </c>
+      <c r="AY42" t="str">
+        <v>Σίνγκ Ανμόλ</v>
+      </c>
+      <c r="AZ42" t="str">
+        <v>Σύριος Νικόλαος</v>
+      </c>
+      <c r="BA42" t="str">
+        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
+      </c>
+      <c r="BB42" t="str">
+        <v>Τσεκούρα Αγγελική</v>
+      </c>
+      <c r="BC42" t="str">
+        <v>Τσουκαλάς Γεώργιος</v>
+      </c>
+      <c r="BD42" t="str">
+        <v>Φίλης Νικόλαος</v>
+      </c>
+      <c r="BE42" t="str">
+        <v>Χατζόγλου Δημήτριος</v>
+      </c>
+      <c r="BF42" t="str">
+        <v>Χριστοφής Ναπολέων</v>
       </c>
     </row>
     <row r="43" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A43" s="10">
-        <f>ROW()-1</f>
+      <c r="A43" s="9">
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="B43" s="14" t="s">
+      <c r="B43" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="12"/>
+      <c r="C43" s="11"/>
       <c r="D43" s="4"/>
-      <c r="G43" s="2"/>
       <c r="I43" s="6"/>
       <c r="J43" s="1"/>
       <c r="AA43" t="str" cm="1">
-        <f t="array" ref="AA43">IF(E47="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E47))))</f>
+        <f t="array" ref="AA43">IF(E43="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E43)))</f>
         <v/>
       </c>
     </row>
     <row r="44" spans="1:58" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="10">
-        <f>ROW()-1</f>
+      <c r="A44" s="9">
+        <f t="shared" si="1"/>
         <v>43</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>83</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="G44" s="2"/>
       <c r="I44" s="6"/>
       <c r="J44" s="1"/>
       <c r="AA44" t="str" cm="1">
-        <f t="array" ref="AA44:BF44">IF(E48="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E48))))</f>
-        <v>Δούκα Αναστασία - Ζωή</v>
-      </c>
-      <c r="AB44" t="str">
-        <v>Θεοδώρου Βασιλική</v>
-      </c>
-      <c r="AC44" t="str">
-        <v>Καλλιγέρη Χάρις</v>
-      </c>
-      <c r="AD44" t="str">
-        <v>Κεφαλοπούλου Κανέλλα</v>
-      </c>
-      <c r="AE44" t="str">
-        <v>Κιμιγκέλη Ορσαλία</v>
-      </c>
-      <c r="AF44" t="str">
-        <v>Κόλα Κριστιάνα</v>
-      </c>
-      <c r="AG44" t="str">
-        <v>Κόττα Δέσποινα</v>
-      </c>
-      <c r="AH44" t="str">
-        <v>Λαμπριανίδης Ιάσων</v>
-      </c>
-      <c r="AI44" t="str">
-        <v>Μανώλακας Βασίλειος</v>
-      </c>
-      <c r="AJ44" t="str">
-        <v>Μαργέτη Ευαγγελία</v>
-      </c>
-      <c r="AK44" t="str">
-        <v>Μαρούγκα Φωτεινή</v>
-      </c>
-      <c r="AL44" t="str">
-        <v>Μιχαλόπουλος Σπυρίδωνας</v>
-      </c>
-      <c r="AM44" t="str">
-        <v>Μουρτζούκος Δημήτριος</v>
-      </c>
-      <c r="AN44" t="str">
-        <v>Μπούρας Ναπολέων</v>
-      </c>
-      <c r="AO44" t="str">
-        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
-      </c>
-      <c r="AP44" t="str">
-        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
-      </c>
-      <c r="AQ44" t="str">
-        <v xml:space="preserve">Πανταζή Μαρία </v>
-      </c>
-      <c r="AR44" t="str">
-        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
-      </c>
-      <c r="AS44" t="str">
-        <v>Παπανδρέου Σωτηρία</v>
-      </c>
-      <c r="AT44" t="str">
-        <v>Παυλίδη Ιωάννα</v>
-      </c>
-      <c r="AU44" t="str">
-        <v>Πετρόγιαννος Γεώργιος</v>
-      </c>
-      <c r="AV44" t="str">
-        <v>Πολίτη Γεωργία</v>
-      </c>
-      <c r="AW44" t="str">
-        <v>Ρούτη Μαργαρίτα</v>
-      </c>
-      <c r="AX44" t="str">
-        <v>Σαριπανίδου Χρυσούλα</v>
-      </c>
-      <c r="AY44" t="str">
-        <v>Σίνγκ Ανμόλ</v>
-      </c>
-      <c r="AZ44" t="str">
-        <v>Σύριος Νικόλαος</v>
-      </c>
-      <c r="BA44" t="str">
-        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
-      </c>
-      <c r="BB44" t="str">
-        <v>Τσεκούρα Αγγελική</v>
-      </c>
-      <c r="BC44" t="str">
-        <v>Τσουκαλάς Γεώργιος</v>
-      </c>
-      <c r="BD44" t="str">
-        <v>Φίλης Νικόλαος</v>
-      </c>
-      <c r="BE44" t="str">
-        <v>Χατζόγλου Δημήτριος</v>
-      </c>
-      <c r="BF44" t="str">
-        <v>Χριστοφής Ναπολέων</v>
+        <f t="array" ref="AA44">IF(E44="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E44)))</f>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A45" s="10">
-        <f>ROW()-1</f>
+      <c r="A45" s="9">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C45" s="12"/>
+      <c r="C45" s="11"/>
       <c r="D45" s="4"/>
       <c r="E45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="F45" s="2" t="s">
         <v>85</v>
       </c>
       <c r="G45" s="2" t="s">
@@ -2953,157 +2871,155 @@
       <c r="I45" s="6"/>
       <c r="J45" s="1"/>
       <c r="AA45" t="str" cm="1">
-        <f t="array" ref="AA45">IF(E49="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E49))))</f>
-        <v/>
+        <f t="array" ref="AA45:BF45">IF(E45="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E45)))</f>
+        <v>Δούκα Αναστασία - Ζωή</v>
+      </c>
+      <c r="AB45" t="str">
+        <v>Θεοδώρου Βασιλική</v>
+      </c>
+      <c r="AC45" t="str">
+        <v>Καλλιγέρη Χάρις</v>
+      </c>
+      <c r="AD45" t="str">
+        <v>Κεφαλοπούλου Κανέλλα</v>
+      </c>
+      <c r="AE45" t="str">
+        <v>Κιμιγκέλη Ορσαλία</v>
+      </c>
+      <c r="AF45" t="str">
+        <v>Κόλα Κριστιάνα</v>
+      </c>
+      <c r="AG45" t="str">
+        <v>Κόττα Δέσποινα</v>
+      </c>
+      <c r="AH45" t="str">
+        <v>Λαμπριανίδης Ιάσων</v>
+      </c>
+      <c r="AI45" t="str">
+        <v>Μανώλακας Βασίλειος</v>
+      </c>
+      <c r="AJ45" t="str">
+        <v>Μαργέτη Ευαγγελία</v>
+      </c>
+      <c r="AK45" t="str">
+        <v>Μαρούγκα Φωτεινή</v>
+      </c>
+      <c r="AL45" t="str">
+        <v>Μιχαλόπουλος Σπυρίδωνας</v>
+      </c>
+      <c r="AM45" t="str">
+        <v>Μουρτζούκος Δημήτριος</v>
+      </c>
+      <c r="AN45" t="str">
+        <v>Μπούρας Ναπολέων</v>
+      </c>
+      <c r="AO45" t="str">
+        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
+      </c>
+      <c r="AP45" t="str">
+        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
+      </c>
+      <c r="AQ45" t="str">
+        <v xml:space="preserve">Πανταζή Μαρία </v>
+      </c>
+      <c r="AR45" t="str">
+        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
+      </c>
+      <c r="AS45" t="str">
+        <v>Παπανδρέου Σωτηρία</v>
+      </c>
+      <c r="AT45" t="str">
+        <v>Παυλίδη Ιωάννα</v>
+      </c>
+      <c r="AU45" t="str">
+        <v>Πετρόγιαννος Γεώργιος</v>
+      </c>
+      <c r="AV45" t="str">
+        <v>Πολίτη Γεωργία</v>
+      </c>
+      <c r="AW45" t="str">
+        <v>Ρούτη Μαργαρίτα</v>
+      </c>
+      <c r="AX45" t="str">
+        <v>Σαριπανίδου Χρυσούλα</v>
+      </c>
+      <c r="AY45" t="str">
+        <v>Σίνγκ Ανμόλ</v>
+      </c>
+      <c r="AZ45" t="str">
+        <v>Σύριος Νικόλαος</v>
+      </c>
+      <c r="BA45" t="str">
+        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
+      </c>
+      <c r="BB45" t="str">
+        <v>Τσεκούρα Αγγελική</v>
+      </c>
+      <c r="BC45" t="str">
+        <v>Τσουκαλάς Γεώργιος</v>
+      </c>
+      <c r="BD45" t="str">
+        <v>Φίλης Νικόλαος</v>
+      </c>
+      <c r="BE45" t="str">
+        <v>Χατζόγλου Δημήτριος</v>
+      </c>
+      <c r="BF45" t="str">
+        <v>Χριστοφής Ναπολέων</v>
       </c>
     </row>
     <row r="46" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A46" s="10">
-        <f>ROW()-1</f>
+      <c r="A46" s="9">
+        <f t="shared" si="1"/>
         <v>45</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="12"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="4"/>
-      <c r="G46" s="2"/>
       <c r="I46" s="6"/>
       <c r="J46" s="1"/>
       <c r="AA46" t="str" cm="1">
-        <f t="array" ref="AA46">IF(E50="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E50))))</f>
+        <f t="array" ref="AA46">IF(E46="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E46)))</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="1:58" ht="17" x14ac:dyDescent="0.2">
-      <c r="A47" s="10">
-        <f>ROW()-1</f>
+      <c r="A47" s="9">
+        <f t="shared" si="1"/>
         <v>46</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>92</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G47" s="2"/>
       <c r="I47" s="6"/>
       <c r="J47" s="1"/>
       <c r="AA47" t="str" cm="1">
-        <f t="array" ref="AA47:BF47">IF(E51="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E51))))</f>
-        <v>Δούκα Αναστασία - Ζωή</v>
-      </c>
-      <c r="AB47" t="str">
-        <v>Θεοδώρου Βασιλική</v>
-      </c>
-      <c r="AC47" t="str">
-        <v>Καλλιγέρη Χάρις</v>
-      </c>
-      <c r="AD47" t="str">
-        <v>Κεφαλοπούλου Κανέλλα</v>
-      </c>
-      <c r="AE47" t="str">
-        <v>Κιμιγκέλη Ορσαλία</v>
-      </c>
-      <c r="AF47" t="str">
-        <v>Κόλα Κριστιάνα</v>
-      </c>
-      <c r="AG47" t="str">
-        <v>Κόττα Δέσποινα</v>
-      </c>
-      <c r="AH47" t="str">
-        <v>Λαμπριανίδης Ιάσων</v>
-      </c>
-      <c r="AI47" t="str">
-        <v>Μανώλακας Βασίλειος</v>
-      </c>
-      <c r="AJ47" t="str">
-        <v>Μαργέτη Ευαγγελία</v>
-      </c>
-      <c r="AK47" t="str">
-        <v>Μαρούγκα Φωτεινή</v>
-      </c>
-      <c r="AL47" t="str">
-        <v>Μιχαλόπουλος Σπυρίδωνας</v>
-      </c>
-      <c r="AM47" t="str">
-        <v>Μουρτζούκος Δημήτριος</v>
-      </c>
-      <c r="AN47" t="str">
-        <v>Μπούρας Ναπολέων</v>
-      </c>
-      <c r="AO47" t="str">
-        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
-      </c>
-      <c r="AP47" t="str">
-        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
-      </c>
-      <c r="AQ47" t="str">
-        <v xml:space="preserve">Πανταζή Μαρία </v>
-      </c>
-      <c r="AR47" t="str">
-        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
-      </c>
-      <c r="AS47" t="str">
-        <v>Παπανδρέου Σωτηρία</v>
-      </c>
-      <c r="AT47" t="str">
-        <v>Παυλίδη Ιωάννα</v>
-      </c>
-      <c r="AU47" t="str">
-        <v>Πετρόγιαννος Γεώργιος</v>
-      </c>
-      <c r="AV47" t="str">
-        <v>Πολίτη Γεωργία</v>
-      </c>
-      <c r="AW47" t="str">
-        <v>Ρούτη Μαργαρίτα</v>
-      </c>
-      <c r="AX47" t="str">
-        <v>Σαριπανίδου Χρυσούλα</v>
-      </c>
-      <c r="AY47" t="str">
-        <v>Σίνγκ Ανμόλ</v>
-      </c>
-      <c r="AZ47" t="str">
-        <v>Σύριος Νικόλαος</v>
-      </c>
-      <c r="BA47" t="str">
-        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
-      </c>
-      <c r="BB47" t="str">
-        <v>Τσεκούρα Αγγελική</v>
-      </c>
-      <c r="BC47" t="str">
-        <v>Τσουκαλάς Γεώργιος</v>
-      </c>
-      <c r="BD47" t="str">
-        <v>Φίλης Νικόλαος</v>
-      </c>
-      <c r="BE47" t="str">
-        <v>Χατζόγλου Δημήτριος</v>
-      </c>
-      <c r="BF47" t="str">
-        <v>Χριστοφής Ναπολέων</v>
+        <f t="array" ref="AA47">IF(E47="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E47)))</f>
+        <v/>
       </c>
     </row>
     <row r="48" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A48" s="10">
-        <f>ROW()-1</f>
+      <c r="A48" s="9">
+        <f t="shared" si="1"/>
         <v>47</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C48" s="12"/>
+      <c r="C48" s="11"/>
       <c r="D48" s="4"/>
       <c r="E48" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="F48" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -3112,157 +3028,155 @@
       <c r="I48" s="6"/>
       <c r="J48" s="1"/>
       <c r="AA48" t="str" cm="1">
-        <f t="array" ref="AA48">IF(E52="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E52))))</f>
-        <v/>
+        <f t="array" ref="AA48:BF48">IF(E48="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E48)))</f>
+        <v>Δούκα Αναστασία - Ζωή</v>
+      </c>
+      <c r="AB48" t="str">
+        <v>Θεοδώρου Βασιλική</v>
+      </c>
+      <c r="AC48" t="str">
+        <v>Καλλιγέρη Χάρις</v>
+      </c>
+      <c r="AD48" t="str">
+        <v>Κεφαλοπούλου Κανέλλα</v>
+      </c>
+      <c r="AE48" t="str">
+        <v>Κιμιγκέλη Ορσαλία</v>
+      </c>
+      <c r="AF48" t="str">
+        <v>Κόλα Κριστιάνα</v>
+      </c>
+      <c r="AG48" t="str">
+        <v>Κόττα Δέσποινα</v>
+      </c>
+      <c r="AH48" t="str">
+        <v>Λαμπριανίδης Ιάσων</v>
+      </c>
+      <c r="AI48" t="str">
+        <v>Μανώλακας Βασίλειος</v>
+      </c>
+      <c r="AJ48" t="str">
+        <v>Μαργέτη Ευαγγελία</v>
+      </c>
+      <c r="AK48" t="str">
+        <v>Μαρούγκα Φωτεινή</v>
+      </c>
+      <c r="AL48" t="str">
+        <v>Μιχαλόπουλος Σπυρίδωνας</v>
+      </c>
+      <c r="AM48" t="str">
+        <v>Μουρτζούκος Δημήτριος</v>
+      </c>
+      <c r="AN48" t="str">
+        <v>Μπούρας Ναπολέων</v>
+      </c>
+      <c r="AO48" t="str">
+        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
+      </c>
+      <c r="AP48" t="str">
+        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
+      </c>
+      <c r="AQ48" t="str">
+        <v xml:space="preserve">Πανταζή Μαρία </v>
+      </c>
+      <c r="AR48" t="str">
+        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
+      </c>
+      <c r="AS48" t="str">
+        <v>Παπανδρέου Σωτηρία</v>
+      </c>
+      <c r="AT48" t="str">
+        <v>Παυλίδη Ιωάννα</v>
+      </c>
+      <c r="AU48" t="str">
+        <v>Πετρόγιαννος Γεώργιος</v>
+      </c>
+      <c r="AV48" t="str">
+        <v>Πολίτη Γεωργία</v>
+      </c>
+      <c r="AW48" t="str">
+        <v>Ρούτη Μαργαρίτα</v>
+      </c>
+      <c r="AX48" t="str">
+        <v>Σαριπανίδου Χρυσούλα</v>
+      </c>
+      <c r="AY48" t="str">
+        <v>Σίνγκ Ανμόλ</v>
+      </c>
+      <c r="AZ48" t="str">
+        <v>Σύριος Νικόλαος</v>
+      </c>
+      <c r="BA48" t="str">
+        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
+      </c>
+      <c r="BB48" t="str">
+        <v>Τσεκούρα Αγγελική</v>
+      </c>
+      <c r="BC48" t="str">
+        <v>Τσουκαλάς Γεώργιος</v>
+      </c>
+      <c r="BD48" t="str">
+        <v>Φίλης Νικόλαος</v>
+      </c>
+      <c r="BE48" t="str">
+        <v>Χατζόγλου Δημήτριος</v>
+      </c>
+      <c r="BF48" t="str">
+        <v>Χριστοφής Ναπολέων</v>
       </c>
     </row>
     <row r="49" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A49" s="10">
-        <f>ROW()-1</f>
+      <c r="A49" s="9">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="12"/>
+      <c r="C49" s="11"/>
       <c r="D49" s="4"/>
-      <c r="G49" s="2"/>
       <c r="I49" s="6"/>
       <c r="J49" s="1"/>
       <c r="AA49" t="str" cm="1">
-        <f t="array" ref="AA49">IF(E53="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E53))))</f>
+        <f t="array" ref="AA49">IF(E49="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E49)))</f>
         <v/>
       </c>
     </row>
     <row r="50" spans="1:58" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="10">
-        <f>ROW()-1</f>
+      <c r="A50" s="9">
+        <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>101</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G50" s="2"/>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
       <c r="AA50" t="str" cm="1">
-        <f t="array" ref="AA50:BF50">IF(E54="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E54))))</f>
-        <v>Δούκα Αναστασία - Ζωή</v>
-      </c>
-      <c r="AB50" t="str">
-        <v>Θεοδώρου Βασιλική</v>
-      </c>
-      <c r="AC50" t="str">
-        <v>Καλλιγέρη Χάρις</v>
-      </c>
-      <c r="AD50" t="str">
-        <v>Κεφαλοπούλου Κανέλλα</v>
-      </c>
-      <c r="AE50" t="str">
-        <v>Κιμιγκέλη Ορσαλία</v>
-      </c>
-      <c r="AF50" t="str">
-        <v>Κόλα Κριστιάνα</v>
-      </c>
-      <c r="AG50" t="str">
-        <v>Κόττα Δέσποινα</v>
-      </c>
-      <c r="AH50" t="str">
-        <v>Λαμπριανίδης Ιάσων</v>
-      </c>
-      <c r="AI50" t="str">
-        <v>Μανώλακας Βασίλειος</v>
-      </c>
-      <c r="AJ50" t="str">
-        <v>Μαργέτη Ευαγγελία</v>
-      </c>
-      <c r="AK50" t="str">
-        <v>Μαρούγκα Φωτεινή</v>
-      </c>
-      <c r="AL50" t="str">
-        <v>Μιχαλόπουλος Σπυρίδωνας</v>
-      </c>
-      <c r="AM50" t="str">
-        <v>Μουρτζούκος Δημήτριος</v>
-      </c>
-      <c r="AN50" t="str">
-        <v>Μπούρας Ναπολέων</v>
-      </c>
-      <c r="AO50" t="str">
-        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
-      </c>
-      <c r="AP50" t="str">
-        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
-      </c>
-      <c r="AQ50" t="str">
-        <v xml:space="preserve">Πανταζή Μαρία </v>
-      </c>
-      <c r="AR50" t="str">
-        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
-      </c>
-      <c r="AS50" t="str">
-        <v>Παπανδρέου Σωτηρία</v>
-      </c>
-      <c r="AT50" t="str">
-        <v>Παυλίδη Ιωάννα</v>
-      </c>
-      <c r="AU50" t="str">
-        <v>Πετρόγιαννος Γεώργιος</v>
-      </c>
-      <c r="AV50" t="str">
-        <v>Πολίτη Γεωργία</v>
-      </c>
-      <c r="AW50" t="str">
-        <v>Ρούτη Μαργαρίτα</v>
-      </c>
-      <c r="AX50" t="str">
-        <v>Σαριπανίδου Χρυσούλα</v>
-      </c>
-      <c r="AY50" t="str">
-        <v>Σίνγκ Ανμόλ</v>
-      </c>
-      <c r="AZ50" t="str">
-        <v>Σύριος Νικόλαος</v>
-      </c>
-      <c r="BA50" t="str">
-        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
-      </c>
-      <c r="BB50" t="str">
-        <v>Τσεκούρα Αγγελική</v>
-      </c>
-      <c r="BC50" t="str">
-        <v>Τσουκαλάς Γεώργιος</v>
-      </c>
-      <c r="BD50" t="str">
-        <v>Φίλης Νικόλαος</v>
-      </c>
-      <c r="BE50" t="str">
-        <v>Χατζόγλου Δημήτριος</v>
-      </c>
-      <c r="BF50" t="str">
-        <v>Χριστοφής Ναπολέων</v>
+        <f t="array" ref="AA50">IF(E50="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E50)))</f>
+        <v/>
       </c>
     </row>
     <row r="51" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A51" s="10">
-        <f>ROW()-1</f>
+      <c r="A51" s="9">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C51" s="12"/>
+      <c r="C51" s="11"/>
       <c r="D51" s="4"/>
       <c r="E51" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="F51" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G51" s="2" t="s">
@@ -3271,64 +3185,155 @@
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
       <c r="AA51" t="str" cm="1">
-        <f t="array" ref="AA51">IF(E55="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E55))))</f>
-        <v/>
+        <f t="array" ref="AA51:BF51">IF(E51="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E51)))</f>
+        <v>Δούκα Αναστασία - Ζωή</v>
+      </c>
+      <c r="AB51" t="str">
+        <v>Θεοδώρου Βασιλική</v>
+      </c>
+      <c r="AC51" t="str">
+        <v>Καλλιγέρη Χάρις</v>
+      </c>
+      <c r="AD51" t="str">
+        <v>Κεφαλοπούλου Κανέλλα</v>
+      </c>
+      <c r="AE51" t="str">
+        <v>Κιμιγκέλη Ορσαλία</v>
+      </c>
+      <c r="AF51" t="str">
+        <v>Κόλα Κριστιάνα</v>
+      </c>
+      <c r="AG51" t="str">
+        <v>Κόττα Δέσποινα</v>
+      </c>
+      <c r="AH51" t="str">
+        <v>Λαμπριανίδης Ιάσων</v>
+      </c>
+      <c r="AI51" t="str">
+        <v>Μανώλακας Βασίλειος</v>
+      </c>
+      <c r="AJ51" t="str">
+        <v>Μαργέτη Ευαγγελία</v>
+      </c>
+      <c r="AK51" t="str">
+        <v>Μαρούγκα Φωτεινή</v>
+      </c>
+      <c r="AL51" t="str">
+        <v>Μιχαλόπουλος Σπυρίδωνας</v>
+      </c>
+      <c r="AM51" t="str">
+        <v>Μουρτζούκος Δημήτριος</v>
+      </c>
+      <c r="AN51" t="str">
+        <v>Μπούρας Ναπολέων</v>
+      </c>
+      <c r="AO51" t="str">
+        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
+      </c>
+      <c r="AP51" t="str">
+        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
+      </c>
+      <c r="AQ51" t="str">
+        <v xml:space="preserve">Πανταζή Μαρία </v>
+      </c>
+      <c r="AR51" t="str">
+        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
+      </c>
+      <c r="AS51" t="str">
+        <v>Παπανδρέου Σωτηρία</v>
+      </c>
+      <c r="AT51" t="str">
+        <v>Παυλίδη Ιωάννα</v>
+      </c>
+      <c r="AU51" t="str">
+        <v>Πετρόγιαννος Γεώργιος</v>
+      </c>
+      <c r="AV51" t="str">
+        <v>Πολίτη Γεωργία</v>
+      </c>
+      <c r="AW51" t="str">
+        <v>Ρούτη Μαργαρίτα</v>
+      </c>
+      <c r="AX51" t="str">
+        <v>Σαριπανίδου Χρυσούλα</v>
+      </c>
+      <c r="AY51" t="str">
+        <v>Σίνγκ Ανμόλ</v>
+      </c>
+      <c r="AZ51" t="str">
+        <v>Σύριος Νικόλαος</v>
+      </c>
+      <c r="BA51" t="str">
+        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
+      </c>
+      <c r="BB51" t="str">
+        <v>Τσεκούρα Αγγελική</v>
+      </c>
+      <c r="BC51" t="str">
+        <v>Τσουκαλάς Γεώργιος</v>
+      </c>
+      <c r="BD51" t="str">
+        <v>Φίλης Νικόλαος</v>
+      </c>
+      <c r="BE51" t="str">
+        <v>Χατζόγλου Δημήτριος</v>
+      </c>
+      <c r="BF51" t="str">
+        <v>Χριστοφής Ναπολέων</v>
       </c>
     </row>
     <row r="52" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="10">
-        <f>ROW()-1</f>
+      <c r="A52" s="9">
+        <f t="shared" si="1"/>
         <v>51</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C52" s="12"/>
+      <c r="C52" s="11"/>
       <c r="D52" s="4"/>
-      <c r="G52" s="2"/>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
       <c r="AA52" t="str" cm="1">
-        <f t="array" ref="AA52">IF(E56="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E56))))</f>
+        <f t="array" ref="AA52">IF(E52="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E52)))</f>
         <v/>
       </c>
     </row>
     <row r="53" spans="1:58" ht="34" x14ac:dyDescent="0.2">
-      <c r="A53" s="10">
-        <f>ROW()-1</f>
+      <c r="A53" s="9">
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="11" t="s">
         <v>110</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="G53" s="2"/>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
       <c r="AA53" t="str" cm="1">
-        <f t="array" ref="AA53">IF(E57="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E57))))</f>
+        <f t="array" ref="AA53">IF(E53="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E53)))</f>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A54" s="10">
-        <f>ROW()-1</f>
+      <c r="A54" s="9">
+        <f t="shared" si="1"/>
         <v>53</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="12"/>
+      <c r="C54" s="11"/>
       <c r="D54" s="4"/>
       <c r="E54" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="F54" s="2" t="s">
         <v>112</v>
       </c>
       <c r="G54" s="2" t="s">
@@ -3337,116 +3342,207 @@
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
       <c r="AA54" t="str" cm="1">
-        <f t="array" ref="AA54">IF(E58="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E58))))</f>
-        <v/>
+        <f t="array" ref="AA54:BF54">IF(E54="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E54)))</f>
+        <v>Δούκα Αναστασία - Ζωή</v>
+      </c>
+      <c r="AB54" t="str">
+        <v>Θεοδώρου Βασιλική</v>
+      </c>
+      <c r="AC54" t="str">
+        <v>Καλλιγέρη Χάρις</v>
+      </c>
+      <c r="AD54" t="str">
+        <v>Κεφαλοπούλου Κανέλλα</v>
+      </c>
+      <c r="AE54" t="str">
+        <v>Κιμιγκέλη Ορσαλία</v>
+      </c>
+      <c r="AF54" t="str">
+        <v>Κόλα Κριστιάνα</v>
+      </c>
+      <c r="AG54" t="str">
+        <v>Κόττα Δέσποινα</v>
+      </c>
+      <c r="AH54" t="str">
+        <v>Λαμπριανίδης Ιάσων</v>
+      </c>
+      <c r="AI54" t="str">
+        <v>Μανώλακας Βασίλειος</v>
+      </c>
+      <c r="AJ54" t="str">
+        <v>Μαργέτη Ευαγγελία</v>
+      </c>
+      <c r="AK54" t="str">
+        <v>Μαρούγκα Φωτεινή</v>
+      </c>
+      <c r="AL54" t="str">
+        <v>Μιχαλόπουλος Σπυρίδωνας</v>
+      </c>
+      <c r="AM54" t="str">
+        <v>Μουρτζούκος Δημήτριος</v>
+      </c>
+      <c r="AN54" t="str">
+        <v>Μπούρας Ναπολέων</v>
+      </c>
+      <c r="AO54" t="str">
+        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
+      </c>
+      <c r="AP54" t="str">
+        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
+      </c>
+      <c r="AQ54" t="str">
+        <v xml:space="preserve">Πανταζή Μαρία </v>
+      </c>
+      <c r="AR54" t="str">
+        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
+      </c>
+      <c r="AS54" t="str">
+        <v>Παπανδρέου Σωτηρία</v>
+      </c>
+      <c r="AT54" t="str">
+        <v>Παυλίδη Ιωάννα</v>
+      </c>
+      <c r="AU54" t="str">
+        <v>Πετρόγιαννος Γεώργιος</v>
+      </c>
+      <c r="AV54" t="str">
+        <v>Πολίτη Γεωργία</v>
+      </c>
+      <c r="AW54" t="str">
+        <v>Ρούτη Μαργαρίτα</v>
+      </c>
+      <c r="AX54" t="str">
+        <v>Σαριπανίδου Χρυσούλα</v>
+      </c>
+      <c r="AY54" t="str">
+        <v>Σίνγκ Ανμόλ</v>
+      </c>
+      <c r="AZ54" t="str">
+        <v>Σύριος Νικόλαος</v>
+      </c>
+      <c r="BA54" t="str">
+        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
+      </c>
+      <c r="BB54" t="str">
+        <v>Τσεκούρα Αγγελική</v>
+      </c>
+      <c r="BC54" t="str">
+        <v>Τσουκαλάς Γεώργιος</v>
+      </c>
+      <c r="BD54" t="str">
+        <v>Φίλης Νικόλαος</v>
+      </c>
+      <c r="BE54" t="str">
+        <v>Χατζόγλου Δημήτριος</v>
+      </c>
+      <c r="BF54" t="str">
+        <v>Χριστοφής Ναπολέων</v>
       </c>
     </row>
     <row r="55" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A55" s="10">
-        <f>ROW()-1</f>
+      <c r="A55" s="9">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="12"/>
+      <c r="C55" s="11"/>
       <c r="D55" s="4"/>
-      <c r="G55" s="2"/>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
       <c r="AA55" t="str" cm="1">
-        <f t="array" ref="AA55">IF(E59="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E59))))</f>
+        <f t="array" ref="AA55">IF(E55="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E55)))</f>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A56" s="10">
-        <f>ROW()-1</f>
+      <c r="A56" s="9">
+        <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C56" s="12"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="4"/>
-      <c r="G56" s="2"/>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
       <c r="AA56" t="str" cm="1">
-        <f t="array" ref="AA56">IF(E60="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E60))))</f>
+        <f t="array" ref="AA56">IF(E56="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E56)))</f>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A57" s="10">
-        <f>ROW()-1</f>
+      <c r="A57" s="9">
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="B57" s="14" t="s">
+      <c r="B57" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="12"/>
+      <c r="C57" s="11"/>
       <c r="D57" s="4"/>
-      <c r="G57" s="2"/>
       <c r="I57" s="6"/>
       <c r="J57" s="1"/>
       <c r="AA57" t="str" cm="1">
-        <f t="array" ref="AA57">IF(E61="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E61))))</f>
+        <f t="array" ref="AA57">IF(E57="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E57)))</f>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:58" ht="34" x14ac:dyDescent="0.2">
-      <c r="A58" s="10">
-        <f>ROW()-1</f>
+      <c r="A58" s="9">
+        <f t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>119</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G58" s="2"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
       <c r="AA58" t="str" cm="1">
-        <f t="array" ref="AA58">IF(E62="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E62))))</f>
+        <f t="array" ref="AA58">IF(E58="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E58)))</f>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A59" s="10">
-        <f>ROW()-1</f>
+      <c r="A59" s="9">
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C59" s="12"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="4"/>
-      <c r="G59" s="2"/>
       <c r="I59" s="6"/>
       <c r="Z59" t="str" cm="1">
         <f t="array" ref="Z59">IF(D63="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D63))))</f>
         <v/>
       </c>
+      <c r="AA59" t="str" cm="1">
+        <f t="array" ref="AA59">IF(E59="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E59)))</f>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A60" s="10">
-        <f>ROW()-1</f>
+      <c r="A60" s="9">
+        <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>121</v>
       </c>
       <c r="D60" s="4"/>
-      <c r="G60" s="2"/>
       <c r="H60" s="7" t="s">
         <v>6</v>
       </c>
@@ -3457,1584 +3553,2566 @@
         <f t="array" ref="Z60">IF(D64="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D64))))</f>
         <v/>
       </c>
+      <c r="AA60" t="str" cm="1">
+        <f t="array" ref="AA60">IF(E60="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E60)))</f>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A61" s="10">
-        <f>ROW()-1</f>
+      <c r="A61" s="9">
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C61" s="12"/>
+      <c r="C61" s="11"/>
       <c r="D61" s="4"/>
-      <c r="G61" s="2"/>
       <c r="I61" s="6"/>
       <c r="Z61" t="str" cm="1">
         <f t="array" ref="Z61">IF(D65="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D65))))</f>
         <v/>
       </c>
+      <c r="AA61" t="str" cm="1">
+        <f t="array" ref="AA61">IF(E61="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E61)))</f>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A62" s="10">
-        <f>ROW()-1</f>
+      <c r="A62" s="9">
+        <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C62" s="12"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="4"/>
-      <c r="G62" s="2"/>
       <c r="I62" s="6"/>
       <c r="Z62" t="str" cm="1">
         <f t="array" ref="Z62">IF(D66="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D66))))</f>
         <v/>
       </c>
+      <c r="AA62" t="str" cm="1">
+        <f t="array" ref="AA62">IF(E62="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E62)))</f>
+        <v/>
+      </c>
     </row>
     <row r="63" spans="1:58" x14ac:dyDescent="0.2">
       <c r="Z63" t="str" cm="1">
         <f t="array" ref="Z63">IF(D67="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D67))))</f>
         <v/>
       </c>
+      <c r="AA63" t="str" cm="1">
+        <f t="array" ref="AA63">IF(E63="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E63)))</f>
+        <v/>
+      </c>
     </row>
     <row r="64" spans="1:58" x14ac:dyDescent="0.2">
       <c r="Z64" t="str" cm="1">
         <f t="array" ref="Z64">IF(D68="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D68))))</f>
         <v/>
       </c>
-    </row>
-    <row r="65" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA64" t="str" cm="1">
+        <f t="array" ref="AA64">IF(E64="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E64)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z65" t="str" cm="1">
         <f t="array" ref="Z65">IF(D69="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D69))))</f>
         <v/>
       </c>
-    </row>
-    <row r="66" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA65" t="str" cm="1">
+        <f t="array" ref="AA65">IF(E65="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E65)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z66" t="str" cm="1">
         <f t="array" ref="Z66">IF(D70="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D70))))</f>
         <v/>
       </c>
-    </row>
-    <row r="67" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA66" t="str" cm="1">
+        <f t="array" ref="AA66">IF(E66="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E66)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z67" t="str" cm="1">
         <f t="array" ref="Z67">IF(D71="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D71))))</f>
         <v/>
       </c>
-    </row>
-    <row r="68" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA67" t="str" cm="1">
+        <f t="array" ref="AA67">IF(E67="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E67)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z68" t="str" cm="1">
         <f t="array" ref="Z68">IF(D72="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D72))))</f>
         <v/>
       </c>
-    </row>
-    <row r="69" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA68" t="str" cm="1">
+        <f t="array" ref="AA68">IF(E68="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E68)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z69" t="str" cm="1">
         <f t="array" ref="Z69">IF(D73="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D73))))</f>
         <v/>
       </c>
-    </row>
-    <row r="70" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA69" t="str" cm="1">
+        <f t="array" ref="AA69">IF(E69="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E69)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z70" t="str" cm="1">
         <f t="array" ref="Z70">IF(D74="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D74))))</f>
         <v/>
       </c>
-    </row>
-    <row r="71" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA70" t="str" cm="1">
+        <f t="array" ref="AA70">IF(E70="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E70)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z71" t="str" cm="1">
         <f t="array" ref="Z71">IF(D75="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D75))))</f>
         <v/>
       </c>
-    </row>
-    <row r="72" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA71" t="str" cm="1">
+        <f t="array" ref="AA71">IF(E71="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E71)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z72" t="str" cm="1">
         <f t="array" ref="Z72">IF(D76="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D76))))</f>
         <v/>
       </c>
-    </row>
-    <row r="73" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA72" t="str" cm="1">
+        <f t="array" ref="AA72">IF(E72="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E72)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z73" t="str" cm="1">
         <f t="array" ref="Z73">IF(D77="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D77))))</f>
         <v/>
       </c>
-    </row>
-    <row r="74" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA73" t="str" cm="1">
+        <f t="array" ref="AA73">IF(E73="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E73)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z74" t="str" cm="1">
         <f t="array" ref="Z74">IF(D78="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D78))))</f>
         <v/>
       </c>
-    </row>
-    <row r="75" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA74" t="str" cm="1">
+        <f t="array" ref="AA74">IF(E74="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E74)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z75" t="str" cm="1">
         <f t="array" ref="Z75">IF(D79="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D79))))</f>
         <v/>
       </c>
-    </row>
-    <row r="76" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA75" t="str" cm="1">
+        <f t="array" ref="AA75">IF(E75="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E75)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z76" t="str" cm="1">
         <f t="array" ref="Z76">IF(D80="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D80))))</f>
         <v/>
       </c>
-    </row>
-    <row r="77" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA76" t="str" cm="1">
+        <f t="array" ref="AA76">IF(E76="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E76)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z77" t="str" cm="1">
         <f t="array" ref="Z77">IF(D81="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D81))))</f>
         <v/>
       </c>
-    </row>
-    <row r="78" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA77" t="str" cm="1">
+        <f t="array" ref="AA77">IF(E77="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E77)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z78" t="str" cm="1">
         <f t="array" ref="Z78">IF(D82="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D82))))</f>
         <v/>
       </c>
-    </row>
-    <row r="79" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA78" t="str" cm="1">
+        <f t="array" ref="AA78">IF(E78="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E78)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z79" t="str" cm="1">
         <f t="array" ref="Z79">IF(D83="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D83))))</f>
         <v/>
       </c>
-    </row>
-    <row r="80" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA79" t="str" cm="1">
+        <f t="array" ref="AA79">IF(E79="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E79)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z80" t="str" cm="1">
         <f t="array" ref="Z80">IF(D84="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D84))))</f>
         <v/>
       </c>
-    </row>
-    <row r="81" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA80" t="str" cm="1">
+        <f t="array" ref="AA80">IF(E80="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E80)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z81" t="str" cm="1">
         <f t="array" ref="Z81">IF(D85="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D85))))</f>
         <v/>
       </c>
-    </row>
-    <row r="82" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA81" t="str" cm="1">
+        <f t="array" ref="AA81">IF(E81="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E81)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z82" t="str" cm="1">
         <f t="array" ref="Z82">IF(D86="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D86))))</f>
         <v/>
       </c>
-    </row>
-    <row r="83" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA82" t="str" cm="1">
+        <f t="array" ref="AA82">IF(E82="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E82)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="83" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z83" t="str" cm="1">
         <f t="array" ref="Z83">IF(D87="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D87))))</f>
         <v/>
       </c>
-    </row>
-    <row r="84" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA83" t="str" cm="1">
+        <f t="array" ref="AA83">IF(E83="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E83)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="84" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z84" t="str" cm="1">
         <f t="array" ref="Z84">IF(D88="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D88))))</f>
         <v/>
       </c>
-    </row>
-    <row r="85" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA84" t="str" cm="1">
+        <f t="array" ref="AA84">IF(E84="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E84)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="85" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z85" t="str" cm="1">
         <f t="array" ref="Z85">IF(D89="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D89))))</f>
         <v/>
       </c>
-    </row>
-    <row r="86" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA85" t="str" cm="1">
+        <f t="array" ref="AA85">IF(E85="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E85)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="86" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z86" t="str" cm="1">
         <f t="array" ref="Z86">IF(D90="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D90))))</f>
         <v/>
       </c>
-    </row>
-    <row r="87" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA86" t="str" cm="1">
+        <f t="array" ref="AA86">IF(E86="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E86)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="87" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z87" t="str" cm="1">
         <f t="array" ref="Z87">IF(D91="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D91))))</f>
         <v/>
       </c>
-    </row>
-    <row r="88" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA87" t="str" cm="1">
+        <f t="array" ref="AA87">IF(E87="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E87)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="88" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z88" t="str" cm="1">
         <f t="array" ref="Z88">IF(D92="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D92))))</f>
         <v/>
       </c>
-    </row>
-    <row r="89" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA88" t="str" cm="1">
+        <f t="array" ref="AA88">IF(E88="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E88)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="89" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z89" t="str" cm="1">
         <f t="array" ref="Z89">IF(D93="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D93))))</f>
         <v/>
       </c>
-    </row>
-    <row r="90" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA89" t="str" cm="1">
+        <f t="array" ref="AA89">IF(E89="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E89)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="90" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z90" t="str" cm="1">
         <f t="array" ref="Z90">IF(D94="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D94))))</f>
         <v/>
       </c>
-    </row>
-    <row r="91" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA90" t="str" cm="1">
+        <f t="array" ref="AA90">IF(E90="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E90)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="91" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z91" t="str" cm="1">
         <f t="array" ref="Z91">IF(D95="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D95))))</f>
         <v/>
       </c>
-    </row>
-    <row r="92" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA91" t="str" cm="1">
+        <f t="array" ref="AA91">IF(E91="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E91)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="92" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z92" t="str" cm="1">
         <f t="array" ref="Z92">IF(D96="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D96))))</f>
         <v/>
       </c>
-    </row>
-    <row r="93" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA92" t="str" cm="1">
+        <f t="array" ref="AA92">IF(E92="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E92)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z93" t="str" cm="1">
         <f t="array" ref="Z93">IF(D97="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D97))))</f>
         <v/>
       </c>
-    </row>
-    <row r="94" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA93" t="str" cm="1">
+        <f t="array" ref="AA93">IF(E93="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E93)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="94" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z94" t="str" cm="1">
         <f t="array" ref="Z94">IF(D98="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D98))))</f>
         <v/>
       </c>
-    </row>
-    <row r="95" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA94" t="str" cm="1">
+        <f t="array" ref="AA94">IF(E94="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E94)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="95" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z95" t="str" cm="1">
         <f t="array" ref="Z95">IF(D99="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D99))))</f>
         <v/>
       </c>
-    </row>
-    <row r="96" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA95" t="str" cm="1">
+        <f t="array" ref="AA95">IF(E95="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E95)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="96" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z96" t="str" cm="1">
         <f t="array" ref="Z96">IF(D100="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D100))))</f>
         <v/>
       </c>
-    </row>
-    <row r="97" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA96" t="str" cm="1">
+        <f t="array" ref="AA96">IF(E96="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E96)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="97" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z97" t="str" cm="1">
         <f t="array" ref="Z97">IF(D101="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D101))))</f>
         <v/>
       </c>
-    </row>
-    <row r="98" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA97" t="str" cm="1">
+        <f t="array" ref="AA97">IF(E97="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E97)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="98" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z98" t="str" cm="1">
         <f t="array" ref="Z98">IF(D102="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D102))))</f>
         <v/>
       </c>
-    </row>
-    <row r="99" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA98" t="str" cm="1">
+        <f t="array" ref="AA98">IF(E98="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E98)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="99" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z99" t="str" cm="1">
         <f t="array" ref="Z99">IF(D103="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D103))))</f>
         <v/>
       </c>
-    </row>
-    <row r="100" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA99" t="str" cm="1">
+        <f t="array" ref="AA99">IF(E99="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E99)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="100" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z100" t="str" cm="1">
         <f t="array" ref="Z100">IF(D104="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D104))))</f>
         <v/>
       </c>
-    </row>
-    <row r="101" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA100" t="str" cm="1">
+        <f t="array" ref="AA100">IF(E100="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E100)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="101" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z101" t="str" cm="1">
         <f t="array" ref="Z101">IF(D105="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D105))))</f>
         <v/>
       </c>
-    </row>
-    <row r="102" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA101" t="str" cm="1">
+        <f t="array" ref="AA101">IF(E101="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E101)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="102" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z102" t="str" cm="1">
         <f t="array" ref="Z102">IF(D106="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D106))))</f>
         <v/>
       </c>
-    </row>
-    <row r="103" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA102" t="str" cm="1">
+        <f t="array" ref="AA102">IF(E102="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E102)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="103" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z103" t="str" cm="1">
         <f t="array" ref="Z103">IF(D107="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D107))))</f>
         <v/>
       </c>
-    </row>
-    <row r="104" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA103" t="str" cm="1">
+        <f t="array" ref="AA103">IF(E103="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E103)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="104" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z104" t="str" cm="1">
         <f t="array" ref="Z104">IF(D108="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D108))))</f>
         <v/>
       </c>
-    </row>
-    <row r="105" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA104" t="str" cm="1">
+        <f t="array" ref="AA104">IF(E104="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E104)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="105" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z105" t="str" cm="1">
         <f t="array" ref="Z105">IF(D109="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D109))))</f>
         <v/>
       </c>
-    </row>
-    <row r="106" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA105" t="str" cm="1">
+        <f t="array" ref="AA105">IF(E105="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E105)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="106" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z106" t="str" cm="1">
         <f t="array" ref="Z106">IF(D110="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D110))))</f>
         <v/>
       </c>
-    </row>
-    <row r="107" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA106" t="str" cm="1">
+        <f t="array" ref="AA106">IF(E106="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E106)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="107" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z107" t="str" cm="1">
         <f t="array" ref="Z107">IF(D111="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D111))))</f>
         <v/>
       </c>
-    </row>
-    <row r="108" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA107" t="str" cm="1">
+        <f t="array" ref="AA107">IF(E107="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E107)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="108" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z108" t="str" cm="1">
         <f t="array" ref="Z108">IF(D112="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D112))))</f>
         <v/>
       </c>
-    </row>
-    <row r="109" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA108" t="str" cm="1">
+        <f t="array" ref="AA108">IF(E108="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E108)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="109" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z109" t="str" cm="1">
         <f t="array" ref="Z109">IF(D113="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D113))))</f>
         <v/>
       </c>
-    </row>
-    <row r="110" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA109" t="str" cm="1">
+        <f t="array" ref="AA109">IF(E109="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E109)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="110" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z110" t="str" cm="1">
         <f t="array" ref="Z110">IF(D114="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D114))))</f>
         <v/>
       </c>
-    </row>
-    <row r="111" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA110" t="str" cm="1">
+        <f t="array" ref="AA110">IF(E110="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E110)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="111" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z111" t="str" cm="1">
         <f t="array" ref="Z111">IF(D115="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D115))))</f>
         <v/>
       </c>
-    </row>
-    <row r="112" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA111" t="str" cm="1">
+        <f t="array" ref="AA111">IF(E111="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E111)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="112" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z112" t="str" cm="1">
         <f t="array" ref="Z112">IF(D116="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D116))))</f>
         <v/>
       </c>
-    </row>
-    <row r="113" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA112" t="str" cm="1">
+        <f t="array" ref="AA112">IF(E112="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E112)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="113" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z113" t="str" cm="1">
         <f t="array" ref="Z113">IF(D117="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D117))))</f>
         <v/>
       </c>
-    </row>
-    <row r="114" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA113" t="str" cm="1">
+        <f t="array" ref="AA113">IF(E113="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E113)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="114" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z114" t="str" cm="1">
         <f t="array" ref="Z114">IF(D118="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D118))))</f>
         <v/>
       </c>
-    </row>
-    <row r="115" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA114" t="str" cm="1">
+        <f t="array" ref="AA114">IF(E114="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E114)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="115" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z115" t="str" cm="1">
         <f t="array" ref="Z115">IF(D119="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D119))))</f>
         <v/>
       </c>
-    </row>
-    <row r="116" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA115" t="str" cm="1">
+        <f t="array" ref="AA115">IF(E115="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E115)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="116" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z116" t="str" cm="1">
         <f t="array" ref="Z116">IF(D120="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D120))))</f>
         <v/>
       </c>
-    </row>
-    <row r="117" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA116" t="str" cm="1">
+        <f t="array" ref="AA116">IF(E116="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E116)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="117" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z117" t="str" cm="1">
         <f t="array" ref="Z117">IF(D121="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D121))))</f>
         <v/>
       </c>
-    </row>
-    <row r="118" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA117" t="str" cm="1">
+        <f t="array" ref="AA117">IF(E117="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E117)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="118" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z118" t="str" cm="1">
         <f t="array" ref="Z118">IF(D122="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D122))))</f>
         <v/>
       </c>
-    </row>
-    <row r="119" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA118" t="str" cm="1">
+        <f t="array" ref="AA118">IF(E118="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E118)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z119" t="str" cm="1">
         <f t="array" ref="Z119">IF(D123="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D123))))</f>
         <v/>
       </c>
-    </row>
-    <row r="120" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA119" t="str" cm="1">
+        <f t="array" ref="AA119">IF(E119="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E119)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="120" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z120" t="str" cm="1">
         <f t="array" ref="Z120">IF(D124="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D124))))</f>
         <v/>
       </c>
-    </row>
-    <row r="121" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA120" t="str" cm="1">
+        <f t="array" ref="AA120">IF(E120="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E120)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="121" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z121" t="str" cm="1">
         <f t="array" ref="Z121">IF(D125="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D125))))</f>
         <v/>
       </c>
-    </row>
-    <row r="122" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA121" t="str" cm="1">
+        <f t="array" ref="AA121">IF(E121="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E121)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z122" t="str" cm="1">
         <f t="array" ref="Z122">IF(D126="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D126))))</f>
         <v/>
       </c>
-    </row>
-    <row r="123" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA122" t="str" cm="1">
+        <f t="array" ref="AA122">IF(E122="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E122)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="123" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z123" t="str" cm="1">
         <f t="array" ref="Z123">IF(D127="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D127))))</f>
         <v/>
       </c>
-    </row>
-    <row r="124" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA123" t="str" cm="1">
+        <f t="array" ref="AA123">IF(E123="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E123)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="124" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z124" t="str" cm="1">
         <f t="array" ref="Z124">IF(D128="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D128))))</f>
         <v/>
       </c>
-    </row>
-    <row r="125" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA124" t="str" cm="1">
+        <f t="array" ref="AA124">IF(E124="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E124)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z125" t="str" cm="1">
         <f t="array" ref="Z125">IF(D129="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D129))))</f>
         <v/>
       </c>
-    </row>
-    <row r="126" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA125" t="str" cm="1">
+        <f t="array" ref="AA125">IF(E125="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E125)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z126" t="str" cm="1">
         <f t="array" ref="Z126">IF(D130="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D130))))</f>
         <v/>
       </c>
-    </row>
-    <row r="127" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA126" t="str" cm="1">
+        <f t="array" ref="AA126">IF(E126="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E126)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z127" t="str" cm="1">
         <f t="array" ref="Z127">IF(D131="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D131))))</f>
         <v/>
       </c>
-    </row>
-    <row r="128" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA127" t="str" cm="1">
+        <f t="array" ref="AA127">IF(E127="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E127)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z128" t="str" cm="1">
         <f t="array" ref="Z128">IF(D132="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D132))))</f>
         <v/>
       </c>
-    </row>
-    <row r="129" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA128" t="str" cm="1">
+        <f t="array" ref="AA128">IF(E128="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E128)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z129" t="str" cm="1">
         <f t="array" ref="Z129">IF(D133="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D133))))</f>
         <v/>
       </c>
-    </row>
-    <row r="130" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA129" t="str" cm="1">
+        <f t="array" ref="AA129">IF(E129="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E129)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z130" t="str" cm="1">
         <f t="array" ref="Z130">IF(D134="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D134))))</f>
         <v/>
       </c>
-    </row>
-    <row r="131" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA130" t="str" cm="1">
+        <f t="array" ref="AA130">IF(E130="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E130)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z131" t="str" cm="1">
         <f t="array" ref="Z131">IF(D135="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D135))))</f>
         <v/>
       </c>
-    </row>
-    <row r="132" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA131" t="str" cm="1">
+        <f t="array" ref="AA131">IF(E131="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E131)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z132" t="str" cm="1">
         <f t="array" ref="Z132">IF(D136="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D136))))</f>
         <v/>
       </c>
-    </row>
-    <row r="133" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA132" t="str" cm="1">
+        <f t="array" ref="AA132">IF(E132="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E132)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z133" t="str" cm="1">
         <f t="array" ref="Z133">IF(D137="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D137))))</f>
         <v/>
       </c>
-    </row>
-    <row r="134" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA133" t="str" cm="1">
+        <f t="array" ref="AA133">IF(E133="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E133)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z134" t="str" cm="1">
         <f t="array" ref="Z134">IF(D138="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D138))))</f>
         <v/>
       </c>
-    </row>
-    <row r="135" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA134" t="str" cm="1">
+        <f t="array" ref="AA134">IF(E134="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E134)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z135" t="str" cm="1">
         <f t="array" ref="Z135">IF(D139="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D139))))</f>
         <v/>
       </c>
-    </row>
-    <row r="136" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA135" t="str" cm="1">
+        <f t="array" ref="AA135">IF(E135="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E135)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z136" t="str" cm="1">
         <f t="array" ref="Z136">IF(D140="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D140))))</f>
         <v/>
       </c>
-    </row>
-    <row r="137" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA136" t="str" cm="1">
+        <f t="array" ref="AA136">IF(E136="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E136)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z137" t="str" cm="1">
         <f t="array" ref="Z137">IF(D141="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D141))))</f>
         <v/>
       </c>
-    </row>
-    <row r="138" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA137" t="str" cm="1">
+        <f t="array" ref="AA137">IF(E137="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E137)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z138" t="str" cm="1">
         <f t="array" ref="Z138">IF(D142="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D142))))</f>
         <v/>
       </c>
-    </row>
-    <row r="139" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA138" t="str" cm="1">
+        <f t="array" ref="AA138">IF(E138="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E138)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z139" t="str" cm="1">
         <f t="array" ref="Z139">IF(D143="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D143))))</f>
         <v/>
       </c>
-    </row>
-    <row r="140" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA139" t="str" cm="1">
+        <f t="array" ref="AA139">IF(E139="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E139)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z140" t="str" cm="1">
         <f t="array" ref="Z140">IF(D144="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D144))))</f>
         <v/>
       </c>
-    </row>
-    <row r="141" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA140" t="str" cm="1">
+        <f t="array" ref="AA140">IF(E140="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E140)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z141" t="str" cm="1">
         <f t="array" ref="Z141">IF(D145="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D145))))</f>
         <v/>
       </c>
-    </row>
-    <row r="142" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA141" t="str" cm="1">
+        <f t="array" ref="AA141">IF(E141="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E141)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z142" t="str" cm="1">
         <f t="array" ref="Z142">IF(D146="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D146))))</f>
         <v/>
       </c>
-    </row>
-    <row r="143" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA142" t="str" cm="1">
+        <f t="array" ref="AA142">IF(E142="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E142)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z143" t="str" cm="1">
         <f t="array" ref="Z143">IF(D147="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D147))))</f>
         <v/>
       </c>
-    </row>
-    <row r="144" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA143" t="str" cm="1">
+        <f t="array" ref="AA143">IF(E143="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E143)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z144" t="str" cm="1">
         <f t="array" ref="Z144">IF(D148="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D148))))</f>
         <v/>
       </c>
-    </row>
-    <row r="145" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA144" t="str" cm="1">
+        <f t="array" ref="AA144">IF(E144="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E144)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z145" t="str" cm="1">
         <f t="array" ref="Z145">IF(D149="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D149))))</f>
         <v/>
       </c>
-    </row>
-    <row r="146" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA145" t="str" cm="1">
+        <f t="array" ref="AA145">IF(E145="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E145)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z146" t="str" cm="1">
         <f t="array" ref="Z146">IF(D150="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D150))))</f>
         <v/>
       </c>
-    </row>
-    <row r="147" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA146" t="str" cm="1">
+        <f t="array" ref="AA146">IF(E146="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E146)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z147" t="str" cm="1">
         <f t="array" ref="Z147">IF(D151="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D151))))</f>
         <v/>
       </c>
-    </row>
-    <row r="148" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA147" t="str" cm="1">
+        <f t="array" ref="AA147">IF(E147="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E147)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z148" t="str" cm="1">
         <f t="array" ref="Z148">IF(D152="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D152))))</f>
         <v/>
       </c>
-    </row>
-    <row r="149" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA148" t="str" cm="1">
+        <f t="array" ref="AA148">IF(E148="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E148)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z149" t="str" cm="1">
         <f t="array" ref="Z149">IF(D153="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D153))))</f>
         <v/>
       </c>
-    </row>
-    <row r="150" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA149" t="str" cm="1">
+        <f t="array" ref="AA149">IF(E149="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E149)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z150" t="str" cm="1">
         <f t="array" ref="Z150">IF(D154="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D154))))</f>
         <v/>
       </c>
-    </row>
-    <row r="151" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA150" t="str" cm="1">
+        <f t="array" ref="AA150">IF(E150="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E150)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z151" t="str" cm="1">
         <f t="array" ref="Z151">IF(D155="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D155))))</f>
         <v/>
       </c>
-    </row>
-    <row r="152" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA151" t="str" cm="1">
+        <f t="array" ref="AA151">IF(E151="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E151)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z152" t="str" cm="1">
         <f t="array" ref="Z152">IF(D156="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D156))))</f>
         <v/>
       </c>
-    </row>
-    <row r="153" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA152" t="str" cm="1">
+        <f t="array" ref="AA152">IF(E152="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E152)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z153" t="str" cm="1">
         <f t="array" ref="Z153">IF(D157="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D157))))</f>
         <v/>
       </c>
-    </row>
-    <row r="154" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA153" t="str" cm="1">
+        <f t="array" ref="AA153">IF(E153="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E153)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z154" t="str" cm="1">
         <f t="array" ref="Z154">IF(D158="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D158))))</f>
         <v/>
       </c>
-    </row>
-    <row r="155" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA154" t="str" cm="1">
+        <f t="array" ref="AA154">IF(E154="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E154)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z155" t="str" cm="1">
         <f t="array" ref="Z155">IF(D159="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D159))))</f>
         <v/>
       </c>
-    </row>
-    <row r="156" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA155" t="str" cm="1">
+        <f t="array" ref="AA155">IF(E155="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E155)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z156" t="str" cm="1">
         <f t="array" ref="Z156">IF(D160="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D160))))</f>
         <v/>
       </c>
-    </row>
-    <row r="157" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA156" t="str" cm="1">
+        <f t="array" ref="AA156">IF(E156="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E156)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z157" t="str" cm="1">
         <f t="array" ref="Z157">IF(D161="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D161))))</f>
         <v/>
       </c>
-    </row>
-    <row r="158" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA157" t="str" cm="1">
+        <f t="array" ref="AA157">IF(E157="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E157)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z158" t="str" cm="1">
         <f t="array" ref="Z158">IF(D162="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D162))))</f>
         <v/>
       </c>
-    </row>
-    <row r="159" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA158" t="str" cm="1">
+        <f t="array" ref="AA158">IF(E158="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E158)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z159" t="str" cm="1">
         <f t="array" ref="Z159">IF(D163="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D163))))</f>
         <v/>
       </c>
-    </row>
-    <row r="160" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA159" t="str" cm="1">
+        <f t="array" ref="AA159">IF(E159="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E159)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z160" t="str" cm="1">
         <f t="array" ref="Z160">IF(D164="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D164))))</f>
         <v/>
       </c>
-    </row>
-    <row r="161" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA160" t="str" cm="1">
+        <f t="array" ref="AA160">IF(E160="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E160)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z161" t="str" cm="1">
         <f t="array" ref="Z161">IF(D165="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D165))))</f>
         <v/>
       </c>
-    </row>
-    <row r="162" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA161" t="str" cm="1">
+        <f t="array" ref="AA161">IF(E161="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E161)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z162" t="str" cm="1">
         <f t="array" ref="Z162">IF(D166="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D166))))</f>
         <v/>
       </c>
-    </row>
-    <row r="163" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA162" t="str" cm="1">
+        <f t="array" ref="AA162">IF(E162="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E162)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z163" t="str" cm="1">
         <f t="array" ref="Z163">IF(D167="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D167))))</f>
         <v/>
       </c>
-    </row>
-    <row r="164" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA163" t="str" cm="1">
+        <f t="array" ref="AA163">IF(E163="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E163)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z164" t="str" cm="1">
         <f t="array" ref="Z164">IF(D168="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D168))))</f>
         <v/>
       </c>
-    </row>
-    <row r="165" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA164" t="str" cm="1">
+        <f t="array" ref="AA164">IF(E164="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E164)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z165" t="str" cm="1">
         <f t="array" ref="Z165">IF(D169="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D169))))</f>
         <v/>
       </c>
-    </row>
-    <row r="166" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA165" t="str" cm="1">
+        <f t="array" ref="AA165">IF(E165="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E165)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z166" t="str" cm="1">
         <f t="array" ref="Z166">IF(D170="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D170))))</f>
         <v/>
       </c>
-    </row>
-    <row r="167" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA166" t="str" cm="1">
+        <f t="array" ref="AA166">IF(E166="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E166)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z167" t="str" cm="1">
         <f t="array" ref="Z167">IF(D171="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D171))))</f>
         <v/>
       </c>
-    </row>
-    <row r="168" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA167" t="str" cm="1">
+        <f t="array" ref="AA167">IF(E167="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E167)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z168" t="str" cm="1">
         <f t="array" ref="Z168">IF(D172="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D172))))</f>
         <v/>
       </c>
-    </row>
-    <row r="169" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA168" t="str" cm="1">
+        <f t="array" ref="AA168">IF(E168="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E168)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z169" t="str" cm="1">
         <f t="array" ref="Z169">IF(D173="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D173))))</f>
         <v/>
       </c>
-    </row>
-    <row r="170" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA169" t="str" cm="1">
+        <f t="array" ref="AA169">IF(E169="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E169)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z170" t="str" cm="1">
         <f t="array" ref="Z170">IF(D174="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D174))))</f>
         <v/>
       </c>
-    </row>
-    <row r="171" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA170" t="str" cm="1">
+        <f t="array" ref="AA170">IF(E170="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E170)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z171" t="str" cm="1">
         <f t="array" ref="Z171">IF(D175="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D175))))</f>
         <v/>
       </c>
-    </row>
-    <row r="172" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA171" t="str" cm="1">
+        <f t="array" ref="AA171">IF(E171="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E171)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z172" t="str" cm="1">
         <f t="array" ref="Z172">IF(D176="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D176))))</f>
         <v/>
       </c>
-    </row>
-    <row r="173" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA172" t="str" cm="1">
+        <f t="array" ref="AA172">IF(E172="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E172)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z173" t="str" cm="1">
         <f t="array" ref="Z173">IF(D177="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D177))))</f>
         <v/>
       </c>
-    </row>
-    <row r="174" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA173" t="str" cm="1">
+        <f t="array" ref="AA173">IF(E173="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E173)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z174" t="str" cm="1">
         <f t="array" ref="Z174">IF(D178="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D178))))</f>
         <v/>
       </c>
-    </row>
-    <row r="175" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA174" t="str" cm="1">
+        <f t="array" ref="AA174">IF(E174="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E174)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z175" t="str" cm="1">
         <f t="array" ref="Z175">IF(D179="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D179))))</f>
         <v/>
       </c>
-    </row>
-    <row r="176" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA175" t="str" cm="1">
+        <f t="array" ref="AA175">IF(E175="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E175)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z176" t="str" cm="1">
         <f t="array" ref="Z176">IF(D180="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D180))))</f>
         <v/>
       </c>
-    </row>
-    <row r="177" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA176" t="str" cm="1">
+        <f t="array" ref="AA176">IF(E176="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E176)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z177" t="str" cm="1">
         <f t="array" ref="Z177">IF(D181="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D181))))</f>
         <v/>
       </c>
-    </row>
-    <row r="178" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA177" t="str" cm="1">
+        <f t="array" ref="AA177">IF(E177="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E177)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z178" t="str" cm="1">
         <f t="array" ref="Z178">IF(D182="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D182))))</f>
         <v/>
       </c>
-    </row>
-    <row r="179" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA178" t="str" cm="1">
+        <f t="array" ref="AA178">IF(E178="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E178)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z179" t="str" cm="1">
         <f t="array" ref="Z179">IF(D183="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D183))))</f>
         <v/>
       </c>
-    </row>
-    <row r="180" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA179" t="str" cm="1">
+        <f t="array" ref="AA179">IF(E179="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E179)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z180" t="str" cm="1">
         <f t="array" ref="Z180">IF(D184="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D184))))</f>
         <v/>
       </c>
-    </row>
-    <row r="181" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA180" t="str" cm="1">
+        <f t="array" ref="AA180">IF(E180="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E180)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z181" t="str" cm="1">
         <f t="array" ref="Z181">IF(D185="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D185))))</f>
         <v/>
       </c>
-    </row>
-    <row r="182" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA181" t="str" cm="1">
+        <f t="array" ref="AA181">IF(E181="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E181)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z182" t="str" cm="1">
         <f t="array" ref="Z182">IF(D186="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D186))))</f>
         <v/>
       </c>
-    </row>
-    <row r="183" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA182" t="str" cm="1">
+        <f t="array" ref="AA182">IF(E182="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E182)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z183" t="str" cm="1">
         <f t="array" ref="Z183">IF(D187="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D187))))</f>
         <v/>
       </c>
-    </row>
-    <row r="184" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA183" t="str" cm="1">
+        <f t="array" ref="AA183">IF(E183="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E183)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z184" t="str" cm="1">
         <f t="array" ref="Z184">IF(D188="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D188))))</f>
         <v/>
       </c>
-    </row>
-    <row r="185" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA184" t="str" cm="1">
+        <f t="array" ref="AA184">IF(E184="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E184)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z185" t="str" cm="1">
         <f t="array" ref="Z185">IF(D189="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D189))))</f>
         <v/>
       </c>
-    </row>
-    <row r="186" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA185" t="str" cm="1">
+        <f t="array" ref="AA185">IF(E185="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E185)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z186" t="str" cm="1">
         <f t="array" ref="Z186">IF(D190="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D190))))</f>
         <v/>
       </c>
-    </row>
-    <row r="187" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA186" t="str" cm="1">
+        <f t="array" ref="AA186">IF(E186="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E186)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z187" t="str" cm="1">
         <f t="array" ref="Z187">IF(D191="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D191))))</f>
         <v/>
       </c>
-    </row>
-    <row r="188" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA187" t="str" cm="1">
+        <f t="array" ref="AA187">IF(E187="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E187)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z188" t="str" cm="1">
         <f t="array" ref="Z188">IF(D192="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D192))))</f>
         <v/>
       </c>
-    </row>
-    <row r="189" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA188" t="str" cm="1">
+        <f t="array" ref="AA188">IF(E188="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E188)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z189" t="str" cm="1">
         <f t="array" ref="Z189">IF(D193="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D193))))</f>
         <v/>
       </c>
-    </row>
-    <row r="190" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA189" t="str" cm="1">
+        <f t="array" ref="AA189">IF(E189="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E189)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z190" t="str" cm="1">
         <f t="array" ref="Z190">IF(D194="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D194))))</f>
         <v/>
       </c>
-    </row>
-    <row r="191" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA190" t="str" cm="1">
+        <f t="array" ref="AA190">IF(E190="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E190)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z191" t="str" cm="1">
         <f t="array" ref="Z191">IF(D195="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D195))))</f>
         <v/>
       </c>
-    </row>
-    <row r="192" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA191" t="str" cm="1">
+        <f t="array" ref="AA191">IF(E191="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E191)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z192" t="str" cm="1">
         <f t="array" ref="Z192">IF(D196="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D196))))</f>
         <v/>
       </c>
-    </row>
-    <row r="193" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA192" t="str" cm="1">
+        <f t="array" ref="AA192">IF(E192="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E192)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z193" t="str" cm="1">
         <f t="array" ref="Z193">IF(D197="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D197))))</f>
         <v/>
       </c>
-    </row>
-    <row r="194" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA193" t="str" cm="1">
+        <f t="array" ref="AA193">IF(E193="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E193)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z194" t="str" cm="1">
         <f t="array" ref="Z194">IF(D198="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D198))))</f>
         <v/>
       </c>
-    </row>
-    <row r="195" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA194" t="str" cm="1">
+        <f t="array" ref="AA194">IF(E194="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E194)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z195" t="str" cm="1">
         <f t="array" ref="Z195">IF(D199="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D199))))</f>
         <v/>
       </c>
-    </row>
-    <row r="196" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA195" t="str" cm="1">
+        <f t="array" ref="AA195">IF(E195="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E195)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z196" t="str" cm="1">
         <f t="array" ref="Z196">IF(D200="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D200))))</f>
         <v/>
       </c>
-    </row>
-    <row r="197" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA196" t="str" cm="1">
+        <f t="array" ref="AA196">IF(E196="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E196)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z197" t="str" cm="1">
         <f t="array" ref="Z197">IF(D201="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D201))))</f>
         <v/>
       </c>
-    </row>
-    <row r="198" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA197" t="str" cm="1">
+        <f t="array" ref="AA197">IF(E197="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E197)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z198" t="str" cm="1">
         <f t="array" ref="Z198">IF(D202="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D202))))</f>
         <v/>
       </c>
-    </row>
-    <row r="199" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA198" t="str" cm="1">
+        <f t="array" ref="AA198">IF(E198="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E198)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z199" t="str" cm="1">
         <f t="array" ref="Z199">IF(D203="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D203))))</f>
         <v/>
       </c>
-    </row>
-    <row r="200" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA199" t="str" cm="1">
+        <f t="array" ref="AA199">IF(E199="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E199)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z200" t="str" cm="1">
         <f t="array" ref="Z200">IF(D204="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D204))))</f>
         <v/>
       </c>
-    </row>
-    <row r="201" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA200" t="str" cm="1">
+        <f t="array" ref="AA200">IF(E200="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E200)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z201" t="str" cm="1">
         <f t="array" ref="Z201">IF(D205="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D205))))</f>
         <v/>
       </c>
-    </row>
-    <row r="202" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA201" t="str" cm="1">
+        <f t="array" ref="AA201">IF(E201="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E201)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z202" t="str" cm="1">
         <f t="array" ref="Z202">IF(D206="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D206))))</f>
         <v/>
       </c>
-    </row>
-    <row r="203" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA202" t="str" cm="1">
+        <f t="array" ref="AA202">IF(E202="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E202)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z203" t="str" cm="1">
         <f t="array" ref="Z203">IF(D207="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D207))))</f>
         <v/>
       </c>
-    </row>
-    <row r="204" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA203" t="str" cm="1">
+        <f t="array" ref="AA203">IF(E203="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E203)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z204" t="str" cm="1">
         <f t="array" ref="Z204">IF(D208="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D208))))</f>
         <v/>
       </c>
-    </row>
-    <row r="205" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA204" t="str" cm="1">
+        <f t="array" ref="AA204">IF(E204="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E204)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z205" t="str" cm="1">
         <f t="array" ref="Z205">IF(D209="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D209))))</f>
         <v/>
       </c>
-    </row>
-    <row r="206" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA205" t="str" cm="1">
+        <f t="array" ref="AA205">IF(E205="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E205)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z206" t="str" cm="1">
         <f t="array" ref="Z206">IF(D210="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D210))))</f>
         <v/>
       </c>
-    </row>
-    <row r="207" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA206" t="str" cm="1">
+        <f t="array" ref="AA206">IF(E206="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E206)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z207" t="str" cm="1">
         <f t="array" ref="Z207">IF(D211="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D211))))</f>
         <v/>
       </c>
-    </row>
-    <row r="208" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA207" t="str" cm="1">
+        <f t="array" ref="AA207">IF(E207="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E207)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z208" t="str" cm="1">
         <f t="array" ref="Z208">IF(D212="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D212))))</f>
         <v/>
       </c>
-    </row>
-    <row r="209" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA208" t="str" cm="1">
+        <f t="array" ref="AA208">IF(E208="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E208)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z209" t="str" cm="1">
         <f t="array" ref="Z209">IF(D213="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D213))))</f>
         <v/>
       </c>
-    </row>
-    <row r="210" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA209" t="str" cm="1">
+        <f t="array" ref="AA209">IF(E209="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E209)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z210" t="str" cm="1">
         <f t="array" ref="Z210">IF(D214="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D214))))</f>
         <v/>
       </c>
-    </row>
-    <row r="211" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA210" t="str" cm="1">
+        <f t="array" ref="AA210">IF(E210="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E210)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z211" t="str" cm="1">
         <f t="array" ref="Z211">IF(D215="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D215))))</f>
         <v/>
       </c>
-    </row>
-    <row r="212" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA211" t="str" cm="1">
+        <f t="array" ref="AA211">IF(E211="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E211)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z212" t="str" cm="1">
         <f t="array" ref="Z212">IF(D216="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D216))))</f>
         <v/>
       </c>
-    </row>
-    <row r="213" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA212" t="str" cm="1">
+        <f t="array" ref="AA212">IF(E212="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E212)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z213" t="str" cm="1">
         <f t="array" ref="Z213">IF(D217="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D217))))</f>
         <v/>
       </c>
-    </row>
-    <row r="214" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA213" t="str" cm="1">
+        <f t="array" ref="AA213">IF(E213="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E213)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z214" t="str" cm="1">
         <f t="array" ref="Z214">IF(D218="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D218))))</f>
         <v/>
       </c>
-    </row>
-    <row r="215" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA214" t="str" cm="1">
+        <f t="array" ref="AA214">IF(E214="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E214)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z215" t="str" cm="1">
         <f t="array" ref="Z215">IF(D219="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D219))))</f>
         <v/>
       </c>
-    </row>
-    <row r="216" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA215" t="str" cm="1">
+        <f t="array" ref="AA215">IF(E215="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E215)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z216" t="str" cm="1">
         <f t="array" ref="Z216">IF(D220="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D220))))</f>
         <v/>
       </c>
-    </row>
-    <row r="217" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA216" t="str" cm="1">
+        <f t="array" ref="AA216">IF(E216="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E216)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z217" t="str" cm="1">
         <f t="array" ref="Z217">IF(D221="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D221))))</f>
         <v/>
       </c>
-    </row>
-    <row r="218" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA217" t="str" cm="1">
+        <f t="array" ref="AA217">IF(E217="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E217)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z218" t="str" cm="1">
         <f t="array" ref="Z218">IF(D222="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D222))))</f>
         <v/>
       </c>
-    </row>
-    <row r="219" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA218" t="str" cm="1">
+        <f t="array" ref="AA218">IF(E218="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E218)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z219" t="str" cm="1">
         <f t="array" ref="Z219">IF(D223="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D223))))</f>
         <v/>
       </c>
-    </row>
-    <row r="220" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA219" t="str" cm="1">
+        <f t="array" ref="AA219">IF(E219="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E219)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z220" t="str" cm="1">
         <f t="array" ref="Z220">IF(D224="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D224))))</f>
         <v/>
       </c>
-    </row>
-    <row r="221" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA220" t="str" cm="1">
+        <f t="array" ref="AA220">IF(E220="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E220)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z221" t="str" cm="1">
         <f t="array" ref="Z221">IF(D225="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D225))))</f>
         <v/>
       </c>
-    </row>
-    <row r="222" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA221" t="str" cm="1">
+        <f t="array" ref="AA221">IF(E221="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E221)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z222" t="str" cm="1">
         <f t="array" ref="Z222">IF(D226="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D226))))</f>
         <v/>
       </c>
-    </row>
-    <row r="223" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA222" t="str" cm="1">
+        <f t="array" ref="AA222">IF(E222="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E222)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z223" t="str" cm="1">
         <f t="array" ref="Z223">IF(D227="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D227))))</f>
         <v/>
       </c>
-    </row>
-    <row r="224" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA223" t="str" cm="1">
+        <f t="array" ref="AA223">IF(E223="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E223)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z224" t="str" cm="1">
         <f t="array" ref="Z224">IF(D228="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D228))))</f>
         <v/>
       </c>
-    </row>
-    <row r="225" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA224" t="str" cm="1">
+        <f t="array" ref="AA224">IF(E224="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E224)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z225" t="str" cm="1">
         <f t="array" ref="Z225">IF(D229="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D229))))</f>
         <v/>
       </c>
-    </row>
-    <row r="226" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA225" t="str" cm="1">
+        <f t="array" ref="AA225">IF(E225="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E225)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z226" t="str" cm="1">
         <f t="array" ref="Z226">IF(D230="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D230))))</f>
         <v/>
       </c>
-    </row>
-    <row r="227" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA226" t="str" cm="1">
+        <f t="array" ref="AA226">IF(E226="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E226)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z227" t="str" cm="1">
         <f t="array" ref="Z227">IF(D231="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D231))))</f>
         <v/>
       </c>
-    </row>
-    <row r="228" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA227" t="str" cm="1">
+        <f t="array" ref="AA227">IF(E227="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E227)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z228" t="str" cm="1">
         <f t="array" ref="Z228">IF(D232="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D232))))</f>
         <v/>
       </c>
-    </row>
-    <row r="229" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA228" t="str" cm="1">
+        <f t="array" ref="AA228">IF(E228="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E228)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z229" t="str" cm="1">
         <f t="array" ref="Z229">IF(D233="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D233))))</f>
         <v/>
       </c>
-    </row>
-    <row r="230" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA229" t="str" cm="1">
+        <f t="array" ref="AA229">IF(E229="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E229)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z230" t="str" cm="1">
         <f t="array" ref="Z230">IF(D234="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D234))))</f>
         <v/>
       </c>
-    </row>
-    <row r="231" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA230" t="str" cm="1">
+        <f t="array" ref="AA230">IF(E230="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E230)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z231" t="str" cm="1">
         <f t="array" ref="Z231">IF(D235="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D235))))</f>
         <v/>
       </c>
-    </row>
-    <row r="232" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA231" t="str" cm="1">
+        <f t="array" ref="AA231">IF(E231="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E231)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z232" t="str" cm="1">
         <f t="array" ref="Z232">IF(D236="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D236))))</f>
         <v/>
       </c>
-    </row>
-    <row r="233" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA232" t="str" cm="1">
+        <f t="array" ref="AA232">IF(E232="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E232)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z233" t="str" cm="1">
         <f t="array" ref="Z233">IF(D237="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D237))))</f>
         <v/>
       </c>
-    </row>
-    <row r="234" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA233" t="str" cm="1">
+        <f t="array" ref="AA233">IF(E233="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E233)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z234" t="str" cm="1">
         <f t="array" ref="Z234">IF(D238="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D238))))</f>
         <v/>
       </c>
-    </row>
-    <row r="235" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA234" t="str" cm="1">
+        <f t="array" ref="AA234">IF(E234="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E234)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z235" t="str" cm="1">
         <f t="array" ref="Z235">IF(D239="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D239))))</f>
         <v/>
       </c>
-    </row>
-    <row r="236" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA235" t="str" cm="1">
+        <f t="array" ref="AA235">IF(E235="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E235)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z236" t="str" cm="1">
         <f t="array" ref="Z236">IF(D240="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D240))))</f>
         <v/>
       </c>
-    </row>
-    <row r="237" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA236" t="str" cm="1">
+        <f t="array" ref="AA236">IF(E236="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E236)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z237" t="str" cm="1">
         <f t="array" ref="Z237">IF(D241="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D241))))</f>
         <v/>
       </c>
-    </row>
-    <row r="238" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA237" t="str" cm="1">
+        <f t="array" ref="AA237">IF(E237="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E237)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z238" t="str" cm="1">
         <f t="array" ref="Z238">IF(D242="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D242))))</f>
         <v/>
       </c>
-    </row>
-    <row r="239" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA238" t="str" cm="1">
+        <f t="array" ref="AA238">IF(E238="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E238)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z239" t="str" cm="1">
         <f t="array" ref="Z239">IF(D243="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D243))))</f>
         <v/>
       </c>
-    </row>
-    <row r="240" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA239" t="str" cm="1">
+        <f t="array" ref="AA239">IF(E239="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E239)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z240" t="str" cm="1">
         <f t="array" ref="Z240">IF(D244="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D244))))</f>
         <v/>
       </c>
-    </row>
-    <row r="241" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA240" t="str" cm="1">
+        <f t="array" ref="AA240">IF(E240="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E240)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z241" t="str" cm="1">
         <f t="array" ref="Z241">IF(D245="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D245))))</f>
         <v/>
       </c>
-    </row>
-    <row r="242" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA241" t="str" cm="1">
+        <f t="array" ref="AA241">IF(E241="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E241)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z242" t="str" cm="1">
         <f t="array" ref="Z242">IF(D246="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D246))))</f>
         <v/>
       </c>
-    </row>
-    <row r="243" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA242" t="str" cm="1">
+        <f t="array" ref="AA242">IF(E242="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E242)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z243" t="str" cm="1">
         <f t="array" ref="Z243">IF(D247="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D247))))</f>
         <v/>
       </c>
-    </row>
-    <row r="244" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA243" t="str" cm="1">
+        <f t="array" ref="AA243">IF(E243="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E243)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z244" t="str" cm="1">
         <f t="array" ref="Z244">IF(D248="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D248))))</f>
         <v/>
       </c>
-    </row>
-    <row r="245" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA244" t="str" cm="1">
+        <f t="array" ref="AA244">IF(E244="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E244)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z245" t="str" cm="1">
         <f t="array" ref="Z245">IF(D249="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D249))))</f>
         <v/>
       </c>
-    </row>
-    <row r="246" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA245" t="str" cm="1">
+        <f t="array" ref="AA245">IF(E245="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E245)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z246" t="str" cm="1">
         <f t="array" ref="Z246">IF(D250="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D250))))</f>
         <v/>
       </c>
-    </row>
-    <row r="247" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA246" t="str" cm="1">
+        <f t="array" ref="AA246">IF(E246="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E246)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z247" t="str" cm="1">
         <f t="array" ref="Z247">IF(D251="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D251))))</f>
         <v/>
       </c>
-    </row>
-    <row r="248" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA247" t="str" cm="1">
+        <f t="array" ref="AA247">IF(E247="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E247)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z248" t="str" cm="1">
         <f t="array" ref="Z248">IF(D252="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D252))))</f>
         <v/>
       </c>
-    </row>
-    <row r="249" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA248" t="str" cm="1">
+        <f t="array" ref="AA248">IF(E248="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E248)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z249" t="str" cm="1">
         <f t="array" ref="Z249">IF(D253="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D253))))</f>
         <v/>
       </c>
-    </row>
-    <row r="250" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA249" t="str" cm="1">
+        <f t="array" ref="AA249">IF(E249="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E249)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z250" t="str" cm="1">
         <f t="array" ref="Z250">IF(D254="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D254))))</f>
         <v/>
       </c>
-    </row>
-    <row r="251" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA250" t="str" cm="1">
+        <f t="array" ref="AA250">IF(E250="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E250)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z251" t="str" cm="1">
         <f t="array" ref="Z251">IF(D255="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D255))))</f>
         <v/>
       </c>
-    </row>
-    <row r="252" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA251" t="str" cm="1">
+        <f t="array" ref="AA251">IF(E251="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E251)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z252" t="str" cm="1">
         <f t="array" ref="Z252">IF(D256="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D256))))</f>
         <v/>
       </c>
-    </row>
-    <row r="253" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA252" t="str" cm="1">
+        <f t="array" ref="AA252">IF(E252="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E252)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z253" t="str" cm="1">
         <f t="array" ref="Z253">IF(D257="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D257))))</f>
         <v/>
       </c>
-    </row>
-    <row r="254" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA253" t="str" cm="1">
+        <f t="array" ref="AA253">IF(E253="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E253)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z254" t="str" cm="1">
         <f t="array" ref="Z254">IF(D258="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D258))))</f>
         <v/>
       </c>
-    </row>
-    <row r="255" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA254" t="str" cm="1">
+        <f t="array" ref="AA254">IF(E254="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E254)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z255" t="str" cm="1">
         <f t="array" ref="Z255">IF(D259="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D259))))</f>
         <v/>
       </c>
-    </row>
-    <row r="256" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA255" t="str" cm="1">
+        <f t="array" ref="AA255">IF(E255="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E255)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z256" t="str" cm="1">
         <f t="array" ref="Z256">IF(D260="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D260))))</f>
         <v/>
       </c>
-    </row>
-    <row r="257" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA256" t="str" cm="1">
+        <f t="array" ref="AA256">IF(E256="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E256)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z257" t="str" cm="1">
         <f t="array" ref="Z257">IF(D261="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D261))))</f>
         <v/>
       </c>
-    </row>
-    <row r="258" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA257" t="str" cm="1">
+        <f t="array" ref="AA257">IF(E257="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E257)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z258" t="str" cm="1">
         <f t="array" ref="Z258">IF(D262="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D262))))</f>
         <v/>
       </c>
-    </row>
-    <row r="259" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA258" t="str" cm="1">
+        <f t="array" ref="AA258">IF(E258="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E258)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z259" t="str" cm="1">
         <f t="array" ref="Z259">IF(D263="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D263))))</f>
         <v/>
       </c>
-    </row>
-    <row r="260" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA259" t="str" cm="1">
+        <f t="array" ref="AA259">IF(E259="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E259)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z260" t="str" cm="1">
         <f t="array" ref="Z260">IF(D264="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D264))))</f>
         <v/>
       </c>
-    </row>
-    <row r="261" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA260" t="str" cm="1">
+        <f t="array" ref="AA260">IF(E260="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E260)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z261" t="str" cm="1">
         <f t="array" ref="Z261">IF(D265="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D265))))</f>
         <v/>
       </c>
-    </row>
-    <row r="262" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA261" t="str" cm="1">
+        <f t="array" ref="AA261">IF(E261="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E261)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z262" t="str" cm="1">
         <f t="array" ref="Z262">IF(D266="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D266))))</f>
         <v/>
       </c>
-    </row>
-    <row r="263" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA262" t="str" cm="1">
+        <f t="array" ref="AA262">IF(E262="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E262)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z263" t="str" cm="1">
         <f t="array" ref="Z263">IF(D267="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D267))))</f>
         <v/>
       </c>
-    </row>
-    <row r="264" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA263" t="str" cm="1">
+        <f t="array" ref="AA263">IF(E263="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E263)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z264" t="str" cm="1">
         <f t="array" ref="Z264">IF(D268="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D268))))</f>
         <v/>
       </c>
-    </row>
-    <row r="265" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA264" t="str" cm="1">
+        <f t="array" ref="AA264">IF(E264="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E264)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z265" t="str" cm="1">
         <f t="array" ref="Z265">IF(D269="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D269))))</f>
         <v/>
       </c>
-    </row>
-    <row r="266" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA265" t="str" cm="1">
+        <f t="array" ref="AA265">IF(E265="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E265)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z266" t="str" cm="1">
         <f t="array" ref="Z266">IF(D270="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D270))))</f>
         <v/>
       </c>
-    </row>
-    <row r="267" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA266" t="str" cm="1">
+        <f t="array" ref="AA266">IF(E266="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E266)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z267" t="str" cm="1">
         <f t="array" ref="Z267">IF(D271="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D271))))</f>
         <v/>
       </c>
-    </row>
-    <row r="268" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA267" t="str" cm="1">
+        <f t="array" ref="AA267">IF(E267="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E267)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z268" t="str" cm="1">
         <f t="array" ref="Z268">IF(D272="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D272))))</f>
         <v/>
       </c>
-    </row>
-    <row r="269" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA268" t="str" cm="1">
+        <f t="array" ref="AA268">IF(E268="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E268)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z269" t="str" cm="1">
         <f t="array" ref="Z269">IF(D273="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D273))))</f>
         <v/>
       </c>
-    </row>
-    <row r="270" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA269" t="str" cm="1">
+        <f t="array" ref="AA269">IF(E269="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E269)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z270" t="str" cm="1">
         <f t="array" ref="Z270">IF(D274="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D274))))</f>
         <v/>
       </c>
-    </row>
-    <row r="271" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA270" t="str" cm="1">
+        <f t="array" ref="AA270">IF(E270="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E270)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z271" t="str" cm="1">
         <f t="array" ref="Z271">IF(D275="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D275))))</f>
         <v/>
       </c>
-    </row>
-    <row r="272" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA271" t="str" cm="1">
+        <f t="array" ref="AA271">IF(E271="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E271)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z272" t="str" cm="1">
         <f t="array" ref="Z272">IF(D276="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D276))))</f>
         <v/>
       </c>
-    </row>
-    <row r="273" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA272" t="str" cm="1">
+        <f t="array" ref="AA272">IF(E272="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E272)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z273" t="str" cm="1">
         <f t="array" ref="Z273">IF(D277="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D277))))</f>
         <v/>
       </c>
-    </row>
-    <row r="274" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA273" t="str" cm="1">
+        <f t="array" ref="AA273">IF(E273="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E273)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z274" t="str" cm="1">
         <f t="array" ref="Z274">IF(D278="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D278))))</f>
         <v/>
       </c>
-    </row>
-    <row r="275" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA274" t="str" cm="1">
+        <f t="array" ref="AA274">IF(E274="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E274)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z275" t="str" cm="1">
         <f t="array" ref="Z275">IF(D279="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D279))))</f>
         <v/>
       </c>
-    </row>
-    <row r="276" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA275" t="str" cm="1">
+        <f t="array" ref="AA275">IF(E275="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E275)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z276" t="str" cm="1">
         <f t="array" ref="Z276">IF(D280="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D280))))</f>
         <v/>
       </c>
-    </row>
-    <row r="277" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA276" t="str" cm="1">
+        <f t="array" ref="AA276">IF(E276="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E276)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z277" t="str" cm="1">
         <f t="array" ref="Z277">IF(D281="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D281))))</f>
         <v/>
       </c>
-    </row>
-    <row r="278" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA277" t="str" cm="1">
+        <f t="array" ref="AA277">IF(E277="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E277)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z278" t="str" cm="1">
         <f t="array" ref="Z278">IF(D282="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D282))))</f>
         <v/>
       </c>
-    </row>
-    <row r="279" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA278" t="str" cm="1">
+        <f t="array" ref="AA278">IF(E278="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E278)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z279" t="str" cm="1">
         <f t="array" ref="Z279">IF(D283="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D283))))</f>
         <v/>
       </c>
-    </row>
-    <row r="280" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA279" t="str" cm="1">
+        <f t="array" ref="AA279">IF(E279="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E279)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z280" t="str" cm="1">
         <f t="array" ref="Z280">IF(D284="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D284))))</f>
         <v/>
       </c>
-    </row>
-    <row r="281" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA280" t="str" cm="1">
+        <f t="array" ref="AA280">IF(E280="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E280)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z281" t="str" cm="1">
         <f t="array" ref="Z281">IF(D285="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D285))))</f>
         <v/>
       </c>
-    </row>
-    <row r="282" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA281" t="str" cm="1">
+        <f t="array" ref="AA281">IF(E281="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E281)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z282" t="str" cm="1">
         <f t="array" ref="Z282">IF(D286="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D286))))</f>
         <v/>
       </c>
-    </row>
-    <row r="283" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA282" t="str" cm="1">
+        <f t="array" ref="AA282">IF(E282="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E282)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z283" t="str" cm="1">
         <f t="array" ref="Z283">IF(D287="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D287))))</f>
         <v/>
       </c>
-    </row>
-    <row r="284" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA283" t="str" cm="1">
+        <f t="array" ref="AA283">IF(E283="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E283)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z284" t="str" cm="1">
         <f t="array" ref="Z284">IF(D288="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D288))))</f>
         <v/>
       </c>
-    </row>
-    <row r="285" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA284" t="str" cm="1">
+        <f t="array" ref="AA284">IF(E284="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E284)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z285" t="str" cm="1">
         <f t="array" ref="Z285">IF(D289="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D289))))</f>
         <v/>
       </c>
-    </row>
-    <row r="286" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA285" t="str" cm="1">
+        <f t="array" ref="AA285">IF(E285="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E285)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z286" t="str" cm="1">
         <f t="array" ref="Z286">IF(D290="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D290))))</f>
         <v/>
       </c>
-    </row>
-    <row r="287" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA286" t="str" cm="1">
+        <f t="array" ref="AA286">IF(E286="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E286)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z287" t="str" cm="1">
         <f t="array" ref="Z287">IF(D291="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D291))))</f>
         <v/>
       </c>
-    </row>
-    <row r="288" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA287" t="str" cm="1">
+        <f t="array" ref="AA287">IF(E287="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E287)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z288" t="str" cm="1">
         <f t="array" ref="Z288">IF(D292="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D292))))</f>
         <v/>
       </c>
-    </row>
-    <row r="289" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA288" t="str" cm="1">
+        <f t="array" ref="AA288">IF(E288="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E288)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z289" t="str" cm="1">
         <f t="array" ref="Z289">IF(D293="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D293))))</f>
         <v/>
       </c>
-    </row>
-    <row r="290" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA289" t="str" cm="1">
+        <f t="array" ref="AA289">IF(E289="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E289)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z290" t="str" cm="1">
         <f t="array" ref="Z290">IF(D294="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D294))))</f>
         <v/>
       </c>
-    </row>
-    <row r="291" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA290" t="str" cm="1">
+        <f t="array" ref="AA290">IF(E290="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E290)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z291" t="str" cm="1">
         <f t="array" ref="Z291">IF(D295="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D295))))</f>
         <v/>
       </c>
-    </row>
-    <row r="292" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA291" t="str" cm="1">
+        <f t="array" ref="AA291">IF(E291="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E291)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z292" t="str" cm="1">
         <f t="array" ref="Z292">IF(D296="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D296))))</f>
         <v/>
       </c>
-    </row>
-    <row r="293" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA292" t="str" cm="1">
+        <f t="array" ref="AA292">IF(E292="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E292)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z293" t="str" cm="1">
         <f t="array" ref="Z293">IF(D297="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D297))))</f>
         <v/>
       </c>
-    </row>
-    <row r="294" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA293" t="str" cm="1">
+        <f t="array" ref="AA293">IF(E293="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E293)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z294" t="str" cm="1">
         <f t="array" ref="Z294">IF(D298="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D298))))</f>
         <v/>
       </c>
-    </row>
-    <row r="295" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA294" t="str" cm="1">
+        <f t="array" ref="AA294">IF(E294="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E294)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z295" t="str" cm="1">
         <f t="array" ref="Z295">IF(D299="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D299))))</f>
         <v/>
       </c>
-    </row>
-    <row r="296" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA295" t="str" cm="1">
+        <f t="array" ref="AA295">IF(E295="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E295)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z296" t="str" cm="1">
         <f t="array" ref="Z296">IF(D300="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D300))))</f>
         <v/>
       </c>
-    </row>
-    <row r="297" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA296" t="str" cm="1">
+        <f t="array" ref="AA296">IF(E296="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E296)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z297" t="str" cm="1">
         <f t="array" ref="Z297">IF(D301="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D301))))</f>
         <v/>
       </c>
-    </row>
-    <row r="298" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA297" t="str" cm="1">
+        <f t="array" ref="AA297">IF(E297="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E297)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z298" t="str" cm="1">
         <f t="array" ref="Z298">IF(D302="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D302))))</f>
         <v/>
       </c>
-    </row>
-    <row r="299" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA298" t="str" cm="1">
+        <f t="array" ref="AA298">IF(E298="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E298)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z299" t="str" cm="1">
         <f t="array" ref="Z299">IF(D303="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D303))))</f>
         <v/>
       </c>
-    </row>
-    <row r="300" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA299" t="str" cm="1">
+        <f t="array" ref="AA299">IF(E299="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E299)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z300" t="str" cm="1">
         <f t="array" ref="Z300">IF(D304="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D304))))</f>
         <v/>
       </c>
-    </row>
-    <row r="301" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA300" t="str" cm="1">
+        <f t="array" ref="AA300">IF(E300="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E300)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z301" t="str" cm="1">
         <f t="array" ref="Z301">IF(D305="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D305))))</f>
         <v/>
       </c>
-    </row>
-    <row r="302" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA301" t="str" cm="1">
+        <f t="array" ref="AA301">IF(E301="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E301)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z302" t="str" cm="1">
         <f t="array" ref="Z302">IF(D306="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D306))))</f>
         <v/>
       </c>
-    </row>
-    <row r="303" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA302" t="str" cm="1">
+        <f t="array" ref="AA302">IF(E302="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E302)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z303" t="str" cm="1">
         <f t="array" ref="Z303">IF(D307="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D307))))</f>
         <v/>
       </c>
-    </row>
-    <row r="304" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA303" t="str" cm="1">
+        <f t="array" ref="AA303">IF(E303="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E303)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z304" t="str" cm="1">
         <f t="array" ref="Z304">IF(D308="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D308))))</f>
         <v/>
       </c>
-    </row>
-    <row r="305" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA304" t="str" cm="1">
+        <f t="array" ref="AA304">IF(E304="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E304)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z305" t="str" cm="1">
         <f t="array" ref="Z305">IF(D309="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D309))))</f>
         <v/>
       </c>
-    </row>
-    <row r="306" spans="26:26" x14ac:dyDescent="0.2">
+      <c r="AA305" t="str" cm="1">
+        <f t="array" ref="AA305">IF(E305="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E305)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="306" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z306" t="str" cm="1">
         <f t="array" ref="Z306">IF(D310="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D310))))</f>
         <v/>
       </c>
     </row>
-    <row r="307" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="307" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z307" t="str" cm="1">
         <f t="array" ref="Z307">IF(D311="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D311))))</f>
         <v/>
       </c>
     </row>
-    <row r="308" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="308" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z308" t="str" cm="1">
         <f t="array" ref="Z308">IF(D312="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D312))))</f>
         <v/>
       </c>
     </row>
-    <row r="309" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="309" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z309" t="str" cm="1">
         <f t="array" ref="Z309">IF(D313="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D313))))</f>
         <v/>
       </c>
     </row>
-    <row r="310" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="310" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z310" t="str" cm="1">
         <f t="array" ref="Z310">IF(D314="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D314))))</f>
         <v/>
       </c>
     </row>
-    <row r="311" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="311" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z311" t="str" cm="1">
         <f t="array" ref="Z311">IF(D315="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D315))))</f>
         <v/>
       </c>
     </row>
-    <row r="312" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="312" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z312" t="str" cm="1">
         <f t="array" ref="Z312">IF(D316="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D316))))</f>
         <v/>
       </c>
     </row>
-    <row r="313" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="313" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z313" t="str" cm="1">
         <f t="array" ref="Z313">IF(D317="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D317))))</f>
         <v/>
       </c>
     </row>
-    <row r="314" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="314" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z314" t="str" cm="1">
         <f t="array" ref="Z314">IF(D318="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D318))))</f>
         <v/>
       </c>
     </row>
-    <row r="315" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="315" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z315" t="str" cm="1">
         <f t="array" ref="Z315">IF(D319="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D319))))</f>
         <v/>
       </c>
     </row>
-    <row r="316" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="316" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z316" t="str" cm="1">
         <f t="array" ref="Z316">IF(D320="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D320))))</f>
         <v/>
       </c>
     </row>
-    <row r="317" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="317" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z317" t="str" cm="1">
         <f t="array" ref="Z317">IF(D321="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D321))))</f>
         <v/>
       </c>
     </row>
-    <row r="318" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="318" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z318" t="str" cm="1">
         <f t="array" ref="Z318">IF(D322="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D322))))</f>
         <v/>
       </c>
     </row>
-    <row r="319" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="319" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z319" t="str" cm="1">
         <f t="array" ref="Z319">IF(D323="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D323))))</f>
         <v/>
       </c>
     </row>
-    <row r="320" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="320" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z320" t="str" cm="1">
         <f t="array" ref="Z320">IF(D324="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D324))))</f>
         <v/>
@@ -5102,37 +6180,28 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:I62">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="15" priority="11">
       <formula>$B2="Image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="14" priority="12">
       <formula>$B2="Unattended"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$B2="Names"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="12" priority="14">
       <formula>$B2="Title"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="5">
+    <cfRule type="expression" dxfId="11" priority="15">
       <formula>$B2="Blank"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F18:G21" xr:uid="{6203C661-ADF7-6E4F-9F56-91BA5CFCE5F2}">
-      <formula1>_xlfn.ANCHORARRAY(#REF!)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F17" xr:uid="{1F94B56B-F8AA-AA43-9D00-1CB9410F5821}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F62" xr:uid="{1F94B56B-F8AA-AA43-9D00-1CB9410F5821}">
       <formula1>_xlfn.ANCHORARRAY(AA2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F62" xr:uid="{223738F0-904C-EF49-B5FB-6F0EC97B1C65}">
-      <formula1>_xlfn.ANCHORARRAY(AA18)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G17" xr:uid="{4F7EC304-E9E0-844B-A75C-0D3F224D3A31}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G62" xr:uid="{4F7EC304-E9E0-844B-A75C-0D3F224D3A31}">
       <formula1>_xlfn.ANCHORARRAY(AA2)</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G22:G62" xr:uid="{7C6D5477-AF8E-284D-B80D-F918A782DDBD}">
-      <formula1>_xlfn.ANCHORARRAY(AA18)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B62" xr:uid="{149ED5FE-6586-D048-9D95-0A1F563EE7B0}">
       <formula1>"Blank,Title,Names,Unattended,Image"</formula1>
@@ -5988,7 +7057,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resources/template.xlsx
+++ b/resources/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfkain/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfkain/Projects/360/Apps/dualpresenter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{436EDB0F-0DD9-FA49-8CB9-B17EB4DF1567}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD68E4B-12E2-7940-B291-0C57F09957E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="34140" windowHeight="27300" xr2:uid="{31235C52-23CF-6F4B-906D-2BCD49615FB2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="131">
   <si>
     <t>Name</t>
   </si>
@@ -449,6 +449,12 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Presenter</t>
   </si>
 </sst>
 </file>
@@ -529,7 +535,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -573,60 +579,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="33">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCAD2D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF6E684F"/>
-          <bgColor rgb="FFF1F2DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF6E684F"/>
-          <bgColor rgb="FFF1F2DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -684,11 +655,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC5CBF2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -908,19 +879,20 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleLight8 2" pivot="0" count="9" xr9:uid="{80D2B743-4329-6544-8889-4B0B004A6420}">
-      <tableStyleElement type="wholeTable" dxfId="35"/>
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="totalRow" dxfId="33"/>
-      <tableStyleElement type="firstColumn" dxfId="32"/>
-      <tableStyleElement type="lastColumn" dxfId="31"/>
-      <tableStyleElement type="firstRowStripe" dxfId="30"/>
-      <tableStyleElement type="secondRowStripe" dxfId="29"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="28"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="32"/>
+      <tableStyleElement type="headerRow" dxfId="31"/>
+      <tableStyleElement type="totalRow" dxfId="30"/>
+      <tableStyleElement type="firstColumn" dxfId="29"/>
+      <tableStyleElement type="lastColumn" dxfId="28"/>
+      <tableStyleElement type="firstRowStripe" dxfId="27"/>
+      <tableStyleElement type="secondRowStripe" dxfId="26"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="25"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFC5CBF2"/>
       <color rgb="FF6E684F"/>
       <color rgb="FFF1F2DA"/>
       <color rgb="FFCEF3E1"/>
@@ -941,38 +913,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84E6271E-1140-5E4E-8C94-6B7E104C92AD}" name="Flow" displayName="Flow" ref="A1:I62" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84E6271E-1140-5E4E-8C94-6B7E104C92AD}" name="Flow" displayName="Flow" ref="A1:I62" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:I62" xr:uid="{84E6271E-1140-5E4E-8C94-6B7E104C92AD}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I62">
     <sortCondition ref="A1:A62"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{9FB372EE-CC04-3D4B-B0DB-CDB6BC0707DC}" name="#" dataDxfId="24">
+    <tableColumn id="10" xr3:uid="{9FB372EE-CC04-3D4B-B0DB-CDB6BC0707DC}" name="#" dataDxfId="21">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D373A835-1BA4-AE45-9363-EE67E6165767}" name="Type" dataDxfId="23"/>
-    <tableColumn id="1" xr3:uid="{DA0621C3-BCB2-254D-93C7-AC63CC141306}" name="Title" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{57A8305B-55FC-E949-81F4-841B61FC4B23}" name="Subtitle" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{5BC695E7-5490-5647-A005-C433DAA5B19B}" name="Group" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{0C3D6887-B103-F14F-9A95-9058AB0F7C1C}" name="From" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{872D8E49-A803-AA40-AD08-83386EB17B64}" name="Until" dataDxfId="18"/>
-    <tableColumn id="8" xr3:uid="{6F06AFA4-A4D4-E242-AA22-F08727EA7CF0}" name="Main Only" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{7A62BBC9-6DF9-694F-A31F-9635C8DE492C}" name="Precedence" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{D373A835-1BA4-AE45-9363-EE67E6165767}" name="Type" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{DA0621C3-BCB2-254D-93C7-AC63CC141306}" name="Title" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{57A8305B-55FC-E949-81F4-841B61FC4B23}" name="Subtitle" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{5BC695E7-5490-5647-A005-C433DAA5B19B}" name="Group" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{0C3D6887-B103-F14F-9A95-9058AB0F7C1C}" name="From" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{872D8E49-A803-AA40-AD08-83386EB17B64}" name="Until" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{6F06AFA4-A4D4-E242-AA22-F08727EA7CF0}" name="Main Only" dataDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{7A62BBC9-6DF9-694F-A31F-9635C8DE492C}" name="Precedence" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DD68603-088B-0B49-BA2F-E26D2888A5DB}" name="Names" displayName="Names" ref="A1:C73">
-  <autoFilter ref="A1:C73" xr:uid="{7DD68603-088B-0B49-BA2F-E26D2888A5DB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DD68603-088B-0B49-BA2F-E26D2888A5DB}" name="Names" displayName="Names" ref="A1:D73">
+  <autoFilter ref="A1:D73" xr:uid="{7DD68603-088B-0B49-BA2F-E26D2888A5DB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D73">
     <sortCondition ref="B2:B73"/>
     <sortCondition ref="A2:A73"/>
   </sortState>
-  <tableColumns count="3">
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{54EDEFF7-6D50-644B-86D9-EB6D272BB5CB}" name="Name" totalsRowLabel="Total"/>
     <tableColumn id="2" xr3:uid="{1FC3351A-5F59-8344-918E-0052C96220FD}" name="Group"/>
+    <tableColumn id="4" xr3:uid="{C8E79D04-D70B-2344-B5CA-715A391DE5C9}" name="Presenter" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{DCF0A96D-147F-D842-B4A4-575507D6A1CD}" name="Attending" totalsRowFunction="count"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1300,7 +1273,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1446,9 +1419,9 @@
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I7" s="6"/>
@@ -1519,15 +1492,15 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>11</v>
       </c>
       <c r="I11" s="6"/>
@@ -1841,7 +1814,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>50</v>
@@ -2658,7 +2631,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>82</v>
@@ -6180,19 +6153,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:I62">
-    <cfRule type="expression" dxfId="15" priority="11">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+      <formula>$B2="Category"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="12">
       <formula>$B2="Image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="12">
+    <cfRule type="expression" dxfId="5" priority="13">
       <formula>$B2="Unattended"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>$B2="Names"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="14">
+    <cfRule type="expression" dxfId="3" priority="15">
       <formula>$B2="Title"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="15">
+    <cfRule type="expression" dxfId="2" priority="16">
       <formula>$B2="Blank"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6203,11 +6179,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G62" xr:uid="{4F7EC304-E9E0-844B-A75C-0D3F224D3A31}">
       <formula1>_xlfn.ANCHORARRAY(AA2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B62" xr:uid="{149ED5FE-6586-D048-9D95-0A1F563EE7B0}">
-      <formula1>"Blank,Title,Names,Unattended,Image"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H62" xr:uid="{00458457-181C-DD48-B0A3-3AA4591A8F19}">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{8912C3EE-AF9E-DB4D-B520-9FF14DF891AD}">
+      <formula1>"Blank,Category,Title,Names,Unattended,Image"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6238,831 +6214,835 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1937413E-4502-604B-9F19-827CE90D7D87}">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="52.83203125" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="34" style="15" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>25</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>86</v>
       </c>
       <c r="B5" t="s">
         <v>82</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>87</v>
       </c>
       <c r="B6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
       <c r="B7" t="s">
         <v>82</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>89</v>
       </c>
       <c r="B8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>82</v>
       </c>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>91</v>
       </c>
       <c r="B10" t="s">
         <v>82</v>
       </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>94</v>
       </c>
       <c r="B11" t="s">
         <v>82</v>
       </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>95</v>
       </c>
       <c r="B12" t="s">
         <v>82</v>
       </c>
-      <c r="C12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>96</v>
       </c>
       <c r="B13" t="s">
         <v>82</v>
       </c>
-      <c r="C13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>97</v>
       </c>
       <c r="B14" t="s">
         <v>82</v>
       </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>98</v>
       </c>
       <c r="B15" t="s">
         <v>82</v>
       </c>
-      <c r="C15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>82</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>100</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
       </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>103</v>
       </c>
       <c r="B18" t="s">
         <v>82</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>104</v>
       </c>
       <c r="B19" t="s">
         <v>82</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>105</v>
       </c>
       <c r="B20" t="s">
         <v>82</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>106</v>
       </c>
       <c r="B21" t="s">
         <v>82</v>
       </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>107</v>
       </c>
       <c r="B22" t="s">
         <v>82</v>
       </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>108</v>
       </c>
       <c r="B23" t="s">
         <v>82</v>
       </c>
-      <c r="C23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>109</v>
       </c>
       <c r="B24" t="s">
         <v>82</v>
       </c>
-      <c r="C24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>112</v>
       </c>
       <c r="B25" t="s">
         <v>82</v>
       </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>113</v>
       </c>
       <c r="B26" t="s">
         <v>82</v>
       </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>114</v>
       </c>
       <c r="B27" t="s">
         <v>82</v>
       </c>
-      <c r="C27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>115</v>
       </c>
       <c r="B28" t="s">
         <v>82</v>
       </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>116</v>
       </c>
       <c r="B29" t="s">
         <v>82</v>
       </c>
-      <c r="C29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>117</v>
       </c>
       <c r="B30" t="s">
         <v>82</v>
       </c>
-      <c r="C30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>124</v>
       </c>
       <c r="B31" t="s">
         <v>82</v>
       </c>
-      <c r="C31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>118</v>
       </c>
       <c r="B32" t="s">
         <v>82</v>
       </c>
-      <c r="C32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>125</v>
       </c>
       <c r="B33" t="s">
         <v>82</v>
       </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>126</v>
       </c>
       <c r="B34" t="s">
         <v>82</v>
       </c>
-      <c r="C34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>127</v>
       </c>
       <c r="B35" t="s">
         <v>82</v>
       </c>
-      <c r="C35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
         <v>50</v>
       </c>
-      <c r="C36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>50</v>
       </c>
-      <c r="C37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>9</v>
       </c>
       <c r="B38" t="s">
         <v>50</v>
       </c>
-      <c r="C38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>10</v>
       </c>
       <c r="B39" t="s">
         <v>50</v>
       </c>
-      <c r="C39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>54</v>
       </c>
       <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="C40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>55</v>
       </c>
       <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>56</v>
       </c>
       <c r="B42" t="s">
         <v>50</v>
       </c>
-      <c r="C42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>57</v>
       </c>
       <c r="B43" t="s">
         <v>50</v>
       </c>
-      <c r="C43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>60</v>
       </c>
       <c r="B44" t="s">
         <v>50</v>
       </c>
-      <c r="C44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>61</v>
       </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
-      <c r="C45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>63</v>
       </c>
       <c r="B46" t="s">
         <v>50</v>
       </c>
-      <c r="C46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>62</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>66</v>
       </c>
       <c r="B48" t="s">
         <v>50</v>
       </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>68</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
-      <c r="C49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>67</v>
       </c>
       <c r="B50" t="s">
         <v>50</v>
       </c>
-      <c r="C50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>69</v>
       </c>
       <c r="B51" t="s">
         <v>50</v>
       </c>
-      <c r="C51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>72</v>
       </c>
       <c r="B52" t="s">
         <v>50</v>
       </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>73</v>
       </c>
       <c r="B53" t="s">
         <v>50</v>
       </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>74</v>
       </c>
       <c r="B54" t="s">
         <v>50</v>
       </c>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>75</v>
       </c>
       <c r="B55" t="s">
         <v>50</v>
       </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>78</v>
       </c>
       <c r="B56" t="s">
         <v>50</v>
       </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>79</v>
       </c>
       <c r="B57" t="s">
         <v>50</v>
       </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>80</v>
       </c>
       <c r="B58" t="s">
         <v>50</v>
       </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>81</v>
       </c>
       <c r="B59" t="s">
         <v>50</v>
       </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>32</v>
       </c>
       <c r="B60" t="s">
         <v>11</v>
       </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>33</v>
       </c>
       <c r="B61" t="s">
         <v>11</v>
       </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>34</v>
       </c>
       <c r="B62" t="s">
         <v>11</v>
       </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>35</v>
       </c>
       <c r="B63" t="s">
         <v>11</v>
       </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>36</v>
       </c>
       <c r="B64" t="s">
         <v>11</v>
       </c>
-      <c r="C64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>40</v>
       </c>
       <c r="B65" t="s">
         <v>11</v>
       </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>41</v>
       </c>
       <c r="B66" t="s">
         <v>11</v>
       </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>42</v>
       </c>
       <c r="B67" t="s">
         <v>11</v>
       </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>43</v>
       </c>
       <c r="B68" t="s">
         <v>11</v>
       </c>
-      <c r="C68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>46</v>
       </c>
       <c r="B69" t="s">
         <v>11</v>
       </c>
-      <c r="C69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>47</v>
       </c>
       <c r="B70" t="s">
         <v>11</v>
       </c>
-      <c r="C70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>49</v>
       </c>
       <c r="B71" t="s">
         <v>11</v>
       </c>
-      <c r="C71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>48</v>
       </c>
       <c r="B72" t="s">
         <v>11</v>
       </c>
-      <c r="C72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>27</v>
       </c>
       <c r="B73" t="s">
         <v>26</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{6A3E8714-88DE-7A4A-853D-7DAA6A3F83E2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{6A3E8714-88DE-7A4A-853D-7DAA6A3F83E2}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/resources/template.xlsx
+++ b/resources/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfkain/Projects/360/Apps/dualpresenter/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DD68E4B-12E2-7940-B291-0C57F09957E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E662FEE-E5B9-4A46-9A9D-6DD2AA73886C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34140" windowHeight="27300" xr2:uid="{31235C52-23CF-6F4B-906D-2BCD49615FB2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{31235C52-23CF-6F4B-906D-2BCD49615FB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="148">
   <si>
     <t>Name</t>
   </si>
@@ -82,21 +82,6 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>Αγοράκη Ολυμπία</t>
-  </si>
-  <si>
-    <t>Αλτόγλου Θεόδωρος</t>
-  </si>
-  <si>
-    <t>Ανανιάδης Θεόδωρος</t>
-  </si>
-  <si>
-    <t>Βλάχου Σταυρούλα - Μαρία</t>
-  </si>
-  <si>
-    <t>Μέσος Όρος βαθμολογίας 18+</t>
-  </si>
-  <si>
     <t>Ανδρέας Σιάμισιης</t>
   </si>
   <si>
@@ -124,52 +109,16 @@
     <t>Ειδική Διάκριση</t>
   </si>
   <si>
-    <t>Image</t>
-  </si>
-  <si>
     <t>Precedence</t>
   </si>
   <si>
     <t>Main Only</t>
   </si>
   <si>
-    <t>Κόλλιας Σωτήριος</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Κριεκούκης Παναγιώτης </t>
-  </si>
-  <si>
-    <t>Μέσος Όρος βαθμολογίας 19+</t>
-  </si>
-  <si>
-    <t>Χοτζάι Ορνέλα</t>
-  </si>
-  <si>
-    <t>Ζέττα Μακρή</t>
-  </si>
-  <si>
-    <t>Υφυπουργός Παιδείας, Θρησκευμάτων και Αθλητισμού</t>
-  </si>
-  <si>
     <t>Σπήλιος Λιβανός</t>
   </si>
   <si>
     <t>Πρόεδρος Διοικητικού Συμβουλίου HELLENiQ ENERGY</t>
-  </si>
-  <si>
-    <t>Βλασσοπούλου Μιχαέλα</t>
-  </si>
-  <si>
-    <t>Γκέλη Δέσποινα</t>
-  </si>
-  <si>
-    <t>Δομπρογιάννη Ελένη - Ιωάννα</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Λιάκου Αθανασία - Ιωάννα </t>
-  </si>
-  <si>
-    <t>Λούκας Χρήστος</t>
   </si>
   <si>
     <t>Γιώργος Κώτσηρας</t>
@@ -182,18 +131,6 @@
 Βουλευτής Δυτικής Αττικής</t>
   </si>
   <si>
-    <t xml:space="preserve">Μιχαήλου Αικατερίνη </t>
-  </si>
-  <si>
-    <t>Μπόβαλης Ευάγγελος - Μάριος</t>
-  </si>
-  <si>
-    <t>Παπαθανασίου Δημήτριος</t>
-  </si>
-  <si>
-    <t>Πετρόγιαννος Ευάγγελος</t>
-  </si>
-  <si>
     <t>Αθανάσιος Μπούρας</t>
   </si>
   <si>
@@ -201,260 +138,378 @@
 Βουλευτής Δυτικής Αττικής</t>
   </si>
   <si>
-    <t>Πισσάνη Σωτηρία</t>
-  </si>
-  <si>
-    <t>Τριανταφύλλου Αγγελική - Παρασκευή</t>
-  </si>
-  <si>
-    <t>Ψάλτης Γεώργιος</t>
-  </si>
-  <si>
-    <t>Φουρτουλάκης Ιωάννης</t>
-  </si>
-  <si>
-    <t>Μέσος Όρος βαθμολογίας 17+</t>
-  </si>
-  <si>
-    <t>Ευάγγελος Λιάκος</t>
-  </si>
-  <si>
     <t>Γιώργος Δημόγιωργας</t>
   </si>
   <si>
-    <t>Γενικός Διευθυντής Διυλιστηρίων της ΕΛΛΗΝΙΚΑ ΠΕΤΡΕΛΑΙΑ Δ.Ε.Π.Π.Π. Α.Ε.</t>
-  </si>
-  <si>
-    <t>Γκίκα Μαρίνα</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Δημητρίου Αικατερίνη </t>
-  </si>
-  <si>
-    <t>Δουμένης Νικόλαος</t>
-  </si>
-  <si>
-    <t>Ιωαννίδη Λυδία</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Γεώργιος Γεωργόπουλος </t>
-  </si>
-  <si>
     <t>Δήμαρχος Ελευσίνας</t>
   </si>
   <si>
-    <t>Κατσαμάγκος Σταύρος</t>
-  </si>
-  <si>
-    <t>Καύκας Ανδρέας</t>
-  </si>
-  <si>
-    <t>Μιχάλαρος Ιωάννης - Αλκιβιάδης</t>
-  </si>
-  <si>
-    <t>Μιχάλαρος Δημήτριος</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ιωάννης Ηλίας </t>
   </si>
   <si>
     <t>Δήμαρχος Ασπροπύργου</t>
   </si>
   <si>
-    <t>Μουσκάι Λορένα</t>
-  </si>
-  <si>
-    <t>Μουστάκα Κωνσταντίνα</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μουστάκα Καλλιόπη </t>
-  </si>
-  <si>
-    <t>Ξυδιάς Ανδριανός - Παναγιώτης</t>
-  </si>
-  <si>
     <t xml:space="preserve">Αρμόδιος Δρίκος </t>
   </si>
   <si>
     <t xml:space="preserve">Δήμαρχος Μάνδρας – Ειδυλλίας </t>
   </si>
   <si>
-    <t>Παπαδόπουλος Αναστάσιος</t>
-  </si>
-  <si>
-    <t>Παπακωνσταντίνου Σωτήριος</t>
-  </si>
-  <si>
-    <t>Παπαλουκά Ελένη</t>
-  </si>
-  <si>
-    <t>Πετροπούλου Βασιλική</t>
-  </si>
-  <si>
     <t xml:space="preserve">Δήμαρχος Μεγαρέων </t>
   </si>
   <si>
     <t xml:space="preserve">Παναγιώτης Μαργέτης </t>
   </si>
   <si>
-    <t>Τασιούλης Πολύκαρπος</t>
-  </si>
-  <si>
-    <t>Τριβέλλα Χριστίνα - Χαρίκλεια</t>
-  </si>
-  <si>
-    <t>Τσάκαλου Κωνσταντίνα - Μαρία</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </t>
-  </si>
-  <si>
-    <t>Μέσος Όρος βαθμολογίας 16+</t>
-  </si>
-  <si>
     <t>Έρρικα Πρεζεράκου</t>
   </si>
   <si>
-    <t>Αντιπεριφερειάρχης Παιδείας
+    <t>Αρχιμανδρίτης Βαρθολομαίος</t>
+  </si>
+  <si>
+    <t>Εκπρόσωπος Μητροπολίτη Μεγάρων και Σαλαμίνος</t>
+  </si>
+  <si>
+    <t>Κώστας Πανταζής</t>
+  </si>
+  <si>
+    <t>Στέλιος Κυριάκου</t>
+  </si>
+  <si>
+    <t>Κλεάνθης Βαρελάς</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Καράμπελας Αλέξανδρος - Παρασκευάς</t>
+  </si>
+  <si>
+    <t>Μέσος Όρος Βαθμολογίας +19</t>
+  </si>
+  <si>
+    <t>Μέσος Όρος Βαθμολογίας +18</t>
+  </si>
+  <si>
+    <t>Ζαμπέτη Κυριακή</t>
+  </si>
+  <si>
+    <t>Μαρρά Γεωργία</t>
+  </si>
+  <si>
+    <t>Μπεγκάι Εντιόλα</t>
+  </si>
+  <si>
+    <t>Παπαδάκη Ελευθερία</t>
+  </si>
+  <si>
+    <t>Σταθούλιας Αθανάσιος</t>
+  </si>
+  <si>
+    <t>Τσάπαλης Αλέξανδρος</t>
+  </si>
+  <si>
+    <t>Τσικαλάς Νικόλαος</t>
+  </si>
+  <si>
+    <t>Χιονίδου Χριστίνα</t>
+  </si>
+  <si>
+    <t>Βαλτάς Δημήτριος</t>
+  </si>
+  <si>
+    <t>Μέσος Όρος Βαθμολογίας +17</t>
+  </si>
+  <si>
+    <t>Βλαχαντώνη Γεωργία</t>
+  </si>
+  <si>
+    <t>Βρούβα Μαρία - Παρασκευή</t>
+  </si>
+  <si>
+    <t>Γεωργακή Ευαγγελία - Ιωάννα</t>
+  </si>
+  <si>
+    <t>Γραμματικού - Ρουσσέα Ευαγγελία - Μυρτώ</t>
+  </si>
+  <si>
+    <t>Διολέτη Αικατερίνη - Δανάη</t>
+  </si>
+  <si>
+    <t>Καρώνης Ιωάννης</t>
+  </si>
+  <si>
+    <t>Κατσαμάγκου Τριανταφυλλιά - Φανή</t>
+  </si>
+  <si>
+    <t>Κιτσαντάς Γεώργιος</t>
+  </si>
+  <si>
+    <t>Κουκούλης Ιωάννης</t>
+  </si>
+  <si>
+    <t>Κουλιαβέτας Παναγιώτης</t>
+  </si>
+  <si>
+    <t>Λάου Ελένη - Ευαγγελία</t>
+  </si>
+  <si>
+    <t>Λουκοπούλου Αικατερίνη</t>
+  </si>
+  <si>
+    <t>Μακρέσια Ειρήνη - Γεωργία</t>
+  </si>
+  <si>
+    <t>Μακρή Χριστίνα</t>
+  </si>
+  <si>
+    <t>Μαλιαράκης Ανδρέας</t>
+  </si>
+  <si>
+    <t>Μαργέτης Αναστάσης</t>
+  </si>
+  <si>
+    <t>Μαυράκης Ιωάννης</t>
+  </si>
+  <si>
+    <t>Μπούσκος Κωνσταντίνος</t>
+  </si>
+  <si>
+    <t>Οικονομόπουλος Μιχαήλ</t>
+  </si>
+  <si>
+    <t>Οικονομοπούλου Ελένη</t>
+  </si>
+  <si>
+    <t>Παπαπέτρου Δέσποινα</t>
+  </si>
+  <si>
+    <t>Πέππα Βασιλική</t>
+  </si>
+  <si>
+    <t>Ρουμελιώτης Αχιλλέας</t>
+  </si>
+  <si>
+    <t>Σάλτα Ειρήνη</t>
+  </si>
+  <si>
+    <t>Σιάμπος Αλκιβιάδης</t>
+  </si>
+  <si>
+    <t>Σταμπόλα Αικατερίνη</t>
+  </si>
+  <si>
+    <t>Τζοάνος Αλέξανδρος</t>
+  </si>
+  <si>
+    <t>Χατζημηνά Αναστασία</t>
+  </si>
+  <si>
+    <t>Μέσος Όρος Βαθμολογίας +16</t>
+  </si>
+  <si>
+    <t>Γεωργούσης Κωνσταντίνος</t>
+  </si>
+  <si>
+    <t>Ηλία Σοφία</t>
+  </si>
+  <si>
+    <t>Θεοχαρίδου Ναταλία - Βασιλική</t>
+  </si>
+  <si>
+    <t>Κολυβάς Μάριος</t>
+  </si>
+  <si>
+    <t>Κρητικού Όλγα</t>
+  </si>
+  <si>
+    <t>Κυριακίδης Αντώνιος</t>
+  </si>
+  <si>
+    <t>Λινάρδος Ιωάννης</t>
+  </si>
+  <si>
+    <t>Μαυρονάσου Βαρβάρα</t>
+  </si>
+  <si>
+    <t>Μίσιος Λεωνίδας</t>
+  </si>
+  <si>
+    <t>Μοσχογιάννη Μαρία</t>
+  </si>
+  <si>
+    <t>Μοσχούτη Ιωνία - Νικολέτα</t>
+  </si>
+  <si>
+    <t>Μπεκρή Αιμιλία</t>
+  </si>
+  <si>
+    <t>Ντάφου Σοφία</t>
+  </si>
+  <si>
+    <t>Παπαγιάννης Δήμος</t>
+  </si>
+  <si>
+    <t>Παπανδρέου Αικατερίνη</t>
+  </si>
+  <si>
+    <t>Περαματζής Δημήτριος</t>
+  </si>
+  <si>
+    <t>Πολυχρόνη Δήμητρα</t>
+  </si>
+  <si>
+    <t>Τσετινέ Αναστασία</t>
+  </si>
+  <si>
+    <t>Φίλη Αικατερίνη</t>
+  </si>
+  <si>
+    <t>Χαβαριώτης Ιωάννης</t>
+  </si>
+  <si>
+    <t>Μέσος Όρος βαθμολογίας +19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Σοφία Ζαχαράκη </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Υπουργός Παιδείας, Θρησκευμάτων και Αθλητισμού </t>
+  </si>
+  <si>
+    <t>Μέσος Όρος βαθμολογίας +18</t>
+  </si>
+  <si>
+    <t>Μέσος Όρος βαθμολογίας +17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ευάγγελος Λιάκος </t>
+  </si>
+  <si>
+    <t>Εντεταλμένη Σύμβουλος Παιδείας
 Περιφέρεια Αττικής</t>
   </si>
   <si>
-    <t>Δούκα Αναστασία - Ζωή</t>
-  </si>
-  <si>
-    <t>Θεοδώρου Βασιλική</t>
-  </si>
-  <si>
-    <t>Καλλιγέρη Χάρις</t>
-  </si>
-  <si>
-    <t>Κεφαλοπούλου Κανέλλα</t>
-  </si>
-  <si>
-    <t>Κιμιγκέλη Ορσαλία</t>
-  </si>
-  <si>
-    <t>Κόλα Κριστιάνα</t>
-  </si>
-  <si>
-    <t>Κόττα Δέσποινα</t>
-  </si>
-  <si>
-    <t>Αρχιμανδρίτης Βαρθολομαίος</t>
-  </si>
-  <si>
-    <t>Εκπρόσωπος Μητροπολίτη Μεγάρων και Σαλαμίνος</t>
-  </si>
-  <si>
-    <t>Λαμπριανίδης Ιάσων</t>
-  </si>
-  <si>
-    <t>Μανώλακας Βασίλειος</t>
-  </si>
-  <si>
-    <t>Μαργέτη Ευαγγελία</t>
-  </si>
-  <si>
-    <t>Μαρούγκα Φωτεινή</t>
-  </si>
-  <si>
-    <t>Μιχαλόπουλος Σπυρίδωνας</t>
-  </si>
-  <si>
-    <t>Μουρτζούκος Δημήτριος</t>
-  </si>
-  <si>
-    <t>Μπούρας Ναπολέων</t>
-  </si>
-  <si>
-    <t>Κώστας Πανταζής</t>
-  </si>
-  <si>
-    <t>Διευθυντής Διυλιστηρίου Ασπροπύργου της ΕΛΛΗΝΙΚΑ ΠΕΤΡΕΛΑΙΑ Δ.Ε.Π.Π.Π. Α.Ε.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Μυστεγνιώτη Δανάη </t>
-  </si>
-  <si>
-    <t>Νιτοάεα Εουσέμπιου-Νταμιάν</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Πανταζή Μαρία </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Παπαγιάννη Μυρτώ </t>
-  </si>
-  <si>
-    <t>Παπανδρέου Σωτηρία</t>
-  </si>
-  <si>
-    <t>Παυλίδη Ιωάννα</t>
-  </si>
-  <si>
-    <t>Πετρόγιαννος Γεώργιος</t>
-  </si>
-  <si>
-    <t>Στέλιος Κυριάκου</t>
-  </si>
-  <si>
-    <t>Διευθυντής Διυλιστηρίου Ελευσίνας της ΕΛΛΗΝΙΚΑ ΠΕΤΡΕΛΑΙΑ Δ.Ε.Π.Π.Π. Α.Ε.</t>
-  </si>
-  <si>
-    <t>Πολίτη Γεωργία</t>
-  </si>
-  <si>
-    <t>Ρούτη Μαργαρίτα</t>
-  </si>
-  <si>
-    <t>Σαριπανίδου Χρυσούλα</t>
-  </si>
-  <si>
-    <t>Σίνγκ Ανμόλ</t>
-  </si>
-  <si>
-    <t>Σύριος Νικόλαος</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Τερζάκη Δήμητρα </t>
-  </si>
-  <si>
-    <t>Τσουκαλάς Γεώργιος</t>
-  </si>
-  <si>
-    <t>Κώστας Παπαδόπουλος</t>
-  </si>
-  <si>
-    <t>Προπονητής Εθνικής Ομάδας Μπάσκετ Νέων Ανδρών Κάτω των 20</t>
-  </si>
-  <si>
-    <t>assets/ethniki.jpg</t>
-  </si>
-  <si>
-    <t>Κλεάνθης Βαρελάς</t>
-  </si>
-  <si>
-    <t>Αντιπεριφερειάρχης Περιφερειακής Ενότητας Δυτικής Αττικής</t>
-  </si>
-  <si>
-    <t>Τσεκούρα Αγγελική</t>
-  </si>
-  <si>
-    <t>Φίλης Νικόλαος</t>
-  </si>
-  <si>
-    <t>Χατζόγλου Δημήτριος</t>
-  </si>
-  <si>
-    <t>Χριστοφής Ναπολέων</t>
-  </si>
-  <si>
-    <t>#</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Presenter</t>
+    <t>Γενικός Διευθυντής Διυλιστηρίων
+HELLENiQ PETROLEUM</t>
+  </si>
+  <si>
+    <t>Γεώργιος Γεωργόπουλος</t>
+  </si>
+  <si>
+    <t>Μέσος Όρος βαθμολογίας +16</t>
+  </si>
+  <si>
+    <t>Περιφερειακός Σύμβουλος Δυτικής Αττικής</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Γεώργιος Μπίκος </t>
+  </si>
+  <si>
+    <t>Διευθυντής Δευτεροβάθμιας Εκπαίδευσης Δυτικής Αττικής</t>
+  </si>
+  <si>
+    <t>Aναπληρωτής Γενικός Διευθυντής Διυλιστηρίων 
+Διευθυντής Διυλιστηρίου Ασπροπύργου 
+HELLENiQ Petroleum</t>
+  </si>
+  <si>
+    <t>Διευθυντής Διυλιστηρίου Ελευσίνας 
+HELLENiQ PETROLEUM</t>
+  </si>
+  <si>
+    <t>Μανέτα Στυλιανή</t>
+  </si>
+  <si>
+    <t>Πανάγος Χρήστος - Πλάτων</t>
+  </si>
+  <si>
+    <t>Αρχοντάκης - Παπαδάκης Χρήστος - Αναστάσης</t>
+  </si>
+  <si>
+    <t>Γεωργιάδης Θεόδωρος</t>
+  </si>
+  <si>
+    <t>Καπετανάκης Ανάργυρος</t>
+  </si>
+  <si>
+    <t>Μαραγκάκης Άγγελος - Μύρωνας</t>
+  </si>
+  <si>
+    <t>Μελετίου Ιωάννα - Μαργαρίτα</t>
+  </si>
+  <si>
+    <t>Οζίνη Ειρήνη - Ραφαηλία</t>
+  </si>
+  <si>
+    <t>Γαυρίδη Μαρία</t>
+  </si>
+  <si>
+    <t>Δρακοπούλου Ευανθία - Μαρία</t>
+  </si>
+  <si>
+    <t>Καίσαρη Αγγελική</t>
+  </si>
+  <si>
+    <t>Καλλιγέρη Φιλοθέη</t>
+  </si>
+  <si>
+    <t>Καράι Πέτρος</t>
+  </si>
+  <si>
+    <t>Κατσαράς Σταύρος</t>
+  </si>
+  <si>
+    <t>Μάγκου Ζαχαρούλα</t>
+  </si>
+  <si>
+    <t>Μίχας Αθανάσιος</t>
+  </si>
+  <si>
+    <t>Παπαβασιλείου Γεώργιος - Σπυρίδων</t>
+  </si>
+  <si>
+    <t>Πετρόγιαννου Μαρία - Κωνσταντίνα</t>
+  </si>
+  <si>
+    <t>Πνευματικάκη Αικατερίνη</t>
+  </si>
+  <si>
+    <t>Πόγκα Ασημίνα</t>
+  </si>
+  <si>
+    <t>Στεργιόπουλος Χρήστος</t>
+  </si>
+  <si>
+    <t>Τράμπαρης Παύλος</t>
+  </si>
+  <si>
+    <t>Τσιουράκης Φίλιππος - Ταξιάρχης</t>
+  </si>
+  <si>
+    <t>Αδάμ Χρυσοβαλάντης</t>
+  </si>
+  <si>
+    <t>Αντωνίου Παναγιώτης</t>
+  </si>
+  <si>
+    <t>Γκίνης Δημήτριος</t>
+  </si>
+  <si>
+    <t>Μισαηλίδη Ελισάβετ</t>
+  </si>
+  <si>
+    <t>Μπεθάνη Κωνσταντίνα - Μαρία</t>
+  </si>
+  <si>
+    <t>Τσαμτσούρη Αικατερίνη</t>
+  </si>
+  <si>
+    <t>Τσίγκρη Ελένη</t>
   </si>
 </sst>
 </file>
@@ -464,7 +519,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -485,6 +540,24 @@
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -494,7 +567,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -531,11 +604,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -579,18 +672,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -665,55 +762,77 @@
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCAD2D8"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF6E684F"/>
-          <bgColor rgb="FFF1F2DA"/>
-        </patternFill>
-      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <font>
-        <color auto="1"/>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FF6E684F"/>
-          <bgColor rgb="FFF1F2DA"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -879,15 +998,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="TableStyleLight8 2" pivot="0" count="9" xr9:uid="{80D2B743-4329-6544-8889-4B0B004A6420}">
-      <tableStyleElement type="wholeTable" dxfId="32"/>
-      <tableStyleElement type="headerRow" dxfId="31"/>
-      <tableStyleElement type="totalRow" dxfId="30"/>
-      <tableStyleElement type="firstColumn" dxfId="29"/>
-      <tableStyleElement type="lastColumn" dxfId="28"/>
-      <tableStyleElement type="firstRowStripe" dxfId="27"/>
-      <tableStyleElement type="secondRowStripe" dxfId="26"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="25"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="24"/>
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="totalRow" dxfId="28"/>
+      <tableStyleElement type="firstColumn" dxfId="27"/>
+      <tableStyleElement type="lastColumn" dxfId="26"/>
+      <tableStyleElement type="firstRowStripe" dxfId="25"/>
+      <tableStyleElement type="secondRowStripe" dxfId="24"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="23"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="22"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -913,40 +1032,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84E6271E-1140-5E4E-8C94-6B7E104C92AD}" name="Flow" displayName="Flow" ref="A1:I62" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:I62" xr:uid="{84E6271E-1140-5E4E-8C94-6B7E104C92AD}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I62">
-    <sortCondition ref="A1:A62"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{84E6271E-1140-5E4E-8C94-6B7E104C92AD}" name="Flow" displayName="Flow" ref="A1:I59" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:I59" xr:uid="{84E6271E-1140-5E4E-8C94-6B7E104C92AD}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I59">
+    <sortCondition ref="A1:A59"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{9FB372EE-CC04-3D4B-B0DB-CDB6BC0707DC}" name="#" dataDxfId="21">
+    <tableColumn id="10" xr3:uid="{9FB372EE-CC04-3D4B-B0DB-CDB6BC0707DC}" name="#" dataDxfId="19">
       <calculatedColumnFormula>ROW()-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{D373A835-1BA4-AE45-9363-EE67E6165767}" name="Type" dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{DA0621C3-BCB2-254D-93C7-AC63CC141306}" name="Title" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{57A8305B-55FC-E949-81F4-841B61FC4B23}" name="Subtitle" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{5BC695E7-5490-5647-A005-C433DAA5B19B}" name="Group" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{0C3D6887-B103-F14F-9A95-9058AB0F7C1C}" name="From" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{872D8E49-A803-AA40-AD08-83386EB17B64}" name="Until" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{6F06AFA4-A4D4-E242-AA22-F08727EA7CF0}" name="Main Only" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{7A62BBC9-6DF9-694F-A31F-9635C8DE492C}" name="Precedence" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{D373A835-1BA4-AE45-9363-EE67E6165767}" name="Type" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{DA0621C3-BCB2-254D-93C7-AC63CC141306}" name="Title" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{57A8305B-55FC-E949-81F4-841B61FC4B23}" name="Subtitle" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{5BC695E7-5490-5647-A005-C433DAA5B19B}" name="Group" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{0C3D6887-B103-F14F-9A95-9058AB0F7C1C}" name="From" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{872D8E49-A803-AA40-AD08-83386EB17B64}" name="Until" dataDxfId="13"/>
+    <tableColumn id="8" xr3:uid="{6F06AFA4-A4D4-E242-AA22-F08727EA7CF0}" name="Main Only" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{7A62BBC9-6DF9-694F-A31F-9635C8DE492C}" name="Precedence" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DD68603-088B-0B49-BA2F-E26D2888A5DB}" name="Names" displayName="Names" ref="A1:D73">
-  <autoFilter ref="A1:D73" xr:uid="{7DD68603-088B-0B49-BA2F-E26D2888A5DB}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D73">
-    <sortCondition ref="B2:B73"/>
-    <sortCondition ref="A2:A73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DD68603-088B-0B49-BA2F-E26D2888A5DB}" name="Names" displayName="Names" ref="A1:C89" dataDxfId="10">
+  <autoFilter ref="A1:C89" xr:uid="{7DD68603-088B-0B49-BA2F-E26D2888A5DB}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C89">
+    <sortCondition ref="B2:B89"/>
+    <sortCondition ref="A2:A89"/>
   </sortState>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{54EDEFF7-6D50-644B-86D9-EB6D272BB5CB}" name="Name" totalsRowLabel="Total"/>
-    <tableColumn id="2" xr3:uid="{1FC3351A-5F59-8344-918E-0052C96220FD}" name="Group"/>
-    <tableColumn id="4" xr3:uid="{C8E79D04-D70B-2344-B5CA-715A391DE5C9}" name="Presenter" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{DCF0A96D-147F-D842-B4A4-575507D6A1CD}" name="Attending" totalsRowFunction="count"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{54EDEFF7-6D50-644B-86D9-EB6D272BB5CB}" name="Name" totalsRowLabel="Total" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1FC3351A-5F59-8344-918E-0052C96220FD}" name="Group" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{DCF0A96D-147F-D842-B4A4-575507D6A1CD}" name="Attending" totalsRowFunction="count" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1269,11 +1387,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B55B849-D7B1-2246-A786-6A6435A95436}">
-  <dimension ref="A1:BF330"/>
+  <dimension ref="A1:BR327"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1283,18 +1401,18 @@
     <col min="3" max="3" width="34.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="47.83203125" style="2" customWidth="1"/>
     <col min="5" max="5" width="27" style="2" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="39.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="12.33203125" style="7" customWidth="1"/>
     <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -1306,25 +1424,25 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
-        <f t="shared" ref="A2:A33" si="0">ROW()-1</f>
+        <f t="shared" ref="A2:A35" si="0">ROW()-1</f>
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C2" s="10"/>
       <c r="I2" s="6"/>
@@ -1342,10 +1460,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="I3" s="6"/>
       <c r="AA3" t="str" cm="1">
@@ -1362,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="I4" s="6"/>
       <c r="AA4" t="str" cm="1">
@@ -1380,10 +1498,16 @@
       </c>
       <c r="C5" s="11"/>
       <c r="E5" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I5" s="6">
         <v>1</v>
@@ -1391,21 +1515,26 @@
       <c r="J5" s="1"/>
       <c r="AA5" t="str" cm="1">
         <f t="array" ref="AA5:AB5">IF(E5="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E5)))</f>
-        <v>Κόλλιας Σωτήριος</v>
+        <v>Αρχοντάκης - Παπαδάκης Χρήστος - Αναστάσης</v>
       </c>
       <c r="AB5" t="str">
-        <v xml:space="preserve">Κριεκούκης Παναγιώτης </v>
+        <v>Καράμπελας Αλέξανδρος - Παρασκευάς</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>5</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
       <c r="AA6" t="str" cm="1">
@@ -1415,20 +1544,35 @@
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
-        <f t="shared" si="0"/>
+        <f>ROW()-1</f>
         <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="E7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="6">
+        <v>1</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="AA7" t="str" cm="1">
-        <f t="array" ref="AA7">IF(E7="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E7)))</f>
-        <v/>
+        <f t="array" ref="AA7:AB7">IF(E7="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E7)))</f>
+        <v>Αρχοντάκης - Παπαδάκης Χρήστος - Αναστάσης</v>
+      </c>
+      <c r="AB7" t="str">
+        <v>Καράμπελας Αλέξανδρος - Παρασκευάς</v>
       </c>
     </row>
     <row r="8" spans="1:39" x14ac:dyDescent="0.2">
@@ -1437,22 +1581,14 @@
         <v>7</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C8" s="11"/>
-      <c r="E8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
+      <c r="I8" s="6"/>
       <c r="J8" s="1"/>
       <c r="AA8" t="str" cm="1">
         <f t="array" ref="AA8">IF(E8="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E8)))</f>
-        <v>Χοτζάι Ορνέλα</v>
+        <v/>
       </c>
     </row>
     <row r="9" spans="1:39" x14ac:dyDescent="0.2">
@@ -1461,13 +1597,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
@@ -1482,9 +1615,14 @@
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
       <c r="AA10" t="str" cm="1">
@@ -1492,22 +1630,23 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>11</v>
+        <v>4</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="1"/>
       <c r="AA11" t="str" cm="1">
         <f t="array" ref="AA11">IF(E11="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E11)))</f>
-        <v/>
+        <v>Πανάγος Χρήστος - Πλάτων</v>
       </c>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.2">
@@ -1516,14 +1655,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>31</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C12" s="11"/>
       <c r="I12" s="6"/>
       <c r="J12" s="1"/>
       <c r="AA12" t="str" cm="1">
@@ -1531,76 +1665,38 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="E13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>106</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
       <c r="AA13" t="str" cm="1">
-        <f t="array" ref="AA13:AM13">IF(E13="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E13)))</f>
-        <v>Βλασσοπούλου Μιχαέλα</v>
-      </c>
-      <c r="AB13" t="str">
-        <v>Γκέλη Δέσποινα</v>
-      </c>
-      <c r="AC13" t="str">
-        <v>Δομπρογιάννη Ελένη - Ιωάννα</v>
-      </c>
-      <c r="AD13" t="str">
-        <v xml:space="preserve">Λιάκου Αθανασία - Ιωάννα </v>
-      </c>
-      <c r="AE13" t="str">
-        <v>Λούκας Χρήστος</v>
-      </c>
-      <c r="AF13" t="str">
-        <v xml:space="preserve">Μιχαήλου Αικατερίνη </v>
-      </c>
-      <c r="AG13" t="str">
-        <v>Μπόβαλης Ευάγγελος - Μάριος</v>
-      </c>
-      <c r="AH13" t="str">
-        <v>Παπαθανασίου Δημήτριος</v>
-      </c>
-      <c r="AI13" t="str">
-        <v>Πετρόγιαννος Ευάγγελος</v>
-      </c>
-      <c r="AJ13" t="str">
-        <v>Πισσάνη Σωτηρία</v>
-      </c>
-      <c r="AK13" t="str">
-        <v>Τριανταφύλλου Αγγελική - Παρασκευή</v>
-      </c>
-      <c r="AL13" t="str">
-        <v>Φουρτουλάκης Ιωάννης</v>
-      </c>
-      <c r="AM13" t="str">
-        <v>Ψάλτης Γεώργιος</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA13">IF(E13="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E13)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="11"/>
+        <v>1</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
       <c r="AA14" t="str" cm="1">
@@ -1608,25 +1704,65 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:39" ht="34" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="E15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
       <c r="AA15" t="str" cm="1">
-        <f t="array" ref="AA15">IF(E15="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E15)))</f>
-        <v/>
+        <f t="array" ref="AA15:AM15">IF(E15="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E15)))</f>
+        <v>Γεωργιάδης Θεόδωρος</v>
+      </c>
+      <c r="AB15" t="str">
+        <v>Ζαμπέτη Κυριακή</v>
+      </c>
+      <c r="AC15" t="str">
+        <v>Καπετανάκης Ανάργυρος</v>
+      </c>
+      <c r="AD15" t="str">
+        <v>Μαραγκάκης Άγγελος - Μύρωνας</v>
+      </c>
+      <c r="AE15" t="str">
+        <v>Μαρρά Γεωργία</v>
+      </c>
+      <c r="AF15" t="str">
+        <v>Μελετίου Ιωάννα - Μαργαρίτα</v>
+      </c>
+      <c r="AG15" t="str">
+        <v>Μπεγκάι Εντιόλα</v>
+      </c>
+      <c r="AH15" t="str">
+        <v>Οζίνη Ειρήνη - Ραφαηλία</v>
+      </c>
+      <c r="AI15" t="str">
+        <v>Παπαδάκη Ελευθερία</v>
+      </c>
+      <c r="AJ15" t="str">
+        <v>Σταθούλιας Αθανάσιος</v>
+      </c>
+      <c r="AK15" t="str">
+        <v>Τσάπαλης Αλέξανδρος</v>
+      </c>
+      <c r="AL15" t="str">
+        <v>Τσικαλάς Νικόλαος</v>
+      </c>
+      <c r="AM15" t="str">
+        <v>Χιονίδου Χριστίνα</v>
       </c>
     </row>
     <row r="16" spans="1:39" x14ac:dyDescent="0.2">
@@ -1635,72 +1771,30 @@
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C16" s="11"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="I16" s="6"/>
       <c r="J16" s="1"/>
       <c r="AA16" t="str" cm="1">
-        <f t="array" ref="AA16:AM16">IF(E16="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E16)))</f>
-        <v>Βλασσοπούλου Μιχαέλα</v>
-      </c>
-      <c r="AB16" t="str">
-        <v>Γκέλη Δέσποινα</v>
-      </c>
-      <c r="AC16" t="str">
-        <v>Δομπρογιάννη Ελένη - Ιωάννα</v>
-      </c>
-      <c r="AD16" t="str">
-        <v xml:space="preserve">Λιάκου Αθανασία - Ιωάννα </v>
-      </c>
-      <c r="AE16" t="str">
-        <v>Λούκας Χρήστος</v>
-      </c>
-      <c r="AF16" t="str">
-        <v xml:space="preserve">Μιχαήλου Αικατερίνη </v>
-      </c>
-      <c r="AG16" t="str">
-        <v>Μπόβαλης Ευάγγελος - Μάριος</v>
-      </c>
-      <c r="AH16" t="str">
-        <v>Παπαθανασίου Δημήτριος</v>
-      </c>
-      <c r="AI16" t="str">
-        <v>Πετρόγιαννος Ευάγγελος</v>
-      </c>
-      <c r="AJ16" t="str">
-        <v>Πισσάνη Σωτηρία</v>
-      </c>
-      <c r="AK16" t="str">
-        <v>Τριανταφύλλου Αγγελική - Παρασκευή</v>
-      </c>
-      <c r="AL16" t="str">
-        <v>Φουρτουλάκης Ιωάννης</v>
-      </c>
-      <c r="AM16" t="str">
-        <v>Ψάλτης Γεώργιος</v>
-      </c>
-    </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA16">IF(E16="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E16)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:70" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="I17" s="6"/>
       <c r="J17" s="1"/>
       <c r="AA17" t="str" cm="1">
@@ -1708,98 +1802,96 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:50" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>45</v>
+        <v>4</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="1"/>
       <c r="AA18" t="str" cm="1">
-        <f t="array" ref="AA18">IF(E18="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E18)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA18:AM18">IF(E18="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E18)))</f>
+        <v>Γεωργιάδης Θεόδωρος</v>
+      </c>
+      <c r="AB18" t="str">
+        <v>Ζαμπέτη Κυριακή</v>
+      </c>
+      <c r="AC18" t="str">
+        <v>Καπετανάκης Ανάργυρος</v>
+      </c>
+      <c r="AD18" t="str">
+        <v>Μαραγκάκης Άγγελος - Μύρωνας</v>
+      </c>
+      <c r="AE18" t="str">
+        <v>Μαρρά Γεωργία</v>
+      </c>
+      <c r="AF18" t="str">
+        <v>Μελετίου Ιωάννα - Μαργαρίτα</v>
+      </c>
+      <c r="AG18" t="str">
+        <v>Μπεγκάι Εντιόλα</v>
+      </c>
+      <c r="AH18" t="str">
+        <v>Οζίνη Ειρήνη - Ραφαηλία</v>
+      </c>
+      <c r="AI18" t="str">
+        <v>Παπαδάκη Ελευθερία</v>
+      </c>
+      <c r="AJ18" t="str">
+        <v>Σταθούλιας Αθανάσιος</v>
+      </c>
+      <c r="AK18" t="str">
+        <v>Τσάπαλης Αλέξανδρος</v>
+      </c>
+      <c r="AL18" t="str">
+        <v>Τσικαλάς Νικόλαος</v>
+      </c>
+      <c r="AM18" t="str">
+        <v>Χιονίδου Χριστίνα</v>
+      </c>
+    </row>
+    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="4"/>
-      <c r="E19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="I19" s="6"/>
       <c r="J19" s="1"/>
       <c r="AA19" t="str" cm="1">
-        <f t="array" ref="AA19:AM19">IF(E19="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E19)))</f>
-        <v>Βλασσοπούλου Μιχαέλα</v>
-      </c>
-      <c r="AB19" t="str">
-        <v>Γκέλη Δέσποινα</v>
-      </c>
-      <c r="AC19" t="str">
-        <v>Δομπρογιάννη Ελένη - Ιωάννα</v>
-      </c>
-      <c r="AD19" t="str">
-        <v xml:space="preserve">Λιάκου Αθανασία - Ιωάννα </v>
-      </c>
-      <c r="AE19" t="str">
-        <v>Λούκας Χρήστος</v>
-      </c>
-      <c r="AF19" t="str">
-        <v xml:space="preserve">Μιχαήλου Αικατερίνη </v>
-      </c>
-      <c r="AG19" t="str">
-        <v>Μπόβαλης Ευάγγελος - Μάριος</v>
-      </c>
-      <c r="AH19" t="str">
-        <v>Παπαθανασίου Δημήτριος</v>
-      </c>
-      <c r="AI19" t="str">
-        <v>Πετρόγιαννος Ευάγγελος</v>
-      </c>
-      <c r="AJ19" t="str">
-        <v>Πισσάνη Σωτηρία</v>
-      </c>
-      <c r="AK19" t="str">
-        <v>Τριανταφύλλου Αγγελική - Παρασκευή</v>
-      </c>
-      <c r="AL19" t="str">
-        <v>Φουρτουλάκης Ιωάννης</v>
-      </c>
-      <c r="AM19" t="str">
-        <v>Ψάλτης Γεώργιος</v>
-      </c>
-    </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA19">IF(E19="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E19)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>107</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="I20" s="6"/>
       <c r="J20" s="1"/>
@@ -1808,18 +1900,20 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:70" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>129</v>
+        <v>1</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" s="4"/>
+        <v>108</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
       <c r="AA21" t="str" cm="1">
@@ -1827,132 +1921,192 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:50" ht="17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>38</v>
+        <v>4</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="1"/>
       <c r="AA22" t="str" cm="1">
-        <f t="array" ref="AA22">IF(E22="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E22)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA22:BR22">IF(E22="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E22)))</f>
+        <v>Βαλτάς Δημήτριος</v>
+      </c>
+      <c r="AB22" t="str">
+        <v>Βλαχαντώνη Γεωργία</v>
+      </c>
+      <c r="AC22" t="str">
+        <v>Βρούβα Μαρία - Παρασκευή</v>
+      </c>
+      <c r="AD22" t="str">
+        <v>Γαυρίδη Μαρία</v>
+      </c>
+      <c r="AE22" t="str">
+        <v>Γεωργακή Ευαγγελία - Ιωάννα</v>
+      </c>
+      <c r="AF22" t="str">
+        <v>Γραμματικού - Ρουσσέα Ευαγγελία - Μυρτώ</v>
+      </c>
+      <c r="AG22" t="str">
+        <v>Διολέτη Αικατερίνη - Δανάη</v>
+      </c>
+      <c r="AH22" t="str">
+        <v>Δρακοπούλου Ευανθία - Μαρία</v>
+      </c>
+      <c r="AI22" t="str">
+        <v>Καίσαρη Αγγελική</v>
+      </c>
+      <c r="AJ22" t="str">
+        <v>Καλλιγέρη Φιλοθέη</v>
+      </c>
+      <c r="AK22" t="str">
+        <v>Καράι Πέτρος</v>
+      </c>
+      <c r="AL22" t="str">
+        <v>Καρώνης Ιωάννης</v>
+      </c>
+      <c r="AM22" t="str">
+        <v>Κατσαμάγκου Τριανταφυλλιά - Φανή</v>
+      </c>
+      <c r="AN22" t="str">
+        <v>Κατσαράς Σταύρος</v>
+      </c>
+      <c r="AO22" t="str">
+        <v>Κιτσαντάς Γεώργιος</v>
+      </c>
+      <c r="AP22" t="str">
+        <v>Κουκούλης Ιωάννης</v>
+      </c>
+      <c r="AQ22" t="str">
+        <v>Κουλιαβέτας Παναγιώτης</v>
+      </c>
+      <c r="AR22" t="str">
+        <v>Λάου Ελένη - Ευαγγελία</v>
+      </c>
+      <c r="AS22" t="str">
+        <v>Λουκοπούλου Αικατερίνη</v>
+      </c>
+      <c r="AT22" t="str">
+        <v>Μάγκου Ζαχαρούλα</v>
+      </c>
+      <c r="AU22" t="str">
+        <v>Μακρέσια Ειρήνη - Γεωργία</v>
+      </c>
+      <c r="AV22" t="str">
+        <v>Μακρή Χριστίνα</v>
+      </c>
+      <c r="AW22" t="str">
+        <v>Μαλιαράκης Ανδρέας</v>
+      </c>
+      <c r="AX22" t="str">
+        <v>Μαργέτης Αναστάσης</v>
+      </c>
+      <c r="AY22" t="str">
+        <v>Μαυράκης Ιωάννης</v>
+      </c>
+      <c r="AZ22" t="str">
+        <v>Μίχας Αθανάσιος</v>
+      </c>
+      <c r="BA22" t="str">
+        <v>Μπούσκος Κωνσταντίνος</v>
+      </c>
+      <c r="BB22" t="str">
+        <v>Οικονομόπουλος Μιχαήλ</v>
+      </c>
+      <c r="BC22" t="str">
+        <v>Οικονομοπούλου Ελένη</v>
+      </c>
+      <c r="BD22" t="str">
+        <v>Παπαβασιλείου Γεώργιος - Σπυρίδων</v>
+      </c>
+      <c r="BE22" t="str">
+        <v>Παπαπέτρου Δέσποινα</v>
+      </c>
+      <c r="BF22" t="str">
+        <v>Πέππα Βασιλική</v>
+      </c>
+      <c r="BG22" t="str">
+        <v>Πετρόγιαννου Μαρία - Κωνσταντίνα</v>
+      </c>
+      <c r="BH22" t="str">
+        <v>Πνευματικάκη Αικατερίνη</v>
+      </c>
+      <c r="BI22" t="str">
+        <v>Πόγκα Ασημίνα</v>
+      </c>
+      <c r="BJ22" t="str">
+        <v>Ρουμελιώτης Αχιλλέας</v>
+      </c>
+      <c r="BK22" t="str">
+        <v>Σάλτα Ειρήνη</v>
+      </c>
+      <c r="BL22" t="str">
+        <v>Σιάμπος Αλκιβιάδης</v>
+      </c>
+      <c r="BM22" t="str">
+        <v>Σταμπόλα Αικατερίνη</v>
+      </c>
+      <c r="BN22" t="str">
+        <v>Στεργιόπουλος Χρήστος</v>
+      </c>
+      <c r="BO22" t="str">
+        <v>Τζοάνος Αλέξανδρος</v>
+      </c>
+      <c r="BP22" t="str">
+        <v>Τράμπαρης Παύλος</v>
+      </c>
+      <c r="BQ22" t="str">
+        <v>Τσιουράκης Φίλιππος - Ταξιάρχης</v>
+      </c>
+      <c r="BR22" t="str">
+        <v>Χατζημηνά Αναστασία</v>
+      </c>
+    </row>
+    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="I23" s="6"/>
       <c r="J23" s="1"/>
       <c r="AA23" t="str" cm="1">
-        <f t="array" ref="AA23:AX23">IF(E23="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E23)))</f>
-        <v>Αγοράκη Ολυμπία</v>
-      </c>
-      <c r="AB23" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
-      </c>
-      <c r="AC23" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
-      </c>
-      <c r="AD23" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
-      </c>
-      <c r="AE23" t="str">
-        <v>Γκίκα Μαρίνα</v>
-      </c>
-      <c r="AF23" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
-      </c>
-      <c r="AG23" t="str">
-        <v>Δουμένης Νικόλαος</v>
-      </c>
-      <c r="AH23" t="str">
-        <v>Ιωαννίδη Λυδία</v>
-      </c>
-      <c r="AI23" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
-      </c>
-      <c r="AJ23" t="str">
-        <v>Καύκας Ανδρέας</v>
-      </c>
-      <c r="AK23" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
-      </c>
-      <c r="AL23" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
-      </c>
-      <c r="AM23" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AN23" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AO23" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AP23" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AQ23" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AR23" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AS23" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AT23" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AU23" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AV23" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AW23" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AX23" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
-      </c>
-    </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA23">IF(E23="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E23)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:70" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>109</v>
+      </c>
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
       <c r="AA24" t="str" cm="1">
@@ -1960,132 +2114,192 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:50" ht="34" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="11"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="2" t="s">
         <v>53</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
       <c r="AA25" t="str" cm="1">
-        <f t="array" ref="AA25">IF(E25="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E25)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA25:BR25">IF(E25="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E25)))</f>
+        <v>Βαλτάς Δημήτριος</v>
+      </c>
+      <c r="AB25" t="str">
+        <v>Βλαχαντώνη Γεωργία</v>
+      </c>
+      <c r="AC25" t="str">
+        <v>Βρούβα Μαρία - Παρασκευή</v>
+      </c>
+      <c r="AD25" t="str">
+        <v>Γαυρίδη Μαρία</v>
+      </c>
+      <c r="AE25" t="str">
+        <v>Γεωργακή Ευαγγελία - Ιωάννα</v>
+      </c>
+      <c r="AF25" t="str">
+        <v>Γραμματικού - Ρουσσέα Ευαγγελία - Μυρτώ</v>
+      </c>
+      <c r="AG25" t="str">
+        <v>Διολέτη Αικατερίνη - Δανάη</v>
+      </c>
+      <c r="AH25" t="str">
+        <v>Δρακοπούλου Ευανθία - Μαρία</v>
+      </c>
+      <c r="AI25" t="str">
+        <v>Καίσαρη Αγγελική</v>
+      </c>
+      <c r="AJ25" t="str">
+        <v>Καλλιγέρη Φιλοθέη</v>
+      </c>
+      <c r="AK25" t="str">
+        <v>Καράι Πέτρος</v>
+      </c>
+      <c r="AL25" t="str">
+        <v>Καρώνης Ιωάννης</v>
+      </c>
+      <c r="AM25" t="str">
+        <v>Κατσαμάγκου Τριανταφυλλιά - Φανή</v>
+      </c>
+      <c r="AN25" t="str">
+        <v>Κατσαράς Σταύρος</v>
+      </c>
+      <c r="AO25" t="str">
+        <v>Κιτσαντάς Γεώργιος</v>
+      </c>
+      <c r="AP25" t="str">
+        <v>Κουκούλης Ιωάννης</v>
+      </c>
+      <c r="AQ25" t="str">
+        <v>Κουλιαβέτας Παναγιώτης</v>
+      </c>
+      <c r="AR25" t="str">
+        <v>Λάου Ελένη - Ευαγγελία</v>
+      </c>
+      <c r="AS25" t="str">
+        <v>Λουκοπούλου Αικατερίνη</v>
+      </c>
+      <c r="AT25" t="str">
+        <v>Μάγκου Ζαχαρούλα</v>
+      </c>
+      <c r="AU25" t="str">
+        <v>Μακρέσια Ειρήνη - Γεωργία</v>
+      </c>
+      <c r="AV25" t="str">
+        <v>Μακρή Χριστίνα</v>
+      </c>
+      <c r="AW25" t="str">
+        <v>Μαλιαράκης Ανδρέας</v>
+      </c>
+      <c r="AX25" t="str">
+        <v>Μαργέτης Αναστάσης</v>
+      </c>
+      <c r="AY25" t="str">
+        <v>Μαυράκης Ιωάννης</v>
+      </c>
+      <c r="AZ25" t="str">
+        <v>Μίχας Αθανάσιος</v>
+      </c>
+      <c r="BA25" t="str">
+        <v>Μπούσκος Κωνσταντίνος</v>
+      </c>
+      <c r="BB25" t="str">
+        <v>Οικονομόπουλος Μιχαήλ</v>
+      </c>
+      <c r="BC25" t="str">
+        <v>Οικονομοπούλου Ελένη</v>
+      </c>
+      <c r="BD25" t="str">
+        <v>Παπαβασιλείου Γεώργιος - Σπυρίδων</v>
+      </c>
+      <c r="BE25" t="str">
+        <v>Παπαπέτρου Δέσποινα</v>
+      </c>
+      <c r="BF25" t="str">
+        <v>Πέππα Βασιλική</v>
+      </c>
+      <c r="BG25" t="str">
+        <v>Πετρόγιαννου Μαρία - Κωνσταντίνα</v>
+      </c>
+      <c r="BH25" t="str">
+        <v>Πνευματικάκη Αικατερίνη</v>
+      </c>
+      <c r="BI25" t="str">
+        <v>Πόγκα Ασημίνα</v>
+      </c>
+      <c r="BJ25" t="str">
+        <v>Ρουμελιώτης Αχιλλέας</v>
+      </c>
+      <c r="BK25" t="str">
+        <v>Σάλτα Ειρήνη</v>
+      </c>
+      <c r="BL25" t="str">
+        <v>Σιάμπος Αλκιβιάδης</v>
+      </c>
+      <c r="BM25" t="str">
+        <v>Σταμπόλα Αικατερίνη</v>
+      </c>
+      <c r="BN25" t="str">
+        <v>Στεργιόπουλος Χρήστος</v>
+      </c>
+      <c r="BO25" t="str">
+        <v>Τζοάνος Αλέξανδρος</v>
+      </c>
+      <c r="BP25" t="str">
+        <v>Τράμπαρης Παύλος</v>
+      </c>
+      <c r="BQ25" t="str">
+        <v>Τσιουράκης Φίλιππος - Ταξιάρχης</v>
+      </c>
+      <c r="BR25" t="str">
+        <v>Χατζημηνά Αναστασία</v>
+      </c>
+    </row>
+    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C26" s="11"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="I26" s="6"/>
       <c r="J26" s="1"/>
       <c r="AA26" t="str" cm="1">
-        <f t="array" ref="AA26:AX26">IF(E26="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E26)))</f>
-        <v>Αγοράκη Ολυμπία</v>
-      </c>
-      <c r="AB26" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
-      </c>
-      <c r="AC26" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
-      </c>
-      <c r="AD26" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
-      </c>
-      <c r="AE26" t="str">
-        <v>Γκίκα Μαρίνα</v>
-      </c>
-      <c r="AF26" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
-      </c>
-      <c r="AG26" t="str">
-        <v>Δουμένης Νικόλαος</v>
-      </c>
-      <c r="AH26" t="str">
-        <v>Ιωαννίδη Λυδία</v>
-      </c>
-      <c r="AI26" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
-      </c>
-      <c r="AJ26" t="str">
-        <v>Καύκας Ανδρέας</v>
-      </c>
-      <c r="AK26" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
-      </c>
-      <c r="AL26" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
-      </c>
-      <c r="AM26" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AN26" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AO26" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AP26" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AQ26" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AR26" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AS26" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AT26" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AU26" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AV26" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AW26" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AX26" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
-      </c>
-    </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA26">IF(E26="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E26)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:70" ht="34" x14ac:dyDescent="0.2">
       <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="I27" s="6"/>
       <c r="J27" s="1"/>
       <c r="AA27" t="str" cm="1">
@@ -2093,132 +2307,192 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:50" ht="17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>59</v>
+        <v>4</v>
+      </c>
+      <c r="C28" s="11"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="1"/>
       <c r="AA28" t="str" cm="1">
-        <f t="array" ref="AA28">IF(E28="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E28)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA28:BR28">IF(E28="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E28)))</f>
+        <v>Βαλτάς Δημήτριος</v>
+      </c>
+      <c r="AB28" t="str">
+        <v>Βλαχαντώνη Γεωργία</v>
+      </c>
+      <c r="AC28" t="str">
+        <v>Βρούβα Μαρία - Παρασκευή</v>
+      </c>
+      <c r="AD28" t="str">
+        <v>Γαυρίδη Μαρία</v>
+      </c>
+      <c r="AE28" t="str">
+        <v>Γεωργακή Ευαγγελία - Ιωάννα</v>
+      </c>
+      <c r="AF28" t="str">
+        <v>Γραμματικού - Ρουσσέα Ευαγγελία - Μυρτώ</v>
+      </c>
+      <c r="AG28" t="str">
+        <v>Διολέτη Αικατερίνη - Δανάη</v>
+      </c>
+      <c r="AH28" t="str">
+        <v>Δρακοπούλου Ευανθία - Μαρία</v>
+      </c>
+      <c r="AI28" t="str">
+        <v>Καίσαρη Αγγελική</v>
+      </c>
+      <c r="AJ28" t="str">
+        <v>Καλλιγέρη Φιλοθέη</v>
+      </c>
+      <c r="AK28" t="str">
+        <v>Καράι Πέτρος</v>
+      </c>
+      <c r="AL28" t="str">
+        <v>Καρώνης Ιωάννης</v>
+      </c>
+      <c r="AM28" t="str">
+        <v>Κατσαμάγκου Τριανταφυλλιά - Φανή</v>
+      </c>
+      <c r="AN28" t="str">
+        <v>Κατσαράς Σταύρος</v>
+      </c>
+      <c r="AO28" t="str">
+        <v>Κιτσαντάς Γεώργιος</v>
+      </c>
+      <c r="AP28" t="str">
+        <v>Κουκούλης Ιωάννης</v>
+      </c>
+      <c r="AQ28" t="str">
+        <v>Κουλιαβέτας Παναγιώτης</v>
+      </c>
+      <c r="AR28" t="str">
+        <v>Λάου Ελένη - Ευαγγελία</v>
+      </c>
+      <c r="AS28" t="str">
+        <v>Λουκοπούλου Αικατερίνη</v>
+      </c>
+      <c r="AT28" t="str">
+        <v>Μάγκου Ζαχαρούλα</v>
+      </c>
+      <c r="AU28" t="str">
+        <v>Μακρέσια Ειρήνη - Γεωργία</v>
+      </c>
+      <c r="AV28" t="str">
+        <v>Μακρή Χριστίνα</v>
+      </c>
+      <c r="AW28" t="str">
+        <v>Μαλιαράκης Ανδρέας</v>
+      </c>
+      <c r="AX28" t="str">
+        <v>Μαργέτης Αναστάσης</v>
+      </c>
+      <c r="AY28" t="str">
+        <v>Μαυράκης Ιωάννης</v>
+      </c>
+      <c r="AZ28" t="str">
+        <v>Μίχας Αθανάσιος</v>
+      </c>
+      <c r="BA28" t="str">
+        <v>Μπούσκος Κωνσταντίνος</v>
+      </c>
+      <c r="BB28" t="str">
+        <v>Οικονομόπουλος Μιχαήλ</v>
+      </c>
+      <c r="BC28" t="str">
+        <v>Οικονομοπούλου Ελένη</v>
+      </c>
+      <c r="BD28" t="str">
+        <v>Παπαβασιλείου Γεώργιος - Σπυρίδων</v>
+      </c>
+      <c r="BE28" t="str">
+        <v>Παπαπέτρου Δέσποινα</v>
+      </c>
+      <c r="BF28" t="str">
+        <v>Πέππα Βασιλική</v>
+      </c>
+      <c r="BG28" t="str">
+        <v>Πετρόγιαννου Μαρία - Κωνσταντίνα</v>
+      </c>
+      <c r="BH28" t="str">
+        <v>Πνευματικάκη Αικατερίνη</v>
+      </c>
+      <c r="BI28" t="str">
+        <v>Πόγκα Ασημίνα</v>
+      </c>
+      <c r="BJ28" t="str">
+        <v>Ρουμελιώτης Αχιλλέας</v>
+      </c>
+      <c r="BK28" t="str">
+        <v>Σάλτα Ειρήνη</v>
+      </c>
+      <c r="BL28" t="str">
+        <v>Σιάμπος Αλκιβιάδης</v>
+      </c>
+      <c r="BM28" t="str">
+        <v>Σταμπόλα Αικατερίνη</v>
+      </c>
+      <c r="BN28" t="str">
+        <v>Στεργιόπουλος Χρήστος</v>
+      </c>
+      <c r="BO28" t="str">
+        <v>Τζοάνος Αλέξανδρος</v>
+      </c>
+      <c r="BP28" t="str">
+        <v>Τράμπαρης Παύλος</v>
+      </c>
+      <c r="BQ28" t="str">
+        <v>Τσιουράκης Φίλιππος - Ταξιάρχης</v>
+      </c>
+      <c r="BR28" t="str">
+        <v>Χατζημηνά Αναστασία</v>
+      </c>
+    </row>
+    <row r="29" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="I29" s="6"/>
       <c r="J29" s="1"/>
       <c r="AA29" t="str" cm="1">
-        <f t="array" ref="AA29:AX29">IF(E29="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E29)))</f>
-        <v>Αγοράκη Ολυμπία</v>
-      </c>
-      <c r="AB29" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
-      </c>
-      <c r="AC29" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
-      </c>
-      <c r="AD29" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
-      </c>
-      <c r="AE29" t="str">
-        <v>Γκίκα Μαρίνα</v>
-      </c>
-      <c r="AF29" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
-      </c>
-      <c r="AG29" t="str">
-        <v>Δουμένης Νικόλαος</v>
-      </c>
-      <c r="AH29" t="str">
-        <v>Ιωαννίδη Λυδία</v>
-      </c>
-      <c r="AI29" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
-      </c>
-      <c r="AJ29" t="str">
-        <v>Καύκας Ανδρέας</v>
-      </c>
-      <c r="AK29" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
-      </c>
-      <c r="AL29" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
-      </c>
-      <c r="AM29" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AN29" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AO29" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AP29" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AQ29" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AR29" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AS29" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AT29" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AU29" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AV29" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AW29" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AX29" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
-      </c>
-    </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA29">IF(E29="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E29)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:70" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="I30" s="6"/>
       <c r="J30" s="1"/>
       <c r="AA30" t="str" cm="1">
@@ -2226,132 +2500,192 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:50" ht="17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>65</v>
+        <v>4</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="1"/>
       <c r="AA31" t="str" cm="1">
-        <f t="array" ref="AA31">IF(E31="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E31)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA31:BR31">IF(E31="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E31)))</f>
+        <v>Βαλτάς Δημήτριος</v>
+      </c>
+      <c r="AB31" t="str">
+        <v>Βλαχαντώνη Γεωργία</v>
+      </c>
+      <c r="AC31" t="str">
+        <v>Βρούβα Μαρία - Παρασκευή</v>
+      </c>
+      <c r="AD31" t="str">
+        <v>Γαυρίδη Μαρία</v>
+      </c>
+      <c r="AE31" t="str">
+        <v>Γεωργακή Ευαγγελία - Ιωάννα</v>
+      </c>
+      <c r="AF31" t="str">
+        <v>Γραμματικού - Ρουσσέα Ευαγγελία - Μυρτώ</v>
+      </c>
+      <c r="AG31" t="str">
+        <v>Διολέτη Αικατερίνη - Δανάη</v>
+      </c>
+      <c r="AH31" t="str">
+        <v>Δρακοπούλου Ευανθία - Μαρία</v>
+      </c>
+      <c r="AI31" t="str">
+        <v>Καίσαρη Αγγελική</v>
+      </c>
+      <c r="AJ31" t="str">
+        <v>Καλλιγέρη Φιλοθέη</v>
+      </c>
+      <c r="AK31" t="str">
+        <v>Καράι Πέτρος</v>
+      </c>
+      <c r="AL31" t="str">
+        <v>Καρώνης Ιωάννης</v>
+      </c>
+      <c r="AM31" t="str">
+        <v>Κατσαμάγκου Τριανταφυλλιά - Φανή</v>
+      </c>
+      <c r="AN31" t="str">
+        <v>Κατσαράς Σταύρος</v>
+      </c>
+      <c r="AO31" t="str">
+        <v>Κιτσαντάς Γεώργιος</v>
+      </c>
+      <c r="AP31" t="str">
+        <v>Κουκούλης Ιωάννης</v>
+      </c>
+      <c r="AQ31" t="str">
+        <v>Κουλιαβέτας Παναγιώτης</v>
+      </c>
+      <c r="AR31" t="str">
+        <v>Λάου Ελένη - Ευαγγελία</v>
+      </c>
+      <c r="AS31" t="str">
+        <v>Λουκοπούλου Αικατερίνη</v>
+      </c>
+      <c r="AT31" t="str">
+        <v>Μάγκου Ζαχαρούλα</v>
+      </c>
+      <c r="AU31" t="str">
+        <v>Μακρέσια Ειρήνη - Γεωργία</v>
+      </c>
+      <c r="AV31" t="str">
+        <v>Μακρή Χριστίνα</v>
+      </c>
+      <c r="AW31" t="str">
+        <v>Μαλιαράκης Ανδρέας</v>
+      </c>
+      <c r="AX31" t="str">
+        <v>Μαργέτης Αναστάσης</v>
+      </c>
+      <c r="AY31" t="str">
+        <v>Μαυράκης Ιωάννης</v>
+      </c>
+      <c r="AZ31" t="str">
+        <v>Μίχας Αθανάσιος</v>
+      </c>
+      <c r="BA31" t="str">
+        <v>Μπούσκος Κωνσταντίνος</v>
+      </c>
+      <c r="BB31" t="str">
+        <v>Οικονομόπουλος Μιχαήλ</v>
+      </c>
+      <c r="BC31" t="str">
+        <v>Οικονομοπούλου Ελένη</v>
+      </c>
+      <c r="BD31" t="str">
+        <v>Παπαβασιλείου Γεώργιος - Σπυρίδων</v>
+      </c>
+      <c r="BE31" t="str">
+        <v>Παπαπέτρου Δέσποινα</v>
+      </c>
+      <c r="BF31" t="str">
+        <v>Πέππα Βασιλική</v>
+      </c>
+      <c r="BG31" t="str">
+        <v>Πετρόγιαννου Μαρία - Κωνσταντίνα</v>
+      </c>
+      <c r="BH31" t="str">
+        <v>Πνευματικάκη Αικατερίνη</v>
+      </c>
+      <c r="BI31" t="str">
+        <v>Πόγκα Ασημίνα</v>
+      </c>
+      <c r="BJ31" t="str">
+        <v>Ρουμελιώτης Αχιλλέας</v>
+      </c>
+      <c r="BK31" t="str">
+        <v>Σάλτα Ειρήνη</v>
+      </c>
+      <c r="BL31" t="str">
+        <v>Σιάμπος Αλκιβιάδης</v>
+      </c>
+      <c r="BM31" t="str">
+        <v>Σταμπόλα Αικατερίνη</v>
+      </c>
+      <c r="BN31" t="str">
+        <v>Στεργιόπουλος Χρήστος</v>
+      </c>
+      <c r="BO31" t="str">
+        <v>Τζοάνος Αλέξανδρος</v>
+      </c>
+      <c r="BP31" t="str">
+        <v>Τράμπαρης Παύλος</v>
+      </c>
+      <c r="BQ31" t="str">
+        <v>Τσιουράκης Φίλιππος - Ταξιάρχης</v>
+      </c>
+      <c r="BR31" t="str">
+        <v>Χατζημηνά Αναστασία</v>
+      </c>
+    </row>
+    <row r="32" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="I32" s="6"/>
       <c r="J32" s="1"/>
       <c r="AA32" t="str" cm="1">
-        <f t="array" ref="AA32:AX32">IF(E32="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E32)))</f>
-        <v>Αγοράκη Ολυμπία</v>
-      </c>
-      <c r="AB32" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
-      </c>
-      <c r="AC32" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
-      </c>
-      <c r="AD32" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
-      </c>
-      <c r="AE32" t="str">
-        <v>Γκίκα Μαρίνα</v>
-      </c>
-      <c r="AF32" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
-      </c>
-      <c r="AG32" t="str">
-        <v>Δουμένης Νικόλαος</v>
-      </c>
-      <c r="AH32" t="str">
-        <v>Ιωαννίδη Λυδία</v>
-      </c>
-      <c r="AI32" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
-      </c>
-      <c r="AJ32" t="str">
-        <v>Καύκας Ανδρέας</v>
-      </c>
-      <c r="AK32" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
-      </c>
-      <c r="AL32" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
-      </c>
-      <c r="AM32" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AN32" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AO32" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AP32" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AQ32" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AR32" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AS32" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AT32" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AU32" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AV32" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AW32" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AX32" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
-      </c>
-    </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA32">IF(E32="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E32)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:70" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="I33" s="6"/>
       <c r="J33" s="1"/>
       <c r="AA33" t="str" cm="1">
@@ -2359,132 +2693,192 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:58" ht="17" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A34" s="9">
-        <f t="shared" ref="A34:A62" si="1">ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>71</v>
+        <v>4</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="1"/>
       <c r="AA34" t="str" cm="1">
-        <f t="array" ref="AA34">IF(E34="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E34)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA34:BR34">IF(E34="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E34)))</f>
+        <v>Βαλτάς Δημήτριος</v>
+      </c>
+      <c r="AB34" t="str">
+        <v>Βλαχαντώνη Γεωργία</v>
+      </c>
+      <c r="AC34" t="str">
+        <v>Βρούβα Μαρία - Παρασκευή</v>
+      </c>
+      <c r="AD34" t="str">
+        <v>Γαυρίδη Μαρία</v>
+      </c>
+      <c r="AE34" t="str">
+        <v>Γεωργακή Ευαγγελία - Ιωάννα</v>
+      </c>
+      <c r="AF34" t="str">
+        <v>Γραμματικού - Ρουσσέα Ευαγγελία - Μυρτώ</v>
+      </c>
+      <c r="AG34" t="str">
+        <v>Διολέτη Αικατερίνη - Δανάη</v>
+      </c>
+      <c r="AH34" t="str">
+        <v>Δρακοπούλου Ευανθία - Μαρία</v>
+      </c>
+      <c r="AI34" t="str">
+        <v>Καίσαρη Αγγελική</v>
+      </c>
+      <c r="AJ34" t="str">
+        <v>Καλλιγέρη Φιλοθέη</v>
+      </c>
+      <c r="AK34" t="str">
+        <v>Καράι Πέτρος</v>
+      </c>
+      <c r="AL34" t="str">
+        <v>Καρώνης Ιωάννης</v>
+      </c>
+      <c r="AM34" t="str">
+        <v>Κατσαμάγκου Τριανταφυλλιά - Φανή</v>
+      </c>
+      <c r="AN34" t="str">
+        <v>Κατσαράς Σταύρος</v>
+      </c>
+      <c r="AO34" t="str">
+        <v>Κιτσαντάς Γεώργιος</v>
+      </c>
+      <c r="AP34" t="str">
+        <v>Κουκούλης Ιωάννης</v>
+      </c>
+      <c r="AQ34" t="str">
+        <v>Κουλιαβέτας Παναγιώτης</v>
+      </c>
+      <c r="AR34" t="str">
+        <v>Λάου Ελένη - Ευαγγελία</v>
+      </c>
+      <c r="AS34" t="str">
+        <v>Λουκοπούλου Αικατερίνη</v>
+      </c>
+      <c r="AT34" t="str">
+        <v>Μάγκου Ζαχαρούλα</v>
+      </c>
+      <c r="AU34" t="str">
+        <v>Μακρέσια Ειρήνη - Γεωργία</v>
+      </c>
+      <c r="AV34" t="str">
+        <v>Μακρή Χριστίνα</v>
+      </c>
+      <c r="AW34" t="str">
+        <v>Μαλιαράκης Ανδρέας</v>
+      </c>
+      <c r="AX34" t="str">
+        <v>Μαργέτης Αναστάσης</v>
+      </c>
+      <c r="AY34" t="str">
+        <v>Μαυράκης Ιωάννης</v>
+      </c>
+      <c r="AZ34" t="str">
+        <v>Μίχας Αθανάσιος</v>
+      </c>
+      <c r="BA34" t="str">
+        <v>Μπούσκος Κωνσταντίνος</v>
+      </c>
+      <c r="BB34" t="str">
+        <v>Οικονομόπουλος Μιχαήλ</v>
+      </c>
+      <c r="BC34" t="str">
+        <v>Οικονομοπούλου Ελένη</v>
+      </c>
+      <c r="BD34" t="str">
+        <v>Παπαβασιλείου Γεώργιος - Σπυρίδων</v>
+      </c>
+      <c r="BE34" t="str">
+        <v>Παπαπέτρου Δέσποινα</v>
+      </c>
+      <c r="BF34" t="str">
+        <v>Πέππα Βασιλική</v>
+      </c>
+      <c r="BG34" t="str">
+        <v>Πετρόγιαννου Μαρία - Κωνσταντίνα</v>
+      </c>
+      <c r="BH34" t="str">
+        <v>Πνευματικάκη Αικατερίνη</v>
+      </c>
+      <c r="BI34" t="str">
+        <v>Πόγκα Ασημίνα</v>
+      </c>
+      <c r="BJ34" t="str">
+        <v>Ρουμελιώτης Αχιλλέας</v>
+      </c>
+      <c r="BK34" t="str">
+        <v>Σάλτα Ειρήνη</v>
+      </c>
+      <c r="BL34" t="str">
+        <v>Σιάμπος Αλκιβιάδης</v>
+      </c>
+      <c r="BM34" t="str">
+        <v>Σταμπόλα Αικατερίνη</v>
+      </c>
+      <c r="BN34" t="str">
+        <v>Στεργιόπουλος Χρήστος</v>
+      </c>
+      <c r="BO34" t="str">
+        <v>Τζοάνος Αλέξανδρος</v>
+      </c>
+      <c r="BP34" t="str">
+        <v>Τράμπαρης Παύλος</v>
+      </c>
+      <c r="BQ34" t="str">
+        <v>Τσιουράκης Φίλιππος - Ταξιάρχης</v>
+      </c>
+      <c r="BR34" t="str">
+        <v>Χατζημηνά Αναστασία</v>
+      </c>
+    </row>
+    <row r="35" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A35" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="I35" s="6"/>
       <c r="J35" s="1"/>
       <c r="AA35" t="str" cm="1">
-        <f t="array" ref="AA35:AX35">IF(E35="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E35)))</f>
-        <v>Αγοράκη Ολυμπία</v>
-      </c>
-      <c r="AB35" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
-      </c>
-      <c r="AC35" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
-      </c>
-      <c r="AD35" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
-      </c>
-      <c r="AE35" t="str">
-        <v>Γκίκα Μαρίνα</v>
-      </c>
-      <c r="AF35" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
-      </c>
-      <c r="AG35" t="str">
-        <v>Δουμένης Νικόλαος</v>
-      </c>
-      <c r="AH35" t="str">
-        <v>Ιωαννίδη Λυδία</v>
-      </c>
-      <c r="AI35" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
-      </c>
-      <c r="AJ35" t="str">
-        <v>Καύκας Ανδρέας</v>
-      </c>
-      <c r="AK35" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
-      </c>
-      <c r="AL35" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
-      </c>
-      <c r="AM35" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AN35" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AO35" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AP35" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AQ35" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AR35" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AS35" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AT35" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AU35" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AV35" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AW35" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AX35" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
-      </c>
-    </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA35">IF(E35="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E35)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:70" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="A36:A59" si="1">ROW()-1</f>
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>30</v>
+      </c>
       <c r="I36" s="6"/>
       <c r="J36" s="1"/>
       <c r="AA36" t="str" cm="1">
@@ -2492,132 +2886,192 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:58" ht="17" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A37" s="9">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="11"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="1"/>
       <c r="AA37" t="str" cm="1">
-        <f t="array" ref="AA37">IF(E37="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E37)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA37:BR37">IF(E37="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E37)))</f>
+        <v>Βαλτάς Δημήτριος</v>
+      </c>
+      <c r="AB37" t="str">
+        <v>Βλαχαντώνη Γεωργία</v>
+      </c>
+      <c r="AC37" t="str">
+        <v>Βρούβα Μαρία - Παρασκευή</v>
+      </c>
+      <c r="AD37" t="str">
+        <v>Γαυρίδη Μαρία</v>
+      </c>
+      <c r="AE37" t="str">
+        <v>Γεωργακή Ευαγγελία - Ιωάννα</v>
+      </c>
+      <c r="AF37" t="str">
+        <v>Γραμματικού - Ρουσσέα Ευαγγελία - Μυρτώ</v>
+      </c>
+      <c r="AG37" t="str">
+        <v>Διολέτη Αικατερίνη - Δανάη</v>
+      </c>
+      <c r="AH37" t="str">
+        <v>Δρακοπούλου Ευανθία - Μαρία</v>
+      </c>
+      <c r="AI37" t="str">
+        <v>Καίσαρη Αγγελική</v>
+      </c>
+      <c r="AJ37" t="str">
+        <v>Καλλιγέρη Φιλοθέη</v>
+      </c>
+      <c r="AK37" t="str">
+        <v>Καράι Πέτρος</v>
+      </c>
+      <c r="AL37" t="str">
+        <v>Καρώνης Ιωάννης</v>
+      </c>
+      <c r="AM37" t="str">
+        <v>Κατσαμάγκου Τριανταφυλλιά - Φανή</v>
+      </c>
+      <c r="AN37" t="str">
+        <v>Κατσαράς Σταύρος</v>
+      </c>
+      <c r="AO37" t="str">
+        <v>Κιτσαντάς Γεώργιος</v>
+      </c>
+      <c r="AP37" t="str">
+        <v>Κουκούλης Ιωάννης</v>
+      </c>
+      <c r="AQ37" t="str">
+        <v>Κουλιαβέτας Παναγιώτης</v>
+      </c>
+      <c r="AR37" t="str">
+        <v>Λάου Ελένη - Ευαγγελία</v>
+      </c>
+      <c r="AS37" t="str">
+        <v>Λουκοπούλου Αικατερίνη</v>
+      </c>
+      <c r="AT37" t="str">
+        <v>Μάγκου Ζαχαρούλα</v>
+      </c>
+      <c r="AU37" t="str">
+        <v>Μακρέσια Ειρήνη - Γεωργία</v>
+      </c>
+      <c r="AV37" t="str">
+        <v>Μακρή Χριστίνα</v>
+      </c>
+      <c r="AW37" t="str">
+        <v>Μαλιαράκης Ανδρέας</v>
+      </c>
+      <c r="AX37" t="str">
+        <v>Μαργέτης Αναστάσης</v>
+      </c>
+      <c r="AY37" t="str">
+        <v>Μαυράκης Ιωάννης</v>
+      </c>
+      <c r="AZ37" t="str">
+        <v>Μίχας Αθανάσιος</v>
+      </c>
+      <c r="BA37" t="str">
+        <v>Μπούσκος Κωνσταντίνος</v>
+      </c>
+      <c r="BB37" t="str">
+        <v>Οικονομόπουλος Μιχαήλ</v>
+      </c>
+      <c r="BC37" t="str">
+        <v>Οικονομοπούλου Ελένη</v>
+      </c>
+      <c r="BD37" t="str">
+        <v>Παπαβασιλείου Γεώργιος - Σπυρίδων</v>
+      </c>
+      <c r="BE37" t="str">
+        <v>Παπαπέτρου Δέσποινα</v>
+      </c>
+      <c r="BF37" t="str">
+        <v>Πέππα Βασιλική</v>
+      </c>
+      <c r="BG37" t="str">
+        <v>Πετρόγιαννου Μαρία - Κωνσταντίνα</v>
+      </c>
+      <c r="BH37" t="str">
+        <v>Πνευματικάκη Αικατερίνη</v>
+      </c>
+      <c r="BI37" t="str">
+        <v>Πόγκα Ασημίνα</v>
+      </c>
+      <c r="BJ37" t="str">
+        <v>Ρουμελιώτης Αχιλλέας</v>
+      </c>
+      <c r="BK37" t="str">
+        <v>Σάλτα Ειρήνη</v>
+      </c>
+      <c r="BL37" t="str">
+        <v>Σιάμπος Αλκιβιάδης</v>
+      </c>
+      <c r="BM37" t="str">
+        <v>Σταμπόλα Αικατερίνη</v>
+      </c>
+      <c r="BN37" t="str">
+        <v>Στεργιόπουλος Χρήστος</v>
+      </c>
+      <c r="BO37" t="str">
+        <v>Τζοάνος Αλέξανδρος</v>
+      </c>
+      <c r="BP37" t="str">
+        <v>Τράμπαρης Παύλος</v>
+      </c>
+      <c r="BQ37" t="str">
+        <v>Τσιουράκης Φίλιππος - Ταξιάρχης</v>
+      </c>
+      <c r="BR37" t="str">
+        <v>Χατζημηνά Αναστασία</v>
+      </c>
+    </row>
+    <row r="38" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A38" s="9">
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C38" s="11"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="I38" s="6"/>
       <c r="J38" s="1"/>
       <c r="AA38" t="str" cm="1">
-        <f t="array" ref="AA38:AX38">IF(E38="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E38)))</f>
-        <v>Αγοράκη Ολυμπία</v>
-      </c>
-      <c r="AB38" t="str">
-        <v>Αλτόγλου Θεόδωρος</v>
-      </c>
-      <c r="AC38" t="str">
-        <v>Ανανιάδης Θεόδωρος</v>
-      </c>
-      <c r="AD38" t="str">
-        <v>Βλάχου Σταυρούλα - Μαρία</v>
-      </c>
-      <c r="AE38" t="str">
-        <v>Γκίκα Μαρίνα</v>
-      </c>
-      <c r="AF38" t="str">
-        <v xml:space="preserve">Δημητρίου Αικατερίνη </v>
-      </c>
-      <c r="AG38" t="str">
-        <v>Δουμένης Νικόλαος</v>
-      </c>
-      <c r="AH38" t="str">
-        <v>Ιωαννίδη Λυδία</v>
-      </c>
-      <c r="AI38" t="str">
-        <v>Κατσαμάγκος Σταύρος</v>
-      </c>
-      <c r="AJ38" t="str">
-        <v>Καύκας Ανδρέας</v>
-      </c>
-      <c r="AK38" t="str">
-        <v>Μιχάλαρος Δημήτριος</v>
-      </c>
-      <c r="AL38" t="str">
-        <v>Μιχάλαρος Ιωάννης - Αλκιβιάδης</v>
-      </c>
-      <c r="AM38" t="str">
-        <v>Μουσκάι Λορένα</v>
-      </c>
-      <c r="AN38" t="str">
-        <v xml:space="preserve">Μουστάκα Καλλιόπη </v>
-      </c>
-      <c r="AO38" t="str">
-        <v>Μουστάκα Κωνσταντίνα</v>
-      </c>
-      <c r="AP38" t="str">
-        <v>Ξυδιάς Ανδριανός - Παναγιώτης</v>
-      </c>
-      <c r="AQ38" t="str">
-        <v>Παπαδόπουλος Αναστάσιος</v>
-      </c>
-      <c r="AR38" t="str">
-        <v>Παπακωνσταντίνου Σωτήριος</v>
-      </c>
-      <c r="AS38" t="str">
-        <v>Παπαλουκά Ελένη</v>
-      </c>
-      <c r="AT38" t="str">
-        <v>Πετροπούλου Βασιλική</v>
-      </c>
-      <c r="AU38" t="str">
-        <v>Τασιούλης Πολύκαρπος</v>
-      </c>
-      <c r="AV38" t="str">
-        <v>Τριβέλλα Χριστίνα - Χαρίκλεια</v>
-      </c>
-      <c r="AW38" t="str">
-        <v>Τσάκαλου Κωνσταντίνα - Μαρία</v>
-      </c>
-      <c r="AX38" t="str">
-        <v xml:space="preserve">Τσακίρη Μαρία - Δήμητρα </v>
-      </c>
-    </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA38">IF(E38="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E38)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:70" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="9">
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="I39" s="6"/>
       <c r="J39" s="1"/>
       <c r="AA39" t="str" cm="1">
@@ -2625,39 +3079,171 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A40" s="9">
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>82</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C40" s="11"/>
       <c r="D40" s="4"/>
+      <c r="E40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="I40" s="6"/>
       <c r="J40" s="1"/>
       <c r="AA40" t="str" cm="1">
-        <f t="array" ref="AA40">IF(E40="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E40)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA40:BR40">IF(E40="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E40)))</f>
+        <v>Βαλτάς Δημήτριος</v>
+      </c>
+      <c r="AB40" t="str">
+        <v>Βλαχαντώνη Γεωργία</v>
+      </c>
+      <c r="AC40" t="str">
+        <v>Βρούβα Μαρία - Παρασκευή</v>
+      </c>
+      <c r="AD40" t="str">
+        <v>Γαυρίδη Μαρία</v>
+      </c>
+      <c r="AE40" t="str">
+        <v>Γεωργακή Ευαγγελία - Ιωάννα</v>
+      </c>
+      <c r="AF40" t="str">
+        <v>Γραμματικού - Ρουσσέα Ευαγγελία - Μυρτώ</v>
+      </c>
+      <c r="AG40" t="str">
+        <v>Διολέτη Αικατερίνη - Δανάη</v>
+      </c>
+      <c r="AH40" t="str">
+        <v>Δρακοπούλου Ευανθία - Μαρία</v>
+      </c>
+      <c r="AI40" t="str">
+        <v>Καίσαρη Αγγελική</v>
+      </c>
+      <c r="AJ40" t="str">
+        <v>Καλλιγέρη Φιλοθέη</v>
+      </c>
+      <c r="AK40" t="str">
+        <v>Καράι Πέτρος</v>
+      </c>
+      <c r="AL40" t="str">
+        <v>Καρώνης Ιωάννης</v>
+      </c>
+      <c r="AM40" t="str">
+        <v>Κατσαμάγκου Τριανταφυλλιά - Φανή</v>
+      </c>
+      <c r="AN40" t="str">
+        <v>Κατσαράς Σταύρος</v>
+      </c>
+      <c r="AO40" t="str">
+        <v>Κιτσαντάς Γεώργιος</v>
+      </c>
+      <c r="AP40" t="str">
+        <v>Κουκούλης Ιωάννης</v>
+      </c>
+      <c r="AQ40" t="str">
+        <v>Κουλιαβέτας Παναγιώτης</v>
+      </c>
+      <c r="AR40" t="str">
+        <v>Λάου Ελένη - Ευαγγελία</v>
+      </c>
+      <c r="AS40" t="str">
+        <v>Λουκοπούλου Αικατερίνη</v>
+      </c>
+      <c r="AT40" t="str">
+        <v>Μάγκου Ζαχαρούλα</v>
+      </c>
+      <c r="AU40" t="str">
+        <v>Μακρέσια Ειρήνη - Γεωργία</v>
+      </c>
+      <c r="AV40" t="str">
+        <v>Μακρή Χριστίνα</v>
+      </c>
+      <c r="AW40" t="str">
+        <v>Μαλιαράκης Ανδρέας</v>
+      </c>
+      <c r="AX40" t="str">
+        <v>Μαργέτης Αναστάσης</v>
+      </c>
+      <c r="AY40" t="str">
+        <v>Μαυράκης Ιωάννης</v>
+      </c>
+      <c r="AZ40" t="str">
+        <v>Μίχας Αθανάσιος</v>
+      </c>
+      <c r="BA40" t="str">
+        <v>Μπούσκος Κωνσταντίνος</v>
+      </c>
+      <c r="BB40" t="str">
+        <v>Οικονομόπουλος Μιχαήλ</v>
+      </c>
+      <c r="BC40" t="str">
+        <v>Οικονομοπούλου Ελένη</v>
+      </c>
+      <c r="BD40" t="str">
+        <v>Παπαβασιλείου Γεώργιος - Σπυρίδων</v>
+      </c>
+      <c r="BE40" t="str">
+        <v>Παπαπέτρου Δέσποινα</v>
+      </c>
+      <c r="BF40" t="str">
+        <v>Πέππα Βασιλική</v>
+      </c>
+      <c r="BG40" t="str">
+        <v>Πετρόγιαννου Μαρία - Κωνσταντίνα</v>
+      </c>
+      <c r="BH40" t="str">
+        <v>Πνευματικάκη Αικατερίνη</v>
+      </c>
+      <c r="BI40" t="str">
+        <v>Πόγκα Ασημίνα</v>
+      </c>
+      <c r="BJ40" t="str">
+        <v>Ρουμελιώτης Αχιλλέας</v>
+      </c>
+      <c r="BK40" t="str">
+        <v>Σάλτα Ειρήνη</v>
+      </c>
+      <c r="BL40" t="str">
+        <v>Σιάμπος Αλκιβιάδης</v>
+      </c>
+      <c r="BM40" t="str">
+        <v>Σταμπόλα Αικατερίνη</v>
+      </c>
+      <c r="BN40" t="str">
+        <v>Στεργιόπουλος Χρήστος</v>
+      </c>
+      <c r="BO40" t="str">
+        <v>Τζοάνος Αλέξανδρος</v>
+      </c>
+      <c r="BP40" t="str">
+        <v>Τράμπαρης Παύλος</v>
+      </c>
+      <c r="BQ40" t="str">
+        <v>Τσιουράκης Φίλιππος - Ταξιάρχης</v>
+      </c>
+      <c r="BR40" t="str">
+        <v>Χατζημηνά Αναστασία</v>
+      </c>
+    </row>
+    <row r="41" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A41" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="4"/>
       <c r="I41" s="6"/>
       <c r="J41" s="1"/>
       <c r="AA41" t="str" cm="1">
@@ -2665,135 +3251,39 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A42" s="9">
         <f t="shared" si="1"/>
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="D42" s="4"/>
-      <c r="E42" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="I42" s="6"/>
       <c r="J42" s="1"/>
       <c r="AA42" t="str" cm="1">
-        <f t="array" ref="AA42:BF42">IF(E42="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E42)))</f>
-        <v>Δούκα Αναστασία - Ζωή</v>
-      </c>
-      <c r="AB42" t="str">
-        <v>Θεοδώρου Βασιλική</v>
-      </c>
-      <c r="AC42" t="str">
-        <v>Καλλιγέρη Χάρις</v>
-      </c>
-      <c r="AD42" t="str">
-        <v>Κεφαλοπούλου Κανέλλα</v>
-      </c>
-      <c r="AE42" t="str">
-        <v>Κιμιγκέλη Ορσαλία</v>
-      </c>
-      <c r="AF42" t="str">
-        <v>Κόλα Κριστιάνα</v>
-      </c>
-      <c r="AG42" t="str">
-        <v>Κόττα Δέσποινα</v>
-      </c>
-      <c r="AH42" t="str">
-        <v>Λαμπριανίδης Ιάσων</v>
-      </c>
-      <c r="AI42" t="str">
-        <v>Μανώλακας Βασίλειος</v>
-      </c>
-      <c r="AJ42" t="str">
-        <v>Μαργέτη Ευαγγελία</v>
-      </c>
-      <c r="AK42" t="str">
-        <v>Μαρούγκα Φωτεινή</v>
-      </c>
-      <c r="AL42" t="str">
-        <v>Μιχαλόπουλος Σπυρίδωνας</v>
-      </c>
-      <c r="AM42" t="str">
-        <v>Μουρτζούκος Δημήτριος</v>
-      </c>
-      <c r="AN42" t="str">
-        <v>Μπούρας Ναπολέων</v>
-      </c>
-      <c r="AO42" t="str">
-        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
-      </c>
-      <c r="AP42" t="str">
-        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
-      </c>
-      <c r="AQ42" t="str">
-        <v xml:space="preserve">Πανταζή Μαρία </v>
-      </c>
-      <c r="AR42" t="str">
-        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
-      </c>
-      <c r="AS42" t="str">
-        <v>Παπανδρέου Σωτηρία</v>
-      </c>
-      <c r="AT42" t="str">
-        <v>Παυλίδη Ιωάννα</v>
-      </c>
-      <c r="AU42" t="str">
-        <v>Πετρόγιαννος Γεώργιος</v>
-      </c>
-      <c r="AV42" t="str">
-        <v>Πολίτη Γεωργία</v>
-      </c>
-      <c r="AW42" t="str">
-        <v>Ρούτη Μαργαρίτα</v>
-      </c>
-      <c r="AX42" t="str">
-        <v>Σαριπανίδου Χρυσούλα</v>
-      </c>
-      <c r="AY42" t="str">
-        <v>Σίνγκ Ανμόλ</v>
-      </c>
-      <c r="AZ42" t="str">
-        <v>Σύριος Νικόλαος</v>
-      </c>
-      <c r="BA42" t="str">
-        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
-      </c>
-      <c r="BB42" t="str">
-        <v>Τσεκούρα Αγγελική</v>
-      </c>
-      <c r="BC42" t="str">
-        <v>Τσουκαλάς Γεώργιος</v>
-      </c>
-      <c r="BD42" t="str">
-        <v>Φίλης Νικόλαος</v>
-      </c>
-      <c r="BE42" t="str">
-        <v>Χατζόγλου Δημήτριος</v>
-      </c>
-      <c r="BF42" t="str">
-        <v>Χριστοφής Ναπολέων</v>
-      </c>
-    </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA42">IF(E42="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E42)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:70" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="9">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="I43" s="6"/>
       <c r="J43" s="1"/>
       <c r="AA43" t="str" cm="1">
@@ -2801,156 +3291,144 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A44" s="9">
         <f t="shared" si="1"/>
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>84</v>
+        <v>4</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="1"/>
       <c r="AA44" t="str" cm="1">
-        <f t="array" ref="AA44">IF(E44="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E44)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA44:BB44">IF(E44="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E44)))</f>
+        <v>Αδάμ Χρυσοβαλάντης</v>
+      </c>
+      <c r="AB44" t="str">
+        <v>Αντωνίου Παναγιώτης</v>
+      </c>
+      <c r="AC44" t="str">
+        <v>Γεωργούσης Κωνσταντίνος</v>
+      </c>
+      <c r="AD44" t="str">
+        <v>Γκίνης Δημήτριος</v>
+      </c>
+      <c r="AE44" t="str">
+        <v>Ηλία Σοφία</v>
+      </c>
+      <c r="AF44" t="str">
+        <v>Θεοχαρίδου Ναταλία - Βασιλική</v>
+      </c>
+      <c r="AG44" t="str">
+        <v>Κολυβάς Μάριος</v>
+      </c>
+      <c r="AH44" t="str">
+        <v>Κρητικού Όλγα</v>
+      </c>
+      <c r="AI44" t="str">
+        <v>Κυριακίδης Αντώνιος</v>
+      </c>
+      <c r="AJ44" t="str">
+        <v>Λινάρδος Ιωάννης</v>
+      </c>
+      <c r="AK44" t="str">
+        <v>Μανέτα Στυλιανή</v>
+      </c>
+      <c r="AL44" t="str">
+        <v>Μαυρονάσου Βαρβάρα</v>
+      </c>
+      <c r="AM44" t="str">
+        <v>Μισαηλίδη Ελισάβετ</v>
+      </c>
+      <c r="AN44" t="str">
+        <v>Μίσιος Λεωνίδας</v>
+      </c>
+      <c r="AO44" t="str">
+        <v>Μοσχογιάννη Μαρία</v>
+      </c>
+      <c r="AP44" t="str">
+        <v>Μοσχούτη Ιωνία - Νικολέτα</v>
+      </c>
+      <c r="AQ44" t="str">
+        <v>Μπεθάνη Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AR44" t="str">
+        <v>Μπεκρή Αιμιλία</v>
+      </c>
+      <c r="AS44" t="str">
+        <v>Ντάφου Σοφία</v>
+      </c>
+      <c r="AT44" t="str">
+        <v>Παπαγιάννης Δήμος</v>
+      </c>
+      <c r="AU44" t="str">
+        <v>Παπανδρέου Αικατερίνη</v>
+      </c>
+      <c r="AV44" t="str">
+        <v>Περαματζής Δημήτριος</v>
+      </c>
+      <c r="AW44" t="str">
+        <v>Πολυχρόνη Δήμητρα</v>
+      </c>
+      <c r="AX44" t="str">
+        <v>Τσαμτσούρη Αικατερίνη</v>
+      </c>
+      <c r="AY44" t="str">
+        <v>Τσετινέ Αναστασία</v>
+      </c>
+      <c r="AZ44" t="str">
+        <v>Τσίγκρη Ελένη</v>
+      </c>
+      <c r="BA44" t="str">
+        <v>Φίλη Αικατερίνη</v>
+      </c>
+      <c r="BB44" t="str">
+        <v>Χαβαριώτης Ιωάννης</v>
+      </c>
+    </row>
+    <row r="45" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A45" s="9">
         <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="I45" s="6"/>
       <c r="J45" s="1"/>
       <c r="AA45" t="str" cm="1">
-        <f t="array" ref="AA45:BF45">IF(E45="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E45)))</f>
-        <v>Δούκα Αναστασία - Ζωή</v>
-      </c>
-      <c r="AB45" t="str">
-        <v>Θεοδώρου Βασιλική</v>
-      </c>
-      <c r="AC45" t="str">
-        <v>Καλλιγέρη Χάρις</v>
-      </c>
-      <c r="AD45" t="str">
-        <v>Κεφαλοπούλου Κανέλλα</v>
-      </c>
-      <c r="AE45" t="str">
-        <v>Κιμιγκέλη Ορσαλία</v>
-      </c>
-      <c r="AF45" t="str">
-        <v>Κόλα Κριστιάνα</v>
-      </c>
-      <c r="AG45" t="str">
-        <v>Κόττα Δέσποινα</v>
-      </c>
-      <c r="AH45" t="str">
-        <v>Λαμπριανίδης Ιάσων</v>
-      </c>
-      <c r="AI45" t="str">
-        <v>Μανώλακας Βασίλειος</v>
-      </c>
-      <c r="AJ45" t="str">
-        <v>Μαργέτη Ευαγγελία</v>
-      </c>
-      <c r="AK45" t="str">
-        <v>Μαρούγκα Φωτεινή</v>
-      </c>
-      <c r="AL45" t="str">
-        <v>Μιχαλόπουλος Σπυρίδωνας</v>
-      </c>
-      <c r="AM45" t="str">
-        <v>Μουρτζούκος Δημήτριος</v>
-      </c>
-      <c r="AN45" t="str">
-        <v>Μπούρας Ναπολέων</v>
-      </c>
-      <c r="AO45" t="str">
-        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
-      </c>
-      <c r="AP45" t="str">
-        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
-      </c>
-      <c r="AQ45" t="str">
-        <v xml:space="preserve">Πανταζή Μαρία </v>
-      </c>
-      <c r="AR45" t="str">
-        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
-      </c>
-      <c r="AS45" t="str">
-        <v>Παπανδρέου Σωτηρία</v>
-      </c>
-      <c r="AT45" t="str">
-        <v>Παυλίδη Ιωάννα</v>
-      </c>
-      <c r="AU45" t="str">
-        <v>Πετρόγιαννος Γεώργιος</v>
-      </c>
-      <c r="AV45" t="str">
-        <v>Πολίτη Γεωργία</v>
-      </c>
-      <c r="AW45" t="str">
-        <v>Ρούτη Μαργαρίτα</v>
-      </c>
-      <c r="AX45" t="str">
-        <v>Σαριπανίδου Χρυσούλα</v>
-      </c>
-      <c r="AY45" t="str">
-        <v>Σίνγκ Ανμόλ</v>
-      </c>
-      <c r="AZ45" t="str">
-        <v>Σύριος Νικόλαος</v>
-      </c>
-      <c r="BA45" t="str">
-        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
-      </c>
-      <c r="BB45" t="str">
-        <v>Τσεκούρα Αγγελική</v>
-      </c>
-      <c r="BC45" t="str">
-        <v>Τσουκαλάς Γεώργιος</v>
-      </c>
-      <c r="BD45" t="str">
-        <v>Φίλης Νικόλαος</v>
-      </c>
-      <c r="BE45" t="str">
-        <v>Χατζόγλου Δημήτριος</v>
-      </c>
-      <c r="BF45" t="str">
-        <v>Χριστοφής Ναπολέων</v>
-      </c>
-    </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA45">IF(E45="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E45)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:70" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="9">
         <f t="shared" si="1"/>
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="I46" s="6"/>
       <c r="J46" s="1"/>
       <c r="AA46" t="str" cm="1">
@@ -2958,156 +3436,144 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:58" ht="17" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A47" s="9">
         <f t="shared" si="1"/>
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>93</v>
+        <v>4</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="1"/>
       <c r="AA47" t="str" cm="1">
-        <f t="array" ref="AA47">IF(E47="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E47)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA47:BB47">IF(E47="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E47)))</f>
+        <v>Αδάμ Χρυσοβαλάντης</v>
+      </c>
+      <c r="AB47" t="str">
+        <v>Αντωνίου Παναγιώτης</v>
+      </c>
+      <c r="AC47" t="str">
+        <v>Γεωργούσης Κωνσταντίνος</v>
+      </c>
+      <c r="AD47" t="str">
+        <v>Γκίνης Δημήτριος</v>
+      </c>
+      <c r="AE47" t="str">
+        <v>Ηλία Σοφία</v>
+      </c>
+      <c r="AF47" t="str">
+        <v>Θεοχαρίδου Ναταλία - Βασιλική</v>
+      </c>
+      <c r="AG47" t="str">
+        <v>Κολυβάς Μάριος</v>
+      </c>
+      <c r="AH47" t="str">
+        <v>Κρητικού Όλγα</v>
+      </c>
+      <c r="AI47" t="str">
+        <v>Κυριακίδης Αντώνιος</v>
+      </c>
+      <c r="AJ47" t="str">
+        <v>Λινάρδος Ιωάννης</v>
+      </c>
+      <c r="AK47" t="str">
+        <v>Μανέτα Στυλιανή</v>
+      </c>
+      <c r="AL47" t="str">
+        <v>Μαυρονάσου Βαρβάρα</v>
+      </c>
+      <c r="AM47" t="str">
+        <v>Μισαηλίδη Ελισάβετ</v>
+      </c>
+      <c r="AN47" t="str">
+        <v>Μίσιος Λεωνίδας</v>
+      </c>
+      <c r="AO47" t="str">
+        <v>Μοσχογιάννη Μαρία</v>
+      </c>
+      <c r="AP47" t="str">
+        <v>Μοσχούτη Ιωνία - Νικολέτα</v>
+      </c>
+      <c r="AQ47" t="str">
+        <v>Μπεθάνη Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AR47" t="str">
+        <v>Μπεκρή Αιμιλία</v>
+      </c>
+      <c r="AS47" t="str">
+        <v>Ντάφου Σοφία</v>
+      </c>
+      <c r="AT47" t="str">
+        <v>Παπαγιάννης Δήμος</v>
+      </c>
+      <c r="AU47" t="str">
+        <v>Παπανδρέου Αικατερίνη</v>
+      </c>
+      <c r="AV47" t="str">
+        <v>Περαματζής Δημήτριος</v>
+      </c>
+      <c r="AW47" t="str">
+        <v>Πολυχρόνη Δήμητρα</v>
+      </c>
+      <c r="AX47" t="str">
+        <v>Τσαμτσούρη Αικατερίνη</v>
+      </c>
+      <c r="AY47" t="str">
+        <v>Τσετινέ Αναστασία</v>
+      </c>
+      <c r="AZ47" t="str">
+        <v>Τσίγκρη Ελένη</v>
+      </c>
+      <c r="BA47" t="str">
+        <v>Φίλη Αικατερίνη</v>
+      </c>
+      <c r="BB47" t="str">
+        <v>Χαβαριώτης Ιωάννης</v>
+      </c>
+    </row>
+    <row r="48" spans="1:70" x14ac:dyDescent="0.2">
       <c r="A48" s="9">
         <f t="shared" si="1"/>
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="4"/>
-      <c r="E48" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="I48" s="6"/>
       <c r="J48" s="1"/>
       <c r="AA48" t="str" cm="1">
-        <f t="array" ref="AA48:BF48">IF(E48="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E48)))</f>
-        <v>Δούκα Αναστασία - Ζωή</v>
-      </c>
-      <c r="AB48" t="str">
-        <v>Θεοδώρου Βασιλική</v>
-      </c>
-      <c r="AC48" t="str">
-        <v>Καλλιγέρη Χάρις</v>
-      </c>
-      <c r="AD48" t="str">
-        <v>Κεφαλοπούλου Κανέλλα</v>
-      </c>
-      <c r="AE48" t="str">
-        <v>Κιμιγκέλη Ορσαλία</v>
-      </c>
-      <c r="AF48" t="str">
-        <v>Κόλα Κριστιάνα</v>
-      </c>
-      <c r="AG48" t="str">
-        <v>Κόττα Δέσποινα</v>
-      </c>
-      <c r="AH48" t="str">
-        <v>Λαμπριανίδης Ιάσων</v>
-      </c>
-      <c r="AI48" t="str">
-        <v>Μανώλακας Βασίλειος</v>
-      </c>
-      <c r="AJ48" t="str">
-        <v>Μαργέτη Ευαγγελία</v>
-      </c>
-      <c r="AK48" t="str">
-        <v>Μαρούγκα Φωτεινή</v>
-      </c>
-      <c r="AL48" t="str">
-        <v>Μιχαλόπουλος Σπυρίδωνας</v>
-      </c>
-      <c r="AM48" t="str">
-        <v>Μουρτζούκος Δημήτριος</v>
-      </c>
-      <c r="AN48" t="str">
-        <v>Μπούρας Ναπολέων</v>
-      </c>
-      <c r="AO48" t="str">
-        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
-      </c>
-      <c r="AP48" t="str">
-        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
-      </c>
-      <c r="AQ48" t="str">
-        <v xml:space="preserve">Πανταζή Μαρία </v>
-      </c>
-      <c r="AR48" t="str">
-        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
-      </c>
-      <c r="AS48" t="str">
-        <v>Παπανδρέου Σωτηρία</v>
-      </c>
-      <c r="AT48" t="str">
-        <v>Παυλίδη Ιωάννα</v>
-      </c>
-      <c r="AU48" t="str">
-        <v>Πετρόγιαννος Γεώργιος</v>
-      </c>
-      <c r="AV48" t="str">
-        <v>Πολίτη Γεωργία</v>
-      </c>
-      <c r="AW48" t="str">
-        <v>Ρούτη Μαργαρίτα</v>
-      </c>
-      <c r="AX48" t="str">
-        <v>Σαριπανίδου Χρυσούλα</v>
-      </c>
-      <c r="AY48" t="str">
-        <v>Σίνγκ Ανμόλ</v>
-      </c>
-      <c r="AZ48" t="str">
-        <v>Σύριος Νικόλαος</v>
-      </c>
-      <c r="BA48" t="str">
-        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
-      </c>
-      <c r="BB48" t="str">
-        <v>Τσεκούρα Αγγελική</v>
-      </c>
-      <c r="BC48" t="str">
-        <v>Τσουκαλάς Γεώργιος</v>
-      </c>
-      <c r="BD48" t="str">
-        <v>Φίλης Νικόλαος</v>
-      </c>
-      <c r="BE48" t="str">
-        <v>Χατζόγλου Δημήτριος</v>
-      </c>
-      <c r="BF48" t="str">
-        <v>Χριστοφής Ναπολέων</v>
-      </c>
-    </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA48">IF(E48="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E48)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:54" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="9">
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>115</v>
+      </c>
       <c r="I49" s="6"/>
       <c r="J49" s="1"/>
       <c r="AA49" t="str" cm="1">
@@ -3115,156 +3581,144 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A50" s="9">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>102</v>
+        <v>4</v>
+      </c>
+      <c r="C50" s="11"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
       <c r="AA50" t="str" cm="1">
-        <f t="array" ref="AA50">IF(E50="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E50)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA50:BB50">IF(E50="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E50)))</f>
+        <v>Αδάμ Χρυσοβαλάντης</v>
+      </c>
+      <c r="AB50" t="str">
+        <v>Αντωνίου Παναγιώτης</v>
+      </c>
+      <c r="AC50" t="str">
+        <v>Γεωργούσης Κωνσταντίνος</v>
+      </c>
+      <c r="AD50" t="str">
+        <v>Γκίνης Δημήτριος</v>
+      </c>
+      <c r="AE50" t="str">
+        <v>Ηλία Σοφία</v>
+      </c>
+      <c r="AF50" t="str">
+        <v>Θεοχαρίδου Ναταλία - Βασιλική</v>
+      </c>
+      <c r="AG50" t="str">
+        <v>Κολυβάς Μάριος</v>
+      </c>
+      <c r="AH50" t="str">
+        <v>Κρητικού Όλγα</v>
+      </c>
+      <c r="AI50" t="str">
+        <v>Κυριακίδης Αντώνιος</v>
+      </c>
+      <c r="AJ50" t="str">
+        <v>Λινάρδος Ιωάννης</v>
+      </c>
+      <c r="AK50" t="str">
+        <v>Μανέτα Στυλιανή</v>
+      </c>
+      <c r="AL50" t="str">
+        <v>Μαυρονάσου Βαρβάρα</v>
+      </c>
+      <c r="AM50" t="str">
+        <v>Μισαηλίδη Ελισάβετ</v>
+      </c>
+      <c r="AN50" t="str">
+        <v>Μίσιος Λεωνίδας</v>
+      </c>
+      <c r="AO50" t="str">
+        <v>Μοσχογιάννη Μαρία</v>
+      </c>
+      <c r="AP50" t="str">
+        <v>Μοσχούτη Ιωνία - Νικολέτα</v>
+      </c>
+      <c r="AQ50" t="str">
+        <v>Μπεθάνη Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AR50" t="str">
+        <v>Μπεκρή Αιμιλία</v>
+      </c>
+      <c r="AS50" t="str">
+        <v>Ντάφου Σοφία</v>
+      </c>
+      <c r="AT50" t="str">
+        <v>Παπαγιάννης Δήμος</v>
+      </c>
+      <c r="AU50" t="str">
+        <v>Παπανδρέου Αικατερίνη</v>
+      </c>
+      <c r="AV50" t="str">
+        <v>Περαματζής Δημήτριος</v>
+      </c>
+      <c r="AW50" t="str">
+        <v>Πολυχρόνη Δήμητρα</v>
+      </c>
+      <c r="AX50" t="str">
+        <v>Τσαμτσούρη Αικατερίνη</v>
+      </c>
+      <c r="AY50" t="str">
+        <v>Τσετινέ Αναστασία</v>
+      </c>
+      <c r="AZ50" t="str">
+        <v>Τσίγκρη Ελένη</v>
+      </c>
+      <c r="BA50" t="str">
+        <v>Φίλη Αικατερίνη</v>
+      </c>
+      <c r="BB50" t="str">
+        <v>Χαβαριώτης Ιωάννης</v>
+      </c>
+    </row>
+    <row r="51" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A51" s="9">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C51" s="11"/>
       <c r="D51" s="4"/>
-      <c r="E51" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="I51" s="6"/>
       <c r="J51" s="1"/>
       <c r="AA51" t="str" cm="1">
-        <f t="array" ref="AA51:BF51">IF(E51="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E51)))</f>
-        <v>Δούκα Αναστασία - Ζωή</v>
-      </c>
-      <c r="AB51" t="str">
-        <v>Θεοδώρου Βασιλική</v>
-      </c>
-      <c r="AC51" t="str">
-        <v>Καλλιγέρη Χάρις</v>
-      </c>
-      <c r="AD51" t="str">
-        <v>Κεφαλοπούλου Κανέλλα</v>
-      </c>
-      <c r="AE51" t="str">
-        <v>Κιμιγκέλη Ορσαλία</v>
-      </c>
-      <c r="AF51" t="str">
-        <v>Κόλα Κριστιάνα</v>
-      </c>
-      <c r="AG51" t="str">
-        <v>Κόττα Δέσποινα</v>
-      </c>
-      <c r="AH51" t="str">
-        <v>Λαμπριανίδης Ιάσων</v>
-      </c>
-      <c r="AI51" t="str">
-        <v>Μανώλακας Βασίλειος</v>
-      </c>
-      <c r="AJ51" t="str">
-        <v>Μαργέτη Ευαγγελία</v>
-      </c>
-      <c r="AK51" t="str">
-        <v>Μαρούγκα Φωτεινή</v>
-      </c>
-      <c r="AL51" t="str">
-        <v>Μιχαλόπουλος Σπυρίδωνας</v>
-      </c>
-      <c r="AM51" t="str">
-        <v>Μουρτζούκος Δημήτριος</v>
-      </c>
-      <c r="AN51" t="str">
-        <v>Μπούρας Ναπολέων</v>
-      </c>
-      <c r="AO51" t="str">
-        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
-      </c>
-      <c r="AP51" t="str">
-        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
-      </c>
-      <c r="AQ51" t="str">
-        <v xml:space="preserve">Πανταζή Μαρία </v>
-      </c>
-      <c r="AR51" t="str">
-        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
-      </c>
-      <c r="AS51" t="str">
-        <v>Παπανδρέου Σωτηρία</v>
-      </c>
-      <c r="AT51" t="str">
-        <v>Παυλίδη Ιωάννα</v>
-      </c>
-      <c r="AU51" t="str">
-        <v>Πετρόγιαννος Γεώργιος</v>
-      </c>
-      <c r="AV51" t="str">
-        <v>Πολίτη Γεωργία</v>
-      </c>
-      <c r="AW51" t="str">
-        <v>Ρούτη Μαργαρίτα</v>
-      </c>
-      <c r="AX51" t="str">
-        <v>Σαριπανίδου Χρυσούλα</v>
-      </c>
-      <c r="AY51" t="str">
-        <v>Σίνγκ Ανμόλ</v>
-      </c>
-      <c r="AZ51" t="str">
-        <v>Σύριος Νικόλαος</v>
-      </c>
-      <c r="BA51" t="str">
-        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
-      </c>
-      <c r="BB51" t="str">
-        <v>Τσεκούρα Αγγελική</v>
-      </c>
-      <c r="BC51" t="str">
-        <v>Τσουκαλάς Γεώργιος</v>
-      </c>
-      <c r="BD51" t="str">
-        <v>Φίλης Νικόλαος</v>
-      </c>
-      <c r="BE51" t="str">
-        <v>Χατζόγλου Δημήτριος</v>
-      </c>
-      <c r="BF51" t="str">
-        <v>Χριστοφής Ναπολέων</v>
-      </c>
-    </row>
-    <row r="52" spans="1:58" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA51">IF(E51="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E51)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:54" ht="51" x14ac:dyDescent="0.2">
       <c r="A52" s="9">
         <f t="shared" si="1"/>
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>116</v>
+      </c>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
       <c r="AA52" t="str" cm="1">
@@ -3272,156 +3726,144 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A53" s="9">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>111</v>
+        <v>4</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
       <c r="AA53" t="str" cm="1">
-        <f t="array" ref="AA53">IF(E53="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E53)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA53:BB53">IF(E53="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E53)))</f>
+        <v>Αδάμ Χρυσοβαλάντης</v>
+      </c>
+      <c r="AB53" t="str">
+        <v>Αντωνίου Παναγιώτης</v>
+      </c>
+      <c r="AC53" t="str">
+        <v>Γεωργούσης Κωνσταντίνος</v>
+      </c>
+      <c r="AD53" t="str">
+        <v>Γκίνης Δημήτριος</v>
+      </c>
+      <c r="AE53" t="str">
+        <v>Ηλία Σοφία</v>
+      </c>
+      <c r="AF53" t="str">
+        <v>Θεοχαρίδου Ναταλία - Βασιλική</v>
+      </c>
+      <c r="AG53" t="str">
+        <v>Κολυβάς Μάριος</v>
+      </c>
+      <c r="AH53" t="str">
+        <v>Κρητικού Όλγα</v>
+      </c>
+      <c r="AI53" t="str">
+        <v>Κυριακίδης Αντώνιος</v>
+      </c>
+      <c r="AJ53" t="str">
+        <v>Λινάρδος Ιωάννης</v>
+      </c>
+      <c r="AK53" t="str">
+        <v>Μανέτα Στυλιανή</v>
+      </c>
+      <c r="AL53" t="str">
+        <v>Μαυρονάσου Βαρβάρα</v>
+      </c>
+      <c r="AM53" t="str">
+        <v>Μισαηλίδη Ελισάβετ</v>
+      </c>
+      <c r="AN53" t="str">
+        <v>Μίσιος Λεωνίδας</v>
+      </c>
+      <c r="AO53" t="str">
+        <v>Μοσχογιάννη Μαρία</v>
+      </c>
+      <c r="AP53" t="str">
+        <v>Μοσχούτη Ιωνία - Νικολέτα</v>
+      </c>
+      <c r="AQ53" t="str">
+        <v>Μπεθάνη Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AR53" t="str">
+        <v>Μπεκρή Αιμιλία</v>
+      </c>
+      <c r="AS53" t="str">
+        <v>Ντάφου Σοφία</v>
+      </c>
+      <c r="AT53" t="str">
+        <v>Παπαγιάννης Δήμος</v>
+      </c>
+      <c r="AU53" t="str">
+        <v>Παπανδρέου Αικατερίνη</v>
+      </c>
+      <c r="AV53" t="str">
+        <v>Περαματζής Δημήτριος</v>
+      </c>
+      <c r="AW53" t="str">
+        <v>Πολυχρόνη Δήμητρα</v>
+      </c>
+      <c r="AX53" t="str">
+        <v>Τσαμτσούρη Αικατερίνη</v>
+      </c>
+      <c r="AY53" t="str">
+        <v>Τσετινέ Αναστασία</v>
+      </c>
+      <c r="AZ53" t="str">
+        <v>Τσίγκρη Ελένη</v>
+      </c>
+      <c r="BA53" t="str">
+        <v>Φίλη Αικατερίνη</v>
+      </c>
+      <c r="BB53" t="str">
+        <v>Χαβαριώτης Ιωάννης</v>
+      </c>
+    </row>
+    <row r="54" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="9">
         <f t="shared" si="1"/>
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C54" s="11"/>
       <c r="D54" s="4"/>
-      <c r="E54" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="I54" s="6"/>
       <c r="J54" s="1"/>
       <c r="AA54" t="str" cm="1">
-        <f t="array" ref="AA54:BF54">IF(E54="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E54)))</f>
-        <v>Δούκα Αναστασία - Ζωή</v>
-      </c>
-      <c r="AB54" t="str">
-        <v>Θεοδώρου Βασιλική</v>
-      </c>
-      <c r="AC54" t="str">
-        <v>Καλλιγέρη Χάρις</v>
-      </c>
-      <c r="AD54" t="str">
-        <v>Κεφαλοπούλου Κανέλλα</v>
-      </c>
-      <c r="AE54" t="str">
-        <v>Κιμιγκέλη Ορσαλία</v>
-      </c>
-      <c r="AF54" t="str">
-        <v>Κόλα Κριστιάνα</v>
-      </c>
-      <c r="AG54" t="str">
-        <v>Κόττα Δέσποινα</v>
-      </c>
-      <c r="AH54" t="str">
-        <v>Λαμπριανίδης Ιάσων</v>
-      </c>
-      <c r="AI54" t="str">
-        <v>Μανώλακας Βασίλειος</v>
-      </c>
-      <c r="AJ54" t="str">
-        <v>Μαργέτη Ευαγγελία</v>
-      </c>
-      <c r="AK54" t="str">
-        <v>Μαρούγκα Φωτεινή</v>
-      </c>
-      <c r="AL54" t="str">
-        <v>Μιχαλόπουλος Σπυρίδωνας</v>
-      </c>
-      <c r="AM54" t="str">
-        <v>Μουρτζούκος Δημήτριος</v>
-      </c>
-      <c r="AN54" t="str">
-        <v>Μπούρας Ναπολέων</v>
-      </c>
-      <c r="AO54" t="str">
-        <v xml:space="preserve">Μυστεγνιώτη Δανάη </v>
-      </c>
-      <c r="AP54" t="str">
-        <v>Νιτοάεα Εουσέμπιου-Νταμιάν</v>
-      </c>
-      <c r="AQ54" t="str">
-        <v xml:space="preserve">Πανταζή Μαρία </v>
-      </c>
-      <c r="AR54" t="str">
-        <v xml:space="preserve">Παπαγιάννη Μυρτώ </v>
-      </c>
-      <c r="AS54" t="str">
-        <v>Παπανδρέου Σωτηρία</v>
-      </c>
-      <c r="AT54" t="str">
-        <v>Παυλίδη Ιωάννα</v>
-      </c>
-      <c r="AU54" t="str">
-        <v>Πετρόγιαννος Γεώργιος</v>
-      </c>
-      <c r="AV54" t="str">
-        <v>Πολίτη Γεωργία</v>
-      </c>
-      <c r="AW54" t="str">
-        <v>Ρούτη Μαργαρίτα</v>
-      </c>
-      <c r="AX54" t="str">
-        <v>Σαριπανίδου Χρυσούλα</v>
-      </c>
-      <c r="AY54" t="str">
-        <v>Σίνγκ Ανμόλ</v>
-      </c>
-      <c r="AZ54" t="str">
-        <v>Σύριος Νικόλαος</v>
-      </c>
-      <c r="BA54" t="str">
-        <v xml:space="preserve">Τερζάκη Δήμητρα </v>
-      </c>
-      <c r="BB54" t="str">
-        <v>Τσεκούρα Αγγελική</v>
-      </c>
-      <c r="BC54" t="str">
-        <v>Τσουκαλάς Γεώργιος</v>
-      </c>
-      <c r="BD54" t="str">
-        <v>Φίλης Νικόλαος</v>
-      </c>
-      <c r="BE54" t="str">
-        <v>Χατζόγλου Δημήτριος</v>
-      </c>
-      <c r="BF54" t="str">
-        <v>Χριστοφής Ναπολέων</v>
-      </c>
-    </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA54">IF(E54="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E54)))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:54" ht="34" x14ac:dyDescent="0.2">
       <c r="A55" s="9">
         <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>117</v>
+      </c>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
       <c r="AA55" t="str" cm="1">
@@ -3429,30 +3871,120 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A56" s="9">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="4"/>
+      <c r="E56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>102</v>
+      </c>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
       <c r="AA56" t="str" cm="1">
-        <f t="array" ref="AA56">IF(E56="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E56)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.2">
+        <f t="array" ref="AA56:BB56">IF(E56="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E56)))</f>
+        <v>Αδάμ Χρυσοβαλάντης</v>
+      </c>
+      <c r="AB56" t="str">
+        <v>Αντωνίου Παναγιώτης</v>
+      </c>
+      <c r="AC56" t="str">
+        <v>Γεωργούσης Κωνσταντίνος</v>
+      </c>
+      <c r="AD56" t="str">
+        <v>Γκίνης Δημήτριος</v>
+      </c>
+      <c r="AE56" t="str">
+        <v>Ηλία Σοφία</v>
+      </c>
+      <c r="AF56" t="str">
+        <v>Θεοχαρίδου Ναταλία - Βασιλική</v>
+      </c>
+      <c r="AG56" t="str">
+        <v>Κολυβάς Μάριος</v>
+      </c>
+      <c r="AH56" t="str">
+        <v>Κρητικού Όλγα</v>
+      </c>
+      <c r="AI56" t="str">
+        <v>Κυριακίδης Αντώνιος</v>
+      </c>
+      <c r="AJ56" t="str">
+        <v>Λινάρδος Ιωάννης</v>
+      </c>
+      <c r="AK56" t="str">
+        <v>Μανέτα Στυλιανή</v>
+      </c>
+      <c r="AL56" t="str">
+        <v>Μαυρονάσου Βαρβάρα</v>
+      </c>
+      <c r="AM56" t="str">
+        <v>Μισαηλίδη Ελισάβετ</v>
+      </c>
+      <c r="AN56" t="str">
+        <v>Μίσιος Λεωνίδας</v>
+      </c>
+      <c r="AO56" t="str">
+        <v>Μοσχογιάννη Μαρία</v>
+      </c>
+      <c r="AP56" t="str">
+        <v>Μοσχούτη Ιωνία - Νικολέτα</v>
+      </c>
+      <c r="AQ56" t="str">
+        <v>Μπεθάνη Κωνσταντίνα - Μαρία</v>
+      </c>
+      <c r="AR56" t="str">
+        <v>Μπεκρή Αιμιλία</v>
+      </c>
+      <c r="AS56" t="str">
+        <v>Ντάφου Σοφία</v>
+      </c>
+      <c r="AT56" t="str">
+        <v>Παπαγιάννης Δήμος</v>
+      </c>
+      <c r="AU56" t="str">
+        <v>Παπανδρέου Αικατερίνη</v>
+      </c>
+      <c r="AV56" t="str">
+        <v>Περαματζής Δημήτριος</v>
+      </c>
+      <c r="AW56" t="str">
+        <v>Πολυχρόνη Δήμητρα</v>
+      </c>
+      <c r="AX56" t="str">
+        <v>Τσαμτσούρη Αικατερίνη</v>
+      </c>
+      <c r="AY56" t="str">
+        <v>Τσετινέ Αναστασία</v>
+      </c>
+      <c r="AZ56" t="str">
+        <v>Τσίγκρη Ελένη</v>
+      </c>
+      <c r="BA56" t="str">
+        <v>Φίλη Αικατερίνη</v>
+      </c>
+      <c r="BB56" t="str">
+        <v>Χαβαριώτης Ιωάννης</v>
+      </c>
+    </row>
+    <row r="57" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A57" s="9">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="4"/>
@@ -3463,20 +3995,16 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:58" ht="34" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A58" s="9">
         <f t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>120</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C58" s="11"/>
+      <c r="D58" s="4"/>
       <c r="I58" s="6"/>
       <c r="J58" s="1"/>
       <c r="AA58" t="str" cm="1">
@@ -3484,13 +4012,13 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:54" x14ac:dyDescent="0.2">
       <c r="A59" s="9">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="4"/>
@@ -3504,24 +4032,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A60" s="9">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="D60" s="4"/>
-      <c r="H60" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I60" s="6">
-        <v>0</v>
-      </c>
+    <row r="60" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Z60" t="str" cm="1">
         <f t="array" ref="Z60">IF(D64="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D64))))</f>
         <v/>
@@ -3531,17 +4042,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A61" s="9">
-        <f t="shared" si="1"/>
-        <v>60</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="4"/>
-      <c r="I61" s="6"/>
+    <row r="61" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Z61" t="str" cm="1">
         <f t="array" ref="Z61">IF(D65="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D65))))</f>
         <v/>
@@ -3551,17 +4052,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.2">
-      <c r="A62" s="9">
-        <f t="shared" si="1"/>
-        <v>61</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="4"/>
-      <c r="I62" s="6"/>
+    <row r="62" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Z62" t="str" cm="1">
         <f t="array" ref="Z62">IF(D66="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D66))))</f>
         <v/>
@@ -3571,7 +4062,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Z63" t="str" cm="1">
         <f t="array" ref="Z63">IF(D67="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D67))))</f>
         <v/>
@@ -3581,7 +4072,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:54" x14ac:dyDescent="0.2">
       <c r="Z64" t="str" cm="1">
         <f t="array" ref="Z64">IF(D68="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D68))))</f>
         <v/>
@@ -5976,116 +6467,104 @@
         <f t="array" ref="Z303">IF(D307="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D307))))</f>
         <v/>
       </c>
-      <c r="AA303" t="str" cm="1">
-        <f t="array" ref="AA303">IF(E303="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E303)))</f>
-        <v/>
-      </c>
     </row>
     <row r="304" spans="26:27" x14ac:dyDescent="0.2">
       <c r="Z304" t="str" cm="1">
         <f t="array" ref="Z304">IF(D308="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D308))))</f>
         <v/>
       </c>
-      <c r="AA304" t="str" cm="1">
-        <f t="array" ref="AA304">IF(E304="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E304)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="305" spans="26:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z305" t="str" cm="1">
         <f t="array" ref="Z305">IF(D309="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D309))))</f>
         <v/>
       </c>
-      <c r="AA305" t="str" cm="1">
-        <f t="array" ref="AA305">IF(E305="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E305)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="306" spans="26:27" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z306" t="str" cm="1">
         <f t="array" ref="Z306">IF(D310="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D310))))</f>
         <v/>
       </c>
     </row>
-    <row r="307" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z307" t="str" cm="1">
         <f t="array" ref="Z307">IF(D311="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D311))))</f>
         <v/>
       </c>
     </row>
-    <row r="308" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z308" t="str" cm="1">
         <f t="array" ref="Z308">IF(D312="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D312))))</f>
         <v/>
       </c>
     </row>
-    <row r="309" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z309" t="str" cm="1">
         <f t="array" ref="Z309">IF(D313="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D313))))</f>
         <v/>
       </c>
     </row>
-    <row r="310" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z310" t="str" cm="1">
         <f t="array" ref="Z310">IF(D314="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D314))))</f>
         <v/>
       </c>
     </row>
-    <row r="311" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z311" t="str" cm="1">
         <f t="array" ref="Z311">IF(D315="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D315))))</f>
         <v/>
       </c>
     </row>
-    <row r="312" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z312" t="str" cm="1">
         <f t="array" ref="Z312">IF(D316="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D316))))</f>
         <v/>
       </c>
     </row>
-    <row r="313" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z313" t="str" cm="1">
         <f t="array" ref="Z313">IF(D317="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D317))))</f>
         <v/>
       </c>
     </row>
-    <row r="314" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z314" t="str" cm="1">
         <f t="array" ref="Z314">IF(D318="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D318))))</f>
         <v/>
       </c>
     </row>
-    <row r="315" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z315" t="str" cm="1">
         <f t="array" ref="Z315">IF(D319="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D319))))</f>
         <v/>
       </c>
     </row>
-    <row r="316" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z316" t="str" cm="1">
         <f t="array" ref="Z316">IF(D320="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D320))))</f>
         <v/>
       </c>
     </row>
-    <row r="317" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z317" t="str" cm="1">
         <f t="array" ref="Z317">IF(D321="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D321))))</f>
         <v/>
       </c>
     </row>
-    <row r="318" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z318" t="str" cm="1">
         <f t="array" ref="Z318">IF(D322="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D322))))</f>
         <v/>
       </c>
     </row>
-    <row r="319" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z319" t="str" cm="1">
         <f t="array" ref="Z319">IF(D323="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D323))))</f>
         <v/>
       </c>
     </row>
-    <row r="320" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="26:26" x14ac:dyDescent="0.2">
       <c r="Z320" t="str" cm="1">
         <f t="array" ref="Z320">IF(D324="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D324))))</f>
         <v/>
@@ -6133,53 +6612,35 @@
         <v/>
       </c>
     </row>
-    <row r="328" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z328" t="str" cm="1">
-        <f t="array" ref="Z328">IF(D332="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D332))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="329" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z329" t="str" cm="1">
-        <f t="array" ref="Z329">IF(D333="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D333))))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="330" spans="26:26" x14ac:dyDescent="0.2">
-      <c r="Z330" t="str" cm="1">
-        <f t="array" ref="Z330">IF(D334="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D334))))</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:I62">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:I59">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>$B2="Category"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>$B2="Image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="13">
+    <cfRule type="expression" dxfId="4" priority="13">
       <formula>$B2="Unattended"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="14">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>$B2="Names"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="15">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>$B2="Title"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="16">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>$B2="Blank"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F62" xr:uid="{1F94B56B-F8AA-AA43-9D00-1CB9410F5821}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F59" xr:uid="{1F94B56B-F8AA-AA43-9D00-1CB9410F5821}">
       <formula1>_xlfn.ANCHORARRAY(AA2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G62" xr:uid="{4F7EC304-E9E0-844B-A75C-0D3F224D3A31}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G59" xr:uid="{4F7EC304-E9E0-844B-A75C-0D3F224D3A31}">
       <formula1>_xlfn.ANCHORARRAY(AA2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H62" xr:uid="{00458457-181C-DD48-B0A3-3AA4591A8F19}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H59" xr:uid="{00458457-181C-DD48-B0A3-3AA4591A8F19}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{8912C3EE-AF9E-DB4D-B520-9FF14DF891AD}">
@@ -6198,13 +6659,13 @@
           <x14:formula1>
             <xm:f>Names!$B$2:$B$2</xm:f>
           </x14:formula1>
-          <xm:sqref>C63:C1048576</xm:sqref>
+          <xm:sqref>C60:C1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7EB283A5-A5D2-ED4C-861A-A829636A8D31}">
           <x14:formula1>
-            <xm:f>Names!$B$2:$B$50004</xm:f>
+            <xm:f>Names!$B$2:$B$50020</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E62</xm:sqref>
+          <xm:sqref>E2:E59</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -6214,835 +6675,1007 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1937413E-4502-604B-9F19-827CE90D7D87}">
-  <dimension ref="A1:D73"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="52.83203125" customWidth="1"/>
-    <col min="3" max="3" width="34" style="15" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B4" t="s">
-        <v>82</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>91</v>
-      </c>
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" t="s">
-        <v>82</v>
-      </c>
-      <c r="D16" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>100</v>
-      </c>
-      <c r="B17" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" t="s">
-        <v>82</v>
-      </c>
-      <c r="D19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D20" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D22" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B25" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" t="s">
-        <v>82</v>
-      </c>
-      <c r="D27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>116</v>
-      </c>
-      <c r="B29" t="s">
-        <v>82</v>
-      </c>
-      <c r="D29" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>117</v>
-      </c>
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="B42" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="B51" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B62" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="B74" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>118</v>
-      </c>
-      <c r="B32" t="s">
-        <v>82</v>
-      </c>
-      <c r="D32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="B81" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B82" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" t="s">
-        <v>82</v>
-      </c>
-      <c r="D34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>127</v>
-      </c>
-      <c r="B35" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="B83" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B84" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B86" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D36" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>8</v>
-      </c>
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>9</v>
-      </c>
-      <c r="B38" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>10</v>
-      </c>
-      <c r="B39" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" t="s">
-        <v>50</v>
-      </c>
-      <c r="D43" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B46" t="s">
-        <v>50</v>
-      </c>
-      <c r="D46" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D47" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>66</v>
-      </c>
-      <c r="B48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49" t="s">
-        <v>50</v>
-      </c>
-      <c r="D49" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" t="s">
-        <v>50</v>
-      </c>
-      <c r="D50" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>69</v>
-      </c>
-      <c r="B51" t="s">
-        <v>50</v>
-      </c>
-      <c r="D51" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" t="s">
-        <v>50</v>
-      </c>
-      <c r="D52" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" t="s">
-        <v>50</v>
-      </c>
-      <c r="D53" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>74</v>
-      </c>
-      <c r="B54" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>75</v>
-      </c>
-      <c r="B55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>80</v>
-      </c>
-      <c r="B58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" t="s">
-        <v>50</v>
-      </c>
-      <c r="D59" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" t="s">
-        <v>11</v>
-      </c>
-      <c r="D60" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" t="s">
-        <v>11</v>
-      </c>
-      <c r="D61" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" t="s">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D64" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B65" t="s">
-        <v>11</v>
-      </c>
-      <c r="D65" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B66" t="s">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="B87" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B88" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B67" t="s">
-        <v>11</v>
-      </c>
-      <c r="D67" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>43</v>
-      </c>
-      <c r="B68" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>46</v>
-      </c>
-      <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>47</v>
-      </c>
-      <c r="B70" t="s">
-        <v>11</v>
-      </c>
-      <c r="D70" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>49</v>
-      </c>
-      <c r="B71" t="s">
-        <v>11</v>
-      </c>
-      <c r="D71" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" t="s">
-        <v>11</v>
-      </c>
-      <c r="D72" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>27</v>
-      </c>
-      <c r="B73" t="s">
-        <v>26</v>
-      </c>
-      <c r="D73" t="s">
+      <c r="C89" s="18" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{6A3E8714-88DE-7A4A-853D-7DAA6A3F83E2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{6A3E8714-88DE-7A4A-853D-7DAA6A3F83E2}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>

--- a/resources/template.xlsx
+++ b/resources/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfkain/Projects/360/Apps/dualpresenter/assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfkain/Projects/360/Edits/2025/Empowering Youth 2025/Dualpresenter/Thriasio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E662FEE-E5B9-4A46-9A9D-6DD2AA73886C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF46D594-F939-B04D-B5F2-92BFFFD94307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20580" xr2:uid="{31235C52-23CF-6F4B-906D-2BCD49615FB2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="34140" windowHeight="27300" xr2:uid="{31235C52-23CF-6F4B-906D-2BCD49615FB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow" sheetId="1" r:id="rId1"/>
@@ -189,12 +189,6 @@
     <t>Καράμπελας Αλέξανδρος - Παρασκευάς</t>
   </si>
   <si>
-    <t>Μέσος Όρος Βαθμολογίας +19</t>
-  </si>
-  <si>
-    <t>Μέσος Όρος Βαθμολογίας +18</t>
-  </si>
-  <si>
     <t>Ζαμπέτη Κυριακή</t>
   </si>
   <si>
@@ -222,9 +216,6 @@
     <t>Βαλτάς Δημήτριος</t>
   </si>
   <si>
-    <t>Μέσος Όρος Βαθμολογίας +17</t>
-  </si>
-  <si>
     <t>Βλαχαντώνη Γεωργία</t>
   </si>
   <si>
@@ -309,9 +300,6 @@
     <t>Χατζημηνά Αναστασία</t>
   </si>
   <si>
-    <t>Μέσος Όρος Βαθμολογίας +16</t>
-  </si>
-  <si>
     <t>Γεωργούσης Κωνσταντίνος</t>
   </si>
   <si>
@@ -372,19 +360,10 @@
     <t>Χαβαριώτης Ιωάννης</t>
   </si>
   <si>
-    <t>Μέσος Όρος βαθμολογίας +19</t>
-  </si>
-  <si>
     <t xml:space="preserve">Σοφία Ζαχαράκη </t>
   </si>
   <si>
     <t xml:space="preserve">Υπουργός Παιδείας, Θρησκευμάτων και Αθλητισμού </t>
-  </si>
-  <si>
-    <t>Μέσος Όρος βαθμολογίας +18</t>
-  </si>
-  <si>
-    <t>Μέσος Όρος βαθμολογίας +17</t>
   </si>
   <si>
     <t xml:space="preserve">Ευάγγελος Λιάκος </t>
@@ -399,9 +378,6 @@
   </si>
   <si>
     <t>Γεώργιος Γεωργόπουλος</t>
-  </si>
-  <si>
-    <t>Μέσος Όρος βαθμολογίας +16</t>
   </si>
   <si>
     <t>Περιφερειακός Σύμβουλος Δυτικής Αττικής</t>
@@ -510,6 +486,30 @@
   </si>
   <si>
     <t>Τσίγκρη Ελένη</t>
+  </si>
+  <si>
+    <t>Μέσος Όρος Βαθμολογίας 16+</t>
+  </si>
+  <si>
+    <t>Μέσος Όρος Βαθμολογίας 17+</t>
+  </si>
+  <si>
+    <t>Μέσος Όρος Βαθμολογίας 18+</t>
+  </si>
+  <si>
+    <t>Μέσος Όρος Βαθμολογίας 19+</t>
+  </si>
+  <si>
+    <t>Μέσος Όρος βαθμολογίας 19+</t>
+  </si>
+  <si>
+    <t>Μέσος Όρος βαθμολογίας 18+</t>
+  </si>
+  <si>
+    <t>Μέσος Όρος βαθμολογίας 17+</t>
+  </si>
+  <si>
+    <t>Μέσος Όρος βαθμολογίας 16+</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -556,6 +556,12 @@
     <font>
       <sz val="11"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -628,7 +634,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -679,10 +685,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1391,7 +1396,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1501,10 +1506,10 @@
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -1530,10 +1535,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
@@ -1600,7 +1605,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
@@ -1640,7 +1645,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="E11" s="2" t="s">
-        <v>42</v>
+        <v>143</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="1"/>
@@ -1674,7 +1679,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
@@ -1714,13 +1719,13 @@
       </c>
       <c r="C15" s="11"/>
       <c r="E15" s="2" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
@@ -1813,13 +1818,13 @@
       <c r="C18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="2" t="s">
-        <v>43</v>
+        <v>142</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="1"/>
@@ -1890,7 +1895,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="D20" s="4"/>
       <c r="I20" s="6"/>
@@ -1909,7 +1914,7 @@
         <v>1</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>21</v>
@@ -1932,13 +1937,13 @@
       <c r="C22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="1"/>
@@ -2105,7 +2110,7 @@
         <v>33</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
@@ -2125,13 +2130,13 @@
       <c r="C25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
@@ -2298,7 +2303,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="1"/>
@@ -2318,13 +2323,13 @@
       <c r="C28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="1"/>
@@ -2511,13 +2516,13 @@
       <c r="C31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="1"/>
@@ -2681,7 +2686,7 @@
         <v>1</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>26</v>
@@ -2704,13 +2709,13 @@
       <c r="C34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="1"/>
@@ -2897,13 +2902,13 @@
       <c r="C37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="1"/>
@@ -3090,13 +3095,13 @@
       <c r="C40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="F40" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="G40" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="1"/>
@@ -3260,7 +3265,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>112</v>
+        <v>147</v>
       </c>
       <c r="D42" s="4"/>
       <c r="I42" s="6"/>
@@ -3302,13 +3307,13 @@
       <c r="C44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="2" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="1"/>
@@ -3427,7 +3432,7 @@
         <v>38</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="1"/>
@@ -3447,13 +3452,13 @@
       <c r="C47" s="11"/>
       <c r="D47" s="4"/>
       <c r="E47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="1"/>
@@ -3569,10 +3574,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="1"/>
@@ -3592,13 +3597,13 @@
       <c r="C50" s="11"/>
       <c r="D50" s="4"/>
       <c r="E50" s="2" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
@@ -3717,7 +3722,7 @@
         <v>36</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
@@ -3737,13 +3742,13 @@
       <c r="C53" s="11"/>
       <c r="D53" s="4"/>
       <c r="E53" s="2" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="F53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
@@ -3862,7 +3867,7 @@
         <v>37</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
@@ -3882,13 +3887,13 @@
       <c r="C56" s="11"/>
       <c r="D56" s="4"/>
       <c r="E56" s="2" t="s">
-        <v>82</v>
+        <v>140</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
@@ -6679,7 +6684,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B54" sqref="B54"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6702,7 +6707,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>15</v>
@@ -6724,10 +6729,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>82</v>
+        <v>133</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>6</v>
@@ -6735,10 +6740,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>82</v>
+        <v>134</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>6</v>
@@ -6746,10 +6751,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>6</v>
@@ -6757,10 +6762,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>82</v>
+        <v>135</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>6</v>
@@ -6768,10 +6773,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>6</v>
@@ -6779,10 +6784,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>6</v>
@@ -6790,10 +6795,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="18" t="s">
         <v>82</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>6</v>
@@ -6801,10 +6806,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>6</v>
@@ -6812,10 +6817,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>82</v>
+        <v>84</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>6</v>
@@ -6823,21 +6828,21 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>82</v>
+        <v>85</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>82</v>
+      <c r="A14" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>6</v>
@@ -6845,10 +6850,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>82</v>
+        <v>86</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>6</v>
@@ -6856,10 +6861,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>82</v>
+        <v>136</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>6</v>
@@ -6867,10 +6872,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>82</v>
+        <v>87</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>6</v>
@@ -6878,10 +6883,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>82</v>
+        <v>88</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>6</v>
@@ -6889,10 +6894,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>82</v>
+        <v>89</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>6</v>
@@ -6900,10 +6905,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="16" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>82</v>
+        <v>137</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>6</v>
@@ -6911,10 +6916,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>82</v>
+        <v>90</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>6</v>
@@ -6922,10 +6927,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>82</v>
+        <v>91</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>6</v>
@@ -6933,10 +6938,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>82</v>
+        <v>92</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>6</v>
@@ -6944,10 +6949,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>82</v>
+        <v>93</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>6</v>
@@ -6955,10 +6960,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>82</v>
+        <v>94</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>6</v>
@@ -6966,10 +6971,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>82</v>
+        <v>95</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>6</v>
@@ -6977,10 +6982,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>82</v>
+        <v>138</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>6</v>
@@ -6988,10 +6993,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>82</v>
+        <v>96</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>6</v>
@@ -6999,10 +7004,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>82</v>
+        <v>139</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>6</v>
@@ -7010,10 +7015,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>82</v>
+        <v>97</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>6</v>
@@ -7021,10 +7026,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>82</v>
+        <v>98</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>6</v>
@@ -7032,10 +7037,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>6</v>
@@ -7043,10 +7048,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="B33" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>6</v>
@@ -7054,10 +7059,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>6</v>
@@ -7065,10 +7070,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>53</v>
+        <v>118</v>
+      </c>
+      <c r="B35" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>6</v>
@@ -7076,10 +7081,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B36" s="18" t="s">
         <v>53</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>6</v>
@@ -7087,10 +7092,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="B37" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="B37" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>6</v>
@@ -7098,10 +7103,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>53</v>
+        <v>55</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>6</v>
@@ -7109,10 +7114,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>53</v>
+        <v>119</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>6</v>
@@ -7120,10 +7125,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>53</v>
+        <v>120</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>6</v>
@@ -7131,10 +7136,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>53</v>
+        <v>121</v>
+      </c>
+      <c r="B41" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>6</v>
@@ -7142,10 +7147,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>53</v>
+        <v>122</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>6</v>
@@ -7153,10 +7158,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+      <c r="B43" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>6</v>
@@ -7164,10 +7169,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>6</v>
@@ -7175,10 +7180,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>53</v>
+        <v>123</v>
+      </c>
+      <c r="B45" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>6</v>
@@ -7186,10 +7191,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>53</v>
+        <v>58</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>6</v>
@@ -7197,10 +7202,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="B47" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>6</v>
@@ -7208,10 +7213,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>53</v>
+        <v>60</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>6</v>
@@ -7219,10 +7224,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>53</v>
+        <v>61</v>
+      </c>
+      <c r="B49" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>6</v>
@@ -7230,10 +7235,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>6</v>
@@ -7241,10 +7246,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B51" s="18" t="s">
-        <v>53</v>
+        <v>124</v>
+      </c>
+      <c r="B51" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>6</v>
@@ -7252,10 +7257,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="B52" s="18" t="s">
-        <v>53</v>
+        <v>63</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>6</v>
@@ -7263,10 +7268,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>53</v>
+        <v>64</v>
+      </c>
+      <c r="B53" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>6</v>
@@ -7274,10 +7279,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>53</v>
+        <v>65</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>6</v>
@@ -7285,10 +7290,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>53</v>
+        <v>66</v>
+      </c>
+      <c r="B55" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>6</v>
@@ -7296,21 +7301,21 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>53</v>
+        <v>67</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>53</v>
+      <c r="A57" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>6</v>
@@ -7318,10 +7323,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>53</v>
+        <v>68</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>6</v>
@@ -7329,10 +7334,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>53</v>
+        <v>69</v>
+      </c>
+      <c r="B59" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>6</v>
@@ -7340,10 +7345,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>53</v>
+        <v>70</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>6</v>
@@ -7351,10 +7356,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>53</v>
+        <v>126</v>
+      </c>
+      <c r="B61" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>6</v>
@@ -7362,10 +7367,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>53</v>
+        <v>71</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>6</v>
@@ -7373,10 +7378,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>53</v>
+        <v>72</v>
+      </c>
+      <c r="B63" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>6</v>
@@ -7384,10 +7389,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>53</v>
+        <v>127</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>6</v>
@@ -7395,10 +7400,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>53</v>
+        <v>128</v>
+      </c>
+      <c r="B65" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>6</v>
@@ -7406,10 +7411,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>53</v>
+        <v>129</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>6</v>
@@ -7417,10 +7422,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B67" s="18" t="s">
-        <v>53</v>
+        <v>73</v>
+      </c>
+      <c r="B67" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>6</v>
@@ -7428,10 +7433,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="B68" s="18" t="s">
-        <v>53</v>
+        <v>74</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>6</v>
@@ -7439,10 +7444,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="B69" s="18" t="s">
-        <v>53</v>
+        <v>75</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>6</v>
@@ -7450,10 +7455,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" s="20" t="s">
-        <v>53</v>
+        <v>76</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>6</v>
@@ -7461,10 +7466,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>53</v>
+        <v>130</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>6</v>
@@ -7472,10 +7477,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="B72" s="20" t="s">
-        <v>53</v>
+        <v>77</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>6</v>
@@ -7483,10 +7488,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B73" s="20" t="s">
-        <v>53</v>
+        <v>131</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>6</v>
@@ -7494,10 +7499,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>53</v>
+        <v>132</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>6</v>
@@ -7505,21 +7510,21 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" s="20" t="s">
-        <v>53</v>
+        <v>78</v>
+      </c>
+      <c r="B75" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="21" t="s">
-        <v>121</v>
-      </c>
-      <c r="B76" s="18" t="s">
-        <v>43</v>
+      <c r="A76" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B76" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>6</v>
@@ -7527,21 +7532,21 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B77" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>43</v>
+      <c r="A78" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>6</v>
@@ -7549,10 +7554,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="B79" s="18" t="s">
-        <v>43</v>
+        <v>115</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>6</v>
@@ -7560,10 +7565,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="B80" s="18" t="s">
         <v>43</v>
+      </c>
+      <c r="B80" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>6</v>
@@ -7571,10 +7576,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="B81" s="18" t="s">
-        <v>43</v>
+        <v>116</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>6</v>
@@ -7582,10 +7587,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="B82" s="18" t="s">
-        <v>43</v>
+        <v>44</v>
+      </c>
+      <c r="B82" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>6</v>
@@ -7593,10 +7598,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="B83" s="18" t="s">
-        <v>43</v>
+        <v>117</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>6</v>
@@ -7604,10 +7609,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B84" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="B84" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>6</v>
@@ -7615,10 +7620,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="B85" s="18" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>6</v>
@@ -7626,10 +7631,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B86" s="18" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="B86" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>6</v>
@@ -7637,10 +7642,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B87" s="18" t="s">
-        <v>43</v>
+        <v>48</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>6</v>
@@ -7648,21 +7653,21 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B88" s="18" t="s">
-        <v>43</v>
+        <v>49</v>
+      </c>
+      <c r="B88" s="22" t="s">
+        <v>142</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" s="18" t="s">
-        <v>42</v>
+      <c r="A89" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>143</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>6</v>
@@ -7674,7 +7679,7 @@
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{6A3E8714-88DE-7A4A-853D-7DAA6A3F83E2}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>

--- a/resources/template.xlsx
+++ b/resources/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfkain/Projects/360/Edits/2025/Empowering Youth 2025/Dualpresenter/Thriasio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfkain/Projects/360/Apps/dualpresenter/dualpresenter/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF46D594-F939-B04D-B5F2-92BFFFD94307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4FC2B2-15C5-E040-97D3-38F2A8CB9B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="34140" windowHeight="27300" xr2:uid="{31235C52-23CF-6F4B-906D-2BCD49615FB2}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34140" windowHeight="20600" xr2:uid="{31235C52-23CF-6F4B-906D-2BCD49615FB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Flow" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="144">
   <si>
     <t>Name</t>
   </si>
@@ -498,18 +498,6 @@
   </si>
   <si>
     <t>Μέσος Όρος Βαθμολογίας 19+</t>
-  </si>
-  <si>
-    <t>Μέσος Όρος βαθμολογίας 19+</t>
-  </si>
-  <si>
-    <t>Μέσος Όρος βαθμολογίας 18+</t>
-  </si>
-  <si>
-    <t>Μέσος Όρος βαθμολογίας 17+</t>
-  </si>
-  <si>
-    <t>Μέσος Όρος βαθμολογίας 16+</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1384,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1605,7 +1593,7 @@
         <v>40</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
@@ -1679,7 +1667,7 @@
         <v>40</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
@@ -1895,7 +1883,7 @@
         <v>40</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D20" s="4"/>
       <c r="I20" s="6"/>
@@ -3265,7 +3253,7 @@
         <v>40</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="D42" s="4"/>
       <c r="I42" s="6"/>

--- a/resources/template.xlsx
+++ b/resources/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfkain/Projects/360/Apps/dualpresenter/dualpresenter/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F4FC2B2-15C5-E040-97D3-38F2A8CB9B0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EE181C-D8AC-3949-ADA5-7092AB911EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34140" windowHeight="20600" xr2:uid="{31235C52-23CF-6F4B-906D-2BCD49615FB2}"/>
   </bookViews>
@@ -507,7 +507,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -529,27 +529,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -622,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -669,18 +650,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="31">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -752,80 +801,6 @@
           <bgColor rgb="FFC5CBF2"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="6"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1048,16 +1023,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DD68603-088B-0B49-BA2F-E26D2888A5DB}" name="Names" displayName="Names" ref="A1:C89" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DD68603-088B-0B49-BA2F-E26D2888A5DB}" name="Names" displayName="Names" ref="A1:C89" dataDxfId="0">
   <autoFilter ref="A1:C89" xr:uid="{7DD68603-088B-0B49-BA2F-E26D2888A5DB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C89">
     <sortCondition ref="B2:B89"/>
     <sortCondition ref="A2:A89"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{54EDEFF7-6D50-644B-86D9-EB6D272BB5CB}" name="Name" totalsRowLabel="Total" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1FC3351A-5F59-8344-918E-0052C96220FD}" name="Group" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{DCF0A96D-147F-D842-B4A4-575507D6A1CD}" name="Attending" totalsRowFunction="count" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{54EDEFF7-6D50-644B-86D9-EB6D272BB5CB}" name="Name" totalsRowLabel="Total" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{1FC3351A-5F59-8344-918E-0052C96220FD}" name="Group" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{DCF0A96D-147F-D842-B4A4-575507D6A1CD}" name="Attending" totalsRowFunction="count" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1387,7 +1362,7 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="6.5" style="8" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="14" bestFit="1" customWidth="1"/>
@@ -1400,7 +1375,7 @@
     <col min="9" max="9" width="13.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:39">
       <c r="A1" s="5" t="s">
         <v>39</v>
       </c>
@@ -1429,7 +1404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:39">
       <c r="A2" s="9">
         <f t="shared" ref="A2:A35" si="0">ROW()-1</f>
         <v>1</v>
@@ -1444,7 +1419,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:39" ht="17">
       <c r="A3" s="9">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -1464,7 +1439,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:39">
       <c r="A4" s="9">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1481,7 +1456,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:39">
       <c r="A5" s="9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1514,7 +1489,7 @@
         <v>Καράμπελας Αλέξανδρος - Παρασκευάς</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:39">
       <c r="A6" s="9">
         <f>ROW()-1</f>
         <v>5</v>
@@ -1535,7 +1510,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:39">
       <c r="A7" s="9">
         <f>ROW()-1</f>
         <v>6</v>
@@ -1568,7 +1543,7 @@
         <v>Καράμπελας Αλέξανδρος - Παρασκευάς</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:39">
       <c r="A8" s="9">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1584,7 +1559,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:39">
       <c r="A9" s="9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1602,7 +1577,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:39">
       <c r="A10" s="9">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1623,7 +1598,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:39">
       <c r="A11" s="9">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1642,7 +1617,7 @@
         <v>Πανάγος Χρήστος - Πλάτων</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:39">
       <c r="A12" s="9">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1658,7 +1633,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:39" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:39" ht="17">
       <c r="A13" s="9">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1676,7 +1651,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:39" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:39" ht="34">
       <c r="A14" s="9">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1697,7 +1672,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:39">
       <c r="A15" s="9">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1758,7 +1733,7 @@
         <v>Χιονίδου Χριστίνα</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:39">
       <c r="A16" s="9">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1774,7 +1749,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:70" ht="34" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:70" ht="34">
       <c r="A17" s="9">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1795,7 +1770,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:70">
       <c r="A18" s="9">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1857,7 +1832,7 @@
         <v>Χιονίδου Χριστίνα</v>
       </c>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:70">
       <c r="A19" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1874,7 +1849,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:70">
       <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1893,7 +1868,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:70" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:70" ht="17">
       <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1914,7 +1889,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:70">
       <c r="A22" s="9">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2069,7 +2044,7 @@
         <v>Χατζημηνά Αναστασία</v>
       </c>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:70">
       <c r="A23" s="9">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2086,7 +2061,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:70" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:70" ht="34">
       <c r="A24" s="9">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2107,7 +2082,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:70">
       <c r="A25" s="9">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2262,7 +2237,7 @@
         <v>Χατζημηνά Αναστασία</v>
       </c>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:70">
       <c r="A26" s="9">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2279,7 +2254,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:70" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:70" ht="34">
       <c r="A27" s="9">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2300,7 +2275,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:70">
       <c r="A28" s="9">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2455,7 +2430,7 @@
         <v>Χατζημηνά Αναστασία</v>
       </c>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:70">
       <c r="A29" s="9">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2472,7 +2447,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:70" ht="17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:70" ht="17">
       <c r="A30" s="9">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2493,7 +2468,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:70">
       <c r="A31" s="9">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2648,7 +2623,7 @@
         <v>Χατζημηνά Αναστασία</v>
       </c>
     </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:70">
       <c r="A32" s="9">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2665,7 +2640,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:70" ht="17" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:70" ht="17">
       <c r="A33" s="9">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2686,7 +2661,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:70">
       <c r="A34" s="9">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2841,7 +2816,7 @@
         <v>Χατζημηνά Αναστασία</v>
       </c>
     </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:70">
       <c r="A35" s="9">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2858,7 +2833,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:70" ht="17" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:70" ht="17">
       <c r="A36" s="9">
         <f t="shared" ref="A36:A59" si="1">ROW()-1</f>
         <v>35</v>
@@ -2879,7 +2854,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:70">
       <c r="A37" s="9">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -3034,7 +3009,7 @@
         <v>Χατζημηνά Αναστασία</v>
       </c>
     </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:70">
       <c r="A38" s="9">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -3051,7 +3026,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:70" ht="17" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:70" ht="17">
       <c r="A39" s="9">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -3072,7 +3047,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:70">
       <c r="A40" s="9">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -3227,7 +3202,7 @@
         <v>Χατζημηνά Αναστασία</v>
       </c>
     </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:70">
       <c r="A41" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -3244,7 +3219,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:70">
       <c r="A42" s="9">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -3263,7 +3238,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:70" ht="17" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:70" ht="17">
       <c r="A43" s="9">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -3284,7 +3259,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:70">
       <c r="A44" s="9">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -3391,7 +3366,7 @@
         <v>Χαβαριώτης Ιωάννης</v>
       </c>
     </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:70">
       <c r="A45" s="9">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -3408,7 +3383,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:70" ht="17" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:70" ht="17">
       <c r="A46" s="9">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -3429,7 +3404,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:70">
       <c r="A47" s="9">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -3536,7 +3511,7 @@
         <v>Χαβαριώτης Ιωάννης</v>
       </c>
     </row>
-    <row r="48" spans="1:70" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:70">
       <c r="A48" s="9">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -3553,7 +3528,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:54" ht="17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:54" ht="17">
       <c r="A49" s="9">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -3574,7 +3549,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:54">
       <c r="A50" s="9">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -3681,7 +3656,7 @@
         <v>Χαβαριώτης Ιωάννης</v>
       </c>
     </row>
-    <row r="51" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:54">
       <c r="A51" s="9">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -3698,7 +3673,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:54" ht="51" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:54" ht="51">
       <c r="A52" s="9">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -3719,7 +3694,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:54">
       <c r="A53" s="9">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -3826,7 +3801,7 @@
         <v>Χαβαριώτης Ιωάννης</v>
       </c>
     </row>
-    <row r="54" spans="1:54" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:54" ht="18" customHeight="1">
       <c r="A54" s="9">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -3843,7 +3818,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:54" ht="34" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:54" ht="34">
       <c r="A55" s="9">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -3864,7 +3839,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:54">
       <c r="A56" s="9">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -3971,7 +3946,7 @@
         <v>Χαβαριώτης Ιωάννης</v>
       </c>
     </row>
-    <row r="57" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:54">
       <c r="A57" s="9">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -3988,7 +3963,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:54">
       <c r="A58" s="9">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -4005,7 +3980,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:54">
       <c r="A59" s="9">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -4025,7 +4000,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:54">
       <c r="Z60" t="str" cm="1">
         <f t="array" ref="Z60">IF(D64="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D64))))</f>
         <v/>
@@ -4035,7 +4010,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:54">
       <c r="Z61" t="str" cm="1">
         <f t="array" ref="Z61">IF(D65="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D65))))</f>
         <v/>
@@ -4045,7 +4020,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:54">
       <c r="Z62" t="str" cm="1">
         <f t="array" ref="Z62">IF(D66="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D66))))</f>
         <v/>
@@ -4055,7 +4030,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:54">
       <c r="Z63" t="str" cm="1">
         <f t="array" ref="Z63">IF(D67="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D67))))</f>
         <v/>
@@ -4065,7 +4040,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:54" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:54">
       <c r="Z64" t="str" cm="1">
         <f t="array" ref="Z64">IF(D68="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D68))))</f>
         <v/>
@@ -4075,7 +4050,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="26:27">
       <c r="Z65" t="str" cm="1">
         <f t="array" ref="Z65">IF(D69="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D69))))</f>
         <v/>
@@ -4085,7 +4060,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="26:27">
       <c r="Z66" t="str" cm="1">
         <f t="array" ref="Z66">IF(D70="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D70))))</f>
         <v/>
@@ -4095,7 +4070,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="26:27">
       <c r="Z67" t="str" cm="1">
         <f t="array" ref="Z67">IF(D71="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D71))))</f>
         <v/>
@@ -4105,7 +4080,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="26:27">
       <c r="Z68" t="str" cm="1">
         <f t="array" ref="Z68">IF(D72="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D72))))</f>
         <v/>
@@ -4115,7 +4090,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="26:27">
       <c r="Z69" t="str" cm="1">
         <f t="array" ref="Z69">IF(D73="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D73))))</f>
         <v/>
@@ -4125,7 +4100,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="26:27">
       <c r="Z70" t="str" cm="1">
         <f t="array" ref="Z70">IF(D74="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D74))))</f>
         <v/>
@@ -4135,7 +4110,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="26:27">
       <c r="Z71" t="str" cm="1">
         <f t="array" ref="Z71">IF(D75="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D75))))</f>
         <v/>
@@ -4145,7 +4120,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="26:27">
       <c r="Z72" t="str" cm="1">
         <f t="array" ref="Z72">IF(D76="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D76))))</f>
         <v/>
@@ -4155,7 +4130,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="26:27">
       <c r="Z73" t="str" cm="1">
         <f t="array" ref="Z73">IF(D77="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D77))))</f>
         <v/>
@@ -4165,7 +4140,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="26:27">
       <c r="Z74" t="str" cm="1">
         <f t="array" ref="Z74">IF(D78="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D78))))</f>
         <v/>
@@ -4175,7 +4150,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="26:27">
       <c r="Z75" t="str" cm="1">
         <f t="array" ref="Z75">IF(D79="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D79))))</f>
         <v/>
@@ -4185,7 +4160,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="26:27">
       <c r="Z76" t="str" cm="1">
         <f t="array" ref="Z76">IF(D80="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D80))))</f>
         <v/>
@@ -4195,7 +4170,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="26:27">
       <c r="Z77" t="str" cm="1">
         <f t="array" ref="Z77">IF(D81="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D81))))</f>
         <v/>
@@ -4205,7 +4180,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="26:27">
       <c r="Z78" t="str" cm="1">
         <f t="array" ref="Z78">IF(D82="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D82))))</f>
         <v/>
@@ -4215,7 +4190,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="26:27">
       <c r="Z79" t="str" cm="1">
         <f t="array" ref="Z79">IF(D83="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D83))))</f>
         <v/>
@@ -4225,7 +4200,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="26:27">
       <c r="Z80" t="str" cm="1">
         <f t="array" ref="Z80">IF(D84="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D84))))</f>
         <v/>
@@ -4235,7 +4210,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="26:27">
       <c r="Z81" t="str" cm="1">
         <f t="array" ref="Z81">IF(D85="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D85))))</f>
         <v/>
@@ -4245,7 +4220,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="26:27">
       <c r="Z82" t="str" cm="1">
         <f t="array" ref="Z82">IF(D86="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D86))))</f>
         <v/>
@@ -4255,7 +4230,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="26:27">
       <c r="Z83" t="str" cm="1">
         <f t="array" ref="Z83">IF(D87="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D87))))</f>
         <v/>
@@ -4265,7 +4240,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="26:27">
       <c r="Z84" t="str" cm="1">
         <f t="array" ref="Z84">IF(D88="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D88))))</f>
         <v/>
@@ -4275,7 +4250,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="26:27">
       <c r="Z85" t="str" cm="1">
         <f t="array" ref="Z85">IF(D89="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D89))))</f>
         <v/>
@@ -4285,7 +4260,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="26:27">
       <c r="Z86" t="str" cm="1">
         <f t="array" ref="Z86">IF(D90="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D90))))</f>
         <v/>
@@ -4295,7 +4270,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="26:27">
       <c r="Z87" t="str" cm="1">
         <f t="array" ref="Z87">IF(D91="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D91))))</f>
         <v/>
@@ -4305,7 +4280,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="26:27">
       <c r="Z88" t="str" cm="1">
         <f t="array" ref="Z88">IF(D92="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D92))))</f>
         <v/>
@@ -4315,7 +4290,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="26:27">
       <c r="Z89" t="str" cm="1">
         <f t="array" ref="Z89">IF(D93="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D93))))</f>
         <v/>
@@ -4325,7 +4300,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="26:27">
       <c r="Z90" t="str" cm="1">
         <f t="array" ref="Z90">IF(D94="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D94))))</f>
         <v/>
@@ -4335,7 +4310,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="26:27">
       <c r="Z91" t="str" cm="1">
         <f t="array" ref="Z91">IF(D95="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D95))))</f>
         <v/>
@@ -4345,7 +4320,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="26:27">
       <c r="Z92" t="str" cm="1">
         <f t="array" ref="Z92">IF(D96="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D96))))</f>
         <v/>
@@ -4355,7 +4330,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="26:27">
       <c r="Z93" t="str" cm="1">
         <f t="array" ref="Z93">IF(D97="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D97))))</f>
         <v/>
@@ -4365,7 +4340,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="26:27">
       <c r="Z94" t="str" cm="1">
         <f t="array" ref="Z94">IF(D98="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D98))))</f>
         <v/>
@@ -4375,7 +4350,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="26:27">
       <c r="Z95" t="str" cm="1">
         <f t="array" ref="Z95">IF(D99="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D99))))</f>
         <v/>
@@ -4385,7 +4360,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="26:27">
       <c r="Z96" t="str" cm="1">
         <f t="array" ref="Z96">IF(D100="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D100))))</f>
         <v/>
@@ -4395,7 +4370,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="26:27">
       <c r="Z97" t="str" cm="1">
         <f t="array" ref="Z97">IF(D101="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D101))))</f>
         <v/>
@@ -4405,7 +4380,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="26:27">
       <c r="Z98" t="str" cm="1">
         <f t="array" ref="Z98">IF(D102="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D102))))</f>
         <v/>
@@ -4415,7 +4390,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="26:27">
       <c r="Z99" t="str" cm="1">
         <f t="array" ref="Z99">IF(D103="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D103))))</f>
         <v/>
@@ -4425,7 +4400,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="26:27">
       <c r="Z100" t="str" cm="1">
         <f t="array" ref="Z100">IF(D104="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D104))))</f>
         <v/>
@@ -4435,7 +4410,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="26:27">
       <c r="Z101" t="str" cm="1">
         <f t="array" ref="Z101">IF(D105="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D105))))</f>
         <v/>
@@ -4445,7 +4420,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="26:27">
       <c r="Z102" t="str" cm="1">
         <f t="array" ref="Z102">IF(D106="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D106))))</f>
         <v/>
@@ -4455,7 +4430,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="26:27">
       <c r="Z103" t="str" cm="1">
         <f t="array" ref="Z103">IF(D107="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D107))))</f>
         <v/>
@@ -4465,7 +4440,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="26:27">
       <c r="Z104" t="str" cm="1">
         <f t="array" ref="Z104">IF(D108="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D108))))</f>
         <v/>
@@ -4475,7 +4450,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="26:27">
       <c r="Z105" t="str" cm="1">
         <f t="array" ref="Z105">IF(D109="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D109))))</f>
         <v/>
@@ -4485,7 +4460,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="26:27">
       <c r="Z106" t="str" cm="1">
         <f t="array" ref="Z106">IF(D110="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D110))))</f>
         <v/>
@@ -4495,7 +4470,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="26:27">
       <c r="Z107" t="str" cm="1">
         <f t="array" ref="Z107">IF(D111="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D111))))</f>
         <v/>
@@ -4505,7 +4480,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="26:27">
       <c r="Z108" t="str" cm="1">
         <f t="array" ref="Z108">IF(D112="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D112))))</f>
         <v/>
@@ -4515,7 +4490,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="26:27">
       <c r="Z109" t="str" cm="1">
         <f t="array" ref="Z109">IF(D113="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D113))))</f>
         <v/>
@@ -4525,7 +4500,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="26:27">
       <c r="Z110" t="str" cm="1">
         <f t="array" ref="Z110">IF(D114="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D114))))</f>
         <v/>
@@ -4535,7 +4510,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="26:27">
       <c r="Z111" t="str" cm="1">
         <f t="array" ref="Z111">IF(D115="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D115))))</f>
         <v/>
@@ -4545,7 +4520,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="26:27">
       <c r="Z112" t="str" cm="1">
         <f t="array" ref="Z112">IF(D116="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D116))))</f>
         <v/>
@@ -4555,7 +4530,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="26:27">
       <c r="Z113" t="str" cm="1">
         <f t="array" ref="Z113">IF(D117="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D117))))</f>
         <v/>
@@ -4565,7 +4540,7 @@
         <v/>
       </c>
     </row>
-    <row r="114" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="26:27">
       <c r="Z114" t="str" cm="1">
         <f t="array" ref="Z114">IF(D118="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D118))))</f>
         <v/>
@@ -4575,7 +4550,7 @@
         <v/>
       </c>
     </row>
-    <row r="115" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="26:27">
       <c r="Z115" t="str" cm="1">
         <f t="array" ref="Z115">IF(D119="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D119))))</f>
         <v/>
@@ -4585,7 +4560,7 @@
         <v/>
       </c>
     </row>
-    <row r="116" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="26:27">
       <c r="Z116" t="str" cm="1">
         <f t="array" ref="Z116">IF(D120="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D120))))</f>
         <v/>
@@ -4595,7 +4570,7 @@
         <v/>
       </c>
     </row>
-    <row r="117" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="26:27">
       <c r="Z117" t="str" cm="1">
         <f t="array" ref="Z117">IF(D121="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D121))))</f>
         <v/>
@@ -4605,7 +4580,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="26:27">
       <c r="Z118" t="str" cm="1">
         <f t="array" ref="Z118">IF(D122="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D122))))</f>
         <v/>
@@ -4615,7 +4590,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="26:27">
       <c r="Z119" t="str" cm="1">
         <f t="array" ref="Z119">IF(D123="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D123))))</f>
         <v/>
@@ -4625,7 +4600,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="26:27">
       <c r="Z120" t="str" cm="1">
         <f t="array" ref="Z120">IF(D124="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D124))))</f>
         <v/>
@@ -4635,7 +4610,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="26:27">
       <c r="Z121" t="str" cm="1">
         <f t="array" ref="Z121">IF(D125="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D125))))</f>
         <v/>
@@ -4645,7 +4620,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="26:27">
       <c r="Z122" t="str" cm="1">
         <f t="array" ref="Z122">IF(D126="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D126))))</f>
         <v/>
@@ -4655,7 +4630,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="26:27">
       <c r="Z123" t="str" cm="1">
         <f t="array" ref="Z123">IF(D127="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D127))))</f>
         <v/>
@@ -4665,7 +4640,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="26:27">
       <c r="Z124" t="str" cm="1">
         <f t="array" ref="Z124">IF(D128="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D128))))</f>
         <v/>
@@ -4675,7 +4650,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="26:27">
       <c r="Z125" t="str" cm="1">
         <f t="array" ref="Z125">IF(D129="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D129))))</f>
         <v/>
@@ -4685,7 +4660,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="26:27">
       <c r="Z126" t="str" cm="1">
         <f t="array" ref="Z126">IF(D130="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D130))))</f>
         <v/>
@@ -4695,7 +4670,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="26:27">
       <c r="Z127" t="str" cm="1">
         <f t="array" ref="Z127">IF(D131="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D131))))</f>
         <v/>
@@ -4705,7 +4680,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="26:27">
       <c r="Z128" t="str" cm="1">
         <f t="array" ref="Z128">IF(D132="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D132))))</f>
         <v/>
@@ -4715,7 +4690,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="26:27">
       <c r="Z129" t="str" cm="1">
         <f t="array" ref="Z129">IF(D133="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D133))))</f>
         <v/>
@@ -4725,7 +4700,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="26:27">
       <c r="Z130" t="str" cm="1">
         <f t="array" ref="Z130">IF(D134="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D134))))</f>
         <v/>
@@ -4735,7 +4710,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="26:27">
       <c r="Z131" t="str" cm="1">
         <f t="array" ref="Z131">IF(D135="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D135))))</f>
         <v/>
@@ -4745,7 +4720,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="26:27">
       <c r="Z132" t="str" cm="1">
         <f t="array" ref="Z132">IF(D136="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D136))))</f>
         <v/>
@@ -4755,7 +4730,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="26:27">
       <c r="Z133" t="str" cm="1">
         <f t="array" ref="Z133">IF(D137="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D137))))</f>
         <v/>
@@ -4765,7 +4740,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="26:27">
       <c r="Z134" t="str" cm="1">
         <f t="array" ref="Z134">IF(D138="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D138))))</f>
         <v/>
@@ -4775,7 +4750,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="26:27">
       <c r="Z135" t="str" cm="1">
         <f t="array" ref="Z135">IF(D139="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D139))))</f>
         <v/>
@@ -4785,7 +4760,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="26:27">
       <c r="Z136" t="str" cm="1">
         <f t="array" ref="Z136">IF(D140="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D140))))</f>
         <v/>
@@ -4795,7 +4770,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="26:27">
       <c r="Z137" t="str" cm="1">
         <f t="array" ref="Z137">IF(D141="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D141))))</f>
         <v/>
@@ -4805,7 +4780,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="26:27">
       <c r="Z138" t="str" cm="1">
         <f t="array" ref="Z138">IF(D142="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D142))))</f>
         <v/>
@@ -4815,7 +4790,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="26:27">
       <c r="Z139" t="str" cm="1">
         <f t="array" ref="Z139">IF(D143="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D143))))</f>
         <v/>
@@ -4825,7 +4800,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="26:27">
       <c r="Z140" t="str" cm="1">
         <f t="array" ref="Z140">IF(D144="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D144))))</f>
         <v/>
@@ -4835,7 +4810,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="26:27">
       <c r="Z141" t="str" cm="1">
         <f t="array" ref="Z141">IF(D145="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D145))))</f>
         <v/>
@@ -4845,7 +4820,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="26:27">
       <c r="Z142" t="str" cm="1">
         <f t="array" ref="Z142">IF(D146="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D146))))</f>
         <v/>
@@ -4855,7 +4830,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="26:27">
       <c r="Z143" t="str" cm="1">
         <f t="array" ref="Z143">IF(D147="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D147))))</f>
         <v/>
@@ -4865,7 +4840,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="26:27">
       <c r="Z144" t="str" cm="1">
         <f t="array" ref="Z144">IF(D148="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D148))))</f>
         <v/>
@@ -4875,7 +4850,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="26:27">
       <c r="Z145" t="str" cm="1">
         <f t="array" ref="Z145">IF(D149="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D149))))</f>
         <v/>
@@ -4885,7 +4860,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="26:27">
       <c r="Z146" t="str" cm="1">
         <f t="array" ref="Z146">IF(D150="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D150))))</f>
         <v/>
@@ -4895,7 +4870,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="26:27">
       <c r="Z147" t="str" cm="1">
         <f t="array" ref="Z147">IF(D151="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D151))))</f>
         <v/>
@@ -4905,7 +4880,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="26:27">
       <c r="Z148" t="str" cm="1">
         <f t="array" ref="Z148">IF(D152="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D152))))</f>
         <v/>
@@ -4915,7 +4890,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="26:27">
       <c r="Z149" t="str" cm="1">
         <f t="array" ref="Z149">IF(D153="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D153))))</f>
         <v/>
@@ -4925,7 +4900,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="26:27">
       <c r="Z150" t="str" cm="1">
         <f t="array" ref="Z150">IF(D154="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D154))))</f>
         <v/>
@@ -4935,7 +4910,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="26:27">
       <c r="Z151" t="str" cm="1">
         <f t="array" ref="Z151">IF(D155="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D155))))</f>
         <v/>
@@ -4945,7 +4920,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="26:27">
       <c r="Z152" t="str" cm="1">
         <f t="array" ref="Z152">IF(D156="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D156))))</f>
         <v/>
@@ -4955,7 +4930,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="26:27">
       <c r="Z153" t="str" cm="1">
         <f t="array" ref="Z153">IF(D157="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D157))))</f>
         <v/>
@@ -4965,7 +4940,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="26:27">
       <c r="Z154" t="str" cm="1">
         <f t="array" ref="Z154">IF(D158="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D158))))</f>
         <v/>
@@ -4975,7 +4950,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="26:27">
       <c r="Z155" t="str" cm="1">
         <f t="array" ref="Z155">IF(D159="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D159))))</f>
         <v/>
@@ -4985,7 +4960,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="26:27">
       <c r="Z156" t="str" cm="1">
         <f t="array" ref="Z156">IF(D160="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D160))))</f>
         <v/>
@@ -4995,7 +4970,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="26:27">
       <c r="Z157" t="str" cm="1">
         <f t="array" ref="Z157">IF(D161="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D161))))</f>
         <v/>
@@ -5005,7 +4980,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="26:27">
       <c r="Z158" t="str" cm="1">
         <f t="array" ref="Z158">IF(D162="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D162))))</f>
         <v/>
@@ -5015,7 +4990,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="26:27">
       <c r="Z159" t="str" cm="1">
         <f t="array" ref="Z159">IF(D163="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D163))))</f>
         <v/>
@@ -5025,7 +5000,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="26:27">
       <c r="Z160" t="str" cm="1">
         <f t="array" ref="Z160">IF(D164="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D164))))</f>
         <v/>
@@ -5035,7 +5010,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="26:27">
       <c r="Z161" t="str" cm="1">
         <f t="array" ref="Z161">IF(D165="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D165))))</f>
         <v/>
@@ -5045,7 +5020,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="26:27">
       <c r="Z162" t="str" cm="1">
         <f t="array" ref="Z162">IF(D166="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D166))))</f>
         <v/>
@@ -5055,7 +5030,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="26:27">
       <c r="Z163" t="str" cm="1">
         <f t="array" ref="Z163">IF(D167="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D167))))</f>
         <v/>
@@ -5065,7 +5040,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="26:27">
       <c r="Z164" t="str" cm="1">
         <f t="array" ref="Z164">IF(D168="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D168))))</f>
         <v/>
@@ -5075,7 +5050,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="26:27">
       <c r="Z165" t="str" cm="1">
         <f t="array" ref="Z165">IF(D169="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D169))))</f>
         <v/>
@@ -5085,7 +5060,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="26:27">
       <c r="Z166" t="str" cm="1">
         <f t="array" ref="Z166">IF(D170="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D170))))</f>
         <v/>
@@ -5095,7 +5070,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="26:27">
       <c r="Z167" t="str" cm="1">
         <f t="array" ref="Z167">IF(D171="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D171))))</f>
         <v/>
@@ -5105,7 +5080,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="26:27">
       <c r="Z168" t="str" cm="1">
         <f t="array" ref="Z168">IF(D172="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D172))))</f>
         <v/>
@@ -5115,7 +5090,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="26:27">
       <c r="Z169" t="str" cm="1">
         <f t="array" ref="Z169">IF(D173="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D173))))</f>
         <v/>
@@ -5125,7 +5100,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="26:27">
       <c r="Z170" t="str" cm="1">
         <f t="array" ref="Z170">IF(D174="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D174))))</f>
         <v/>
@@ -5135,7 +5110,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="26:27">
       <c r="Z171" t="str" cm="1">
         <f t="array" ref="Z171">IF(D175="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D175))))</f>
         <v/>
@@ -5145,7 +5120,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="26:27">
       <c r="Z172" t="str" cm="1">
         <f t="array" ref="Z172">IF(D176="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D176))))</f>
         <v/>
@@ -5155,7 +5130,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="26:27">
       <c r="Z173" t="str" cm="1">
         <f t="array" ref="Z173">IF(D177="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D177))))</f>
         <v/>
@@ -5165,7 +5140,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="26:27">
       <c r="Z174" t="str" cm="1">
         <f t="array" ref="Z174">IF(D178="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D178))))</f>
         <v/>
@@ -5175,7 +5150,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="26:27">
       <c r="Z175" t="str" cm="1">
         <f t="array" ref="Z175">IF(D179="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D179))))</f>
         <v/>
@@ -5185,7 +5160,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="26:27">
       <c r="Z176" t="str" cm="1">
         <f t="array" ref="Z176">IF(D180="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D180))))</f>
         <v/>
@@ -5195,7 +5170,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="26:27">
       <c r="Z177" t="str" cm="1">
         <f t="array" ref="Z177">IF(D181="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D181))))</f>
         <v/>
@@ -5205,7 +5180,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="26:27">
       <c r="Z178" t="str" cm="1">
         <f t="array" ref="Z178">IF(D182="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D182))))</f>
         <v/>
@@ -5215,7 +5190,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="26:27">
       <c r="Z179" t="str" cm="1">
         <f t="array" ref="Z179">IF(D183="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D183))))</f>
         <v/>
@@ -5225,7 +5200,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="26:27">
       <c r="Z180" t="str" cm="1">
         <f t="array" ref="Z180">IF(D184="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D184))))</f>
         <v/>
@@ -5235,7 +5210,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="26:27">
       <c r="Z181" t="str" cm="1">
         <f t="array" ref="Z181">IF(D185="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D185))))</f>
         <v/>
@@ -5245,7 +5220,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="26:27">
       <c r="Z182" t="str" cm="1">
         <f t="array" ref="Z182">IF(D186="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D186))))</f>
         <v/>
@@ -5255,7 +5230,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="26:27">
       <c r="Z183" t="str" cm="1">
         <f t="array" ref="Z183">IF(D187="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D187))))</f>
         <v/>
@@ -5265,7 +5240,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="26:27">
       <c r="Z184" t="str" cm="1">
         <f t="array" ref="Z184">IF(D188="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D188))))</f>
         <v/>
@@ -5275,7 +5250,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="26:27">
       <c r="Z185" t="str" cm="1">
         <f t="array" ref="Z185">IF(D189="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D189))))</f>
         <v/>
@@ -5285,7 +5260,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="26:27">
       <c r="Z186" t="str" cm="1">
         <f t="array" ref="Z186">IF(D190="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D190))))</f>
         <v/>
@@ -5295,7 +5270,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="26:27">
       <c r="Z187" t="str" cm="1">
         <f t="array" ref="Z187">IF(D191="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D191))))</f>
         <v/>
@@ -5305,7 +5280,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="26:27">
       <c r="Z188" t="str" cm="1">
         <f t="array" ref="Z188">IF(D192="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D192))))</f>
         <v/>
@@ -5315,7 +5290,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="26:27">
       <c r="Z189" t="str" cm="1">
         <f t="array" ref="Z189">IF(D193="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D193))))</f>
         <v/>
@@ -5325,7 +5300,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="26:27">
       <c r="Z190" t="str" cm="1">
         <f t="array" ref="Z190">IF(D194="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D194))))</f>
         <v/>
@@ -5335,7 +5310,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="26:27">
       <c r="Z191" t="str" cm="1">
         <f t="array" ref="Z191">IF(D195="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D195))))</f>
         <v/>
@@ -5345,7 +5320,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="26:27">
       <c r="Z192" t="str" cm="1">
         <f t="array" ref="Z192">IF(D196="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D196))))</f>
         <v/>
@@ -5355,7 +5330,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="26:27">
       <c r="Z193" t="str" cm="1">
         <f t="array" ref="Z193">IF(D197="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D197))))</f>
         <v/>
@@ -5365,7 +5340,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="26:27">
       <c r="Z194" t="str" cm="1">
         <f t="array" ref="Z194">IF(D198="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D198))))</f>
         <v/>
@@ -5375,7 +5350,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="26:27">
       <c r="Z195" t="str" cm="1">
         <f t="array" ref="Z195">IF(D199="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D199))))</f>
         <v/>
@@ -5385,7 +5360,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="26:27">
       <c r="Z196" t="str" cm="1">
         <f t="array" ref="Z196">IF(D200="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D200))))</f>
         <v/>
@@ -5395,7 +5370,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="26:27">
       <c r="Z197" t="str" cm="1">
         <f t="array" ref="Z197">IF(D201="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D201))))</f>
         <v/>
@@ -5405,7 +5380,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="26:27">
       <c r="Z198" t="str" cm="1">
         <f t="array" ref="Z198">IF(D202="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D202))))</f>
         <v/>
@@ -5415,7 +5390,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="26:27">
       <c r="Z199" t="str" cm="1">
         <f t="array" ref="Z199">IF(D203="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D203))))</f>
         <v/>
@@ -5425,7 +5400,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="26:27">
       <c r="Z200" t="str" cm="1">
         <f t="array" ref="Z200">IF(D204="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D204))))</f>
         <v/>
@@ -5435,7 +5410,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="26:27">
       <c r="Z201" t="str" cm="1">
         <f t="array" ref="Z201">IF(D205="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D205))))</f>
         <v/>
@@ -5445,7 +5420,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="26:27">
       <c r="Z202" t="str" cm="1">
         <f t="array" ref="Z202">IF(D206="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D206))))</f>
         <v/>
@@ -5455,7 +5430,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="26:27">
       <c r="Z203" t="str" cm="1">
         <f t="array" ref="Z203">IF(D207="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D207))))</f>
         <v/>
@@ -5465,7 +5440,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="26:27">
       <c r="Z204" t="str" cm="1">
         <f t="array" ref="Z204">IF(D208="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D208))))</f>
         <v/>
@@ -5475,7 +5450,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="26:27">
       <c r="Z205" t="str" cm="1">
         <f t="array" ref="Z205">IF(D209="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D209))))</f>
         <v/>
@@ -5485,7 +5460,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="26:27">
       <c r="Z206" t="str" cm="1">
         <f t="array" ref="Z206">IF(D210="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D210))))</f>
         <v/>
@@ -5495,7 +5470,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="26:27">
       <c r="Z207" t="str" cm="1">
         <f t="array" ref="Z207">IF(D211="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D211))))</f>
         <v/>
@@ -5505,7 +5480,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="26:27">
       <c r="Z208" t="str" cm="1">
         <f t="array" ref="Z208">IF(D212="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D212))))</f>
         <v/>
@@ -5515,7 +5490,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="26:27">
       <c r="Z209" t="str" cm="1">
         <f t="array" ref="Z209">IF(D213="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D213))))</f>
         <v/>
@@ -5525,7 +5500,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="26:27">
       <c r="Z210" t="str" cm="1">
         <f t="array" ref="Z210">IF(D214="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D214))))</f>
         <v/>
@@ -5535,7 +5510,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="26:27">
       <c r="Z211" t="str" cm="1">
         <f t="array" ref="Z211">IF(D215="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D215))))</f>
         <v/>
@@ -5545,7 +5520,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="26:27">
       <c r="Z212" t="str" cm="1">
         <f t="array" ref="Z212">IF(D216="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D216))))</f>
         <v/>
@@ -5555,7 +5530,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="26:27">
       <c r="Z213" t="str" cm="1">
         <f t="array" ref="Z213">IF(D217="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D217))))</f>
         <v/>
@@ -5565,7 +5540,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="26:27">
       <c r="Z214" t="str" cm="1">
         <f t="array" ref="Z214">IF(D218="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D218))))</f>
         <v/>
@@ -5575,7 +5550,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="26:27">
       <c r="Z215" t="str" cm="1">
         <f t="array" ref="Z215">IF(D219="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D219))))</f>
         <v/>
@@ -5585,7 +5560,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="26:27">
       <c r="Z216" t="str" cm="1">
         <f t="array" ref="Z216">IF(D220="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D220))))</f>
         <v/>
@@ -5595,7 +5570,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="26:27">
       <c r="Z217" t="str" cm="1">
         <f t="array" ref="Z217">IF(D221="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D221))))</f>
         <v/>
@@ -5605,7 +5580,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="26:27">
       <c r="Z218" t="str" cm="1">
         <f t="array" ref="Z218">IF(D222="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D222))))</f>
         <v/>
@@ -5615,7 +5590,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="26:27">
       <c r="Z219" t="str" cm="1">
         <f t="array" ref="Z219">IF(D223="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D223))))</f>
         <v/>
@@ -5625,7 +5600,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="26:27">
       <c r="Z220" t="str" cm="1">
         <f t="array" ref="Z220">IF(D224="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D224))))</f>
         <v/>
@@ -5635,7 +5610,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="26:27">
       <c r="Z221" t="str" cm="1">
         <f t="array" ref="Z221">IF(D225="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D225))))</f>
         <v/>
@@ -5645,7 +5620,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="26:27">
       <c r="Z222" t="str" cm="1">
         <f t="array" ref="Z222">IF(D226="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D226))))</f>
         <v/>
@@ -5655,7 +5630,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="26:27">
       <c r="Z223" t="str" cm="1">
         <f t="array" ref="Z223">IF(D227="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D227))))</f>
         <v/>
@@ -5665,7 +5640,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="26:27">
       <c r="Z224" t="str" cm="1">
         <f t="array" ref="Z224">IF(D228="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D228))))</f>
         <v/>
@@ -5675,7 +5650,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="26:27">
       <c r="Z225" t="str" cm="1">
         <f t="array" ref="Z225">IF(D229="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D229))))</f>
         <v/>
@@ -5685,7 +5660,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="26:27">
       <c r="Z226" t="str" cm="1">
         <f t="array" ref="Z226">IF(D230="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D230))))</f>
         <v/>
@@ -5695,7 +5670,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="26:27">
       <c r="Z227" t="str" cm="1">
         <f t="array" ref="Z227">IF(D231="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D231))))</f>
         <v/>
@@ -5705,7 +5680,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="26:27">
       <c r="Z228" t="str" cm="1">
         <f t="array" ref="Z228">IF(D232="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D232))))</f>
         <v/>
@@ -5715,7 +5690,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="26:27">
       <c r="Z229" t="str" cm="1">
         <f t="array" ref="Z229">IF(D233="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D233))))</f>
         <v/>
@@ -5725,7 +5700,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="26:27">
       <c r="Z230" t="str" cm="1">
         <f t="array" ref="Z230">IF(D234="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D234))))</f>
         <v/>
@@ -5735,7 +5710,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="26:27">
       <c r="Z231" t="str" cm="1">
         <f t="array" ref="Z231">IF(D235="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D235))))</f>
         <v/>
@@ -5745,7 +5720,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="26:27">
       <c r="Z232" t="str" cm="1">
         <f t="array" ref="Z232">IF(D236="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D236))))</f>
         <v/>
@@ -5755,7 +5730,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="26:27">
       <c r="Z233" t="str" cm="1">
         <f t="array" ref="Z233">IF(D237="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D237))))</f>
         <v/>
@@ -5765,7 +5740,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="26:27">
       <c r="Z234" t="str" cm="1">
         <f t="array" ref="Z234">IF(D238="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D238))))</f>
         <v/>
@@ -5775,7 +5750,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="26:27">
       <c r="Z235" t="str" cm="1">
         <f t="array" ref="Z235">IF(D239="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D239))))</f>
         <v/>
@@ -5785,7 +5760,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="26:27">
       <c r="Z236" t="str" cm="1">
         <f t="array" ref="Z236">IF(D240="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D240))))</f>
         <v/>
@@ -5795,7 +5770,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="26:27">
       <c r="Z237" t="str" cm="1">
         <f t="array" ref="Z237">IF(D241="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D241))))</f>
         <v/>
@@ -5805,7 +5780,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="26:27">
       <c r="Z238" t="str" cm="1">
         <f t="array" ref="Z238">IF(D242="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D242))))</f>
         <v/>
@@ -5815,7 +5790,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="26:27">
       <c r="Z239" t="str" cm="1">
         <f t="array" ref="Z239">IF(D243="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D243))))</f>
         <v/>
@@ -5825,7 +5800,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="26:27">
       <c r="Z240" t="str" cm="1">
         <f t="array" ref="Z240">IF(D244="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D244))))</f>
         <v/>
@@ -5835,7 +5810,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="26:27">
       <c r="Z241" t="str" cm="1">
         <f t="array" ref="Z241">IF(D245="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D245))))</f>
         <v/>
@@ -5845,7 +5820,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="26:27">
       <c r="Z242" t="str" cm="1">
         <f t="array" ref="Z242">IF(D246="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D246))))</f>
         <v/>
@@ -5855,7 +5830,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="26:27">
       <c r="Z243" t="str" cm="1">
         <f t="array" ref="Z243">IF(D247="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D247))))</f>
         <v/>
@@ -5865,7 +5840,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="26:27">
       <c r="Z244" t="str" cm="1">
         <f t="array" ref="Z244">IF(D248="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D248))))</f>
         <v/>
@@ -5875,7 +5850,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="26:27">
       <c r="Z245" t="str" cm="1">
         <f t="array" ref="Z245">IF(D249="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D249))))</f>
         <v/>
@@ -5885,7 +5860,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="26:27">
       <c r="Z246" t="str" cm="1">
         <f t="array" ref="Z246">IF(D250="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D250))))</f>
         <v/>
@@ -5895,7 +5870,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="26:27">
       <c r="Z247" t="str" cm="1">
         <f t="array" ref="Z247">IF(D251="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D251))))</f>
         <v/>
@@ -5905,7 +5880,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="26:27">
       <c r="Z248" t="str" cm="1">
         <f t="array" ref="Z248">IF(D252="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D252))))</f>
         <v/>
@@ -5915,7 +5890,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="26:27">
       <c r="Z249" t="str" cm="1">
         <f t="array" ref="Z249">IF(D253="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D253))))</f>
         <v/>
@@ -5925,7 +5900,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="26:27">
       <c r="Z250" t="str" cm="1">
         <f t="array" ref="Z250">IF(D254="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D254))))</f>
         <v/>
@@ -5935,7 +5910,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="26:27">
       <c r="Z251" t="str" cm="1">
         <f t="array" ref="Z251">IF(D255="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D255))))</f>
         <v/>
@@ -5945,7 +5920,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="26:27">
       <c r="Z252" t="str" cm="1">
         <f t="array" ref="Z252">IF(D256="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D256))))</f>
         <v/>
@@ -5955,7 +5930,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="26:27">
       <c r="Z253" t="str" cm="1">
         <f t="array" ref="Z253">IF(D257="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D257))))</f>
         <v/>
@@ -5965,7 +5940,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="26:27">
       <c r="Z254" t="str" cm="1">
         <f t="array" ref="Z254">IF(D258="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D258))))</f>
         <v/>
@@ -5975,7 +5950,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="26:27">
       <c r="Z255" t="str" cm="1">
         <f t="array" ref="Z255">IF(D259="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D259))))</f>
         <v/>
@@ -5985,7 +5960,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="26:27">
       <c r="Z256" t="str" cm="1">
         <f t="array" ref="Z256">IF(D260="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D260))))</f>
         <v/>
@@ -5995,7 +5970,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="26:27">
       <c r="Z257" t="str" cm="1">
         <f t="array" ref="Z257">IF(D261="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D261))))</f>
         <v/>
@@ -6005,7 +5980,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="26:27">
       <c r="Z258" t="str" cm="1">
         <f t="array" ref="Z258">IF(D262="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D262))))</f>
         <v/>
@@ -6015,7 +5990,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="26:27">
       <c r="Z259" t="str" cm="1">
         <f t="array" ref="Z259">IF(D263="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D263))))</f>
         <v/>
@@ -6025,7 +6000,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="26:27">
       <c r="Z260" t="str" cm="1">
         <f t="array" ref="Z260">IF(D264="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D264))))</f>
         <v/>
@@ -6035,7 +6010,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="26:27">
       <c r="Z261" t="str" cm="1">
         <f t="array" ref="Z261">IF(D265="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D265))))</f>
         <v/>
@@ -6045,7 +6020,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="26:27">
       <c r="Z262" t="str" cm="1">
         <f t="array" ref="Z262">IF(D266="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D266))))</f>
         <v/>
@@ -6055,7 +6030,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="26:27">
       <c r="Z263" t="str" cm="1">
         <f t="array" ref="Z263">IF(D267="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D267))))</f>
         <v/>
@@ -6065,7 +6040,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="26:27">
       <c r="Z264" t="str" cm="1">
         <f t="array" ref="Z264">IF(D268="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D268))))</f>
         <v/>
@@ -6075,7 +6050,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="26:27">
       <c r="Z265" t="str" cm="1">
         <f t="array" ref="Z265">IF(D269="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D269))))</f>
         <v/>
@@ -6085,7 +6060,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="26:27">
       <c r="Z266" t="str" cm="1">
         <f t="array" ref="Z266">IF(D270="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D270))))</f>
         <v/>
@@ -6095,7 +6070,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="26:27">
       <c r="Z267" t="str" cm="1">
         <f t="array" ref="Z267">IF(D271="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D271))))</f>
         <v/>
@@ -6105,7 +6080,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="26:27">
       <c r="Z268" t="str" cm="1">
         <f t="array" ref="Z268">IF(D272="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D272))))</f>
         <v/>
@@ -6115,7 +6090,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="26:27">
       <c r="Z269" t="str" cm="1">
         <f t="array" ref="Z269">IF(D273="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D273))))</f>
         <v/>
@@ -6125,7 +6100,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="26:27">
       <c r="Z270" t="str" cm="1">
         <f t="array" ref="Z270">IF(D274="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D274))))</f>
         <v/>
@@ -6135,7 +6110,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="26:27">
       <c r="Z271" t="str" cm="1">
         <f t="array" ref="Z271">IF(D275="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D275))))</f>
         <v/>
@@ -6145,7 +6120,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="26:27">
       <c r="Z272" t="str" cm="1">
         <f t="array" ref="Z272">IF(D276="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D276))))</f>
         <v/>
@@ -6155,7 +6130,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="26:27">
       <c r="Z273" t="str" cm="1">
         <f t="array" ref="Z273">IF(D277="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D277))))</f>
         <v/>
@@ -6165,7 +6140,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="26:27">
       <c r="Z274" t="str" cm="1">
         <f t="array" ref="Z274">IF(D278="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D278))))</f>
         <v/>
@@ -6175,7 +6150,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="26:27">
       <c r="Z275" t="str" cm="1">
         <f t="array" ref="Z275">IF(D279="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D279))))</f>
         <v/>
@@ -6185,7 +6160,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="26:27">
       <c r="Z276" t="str" cm="1">
         <f t="array" ref="Z276">IF(D280="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D280))))</f>
         <v/>
@@ -6195,7 +6170,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="26:27">
       <c r="Z277" t="str" cm="1">
         <f t="array" ref="Z277">IF(D281="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D281))))</f>
         <v/>
@@ -6205,7 +6180,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="26:27">
       <c r="Z278" t="str" cm="1">
         <f t="array" ref="Z278">IF(D282="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D282))))</f>
         <v/>
@@ -6215,7 +6190,7 @@
         <v/>
       </c>
     </row>
-    <row r="279" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="26:27">
       <c r="Z279" t="str" cm="1">
         <f t="array" ref="Z279">IF(D283="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D283))))</f>
         <v/>
@@ -6225,7 +6200,7 @@
         <v/>
       </c>
     </row>
-    <row r="280" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="26:27">
       <c r="Z280" t="str" cm="1">
         <f t="array" ref="Z280">IF(D284="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D284))))</f>
         <v/>
@@ -6235,7 +6210,7 @@
         <v/>
       </c>
     </row>
-    <row r="281" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="26:27">
       <c r="Z281" t="str" cm="1">
         <f t="array" ref="Z281">IF(D285="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D285))))</f>
         <v/>
@@ -6245,7 +6220,7 @@
         <v/>
       </c>
     </row>
-    <row r="282" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="26:27">
       <c r="Z282" t="str" cm="1">
         <f t="array" ref="Z282">IF(D286="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D286))))</f>
         <v/>
@@ -6255,7 +6230,7 @@
         <v/>
       </c>
     </row>
-    <row r="283" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="26:27">
       <c r="Z283" t="str" cm="1">
         <f t="array" ref="Z283">IF(D287="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D287))))</f>
         <v/>
@@ -6265,7 +6240,7 @@
         <v/>
       </c>
     </row>
-    <row r="284" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="26:27">
       <c r="Z284" t="str" cm="1">
         <f t="array" ref="Z284">IF(D288="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D288))))</f>
         <v/>
@@ -6275,7 +6250,7 @@
         <v/>
       </c>
     </row>
-    <row r="285" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="26:27">
       <c r="Z285" t="str" cm="1">
         <f t="array" ref="Z285">IF(D289="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D289))))</f>
         <v/>
@@ -6285,7 +6260,7 @@
         <v/>
       </c>
     </row>
-    <row r="286" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="26:27">
       <c r="Z286" t="str" cm="1">
         <f t="array" ref="Z286">IF(D290="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D290))))</f>
         <v/>
@@ -6295,7 +6270,7 @@
         <v/>
       </c>
     </row>
-    <row r="287" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="26:27">
       <c r="Z287" t="str" cm="1">
         <f t="array" ref="Z287">IF(D291="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D291))))</f>
         <v/>
@@ -6305,7 +6280,7 @@
         <v/>
       </c>
     </row>
-    <row r="288" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="26:27">
       <c r="Z288" t="str" cm="1">
         <f t="array" ref="Z288">IF(D292="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D292))))</f>
         <v/>
@@ -6315,7 +6290,7 @@
         <v/>
       </c>
     </row>
-    <row r="289" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="26:27">
       <c r="Z289" t="str" cm="1">
         <f t="array" ref="Z289">IF(D293="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D293))))</f>
         <v/>
@@ -6325,7 +6300,7 @@
         <v/>
       </c>
     </row>
-    <row r="290" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="26:27">
       <c r="Z290" t="str" cm="1">
         <f t="array" ref="Z290">IF(D294="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D294))))</f>
         <v/>
@@ -6335,7 +6310,7 @@
         <v/>
       </c>
     </row>
-    <row r="291" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="26:27">
       <c r="Z291" t="str" cm="1">
         <f t="array" ref="Z291">IF(D295="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D295))))</f>
         <v/>
@@ -6345,7 +6320,7 @@
         <v/>
       </c>
     </row>
-    <row r="292" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="26:27">
       <c r="Z292" t="str" cm="1">
         <f t="array" ref="Z292">IF(D296="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D296))))</f>
         <v/>
@@ -6355,7 +6330,7 @@
         <v/>
       </c>
     </row>
-    <row r="293" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="26:27">
       <c r="Z293" t="str" cm="1">
         <f t="array" ref="Z293">IF(D297="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D297))))</f>
         <v/>
@@ -6365,7 +6340,7 @@
         <v/>
       </c>
     </row>
-    <row r="294" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="26:27">
       <c r="Z294" t="str" cm="1">
         <f t="array" ref="Z294">IF(D298="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D298))))</f>
         <v/>
@@ -6375,7 +6350,7 @@
         <v/>
       </c>
     </row>
-    <row r="295" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="26:27">
       <c r="Z295" t="str" cm="1">
         <f t="array" ref="Z295">IF(D299="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D299))))</f>
         <v/>
@@ -6385,7 +6360,7 @@
         <v/>
       </c>
     </row>
-    <row r="296" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="26:27">
       <c r="Z296" t="str" cm="1">
         <f t="array" ref="Z296">IF(D300="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D300))))</f>
         <v/>
@@ -6395,7 +6370,7 @@
         <v/>
       </c>
     </row>
-    <row r="297" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="26:27">
       <c r="Z297" t="str" cm="1">
         <f t="array" ref="Z297">IF(D301="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D301))))</f>
         <v/>
@@ -6405,7 +6380,7 @@
         <v/>
       </c>
     </row>
-    <row r="298" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="26:27">
       <c r="Z298" t="str" cm="1">
         <f t="array" ref="Z298">IF(D302="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D302))))</f>
         <v/>
@@ -6415,7 +6390,7 @@
         <v/>
       </c>
     </row>
-    <row r="299" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="26:27">
       <c r="Z299" t="str" cm="1">
         <f t="array" ref="Z299">IF(D303="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D303))))</f>
         <v/>
@@ -6425,7 +6400,7 @@
         <v/>
       </c>
     </row>
-    <row r="300" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="26:27">
       <c r="Z300" t="str" cm="1">
         <f t="array" ref="Z300">IF(D304="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D304))))</f>
         <v/>
@@ -6435,7 +6410,7 @@
         <v/>
       </c>
     </row>
-    <row r="301" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="26:27">
       <c r="Z301" t="str" cm="1">
         <f t="array" ref="Z301">IF(D305="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D305))))</f>
         <v/>
@@ -6445,7 +6420,7 @@
         <v/>
       </c>
     </row>
-    <row r="302" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="26:27">
       <c r="Z302" t="str" cm="1">
         <f t="array" ref="Z302">IF(D306="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D306))))</f>
         <v/>
@@ -6455,151 +6430,151 @@
         <v/>
       </c>
     </row>
-    <row r="303" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="26:27">
       <c r="Z303" t="str" cm="1">
         <f t="array" ref="Z303">IF(D307="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D307))))</f>
         <v/>
       </c>
     </row>
-    <row r="304" spans="26:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="26:27">
       <c r="Z304" t="str" cm="1">
         <f t="array" ref="Z304">IF(D308="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D308))))</f>
         <v/>
       </c>
     </row>
-    <row r="305" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="305" spans="26:26">
       <c r="Z305" t="str" cm="1">
         <f t="array" ref="Z305">IF(D309="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D309))))</f>
         <v/>
       </c>
     </row>
-    <row r="306" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="306" spans="26:26">
       <c r="Z306" t="str" cm="1">
         <f t="array" ref="Z306">IF(D310="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D310))))</f>
         <v/>
       </c>
     </row>
-    <row r="307" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="307" spans="26:26">
       <c r="Z307" t="str" cm="1">
         <f t="array" ref="Z307">IF(D311="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D311))))</f>
         <v/>
       </c>
     </row>
-    <row r="308" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="308" spans="26:26">
       <c r="Z308" t="str" cm="1">
         <f t="array" ref="Z308">IF(D312="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D312))))</f>
         <v/>
       </c>
     </row>
-    <row r="309" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="309" spans="26:26">
       <c r="Z309" t="str" cm="1">
         <f t="array" ref="Z309">IF(D313="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D313))))</f>
         <v/>
       </c>
     </row>
-    <row r="310" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="310" spans="26:26">
       <c r="Z310" t="str" cm="1">
         <f t="array" ref="Z310">IF(D314="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D314))))</f>
         <v/>
       </c>
     </row>
-    <row r="311" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="311" spans="26:26">
       <c r="Z311" t="str" cm="1">
         <f t="array" ref="Z311">IF(D315="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D315))))</f>
         <v/>
       </c>
     </row>
-    <row r="312" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="312" spans="26:26">
       <c r="Z312" t="str" cm="1">
         <f t="array" ref="Z312">IF(D316="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D316))))</f>
         <v/>
       </c>
     </row>
-    <row r="313" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="313" spans="26:26">
       <c r="Z313" t="str" cm="1">
         <f t="array" ref="Z313">IF(D317="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D317))))</f>
         <v/>
       </c>
     </row>
-    <row r="314" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="314" spans="26:26">
       <c r="Z314" t="str" cm="1">
         <f t="array" ref="Z314">IF(D318="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D318))))</f>
         <v/>
       </c>
     </row>
-    <row r="315" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="315" spans="26:26">
       <c r="Z315" t="str" cm="1">
         <f t="array" ref="Z315">IF(D319="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D319))))</f>
         <v/>
       </c>
     </row>
-    <row r="316" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="316" spans="26:26">
       <c r="Z316" t="str" cm="1">
         <f t="array" ref="Z316">IF(D320="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D320))))</f>
         <v/>
       </c>
     </row>
-    <row r="317" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="317" spans="26:26">
       <c r="Z317" t="str" cm="1">
         <f t="array" ref="Z317">IF(D321="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D321))))</f>
         <v/>
       </c>
     </row>
-    <row r="318" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="318" spans="26:26">
       <c r="Z318" t="str" cm="1">
         <f t="array" ref="Z318">IF(D322="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D322))))</f>
         <v/>
       </c>
     </row>
-    <row r="319" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="319" spans="26:26">
       <c r="Z319" t="str" cm="1">
         <f t="array" ref="Z319">IF(D323="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D323))))</f>
         <v/>
       </c>
     </row>
-    <row r="320" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="320" spans="26:26">
       <c r="Z320" t="str" cm="1">
         <f t="array" ref="Z320">IF(D324="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D324))))</f>
         <v/>
       </c>
     </row>
-    <row r="321" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="321" spans="26:26">
       <c r="Z321" t="str" cm="1">
         <f t="array" ref="Z321">IF(D325="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D325))))</f>
         <v/>
       </c>
     </row>
-    <row r="322" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="322" spans="26:26">
       <c r="Z322" t="str" cm="1">
         <f t="array" ref="Z322">IF(D326="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D326))))</f>
         <v/>
       </c>
     </row>
-    <row r="323" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="323" spans="26:26">
       <c r="Z323" t="str" cm="1">
         <f t="array" ref="Z323">IF(D327="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D327))))</f>
         <v/>
       </c>
     </row>
-    <row r="324" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="324" spans="26:26">
       <c r="Z324" t="str" cm="1">
         <f t="array" ref="Z324">IF(D328="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D328))))</f>
         <v/>
       </c>
     </row>
-    <row r="325" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="325" spans="26:26">
       <c r="Z325" t="str" cm="1">
         <f t="array" ref="Z325">IF(D329="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D329))))</f>
         <v/>
       </c>
     </row>
-    <row r="326" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="326" spans="26:26">
       <c r="Z326" t="str" cm="1">
         <f t="array" ref="Z326">IF(D330="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D330))))</f>
         <v/>
       </c>
     </row>
-    <row r="327" spans="26:26" x14ac:dyDescent="0.2">
+    <row r="327" spans="26:26">
       <c r="Z327" t="str" cm="1">
         <f t="array" ref="Z327">IF(D331="", "", TRANSPOSE(_xlfn._xlws.SORT(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=D331))))</f>
         <v/>
@@ -6607,22 +6582,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:I59">
-    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
       <formula>$B2="Category"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="12">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>$B2="Image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="13">
+    <cfRule type="expression" dxfId="8" priority="13">
       <formula>$B2="Unattended"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="14">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>$B2="Names"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="15">
+    <cfRule type="expression" dxfId="6" priority="15">
       <formula>$B2="Title"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="16">
+    <cfRule type="expression" dxfId="5" priority="16">
       <formula>$B2="Blank"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6675,14 +6650,14 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="43" customWidth="1"/>
     <col min="2" max="2" width="52.83203125" customWidth="1"/>
     <col min="3" max="3" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6693,7 +6668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
         <v>112</v>
       </c>
@@ -6704,7 +6679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
         <v>41</v>
       </c>
@@ -6715,946 +6690,946 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="16" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="20" t="s">
         <v>140</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="A43" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3">
       <c r="A44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3">
       <c r="A46" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3">
       <c r="A47" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="22" t="s">
+      <c r="B47" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3">
       <c r="A48" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3">
       <c r="A49" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3">
       <c r="A50" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3">
       <c r="A51" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3">
       <c r="A52" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3">
       <c r="A53" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3">
       <c r="A54" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3">
       <c r="A55" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3">
       <c r="A56" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="20" t="s">
+    <row r="57" spans="1:3">
+      <c r="A57" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3">
       <c r="A58" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3">
       <c r="A59" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3">
       <c r="A60" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3">
       <c r="A61" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B61" s="22" t="s">
+      <c r="B61" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3">
       <c r="A62" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3">
       <c r="A63" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B63" s="22" t="s">
+      <c r="B63" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3">
       <c r="A64" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3">
       <c r="A65" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3">
       <c r="A66" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3">
       <c r="A67" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3">
       <c r="A68" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3">
       <c r="A69" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3">
       <c r="A70" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3">
       <c r="A71" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3">
       <c r="A72" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3">
       <c r="A73" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3">
       <c r="A74" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3">
       <c r="A75" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="18" t="s">
         <v>141</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="20" t="s">
+    <row r="76" spans="1:3">
+      <c r="A76" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3">
       <c r="A77" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="20" t="s">
+    <row r="78" spans="1:3">
+      <c r="A78" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3">
       <c r="A79" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3">
       <c r="A80" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3">
       <c r="A81" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3">
       <c r="A82" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3">
       <c r="A83" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3">
       <c r="A84" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3">
       <c r="A85" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3">
       <c r="A86" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B86" s="22" t="s">
+      <c r="B86" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3">
       <c r="A87" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B87" s="22" t="s">
+      <c r="B87" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3">
       <c r="A88" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B88" s="22" t="s">
+      <c r="B88" s="18" t="s">
         <v>142</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="20" t="s">
+    <row r="89" spans="1:3">
+      <c r="A89" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="B89" s="22" t="s">
+      <c r="B89" s="18" t="s">
         <v>143</v>
       </c>
       <c r="C89" s="18" t="s">
@@ -7663,7 +7638,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/resources/template.xlsx
+++ b/resources/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wolfkain/Projects/360/Apps/dualpresenter/dualpresenter/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62EE181C-D8AC-3949-ADA5-7092AB911EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C71547C-7E47-F647-9D7C-27E34D76E1CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34140" windowHeight="20600" xr2:uid="{31235C52-23CF-6F4B-906D-2BCD49615FB2}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t>Διευθύνων Σύμβουλος HELLENiQ ENERGY</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Unattended</t>
   </si>
   <si>
@@ -498,6 +495,9 @@
   </si>
   <si>
     <t>Μέσος Όρος Βαθμολογίας 19+</t>
+  </si>
+  <si>
+    <t>Display</t>
   </si>
 </sst>
 </file>
@@ -662,76 +662,6 @@
   <dxfs count="31">
     <dxf>
       <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="6"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -801,6 +731,76 @@
           <bgColor rgb="FFC5CBF2"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="6"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="6"/>
+        </top>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -1015,7 +1015,7 @@
     <tableColumn id="3" xr3:uid="{5BC695E7-5490-5647-A005-C433DAA5B19B}" name="Group" dataDxfId="15"/>
     <tableColumn id="4" xr3:uid="{0C3D6887-B103-F14F-9A95-9058AB0F7C1C}" name="From" dataDxfId="14"/>
     <tableColumn id="5" xr3:uid="{872D8E49-A803-AA40-AD08-83386EB17B64}" name="Until" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{6F06AFA4-A4D4-E242-AA22-F08727EA7CF0}" name="Main Only" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{6F06AFA4-A4D4-E242-AA22-F08727EA7CF0}" name="Display" dataDxfId="12"/>
     <tableColumn id="7" xr3:uid="{7A62BBC9-6DF9-694F-A31F-9635C8DE492C}" name="Precedence" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1023,16 +1023,16 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DD68603-088B-0B49-BA2F-E26D2888A5DB}" name="Names" displayName="Names" ref="A1:C89" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7DD68603-088B-0B49-BA2F-E26D2888A5DB}" name="Names" displayName="Names" ref="A1:C89" dataDxfId="10">
   <autoFilter ref="A1:C89" xr:uid="{7DD68603-088B-0B49-BA2F-E26D2888A5DB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C89">
     <sortCondition ref="B2:B89"/>
     <sortCondition ref="A2:A89"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{54EDEFF7-6D50-644B-86D9-EB6D272BB5CB}" name="Name" totalsRowLabel="Total" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{1FC3351A-5F59-8344-918E-0052C96220FD}" name="Group" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{DCF0A96D-147F-D842-B4A4-575507D6A1CD}" name="Attending" totalsRowFunction="count" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{54EDEFF7-6D50-644B-86D9-EB6D272BB5CB}" name="Name" totalsRowLabel="Total" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{1FC3351A-5F59-8344-918E-0052C96220FD}" name="Group" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{DCF0A96D-147F-D842-B4A4-575507D6A1CD}" name="Attending" totalsRowFunction="count" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1377,7 +1377,7 @@
   <sheetData>
     <row r="1" spans="1:39">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="12" t="s">
         <v>10</v>
@@ -1398,10 +1398,10 @@
         <v>9</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>17</v>
+        <v>143</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:39">
@@ -1448,7 +1448,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="6"/>
       <c r="AA4" t="str" cm="1">
@@ -1466,20 +1466,18 @@
       </c>
       <c r="C5" s="11"/>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I5" s="6"/>
       <c r="J5" s="1"/>
       <c r="AA5" t="str" cm="1">
         <f t="array" ref="AA5:AB5">IF(E5="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E5)))</f>
@@ -1498,10 +1496,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="1"/>
@@ -1520,20 +1518,18 @@
       </c>
       <c r="C7" s="11"/>
       <c r="E7" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I7" s="6"/>
       <c r="J7" s="1"/>
       <c r="AA7" t="str" cm="1">
         <f t="array" ref="AA7:AB7">IF(E7="", "", TRANSPOSE(_xlfn._xlws.FILTER(Names!$A:$A,Names!$B:$B=E7)))</f>
@@ -1565,10 +1561,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="1"/>
@@ -1586,10 +1582,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="1"/>
@@ -1608,7 +1604,7 @@
       </c>
       <c r="C11" s="11"/>
       <c r="E11" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="1"/>
@@ -1639,10 +1635,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I13" s="6"/>
       <c r="J13" s="1"/>
@@ -1660,10 +1656,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="6"/>
       <c r="J14" s="1"/>
@@ -1682,13 +1678,13 @@
       </c>
       <c r="C15" s="11"/>
       <c r="E15" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I15" s="6"/>
       <c r="J15" s="1"/>
@@ -1758,10 +1754,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>23</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>24</v>
       </c>
       <c r="I17" s="6"/>
       <c r="J17" s="1"/>
@@ -1781,13 +1777,13 @@
       <c r="C18" s="11"/>
       <c r="D18" s="4"/>
       <c r="E18" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I18" s="6"/>
       <c r="J18" s="1"/>
@@ -1855,10 +1851,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" s="4"/>
       <c r="I20" s="6"/>
@@ -1877,10 +1873,10 @@
         <v>1</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I21" s="6"/>
       <c r="J21" s="1"/>
@@ -1900,13 +1896,13 @@
       <c r="C22" s="11"/>
       <c r="D22" s="4"/>
       <c r="E22" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I22" s="6"/>
       <c r="J22" s="1"/>
@@ -2070,10 +2066,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="1"/>
@@ -2093,13 +2089,13 @@
       <c r="C25" s="11"/>
       <c r="D25" s="4"/>
       <c r="E25" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I25" s="6"/>
       <c r="J25" s="1"/>
@@ -2263,10 +2259,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="1"/>
@@ -2286,13 +2282,13 @@
       <c r="C28" s="11"/>
       <c r="D28" s="4"/>
       <c r="E28" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="1"/>
@@ -2456,10 +2452,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="1"/>
@@ -2479,13 +2475,13 @@
       <c r="C31" s="11"/>
       <c r="D31" s="4"/>
       <c r="E31" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I31" s="6"/>
       <c r="J31" s="1"/>
@@ -2649,10 +2645,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I33" s="6"/>
       <c r="J33" s="1"/>
@@ -2672,13 +2668,13 @@
       <c r="C34" s="11"/>
       <c r="D34" s="4"/>
       <c r="E34" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="1"/>
@@ -2842,10 +2838,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="1"/>
@@ -2865,13 +2861,13 @@
       <c r="C37" s="11"/>
       <c r="D37" s="4"/>
       <c r="E37" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I37" s="6"/>
       <c r="J37" s="1"/>
@@ -3035,10 +3031,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I39" s="6"/>
       <c r="J39" s="1"/>
@@ -3058,13 +3054,13 @@
       <c r="C40" s="11"/>
       <c r="D40" s="4"/>
       <c r="E40" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="1"/>
@@ -3225,10 +3221,10 @@
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D42" s="4"/>
       <c r="I42" s="6"/>
@@ -3247,10 +3243,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="1"/>
@@ -3270,13 +3266,13 @@
       <c r="C44" s="11"/>
       <c r="D44" s="4"/>
       <c r="E44" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I44" s="6"/>
       <c r="J44" s="1"/>
@@ -3392,10 +3388,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I46" s="6"/>
       <c r="J46" s="1"/>
@@ -3415,13 +3411,13 @@
       <c r="C47" s="11"/>
       <c r="D47" s="4"/>
       <c r="E47" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I47" s="6"/>
       <c r="J47" s="1"/>
@@ -3537,10 +3533,10 @@
         <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>106</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>107</v>
       </c>
       <c r="I49" s="6"/>
       <c r="J49" s="1"/>
@@ -3560,13 +3556,13 @@
       <c r="C50" s="11"/>
       <c r="D50" s="4"/>
       <c r="E50" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I50" s="6"/>
       <c r="J50" s="1"/>
@@ -3682,10 +3678,10 @@
         <v>1</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I52" s="6"/>
       <c r="J52" s="1"/>
@@ -3705,13 +3701,13 @@
       <c r="C53" s="11"/>
       <c r="D53" s="4"/>
       <c r="E53" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I53" s="6"/>
       <c r="J53" s="1"/>
@@ -3827,10 +3823,10 @@
         <v>1</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I55" s="6"/>
       <c r="J55" s="1"/>
@@ -3850,13 +3846,13 @@
       <c r="C56" s="11"/>
       <c r="D56" s="4"/>
       <c r="E56" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I56" s="6"/>
       <c r="J56" s="1"/>
@@ -3969,7 +3965,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="4"/>
@@ -6582,22 +6578,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:I59">
-    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="1" stopIfTrue="1">
       <formula>$B2="Category"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>$B2="Image"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="4" priority="13">
       <formula>$B2="Unattended"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="14">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>$B2="Names"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="15">
+    <cfRule type="expression" dxfId="2" priority="15">
       <formula>$B2="Title"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="16">
+    <cfRule type="expression" dxfId="1" priority="16">
       <formula>$B2="Blank"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6609,7 +6605,7 @@
       <formula1>_xlfn.ANCHORARRAY(AA2)</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H59" xr:uid="{00458457-181C-DD48-B0A3-3AA4591A8F19}">
-      <formula1>"Yes,No"</formula1>
+      <formula1>"Auto,Main Only,Side Only,Both"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{8912C3EE-AF9E-DB4D-B520-9FF14DF891AD}">
       <formula1>"Blank,Category,Title,Names,Unattended,Image"</formula1>
@@ -6670,10 +6666,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>6</v>
@@ -6681,10 +6677,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>6</v>
@@ -6692,10 +6688,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C4" s="18" t="s">
         <v>6</v>
@@ -6703,10 +6699,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="18" t="s">
         <v>6</v>
@@ -6714,10 +6710,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="18" t="s">
         <v>6</v>
@@ -6725,10 +6721,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C7" s="18" t="s">
         <v>6</v>
@@ -6736,10 +6732,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>6</v>
@@ -6747,10 +6743,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C9" s="18" t="s">
         <v>6</v>
@@ -6758,10 +6754,10 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>6</v>
@@ -6769,10 +6765,10 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>6</v>
@@ -6780,10 +6776,10 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="16" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>6</v>
@@ -6791,10 +6787,10 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="18" t="s">
         <v>6</v>
@@ -6802,10 +6798,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C14" s="18" t="s">
         <v>6</v>
@@ -6813,10 +6809,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>6</v>
@@ -6824,10 +6820,10 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>6</v>
@@ -6835,10 +6831,10 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>6</v>
@@ -6846,10 +6842,10 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>6</v>
@@ -6857,10 +6853,10 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>6</v>
@@ -6868,10 +6864,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>6</v>
@@ -6879,10 +6875,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>6</v>
@@ -6890,10 +6886,10 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>6</v>
@@ -6901,10 +6897,10 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>6</v>
@@ -6912,10 +6908,10 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>6</v>
@@ -6923,10 +6919,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>6</v>
@@ -6934,10 +6930,10 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>6</v>
@@ -6945,10 +6941,10 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>6</v>
@@ -6956,10 +6952,10 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>6</v>
@@ -6967,10 +6963,10 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="20" t="s">
         <v>139</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>140</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>6</v>
@@ -6978,10 +6974,10 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>6</v>
@@ -6989,10 +6985,10 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>6</v>
@@ -7000,10 +6996,10 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>6</v>
@@ -7011,10 +7007,10 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>6</v>
@@ -7022,10 +7018,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>6</v>
@@ -7033,10 +7029,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="16" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>6</v>
@@ -7044,10 +7040,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>6</v>
@@ -7055,10 +7051,10 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>6</v>
@@ -7066,10 +7062,10 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>6</v>
@@ -7077,10 +7073,10 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>6</v>
@@ -7088,10 +7084,10 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>6</v>
@@ -7099,10 +7095,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>6</v>
@@ -7110,10 +7106,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>6</v>
@@ -7121,10 +7117,10 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>6</v>
@@ -7132,10 +7128,10 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>6</v>
@@ -7143,10 +7139,10 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>6</v>
@@ -7154,10 +7150,10 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>6</v>
@@ -7165,10 +7161,10 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>6</v>
@@ -7176,10 +7172,10 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>6</v>
@@ -7187,10 +7183,10 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>6</v>
@@ -7198,10 +7194,10 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>6</v>
@@ -7209,10 +7205,10 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>6</v>
@@ -7220,10 +7216,10 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>6</v>
@@ -7231,10 +7227,10 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>6</v>
@@ -7242,10 +7238,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>6</v>
@@ -7253,10 +7249,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>6</v>
@@ -7264,10 +7260,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>6</v>
@@ -7275,10 +7271,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>6</v>
@@ -7286,10 +7282,10 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>6</v>
@@ -7297,10 +7293,10 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>6</v>
@@ -7308,10 +7304,10 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>6</v>
@@ -7319,10 +7315,10 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>6</v>
@@ -7330,10 +7326,10 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>6</v>
@@ -7341,10 +7337,10 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>6</v>
@@ -7352,10 +7348,10 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>6</v>
@@ -7363,10 +7359,10 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>6</v>
@@ -7374,10 +7370,10 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>6</v>
@@ -7385,10 +7381,10 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>6</v>
@@ -7396,10 +7392,10 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>6</v>
@@ -7407,10 +7403,10 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="16" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>6</v>
@@ -7418,10 +7414,10 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>6</v>
@@ -7429,10 +7425,10 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>6</v>
@@ -7440,10 +7436,10 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>6</v>
@@ -7451,10 +7447,10 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="19" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>6</v>
@@ -7462,10 +7458,10 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>6</v>
@@ -7473,10 +7469,10 @@
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>6</v>
@@ -7484,10 +7480,10 @@
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>6</v>
@@ -7495,10 +7491,10 @@
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>6</v>
@@ -7506,10 +7502,10 @@
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>6</v>
@@ -7517,10 +7513,10 @@
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>6</v>
@@ -7528,10 +7524,10 @@
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>6</v>
@@ -7539,10 +7535,10 @@
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>6</v>
@@ -7550,10 +7546,10 @@
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>6</v>
@@ -7561,10 +7557,10 @@
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>6</v>
@@ -7572,10 +7568,10 @@
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>6</v>
@@ -7583,10 +7579,10 @@
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>6</v>
@@ -7594,10 +7590,10 @@
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>6</v>
@@ -7605,10 +7601,10 @@
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>6</v>
@@ -7616,10 +7612,10 @@
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>6</v>
@@ -7627,10 +7623,10 @@
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>6</v>
@@ -7638,7 +7634,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
